--- a/Lifetime_Intrinseco.xlsx
+++ b/Lifetime_Intrinseco.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1582 +417,6002 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2.272385402357287E+16</v>
+        <v>2.029498807102842E+16</v>
       </c>
       <c r="B2">
-        <v>0.001102492169546252</v>
+        <v>0.001344621616374755</v>
       </c>
       <c r="C2">
-        <v>882305788878020.4</v>
+        <v>3488258658584.985</v>
       </c>
       <c r="D2">
-        <v>1002.515213003584</v>
+        <v>9584.348462861199</v>
       </c>
       <c r="E2">
-        <v>882305788878020.4</v>
+        <v>3488258658584.985</v>
       </c>
       <c r="F2">
-        <v>432.5232279887677</v>
+        <v>2620.820863703303</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2.023512616677853E+16</v>
+        <v>1.883143759659196E+16</v>
       </c>
       <c r="B3">
-        <v>0.001351583430584802</v>
+        <v>0.001531987976941237</v>
       </c>
       <c r="C3">
-        <v>906247254861812</v>
+        <v>3530258134792.778</v>
       </c>
       <c r="D3">
-        <v>1127.392911672799</v>
+        <v>9265.097773041558</v>
       </c>
       <c r="E3">
-        <v>906247254861812</v>
+        <v>3530258134792.778</v>
       </c>
       <c r="F3">
-        <v>433.5233081717572</v>
+        <v>2620.711987499154</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1.819504176076016E+16</v>
+        <v>1.735300191366612E+16</v>
       </c>
       <c r="B4">
-        <v>0.001626131350603101</v>
+        <v>0.001764908200004033</v>
       </c>
       <c r="C4">
-        <v>931531752070338.2</v>
+        <v>3552694072435.497</v>
       </c>
       <c r="D4">
-        <v>1081.486384836264</v>
+        <v>9247.86554420814</v>
       </c>
       <c r="E4">
-        <v>931531752070338.2</v>
+        <v>3552694072435.497</v>
       </c>
       <c r="F4">
-        <v>434.5803198192111</v>
+        <v>2620.65382911672</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1.64987433439142E+16</v>
+        <v>1.594216199176305E+16</v>
       </c>
       <c r="B5">
-        <v>0.001925043518097866</v>
+        <v>0.002041625370809205</v>
       </c>
       <c r="C5">
-        <v>957887651422253.4</v>
+        <v>3605978947579.999</v>
       </c>
       <c r="D5">
-        <v>1041.22360153166</v>
+        <v>9054.963434066129</v>
       </c>
       <c r="E5">
-        <v>957887651422253.4</v>
+        <v>3605978947579.999</v>
       </c>
       <c r="F5">
-        <v>435.6830433271578</v>
+        <v>2620.515712045653</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1.507420684820219E+16</v>
+        <v>1.465418155447296E+16</v>
       </c>
       <c r="B6">
-        <v>0.002246175945723101</v>
+        <v>0.002356594429237329</v>
       </c>
       <c r="C6">
-        <v>984285028387599</v>
+        <v>3639627660402.025</v>
       </c>
       <c r="D6">
-        <v>999.7783688794402</v>
+        <v>8758.848148689511</v>
       </c>
       <c r="E6">
-        <v>984285028387599</v>
+        <v>3639627660402.025</v>
       </c>
       <c r="F6">
-        <v>436.7884537481689</v>
+        <v>2620.428498586225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1.385877471348061E+16</v>
+        <v>1.348567375152574E+16</v>
       </c>
       <c r="B7">
-        <v>0.002589738069188685</v>
+        <v>0.002711433772511547</v>
       </c>
       <c r="C7">
-        <v>1011582891072402</v>
+        <v>3670702811756.087</v>
       </c>
       <c r="D7">
-        <v>963.151308860763</v>
+        <v>8507.399201816304</v>
       </c>
       <c r="E7">
-        <v>1011582891072402</v>
+        <v>3670702811756.087</v>
       </c>
       <c r="F7">
-        <v>437.9325769926608</v>
+        <v>2620.347959407158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1.28078254520632E+16</v>
+        <v>1.242433198390352E+16</v>
       </c>
       <c r="B8">
-        <v>0.002956072764529714</v>
+        <v>0.003109727172681688</v>
       </c>
       <c r="C8">
-        <v>1039739057987437</v>
+        <v>3689599395547.985</v>
       </c>
       <c r="D8">
-        <v>930.3346245713906</v>
+        <v>8300.742538543018</v>
       </c>
       <c r="E8">
-        <v>1039739057987437</v>
+        <v>3689599395547.985</v>
       </c>
       <c r="F8">
-        <v>439.1137450724324</v>
+        <v>2620.298985929984</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1.18894831708684E+16</v>
+        <v>1.145989746170802E+16</v>
       </c>
       <c r="B9">
-        <v>0.003345278711668849</v>
+        <v>0.003554818872375335</v>
       </c>
       <c r="C9">
-        <v>1068711596292133</v>
+        <v>3691812640024.562</v>
       </c>
       <c r="D9">
-        <v>902.5160781636177</v>
+        <v>8003.661100410493</v>
       </c>
       <c r="E9">
-        <v>1068711596292133</v>
+        <v>3691812640024.562</v>
       </c>
       <c r="F9">
-        <v>440.3302959638714</v>
+        <v>2620.293250048831</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1.107653700753396E+16</v>
+        <v>1.061016785146037E+16</v>
       </c>
       <c r="B10">
-        <v>0.003759244230085021</v>
+        <v>0.004033138937071484</v>
       </c>
       <c r="C10">
-        <v>1099155333768816</v>
+        <v>3767215411152.005</v>
       </c>
       <c r="D10">
-        <v>871.3005809595356</v>
+        <v>7659.375160911746</v>
       </c>
       <c r="E10">
-        <v>1099155333768816</v>
+        <v>3767215411152.005</v>
       </c>
       <c r="F10">
-        <v>441.6098609369604</v>
+        <v>2620.097846371486</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1.03626694575836E+16</v>
+        <v>9845525217272062</v>
       </c>
       <c r="B11">
-        <v>0.004191074897690624</v>
+        <v>0.004553205421817856</v>
       </c>
       <c r="C11">
-        <v>1129777292574482</v>
+        <v>3881941335750.142</v>
       </c>
       <c r="D11">
-        <v>842.4010965750545</v>
+        <v>7485.824260086411</v>
       </c>
       <c r="E11">
-        <v>1129777292574482</v>
+        <v>3881941335750.142</v>
       </c>
       <c r="F11">
-        <v>442.8981888690059</v>
+        <v>2619.80058059076</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>9718844837711070</v>
+        <v>9142383721148630</v>
       </c>
       <c r="B12">
-        <v>0.00464921922701189</v>
+        <v>0.005127846437628622</v>
       </c>
       <c r="C12">
-        <v>1160447030515774</v>
+        <v>4150531068881.376</v>
       </c>
       <c r="D12">
-        <v>824.1138243893301</v>
+        <v>7277.535158152299</v>
       </c>
       <c r="E12">
-        <v>1160447030515774</v>
+        <v>4150531068881.376</v>
       </c>
       <c r="F12">
-        <v>444.1897947574709</v>
+        <v>2619.104839753711</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>9138566480613020</v>
+        <v>8518170395694137</v>
       </c>
       <c r="B13">
-        <v>0.005131263318299588</v>
+        <v>0.005736596006080384</v>
       </c>
       <c r="C13">
-        <v>1193116100357150</v>
+        <v>4204129085427.44</v>
       </c>
       <c r="D13">
-        <v>800.9893425697765</v>
+        <v>6947.514444881934</v>
       </c>
       <c r="E13">
-        <v>1193116100357150</v>
+        <v>4204129085427.44</v>
       </c>
       <c r="F13">
-        <v>445.566991610077</v>
+        <v>2618.966035934854</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>8615821484200365</v>
+        <v>7960166946067989</v>
       </c>
       <c r="B14">
-        <v>0.005634283282447176</v>
+        <v>0.006379803184124331</v>
       </c>
       <c r="C14">
-        <v>1228109763961066</v>
+        <v>4336238542793.819</v>
       </c>
       <c r="D14">
-        <v>780.5961396990156</v>
+        <v>6709.952537821926</v>
       </c>
       <c r="E14">
-        <v>1228109763961066</v>
+        <v>4336238542793.819</v>
       </c>
       <c r="F14">
-        <v>447.0437828373938</v>
+        <v>2618.623957415835</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>8138102307699182</v>
+        <v>7449603852749927</v>
       </c>
       <c r="B15">
-        <v>0.006163183551164801</v>
+        <v>0.007070509174729945</v>
       </c>
       <c r="C15">
-        <v>1263440664322613</v>
+        <v>4481520593455.458</v>
       </c>
       <c r="D15">
-        <v>763.2319270540816</v>
+        <v>6576.030495221581</v>
       </c>
       <c r="E15">
-        <v>1263440664322613</v>
+        <v>4481520593455.458</v>
       </c>
       <c r="F15">
-        <v>448.5364793943099</v>
+        <v>2618.247849065416</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>7702979735635321</v>
+        <v>6978683385287186</v>
       </c>
       <c r="B16">
-        <v>0.006714139580877051</v>
+        <v>0.007814722736871447</v>
       </c>
       <c r="C16">
-        <v>1298977608006644</v>
+        <v>4485789180739.681</v>
       </c>
       <c r="D16">
-        <v>741.3158705594733</v>
+        <v>6374.201424202358</v>
       </c>
       <c r="E16">
-        <v>1298977608006644</v>
+        <v>4485789180739.681</v>
       </c>
       <c r="F16">
-        <v>450.0395586019557</v>
+        <v>2618.236799730027</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7306958957661560</v>
+        <v>6557122200830397</v>
       </c>
       <c r="B17">
-        <v>0.007284049609867843</v>
+        <v>0.008588000293868856</v>
       </c>
       <c r="C17">
-        <v>1336039735445682</v>
+        <v>4517152065267.674</v>
       </c>
       <c r="D17">
-        <v>724.8234293789615</v>
+        <v>6107.10042998576</v>
       </c>
       <c r="E17">
-        <v>1336039735445682</v>
+        <v>4517152065267.674</v>
       </c>
       <c r="F17">
-        <v>451.6089197598105</v>
+        <v>2618.155618373371</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6939492432737515</v>
+        <v>6174319843139646</v>
       </c>
       <c r="B18">
-        <v>0.007882017040589417</v>
+        <v>0.009396832507203629</v>
       </c>
       <c r="C18">
-        <v>1374434686341506</v>
+        <v>4764254251762.844</v>
       </c>
       <c r="D18">
-        <v>710.7926677127257</v>
+        <v>5969.709608530306</v>
       </c>
       <c r="E18">
-        <v>1374434686341506</v>
+        <v>4764254251762.844</v>
       </c>
       <c r="F18">
-        <v>453.2366141036142</v>
+        <v>2617.516140473879</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6602428057112894</v>
+        <v>5815962972352836</v>
       </c>
       <c r="B19">
-        <v>0.008499389043674931</v>
+        <v>0.01026510588145624</v>
       </c>
       <c r="C19">
-        <v>1416028122793578</v>
+        <v>5190734422703.187</v>
       </c>
       <c r="D19">
-        <v>695.8779118735742</v>
+        <v>5833.500352473551</v>
       </c>
       <c r="E19">
-        <v>1416028122793578</v>
+        <v>5190734422703.187</v>
       </c>
       <c r="F19">
-        <v>455.0020677342955</v>
+        <v>2616.413010817541</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6288491366411662</v>
+        <v>5491379348784380</v>
       </c>
       <c r="B20">
-        <v>0.009143761017016869</v>
+        <v>0.01116272404755398</v>
       </c>
       <c r="C20">
-        <v>1458320891247969</v>
+        <v>5221672464394.91</v>
       </c>
       <c r="D20">
-        <v>683.3161015598216</v>
+        <v>5571.498076951277</v>
       </c>
       <c r="E20">
-        <v>1458320891247969</v>
+        <v>5221672464394.91</v>
       </c>
       <c r="F20">
-        <v>456.7994766840073</v>
+        <v>2616.333014477942</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>5998274762365284</v>
+        <v>5199490836588972</v>
       </c>
       <c r="B21">
-        <v>0.009808666458060973</v>
+        <v>0.01207731268170891</v>
       </c>
       <c r="C21">
-        <v>1499365225678702</v>
+        <v>5551622485977.552</v>
       </c>
       <c r="D21">
-        <v>665.844951636609</v>
+        <v>5412.802113291182</v>
       </c>
       <c r="E21">
-        <v>1499365225678702</v>
+        <v>5551622485977.552</v>
       </c>
       <c r="F21">
-        <v>458.5459639680118</v>
+        <v>2615.480097719914</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>5730310944188637</v>
+        <v>4923908182543817</v>
       </c>
       <c r="B22">
-        <v>0.01049089909671618</v>
+        <v>0.01305105623442089</v>
       </c>
       <c r="C22">
-        <v>1542786548705695</v>
+        <v>5883740983414.199</v>
       </c>
       <c r="D22">
-        <v>655.8102342362045</v>
+        <v>5323.869753193489</v>
       </c>
       <c r="E22">
-        <v>1542786548705695</v>
+        <v>5883740983414.199</v>
       </c>
       <c r="F22">
-        <v>460.395831158088</v>
+        <v>2614.622006643536</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>5476604038006775</v>
+        <v>4670411560396624</v>
       </c>
       <c r="B23">
-        <v>0.01120642440433659</v>
+        <v>0.01405773551207265</v>
       </c>
       <c r="C23">
-        <v>1589777897879726</v>
+        <v>5900131549902.763</v>
       </c>
       <c r="D23">
-        <v>647.5261656178927</v>
+        <v>5124.505583787774</v>
       </c>
       <c r="E23">
-        <v>1589777897879726</v>
+        <v>5900131549902.763</v>
       </c>
       <c r="F23">
-        <v>462.4003341083909</v>
+        <v>2614.5796697159</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>5241275417058742</v>
+        <v>4440498492198954</v>
       </c>
       <c r="B24">
-        <v>0.01193946371511092</v>
+        <v>0.01507806445380127</v>
       </c>
       <c r="C24">
-        <v>1636923646503506</v>
+        <v>5994423031185.017</v>
       </c>
       <c r="D24">
-        <v>634.2970789796882</v>
+        <v>4989.148559384994</v>
       </c>
       <c r="E24">
-        <v>1636923646503506</v>
+        <v>5994423031185.017</v>
       </c>
       <c r="F24">
-        <v>464.4140098845094</v>
+        <v>2614.336134759114</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>5020466238814228</v>
+        <v>4222458429127240</v>
       </c>
       <c r="B25">
-        <v>0.01269655693118</v>
+        <v>0.01615510059925762</v>
       </c>
       <c r="C25">
-        <v>1685267674647156</v>
+        <v>6015584066417.097</v>
       </c>
       <c r="D25">
-        <v>624.3515469652548</v>
+        <v>4956.972334702325</v>
       </c>
       <c r="E25">
-        <v>1685267674647156</v>
+        <v>6015584066417.097</v>
       </c>
       <c r="F25">
-        <v>466.4814503827204</v>
+        <v>2614.281485075212</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>4813444826667600</v>
+        <v>4017230931248834</v>
       </c>
       <c r="B26">
-        <v>0.01347562264664601</v>
+        <v>0.01728119984525491</v>
       </c>
       <c r="C26">
-        <v>1735075354745283</v>
+        <v>6085703622529.208</v>
       </c>
       <c r="D26">
-        <v>613.2403583434252</v>
+        <v>4827.622997358383</v>
       </c>
       <c r="E26">
-        <v>1735075354745283</v>
+        <v>6085703622529.208</v>
       </c>
       <c r="F26">
-        <v>468.6141084024472</v>
+        <v>2614.100409544489</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>4619416032772963</v>
+        <v>3830272459658670</v>
       </c>
       <c r="B27">
-        <v>0.01427467522170066</v>
+        <v>0.01841609060238299</v>
       </c>
       <c r="C27">
-        <v>1786472606620246</v>
+        <v>6430744379745.473</v>
       </c>
       <c r="D27">
-        <v>605.0350136648658</v>
+        <v>4686.255228748196</v>
       </c>
       <c r="E27">
-        <v>1786472606620246</v>
+        <v>6430744379745.473</v>
       </c>
       <c r="F27">
-        <v>470.8175285350404</v>
+        <v>2613.209663595886</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>4435480490059078</v>
+        <v>3654078542401392</v>
       </c>
       <c r="B28">
-        <v>0.01510159329495471</v>
+        <v>0.01959452127184922</v>
       </c>
       <c r="C28">
-        <v>1839752347739466</v>
+        <v>6439867489943.49</v>
       </c>
       <c r="D28">
-        <v>599.0124061026104</v>
+        <v>4558.832807395345</v>
       </c>
       <c r="E28">
-        <v>1839752347739466</v>
+        <v>6439867489943.49</v>
       </c>
       <c r="F28">
-        <v>473.1044985919913</v>
+        <v>2613.186118021425</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>4261801218525885</v>
+        <v>3493376102736804</v>
       </c>
       <c r="B29">
-        <v>0.01595216472625741</v>
+        <v>0.02077412988930603</v>
       </c>
       <c r="C29">
-        <v>1895506387526052</v>
+        <v>6483168721096.779</v>
       </c>
       <c r="D29">
-        <v>590.3749669209756</v>
+        <v>4357.69407108982</v>
       </c>
       <c r="E29">
-        <v>1895506387526052</v>
+        <v>6483168721096.779</v>
       </c>
       <c r="F29">
-        <v>475.5008046905777</v>
+        <v>2613.074367573389</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>4098153976027432</v>
+        <v>3346254057302323</v>
       </c>
       <c r="B30">
-        <v>0.01682312954062058</v>
+        <v>0.02195318245231222</v>
       </c>
       <c r="C30">
-        <v>1953733984959254</v>
+        <v>6491798351855.877</v>
       </c>
       <c r="D30">
-        <v>579.1411894312814</v>
+        <v>4297.51087704672</v>
       </c>
       <c r="E30">
-        <v>1953733984959254</v>
+        <v>6491798351855.877</v>
       </c>
       <c r="F30">
-        <v>478.0069768700877</v>
+        <v>2613.05209737622</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>3944619349189684</v>
+        <v>3202716301920993</v>
       </c>
       <c r="B31">
-        <v>0.01770881151498018</v>
+        <v>0.02320633025035399</v>
       </c>
       <c r="C31">
-        <v>2014810270715752</v>
+        <v>6545837825562.425</v>
       </c>
       <c r="D31">
-        <v>568.9059425379028</v>
+        <v>4271.521865693372</v>
       </c>
       <c r="E31">
-        <v>2014810270715752</v>
+        <v>6545837825562.425</v>
       </c>
       <c r="F31">
-        <v>480.6399222912919</v>
+        <v>2612.91264618652</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>3799169774542862</v>
+        <v>3069884393846304</v>
       </c>
       <c r="B32">
-        <v>0.01861602596214549</v>
+        <v>0.02446749668933407</v>
       </c>
       <c r="C32">
-        <v>2075134029796034</v>
+        <v>6560917148025.092</v>
       </c>
       <c r="D32">
-        <v>565.9609213922481</v>
+        <v>4185.050144114677</v>
       </c>
       <c r="E32">
-        <v>2075134029796034</v>
+        <v>6560917148025.092</v>
       </c>
       <c r="F32">
-        <v>483.2449774521219</v>
+        <v>2612.873735394607</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>3659282767210228</v>
+        <v>2943254542268576</v>
       </c>
       <c r="B33">
-        <v>0.01955806323511446</v>
+        <v>0.02577144021865439</v>
       </c>
       <c r="C33">
-        <v>2140704626384807</v>
+        <v>6760204001791.853</v>
       </c>
       <c r="D33">
-        <v>557.4771061929114</v>
+        <v>4086.832867638208</v>
       </c>
       <c r="E33">
-        <v>2140704626384807</v>
+        <v>6760204001791.853</v>
       </c>
       <c r="F33">
-        <v>486.0824467042951</v>
+        <v>2612.359578172442</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>3529249522027403</v>
+        <v>2827028484704904</v>
       </c>
       <c r="B34">
-        <v>0.02050146597591915</v>
+        <v>0.02706557446920414</v>
       </c>
       <c r="C34">
-        <v>2209651628896771</v>
+        <v>6795039322147.786</v>
       </c>
       <c r="D34">
-        <v>549.47278399895</v>
+        <v>3965.482196073863</v>
       </c>
       <c r="E34">
-        <v>2209651628896771</v>
+        <v>6795039322147.786</v>
       </c>
       <c r="F34">
-        <v>489.0738133730703</v>
+        <v>2612.269719585121</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>3403384388308648</v>
+        <v>2716954898190332</v>
       </c>
       <c r="B35">
-        <v>0.02148333273665401</v>
+        <v>0.02838656523729146</v>
       </c>
       <c r="C35">
-        <v>2278852653516768</v>
+        <v>6820286386910.667</v>
       </c>
       <c r="D35">
-        <v>545.3762250632308</v>
+        <v>3939.795229105192</v>
       </c>
       <c r="E35">
-        <v>2278852653516768</v>
+        <v>6820286386910.667</v>
       </c>
       <c r="F35">
-        <v>492.0858789125073</v>
+        <v>2612.204597128401</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>3285086705740070</v>
+        <v>2611029311725861</v>
       </c>
       <c r="B36">
-        <v>0.02247408122815745</v>
+        <v>0.02975471235533521</v>
       </c>
       <c r="C36">
-        <v>2351583725136021</v>
+        <v>7052395558676.429</v>
       </c>
       <c r="D36">
-        <v>533.9164085640168</v>
+        <v>3878.373238083179</v>
       </c>
       <c r="E36">
-        <v>2351583725136021</v>
+        <v>7052395558676.429</v>
       </c>
       <c r="F36">
-        <v>495.2646670371637</v>
+        <v>2611.606010616672</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>3173088155777434</v>
+        <v>2512668938233396</v>
       </c>
       <c r="B37">
-        <v>0.02347877338697925</v>
+        <v>0.03111909570430758</v>
       </c>
       <c r="C37">
-        <v>2427963685154304</v>
+        <v>7230888185296.25</v>
       </c>
       <c r="D37">
-        <v>532.4868295899648</v>
+        <v>3783.611764078785</v>
       </c>
       <c r="E37">
-        <v>2427963685154304</v>
+        <v>7230888185296.25</v>
       </c>
       <c r="F37">
-        <v>498.6227304365852</v>
+        <v>2611.145840102445</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>3063924005679800</v>
+        <v>2419275163925846</v>
       </c>
       <c r="B38">
-        <v>0.02452655907504346</v>
+        <v>0.03250673998220709</v>
       </c>
       <c r="C38">
-        <v>2508773091198418</v>
+        <v>7582734381039.172</v>
       </c>
       <c r="D38">
-        <v>533.2898191369814</v>
+        <v>3619.802225162624</v>
       </c>
       <c r="E38">
-        <v>2508773091198418</v>
+        <v>7582734381039.172</v>
       </c>
       <c r="F38">
-        <v>502.2109212801479</v>
+        <v>2610.239115502175</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>2959911635582056</v>
+        <v>2336034509770160</v>
       </c>
       <c r="B39">
-        <v>0.02559384608996608</v>
+        <v>0.0338263785288946</v>
       </c>
       <c r="C39">
-        <v>2590766560251486</v>
+        <v>8141834144422.152</v>
       </c>
       <c r="D39">
-        <v>524.8293349205724</v>
+        <v>3585.177819616147</v>
       </c>
       <c r="E39">
-        <v>2590766560251486</v>
+        <v>8141834144422.152</v>
       </c>
       <c r="F39">
-        <v>505.9516808892595</v>
+        <v>2608.79929198228</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>2861629351834520</v>
+        <v>2250391990702134</v>
       </c>
       <c r="B40">
-        <v>0.02666996081420762</v>
+        <v>0.03527316308247478</v>
       </c>
       <c r="C40">
-        <v>2676025146471758</v>
+        <v>8799115166177.844</v>
       </c>
       <c r="D40">
-        <v>520.8685973026072</v>
+        <v>3594.770679697998</v>
       </c>
       <c r="E40">
-        <v>2676025146471758</v>
+        <v>8799115166177.844</v>
       </c>
       <c r="F40">
-        <v>509.9935118474918</v>
+        <v>2607.108203331695</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>2766254553212062</v>
+        <v>2172965667156729</v>
       </c>
       <c r="B41">
-        <v>0.02778282852954906</v>
+        <v>0.03666583570286996</v>
       </c>
       <c r="C41">
-        <v>2766254553212062</v>
+        <v>9309648337732.836</v>
       </c>
       <c r="D41">
-        <v>517.6026810092517</v>
+        <v>3564.606734756526</v>
       </c>
       <c r="E41">
-        <v>2766254553212062</v>
+        <v>9309648337732.836</v>
       </c>
       <c r="F41">
-        <v>514.3267789031661</v>
+        <v>2605.795852190291</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>2676025146471758</v>
+        <v>2094291348809432</v>
       </c>
       <c r="B42">
-        <v>0.02890341434354439</v>
+        <v>0.03817071497697885</v>
       </c>
       <c r="C42">
-        <v>2861629351834520</v>
+        <v>9511871408625.109</v>
       </c>
       <c r="D42">
-        <v>506.4734344034023</v>
+        <v>3635.531772207614</v>
       </c>
       <c r="E42">
-        <v>2861629351834520</v>
+        <v>9511871408625.109</v>
       </c>
       <c r="F42">
-        <v>518.941941036167</v>
+        <v>2605.27631226928</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>2590766560251486</v>
+        <v>2019591083524186</v>
       </c>
       <c r="B43">
-        <v>0.0300280845756507</v>
+        <v>0.03969064826729495</v>
       </c>
       <c r="C43">
-        <v>2959911635582056</v>
+        <v>9816928393078.363</v>
       </c>
       <c r="D43">
-        <v>499.3461613765649</v>
+        <v>3443.253624763805</v>
       </c>
       <c r="E43">
-        <v>2959911635582056</v>
+        <v>9816928393078.363</v>
       </c>
       <c r="F43">
-        <v>523.7263459835269</v>
+        <v>2604.492883068851</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>2508773091198418</v>
+        <v>1954194396471762</v>
       </c>
       <c r="B44">
-        <v>0.03117512601594983</v>
+        <v>0.04110027482649614</v>
       </c>
       <c r="C44">
-        <v>3063924005679800</v>
+        <v>10474405880815.57</v>
       </c>
       <c r="D44">
-        <v>503.3474325981842</v>
+        <v>3233.249115367478</v>
       </c>
       <c r="E44">
-        <v>3063924005679800</v>
+        <v>10474405880815.57</v>
       </c>
       <c r="F44">
-        <v>528.8107590531794</v>
+        <v>2602.80563918867</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>2427963685154304</v>
+        <v>1892272197631608</v>
       </c>
       <c r="B45">
-        <v>0.0323736263258373</v>
+        <v>0.04250840613909387</v>
       </c>
       <c r="C45">
-        <v>3173088155777434</v>
+        <v>11103532659371.53</v>
       </c>
       <c r="D45">
-        <v>503.2792591587395</v>
+        <v>3298.550486351654</v>
       </c>
       <c r="E45">
-        <v>3173088155777434</v>
+        <v>11103532659371.53</v>
       </c>
       <c r="F45">
-        <v>534.1541975803131</v>
+        <v>2601.192750489628</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>2351583725136021</v>
+        <v>1828468983976190</v>
       </c>
       <c r="B46">
-        <v>0.03357361422765076</v>
+        <v>0.04403974881060956</v>
       </c>
       <c r="C46">
-        <v>3285086705740070</v>
+        <v>11343324030338.68</v>
       </c>
       <c r="D46">
-        <v>493.389375347635</v>
+        <v>3324.134564474312</v>
       </c>
       <c r="E46">
-        <v>3285086705740070</v>
+        <v>11343324030338.68</v>
       </c>
       <c r="F46">
-        <v>539.6333104427365</v>
+        <v>2600.578410923362</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>2278852653516768</v>
+        <v>1769880286515352</v>
       </c>
       <c r="B47">
-        <v>0.03478185505354046</v>
+        <v>0.04552329274534528</v>
       </c>
       <c r="C47">
-        <v>3403384388308648</v>
+        <v>11358910967500.42</v>
       </c>
       <c r="D47">
-        <v>485.1294200910206</v>
+        <v>3216.895886216866</v>
       </c>
       <c r="E47">
-        <v>3403384388308648</v>
+        <v>11358910967500.42</v>
       </c>
       <c r="F47">
-        <v>545.4149688643962</v>
+        <v>2600.538485452349</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>2209651628896771</v>
+        <v>1713821000424611</v>
       </c>
       <c r="B48">
-        <v>0.03599548649602845</v>
+        <v>0.04701730849778651</v>
       </c>
       <c r="C48">
-        <v>3529249522027403</v>
+        <v>11515098327144.29</v>
       </c>
       <c r="D48">
-        <v>488.0625909314322</v>
+        <v>3222.269040842759</v>
       </c>
       <c r="E48">
-        <v>3529249522027403</v>
+        <v>11515098327144.29</v>
       </c>
       <c r="F48">
-        <v>551.5626643396618</v>
+        <v>2600.138469321354</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>2140704626384807</v>
+        <v>1658703422431100</v>
       </c>
       <c r="B49">
-        <v>0.03727154372971173</v>
+        <v>0.04856243314386544</v>
       </c>
       <c r="C49">
-        <v>3659282767210228</v>
+        <v>12218220802241.38</v>
       </c>
       <c r="D49">
-        <v>491.6352331805356</v>
+        <v>3262.984255001968</v>
       </c>
       <c r="E49">
-        <v>3659282767210228</v>
+        <v>12218220802241.38</v>
       </c>
       <c r="F49">
-        <v>557.8835643387204</v>
+        <v>2598.338877312793</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>2075134029796034</v>
+        <v>1604891415361329</v>
       </c>
       <c r="B50">
-        <v>0.03855174621601222</v>
+        <v>0.05014909758662207</v>
       </c>
       <c r="C50">
-        <v>3799169774542862</v>
+        <v>12274426259950.31</v>
       </c>
       <c r="D50">
-        <v>474.6223882773702</v>
+        <v>3115.574217179674</v>
       </c>
       <c r="E50">
-        <v>3799169774542862</v>
+        <v>12274426259950.31</v>
       </c>
       <c r="F50">
-        <v>564.6405428753465</v>
+        <v>2598.195107944945</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>2014810270715752</v>
+        <v>1558060208155664</v>
       </c>
       <c r="B51">
-        <v>0.03979112520380351</v>
+        <v>0.05159709877282124</v>
       </c>
       <c r="C51">
-        <v>3944619349189684</v>
+        <v>12855621131471.33</v>
       </c>
       <c r="D51">
-        <v>472.0126179528729</v>
+        <v>2972.135702856875</v>
       </c>
       <c r="E51">
-        <v>3944619349189684</v>
+        <v>12855621131471.33</v>
       </c>
       <c r="F51">
-        <v>571.6248829035133</v>
+        <v>2596.709188652353</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1953733984959254</v>
+        <v>1511672154662291</v>
       </c>
       <c r="B52">
-        <v>0.04111047461611876</v>
+        <v>0.05309710893852581</v>
       </c>
       <c r="C52">
-        <v>4098153976027432</v>
+        <v>13233480406889.83</v>
       </c>
       <c r="D52">
-        <v>479.5082054156355</v>
+        <v>2891.989104432811</v>
       </c>
       <c r="E52">
-        <v>4098153976027432</v>
+        <v>13233480406889.83</v>
       </c>
       <c r="F52">
-        <v>578.9608535373565</v>
+        <v>2595.743847957898</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1895506387526052</v>
+        <v>1470056021096046</v>
       </c>
       <c r="B53">
-        <v>0.0424330063139722</v>
+        <v>0.05450190496144568</v>
       </c>
       <c r="C53">
-        <v>4261801218525885</v>
+        <v>13310282950193.55</v>
       </c>
       <c r="D53">
-        <v>472.5766115705719</v>
+        <v>2834.796482489852</v>
       </c>
       <c r="E53">
-        <v>4261801218525885</v>
+        <v>13310282950193.55</v>
       </c>
       <c r="F53">
-        <v>586.737974518674</v>
+        <v>2595.547704912387</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1839752347739466</v>
+        <v>1427786510665152</v>
       </c>
       <c r="B54">
-        <v>0.04376272205354152</v>
+        <v>0.05598943759254099</v>
       </c>
       <c r="C54">
-        <v>4435480490059078</v>
+        <v>13379220341370.59</v>
       </c>
       <c r="D54">
-        <v>466.1384983392654</v>
+        <v>3057.034498506458</v>
       </c>
       <c r="E54">
-        <v>4435480490059078</v>
+        <v>13379220341370.59</v>
       </c>
       <c r="F54">
-        <v>594.9395218175266</v>
+        <v>2595.371668290706</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1786472606620246</v>
+        <v>1382250148753011</v>
       </c>
       <c r="B55">
-        <v>0.04509531214830829</v>
+        <v>0.05766456261577559</v>
       </c>
       <c r="C55">
-        <v>4619416032772963</v>
+        <v>13453404692272.75</v>
       </c>
       <c r="D55">
-        <v>461.275517201796</v>
+        <v>3053.3173411811</v>
       </c>
       <c r="E55">
-        <v>4619416032772963</v>
+        <v>13453404692272.75</v>
       </c>
       <c r="F55">
-        <v>603.5737454681345</v>
+        <v>2595.182254226747</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1735075354745283</v>
+        <v>1342898133077238</v>
       </c>
       <c r="B56">
-        <v>0.04644195711615784</v>
+        <v>0.05917658284081953</v>
       </c>
       <c r="C56">
-        <v>4813444826667600</v>
+        <v>14186448793110.69</v>
       </c>
       <c r="D56">
-        <v>459.7287987514644</v>
+        <v>2778.574941408006</v>
       </c>
       <c r="E56">
-        <v>4813444826667600</v>
+        <v>14186448793110.69</v>
       </c>
       <c r="F56">
-        <v>612.6020939573993</v>
+        <v>2593.311754596678</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1685267674647156</v>
+        <v>1307169425393212</v>
       </c>
       <c r="B57">
-        <v>0.04780798158758407</v>
+        <v>0.06060414618114005</v>
       </c>
       <c r="C57">
-        <v>5020466238814228</v>
+        <v>14233118417458.71</v>
       </c>
       <c r="D57">
-        <v>459.6194587495477</v>
+        <v>2768.236749203061</v>
       </c>
       <c r="E57">
-        <v>5020466238814228</v>
+        <v>14233118417458.71</v>
       </c>
       <c r="F57">
-        <v>622.163355676287</v>
+        <v>2593.192740481631</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1636923646503506</v>
+        <v>1270095664724274</v>
       </c>
       <c r="B58">
-        <v>0.04919501011583677</v>
+        <v>0.06214361906187488</v>
       </c>
       <c r="C58">
-        <v>5241275417058742</v>
+        <v>14367265807439.4</v>
       </c>
       <c r="D58">
-        <v>460.983788940548</v>
+        <v>2868.769727287872</v>
       </c>
       <c r="E58">
-        <v>5241275417058742</v>
+        <v>14367265807439.4</v>
       </c>
       <c r="F58">
-        <v>632.2673346823179</v>
+        <v>2592.850693880321</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1589777897879726</v>
+        <v>1233888424109698</v>
       </c>
       <c r="B59">
-        <v>0.05060936437232583</v>
+        <v>0.06370743449864161</v>
       </c>
       <c r="C59">
-        <v>5476604038006775</v>
+        <v>15339310703243.47</v>
       </c>
       <c r="D59">
-        <v>468.8051120943537</v>
+        <v>2847.601631230675</v>
       </c>
       <c r="E59">
-        <v>5476604038006775</v>
+        <v>15339310703243.47</v>
       </c>
       <c r="F59">
-        <v>642.9616137360197</v>
+        <v>2590.374325598744</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1542786548705695</v>
+        <v>1199435850049949</v>
       </c>
       <c r="B60">
-        <v>0.05208356916144889</v>
+        <v>0.0652538649593306</v>
       </c>
       <c r="C60">
-        <v>5730310944188637</v>
+        <v>15964394154685.3</v>
       </c>
       <c r="D60">
-        <v>464.3272114092651</v>
+        <v>2878.120705444366</v>
       </c>
       <c r="E60">
-        <v>5730310944188637</v>
+        <v>15964394154685.3</v>
       </c>
       <c r="F60">
-        <v>654.3780313652013</v>
+        <v>2588.78385366758</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1499365225678702</v>
+        <v>1164478379615000</v>
       </c>
       <c r="B61">
-        <v>0.05350656816824653</v>
+        <v>0.06688436240220774</v>
       </c>
       <c r="C61">
-        <v>5998274762365284</v>
+        <v>16151553591789.34</v>
       </c>
       <c r="D61">
-        <v>446.1149796771442</v>
+        <v>2809.815305867349</v>
       </c>
       <c r="E61">
-        <v>5998274762365284</v>
+        <v>16151553591789.34</v>
       </c>
       <c r="F61">
-        <v>666.2879794193207</v>
+        <v>2588.307944223847</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1458320891247969</v>
+        <v>1133648260094136</v>
       </c>
       <c r="B62">
-        <v>0.05490860103838599</v>
+        <v>0.06837639075787612</v>
       </c>
       <c r="C62">
-        <v>6288491366411662</v>
+        <v>16924241480275.39</v>
       </c>
       <c r="D62">
-        <v>453.2889857305672</v>
+        <v>2630.790198463161</v>
       </c>
       <c r="E62">
-        <v>6288491366411662</v>
+        <v>16924241480275.39</v>
       </c>
       <c r="F62">
-        <v>678.9739444592102</v>
+        <v>2586.34462475972</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1416028122793578</v>
+        <v>1104498974439108</v>
       </c>
       <c r="B63">
-        <v>0.05641459196531405</v>
+        <v>0.06983601983087984</v>
       </c>
       <c r="C63">
-        <v>6602428057112894</v>
+        <v>17323953500854.05</v>
       </c>
       <c r="D63">
-        <v>471.0570399090666</v>
+        <v>2728.01021824393</v>
       </c>
       <c r="E63">
-        <v>6602428057112894</v>
+        <v>17323953500854.05</v>
       </c>
       <c r="F63">
-        <v>692.3816666356355</v>
+        <v>2585.329928758161</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1374434686341506</v>
+        <v>1073070258207887</v>
       </c>
       <c r="B64">
-        <v>0.05795998425038672</v>
+        <v>0.07146572925168224</v>
       </c>
       <c r="C64">
-        <v>6939492432737515</v>
+        <v>18456489941931.88</v>
       </c>
       <c r="D64">
-        <v>462.9224572206767</v>
+        <v>2792.668966715515</v>
       </c>
       <c r="E64">
-        <v>6939492432737515</v>
+        <v>18456489941931.88</v>
       </c>
       <c r="F64">
-        <v>706.5650604734831</v>
+        <v>2582.45835191923</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1336039735445682</v>
+        <v>1044264070803474</v>
       </c>
       <c r="B65">
-        <v>0.05944648253538689</v>
+        <v>0.07301293460454272</v>
       </c>
       <c r="C65">
-        <v>7306958957661560</v>
+        <v>19695055208641.26</v>
       </c>
       <c r="D65">
-        <v>449.1696424989095</v>
+        <v>2603.152200845478</v>
       </c>
       <c r="E65">
-        <v>7306958957661560</v>
+        <v>19695055208641.26</v>
       </c>
       <c r="F65">
-        <v>721.7803442697606</v>
+        <v>2579.32375729667</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1298977608006644</v>
+        <v>1018416642862936</v>
       </c>
       <c r="B66">
-        <v>0.06093909976572719</v>
+        <v>0.07444685178176794</v>
       </c>
       <c r="C66">
-        <v>7702979735635321</v>
+        <v>20114798455315.62</v>
       </c>
       <c r="D66">
-        <v>444.7237869300366</v>
+        <v>2672.259022015147</v>
       </c>
       <c r="E66">
-        <v>7702979735635321</v>
+        <v>20114798455315.62</v>
       </c>
       <c r="F66">
-        <v>737.9485889135597</v>
+        <v>2578.262837856844</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1263440664322613</v>
+        <v>989561013938402.1</v>
       </c>
       <c r="B67">
-        <v>0.06242648462904859</v>
+        <v>0.07610104036523956</v>
       </c>
       <c r="C67">
-        <v>8138102307699182</v>
+        <v>20637171070337.96</v>
       </c>
       <c r="D67">
-        <v>446.7794528327358</v>
+        <v>2772.238001912861</v>
       </c>
       <c r="E67">
-        <v>8138102307699182</v>
+        <v>20637171070337.96</v>
       </c>
       <c r="F67">
-        <v>755.6891087400381</v>
+        <v>2576.943491788586</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1228109763961066</v>
+        <v>963290604859644.6</v>
       </c>
       <c r="B68">
-        <v>0.06396275507016283</v>
+        <v>0.07765827490807703</v>
       </c>
       <c r="C68">
-        <v>8615821484200365</v>
+        <v>21338700517011.26</v>
       </c>
       <c r="D68">
-        <v>456.8282933490318</v>
+        <v>2658.935643676436</v>
       </c>
       <c r="E68">
-        <v>8615821484200365</v>
+        <v>21338700517011.26</v>
       </c>
       <c r="F68">
-        <v>775.1679094292845</v>
+        <v>2575.173350617286</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1193116100357150</v>
+        <v>938086374977186.1</v>
       </c>
       <c r="B69">
-        <v>0.065543957095063</v>
+        <v>0.07920035467594347</v>
       </c>
       <c r="C69">
-        <v>9138566480613020</v>
+        <v>21865182151613.85</v>
       </c>
       <c r="D69">
-        <v>452.6550948078075</v>
+        <v>2581.275579605601</v>
       </c>
       <c r="E69">
-        <v>9138566480613020</v>
+        <v>21865182151613.85</v>
       </c>
       <c r="F69">
-        <v>796.494426939294</v>
+        <v>2573.846177876011</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1160447030515774</v>
+        <v>914624526395972</v>
       </c>
       <c r="B70">
-        <v>0.06707652342705045</v>
+        <v>0.0806799692343</v>
       </c>
       <c r="C70">
-        <v>9718844837711070</v>
+        <v>22421667927982.1</v>
       </c>
       <c r="D70">
-        <v>435.4331263362474</v>
+        <v>2548.321672305115</v>
       </c>
       <c r="E70">
-        <v>9718844837711070</v>
+        <v>22421667927982.1</v>
       </c>
       <c r="F70">
-        <v>820.1861700222449</v>
+        <v>2572.444558912306</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1129777292574482</v>
+        <v>891244495902349.2</v>
       </c>
       <c r="B71">
-        <v>0.06856743724443815</v>
+        <v>0.08219856917171041</v>
       </c>
       <c r="C71">
-        <v>1.03626694575836E+16</v>
+        <v>23225813459296.46</v>
       </c>
       <c r="D71">
-        <v>433.0324163598852</v>
+        <v>2344.824023273308</v>
       </c>
       <c r="E71">
-        <v>1.03626694575836E+16</v>
+        <v>23225813459296.46</v>
       </c>
       <c r="F71">
-        <v>846.3825911726992</v>
+        <v>2570.421316255879</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1099155333768816</v>
+        <v>872611444720048.8</v>
       </c>
       <c r="B72">
-        <v>0.07010893887597583</v>
+        <v>0.08344163123680712</v>
       </c>
       <c r="C72">
-        <v>1.107653700753396E+16</v>
+        <v>23588506332557.3</v>
       </c>
       <c r="D72">
-        <v>444.1269977331867</v>
+        <v>2259.579534711898</v>
       </c>
       <c r="E72">
-        <v>1.107653700753396E+16</v>
+        <v>23588506332557.3</v>
       </c>
       <c r="F72">
-        <v>875.285358886072</v>
+        <v>2569.509608031054</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1068711596292133</v>
+        <v>851600641723211.5</v>
       </c>
       <c r="B73">
-        <v>0.0716964884912942</v>
+        <v>0.08487954215865594</v>
       </c>
       <c r="C73">
-        <v>1.18894831708684E+16</v>
+        <v>23591337998311.1</v>
       </c>
       <c r="D73">
-        <v>444.7666218156437</v>
+        <v>2567.8793397462</v>
       </c>
       <c r="E73">
-        <v>1.18894831708684E+16</v>
+        <v>23591337998311.1</v>
       </c>
       <c r="F73">
-        <v>908.1387244262326</v>
+        <v>2569.502492051351</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1039739057987437</v>
+        <v>828674629859616.8</v>
       </c>
       <c r="B74">
-        <v>0.07326079162186189</v>
+        <v>0.08649400812815621</v>
       </c>
       <c r="C74">
-        <v>1.28078254520632E+16</v>
+        <v>23603342335188.16</v>
       </c>
       <c r="D74">
-        <v>439.6936437745298</v>
+        <v>2617.23503996424</v>
       </c>
       <c r="E74">
-        <v>1.28078254520632E+16</v>
+        <v>23603342335188.16</v>
       </c>
       <c r="F74">
-        <v>944.8427148000245</v>
+        <v>2569.472325487191</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1011582891072402</v>
+        <v>808032301819601.4</v>
       </c>
       <c r="B75">
-        <v>0.07483342345092256</v>
+        <v>0.08798989164353312</v>
       </c>
       <c r="C75">
-        <v>1.385877471348061E+16</v>
+        <v>23855919237549.35</v>
       </c>
       <c r="D75">
-        <v>438.9395145804692</v>
+        <v>2577.243163883453</v>
       </c>
       <c r="E75">
-        <v>1.385877471348061E+16</v>
+        <v>23855919237549.35</v>
       </c>
       <c r="F75">
-        <v>986.779753544062</v>
+        <v>2568.837738050205</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>984285028387599</v>
+        <v>786841050536275.4</v>
       </c>
       <c r="B76">
-        <v>0.07640979047259973</v>
+        <v>0.08956887829528522</v>
       </c>
       <c r="C76">
-        <v>1.507420684820219E+16</v>
+        <v>24324451272151.12</v>
       </c>
       <c r="D76">
-        <v>437.0160640203712</v>
+        <v>2523.979452893836</v>
       </c>
       <c r="E76">
-        <v>1.507420684820219E+16</v>
+        <v>24324451272151.12</v>
       </c>
       <c r="F76">
-        <v>1035.033324476728</v>
+        <v>2567.661237102161</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>957887651422253.4</v>
+        <v>768137193745549.9</v>
       </c>
       <c r="B77">
-        <v>0.07798481213651841</v>
+        <v>0.09100039291175926</v>
       </c>
       <c r="C77">
-        <v>1.64987433439142E+16</v>
+        <v>24822127062621.84</v>
       </c>
       <c r="D77">
-        <v>441.570629060383</v>
+        <v>2285.06673011207</v>
       </c>
       <c r="E77">
-        <v>1.64987433439142E+16</v>
+        <v>24822127062621.84</v>
       </c>
       <c r="F77">
-        <v>1091.349419201996</v>
+        <v>2566.412498791341</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>931531752070338.2</v>
+        <v>751567334992138</v>
       </c>
       <c r="B78">
-        <v>0.07960935710266147</v>
+        <v>0.09229931262465932</v>
       </c>
       <c r="C78">
-        <v>1.819504176076016E+16</v>
+        <v>25937204933614.24</v>
       </c>
       <c r="D78">
-        <v>444.8314226463772</v>
+        <v>2197.60768625827</v>
       </c>
       <c r="E78">
-        <v>1.819504176076016E+16</v>
+        <v>25937204933614.24</v>
       </c>
       <c r="F78">
-        <v>1158.174165384809</v>
+        <v>2563.61813663422</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>906247254861812</v>
+        <v>734941336330010.9</v>
       </c>
       <c r="B79">
-        <v>0.08121893616498571</v>
+        <v>0.09363262638847959</v>
       </c>
       <c r="C79">
-        <v>2.023512616677853E+16</v>
+        <v>26590260702299.93</v>
       </c>
       <c r="D79">
-        <v>435.8597847647834</v>
+        <v>2348.754786353093</v>
       </c>
       <c r="E79">
-        <v>2.023512616677853E+16</v>
+        <v>26590260702299.93</v>
       </c>
       <c r="F79">
-        <v>1238.309704929434</v>
+        <v>2561.983850957696</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>882305788878020.4</v>
+        <v>716886411337499.8</v>
       </c>
       <c r="B80">
-        <v>0.08279119525169409</v>
+        <v>0.09511569934851201</v>
       </c>
       <c r="C80">
-        <v>2.272385402357287E+16</v>
+        <v>27011114357235.26</v>
       </c>
       <c r="D80">
-        <v>433.0635587963043</v>
+        <v>2522.49763596931</v>
       </c>
       <c r="E80">
-        <v>2.272385402357287E+16</v>
+        <v>27011114357235.26</v>
       </c>
       <c r="F80">
-        <v>1335.83650868056</v>
+        <v>2560.931537946863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>698623710902106.1</v>
+      </c>
+      <c r="B81">
+        <v>0.09665439243539645</v>
+      </c>
+      <c r="C81">
+        <v>27689185969374</v>
+      </c>
+      <c r="D81">
+        <v>2463.756741081015</v>
+      </c>
+      <c r="E81">
+        <v>27689185969374</v>
+      </c>
+      <c r="F81">
+        <v>2559.237522822156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>682317072600849.8</v>
+      </c>
+      <c r="B82">
+        <v>0.09806219735573063</v>
+      </c>
+      <c r="C82">
+        <v>28545664212888.55</v>
+      </c>
+      <c r="D82">
+        <v>2416.581360389479</v>
+      </c>
+      <c r="E82">
+        <v>28545664212888.55</v>
+      </c>
+      <c r="F82">
+        <v>2557.100355728561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>665507056449772.5</v>
+      </c>
+      <c r="B83">
+        <v>0.0995481144720349</v>
+      </c>
+      <c r="C83">
+        <v>29432692302747.41</v>
+      </c>
+      <c r="D83">
+        <v>2508.464001410059</v>
+      </c>
+      <c r="E83">
+        <v>29432692302747.41</v>
+      </c>
+      <c r="F83">
+        <v>2554.889962978991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>648795357117496.8</v>
+      </c>
+      <c r="B84">
+        <v>0.1010613968013539</v>
+      </c>
+      <c r="C84">
+        <v>30636624465984.41</v>
+      </c>
+      <c r="D84">
+        <v>2329.09995654691</v>
+      </c>
+      <c r="E84">
+        <v>30636624465984.41</v>
+      </c>
+      <c r="F84">
+        <v>2551.894751742435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>635156475410925.1</v>
+      </c>
+      <c r="B85">
+        <v>0.1023239339811935</v>
+      </c>
+      <c r="C85">
+        <v>31521042557933.54</v>
+      </c>
+      <c r="D85">
+        <v>2159.221254039701</v>
+      </c>
+      <c r="E85">
+        <v>31521042557933.54</v>
+      </c>
+      <c r="F85">
+        <v>2549.69801117989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>621242343671618.1</v>
+      </c>
+      <c r="B86">
+        <v>0.1036382062000741</v>
+      </c>
+      <c r="C86">
+        <v>32197697955194.25</v>
+      </c>
+      <c r="D86">
+        <v>2299.580972062889</v>
+      </c>
+      <c r="E86">
+        <v>32197697955194.25</v>
+      </c>
+      <c r="F86">
+        <v>2548.019347763347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>606464647218124.5</v>
+      </c>
+      <c r="B87">
+        <v>0.105063944689034</v>
+      </c>
+      <c r="C87">
+        <v>32910238582033.7</v>
+      </c>
+      <c r="D87">
+        <v>2517.331883070641</v>
+      </c>
+      <c r="E87">
+        <v>32910238582033.7</v>
+      </c>
+      <c r="F87">
+        <v>2546.253556055666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>590593441054750.9</v>
+      </c>
+      <c r="B88">
+        <v>0.1066305647678359</v>
+      </c>
+      <c r="C88">
+        <v>33916261248941.96</v>
+      </c>
+      <c r="D88">
+        <v>2385.788516844623</v>
+      </c>
+      <c r="E88">
+        <v>33916261248941.96</v>
+      </c>
+      <c r="F88">
+        <v>2543.763770626844</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>578173252460117.4</v>
+      </c>
+      <c r="B89">
+        <v>0.1078828833839016</v>
+      </c>
+      <c r="C89">
+        <v>35342007988597.16</v>
+      </c>
+      <c r="D89">
+        <v>2199.033965125796</v>
+      </c>
+      <c r="E89">
+        <v>35342007988597.16</v>
+      </c>
+      <c r="F89">
+        <v>2540.241813181935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>565057803302981.1</v>
+      </c>
+      <c r="B90">
+        <v>0.1092311601647731</v>
+      </c>
+      <c r="C90">
+        <v>36352835277324.03</v>
+      </c>
+      <c r="D90">
+        <v>2348.373026844769</v>
+      </c>
+      <c r="E90">
+        <v>36352835277324.03</v>
+      </c>
+      <c r="F90">
+        <v>2537.749472434645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>551530461464775.1</v>
+      </c>
+      <c r="B91">
+        <v>0.1106503927010651</v>
+      </c>
+      <c r="C91">
+        <v>36774995123515.84</v>
+      </c>
+      <c r="D91">
+        <v>2181.486816215795</v>
+      </c>
+      <c r="E91">
+        <v>36774995123515.84</v>
+      </c>
+      <c r="F91">
+        <v>2536.709715264099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>540894985855028.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1117871810300083</v>
+      </c>
+      <c r="C92">
+        <v>37497273521292.23</v>
+      </c>
+      <c r="D92">
+        <v>2030.091590061318</v>
+      </c>
+      <c r="E92">
+        <v>37497273521292.23</v>
+      </c>
+      <c r="F92">
+        <v>2534.932333121351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>529472361952919.4</v>
+      </c>
+      <c r="B93">
+        <v>0.1130291929035082</v>
+      </c>
+      <c r="C93">
+        <v>39191725857511.2</v>
+      </c>
+      <c r="D93">
+        <v>2356.075415315572</v>
+      </c>
+      <c r="E93">
+        <v>39191725857511.2</v>
+      </c>
+      <c r="F93">
+        <v>2530.770279215471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>515851761834518.5</v>
+      </c>
+      <c r="B94">
+        <v>0.1145395038830811</v>
+      </c>
+      <c r="C94">
+        <v>39953161766123.96</v>
+      </c>
+      <c r="D94">
+        <v>2425.571130935568</v>
+      </c>
+      <c r="E94">
+        <v>39953161766123.96</v>
+      </c>
+      <c r="F94">
+        <v>2528.90345445811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>504357585091351.4</v>
+      </c>
+      <c r="B95">
+        <v>0.115839511009036</v>
+      </c>
+      <c r="C95">
+        <v>40554777157118.08</v>
+      </c>
+      <c r="D95">
+        <v>2183.101632374339</v>
+      </c>
+      <c r="E95">
+        <v>40554777157118.08</v>
+      </c>
+      <c r="F95">
+        <v>2527.429980682037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>493743405808326.8</v>
+      </c>
+      <c r="B96">
+        <v>0.1170612645825221</v>
+      </c>
+      <c r="C96">
+        <v>41371394039219.38</v>
+      </c>
+      <c r="D96">
+        <v>2334.579919158947</v>
+      </c>
+      <c r="E96">
+        <v>41371394039219.38</v>
+      </c>
+      <c r="F96">
+        <v>2525.432060310231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>481219559872273.6</v>
+      </c>
+      <c r="B97">
+        <v>0.118529799325127</v>
+      </c>
+      <c r="C97">
+        <v>42333144356525.59</v>
+      </c>
+      <c r="D97">
+        <v>2504.799034974538</v>
+      </c>
+      <c r="E97">
+        <v>42333144356525.59</v>
+      </c>
+      <c r="F97">
+        <v>2523.082201073749</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>469555041952599.8</v>
+      </c>
+      <c r="B98">
+        <v>0.1199245317422571</v>
+      </c>
+      <c r="C98">
+        <v>42977273973165.34</v>
+      </c>
+      <c r="D98">
+        <v>2140.592835511081</v>
+      </c>
+      <c r="E98">
+        <v>42977273973165.34</v>
+      </c>
+      <c r="F98">
+        <v>2521.510284771513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>461038728276640.1</v>
+      </c>
+      <c r="B99">
+        <v>0.1209596720091657</v>
+      </c>
+      <c r="C99">
+        <v>44625483629686.48</v>
+      </c>
+      <c r="D99">
+        <v>1865.261768187396</v>
+      </c>
+      <c r="E99">
+        <v>44625483629686.48</v>
+      </c>
+      <c r="F99">
+        <v>2517.494944119252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>452279653527273.1</v>
+      </c>
+      <c r="B100">
+        <v>0.1220394813252909</v>
+      </c>
+      <c r="C100">
+        <v>46098471577449.38</v>
+      </c>
+      <c r="D100">
+        <v>1943.882036183495</v>
+      </c>
+      <c r="E100">
+        <v>46098471577449.38</v>
+      </c>
+      <c r="F100">
+        <v>2513.914850749128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>443381042181280.2</v>
+      </c>
+      <c r="B101">
+        <v>0.1231525611995884</v>
+      </c>
+      <c r="C101">
+        <v>46898867155586.39</v>
+      </c>
+      <c r="D101">
+        <v>2069.513279139996</v>
+      </c>
+      <c r="E101">
+        <v>46898867155586.39</v>
+      </c>
+      <c r="F101">
+        <v>2511.972792863205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>433855989269133.2</v>
+      </c>
+      <c r="B102">
+        <v>0.1243623320956275</v>
+      </c>
+      <c r="C102">
+        <v>48317719909777.12</v>
+      </c>
+      <c r="D102">
+        <v>2471.1488572089</v>
+      </c>
+      <c r="E102">
+        <v>48317719909777.12</v>
+      </c>
+      <c r="F102">
+        <v>2508.535818881117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>421868814646003.9</v>
+      </c>
+      <c r="B103">
+        <v>0.1259124109099621</v>
+      </c>
+      <c r="C103">
+        <v>49659479866568.7</v>
+      </c>
+      <c r="D103">
+        <v>2637.780584146734</v>
+      </c>
+      <c r="E103">
+        <v>49659479866568.7</v>
+      </c>
+      <c r="F103">
+        <v>2505.292262956432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>411533032016593.5</v>
+      </c>
+      <c r="B104">
+        <v>0.1272742715042163</v>
+      </c>
+      <c r="C104">
+        <v>51034584456779.09</v>
+      </c>
+      <c r="D104">
+        <v>2549.733651523013</v>
+      </c>
+      <c r="E104">
+        <v>51034584456779.09</v>
+      </c>
+      <c r="F104">
+        <v>2501.974796233494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>400818153545264.7</v>
+      </c>
+      <c r="B105">
+        <v>0.1287115073521485</v>
+      </c>
+      <c r="C105">
+        <v>52682891885839.38</v>
+      </c>
+      <c r="D105">
+        <v>2357.104786910117</v>
+      </c>
+      <c r="E105">
+        <v>52682891885839.38</v>
+      </c>
+      <c r="F105">
+        <v>2498.007099540986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>392575342613940.4</v>
+      </c>
+      <c r="B106">
+        <v>0.1298351914807142</v>
+      </c>
+      <c r="C106">
+        <v>54306882168664.92</v>
+      </c>
+      <c r="D106">
+        <v>1915.909765226766</v>
+      </c>
+      <c r="E106">
+        <v>54306882168664.92</v>
+      </c>
+      <c r="F106">
+        <v>2494.107328603602</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>385714902023727.9</v>
+      </c>
+      <c r="B107">
+        <v>0.1307826425069914</v>
+      </c>
+      <c r="C107">
+        <v>55320079000963.69</v>
+      </c>
+      <c r="D107">
+        <v>1771.351582536241</v>
+      </c>
+      <c r="E107">
+        <v>55320079000963.69</v>
+      </c>
+      <c r="F107">
+        <v>2491.678969024726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>378851622930479.9</v>
+      </c>
+      <c r="B108">
+        <v>0.1317417928054007</v>
+      </c>
+      <c r="C108">
+        <v>56715273994291.16</v>
+      </c>
+      <c r="D108">
+        <v>2028.195373366587</v>
+      </c>
+      <c r="E108">
+        <v>56715273994291.16</v>
+      </c>
+      <c r="F108">
+        <v>2488.340903068235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>370289685581753.9</v>
+      </c>
+      <c r="B109">
+        <v>0.1329544830221012</v>
+      </c>
+      <c r="C109">
+        <v>57633574794981.15</v>
+      </c>
+      <c r="D109">
+        <v>2278.100492807571</v>
+      </c>
+      <c r="E109">
+        <v>57633574794981.15</v>
+      </c>
+      <c r="F109">
+        <v>2486.147497730763</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>361924778903925.1</v>
+      </c>
+      <c r="B110">
+        <v>0.1341569291793692</v>
+      </c>
+      <c r="C110">
+        <v>58525713946869.67</v>
+      </c>
+      <c r="D110">
+        <v>2256.912306150887</v>
+      </c>
+      <c r="E110">
+        <v>58525713946869.67</v>
+      </c>
+      <c r="F110">
+        <v>2484.019356831217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>353899080397779.4</v>
+      </c>
+      <c r="B111">
+        <v>0.1353273725603899</v>
+      </c>
+      <c r="C111">
+        <v>60109032116154.54</v>
+      </c>
+      <c r="D111">
+        <v>2091.788667082554</v>
+      </c>
+      <c r="E111">
+        <v>60109032116154.54</v>
+      </c>
+      <c r="F111">
+        <v>2480.249161409407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>347066834530198.1</v>
+      </c>
+      <c r="B112">
+        <v>0.1363369556609655</v>
+      </c>
+      <c r="C112">
+        <v>60858715340730.24</v>
+      </c>
+      <c r="D112">
+        <v>2137.929954244522</v>
+      </c>
+      <c r="E112">
+        <v>60858715340730.24</v>
+      </c>
+      <c r="F112">
+        <v>2478.467000744506</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>339008075667130.6</v>
+      </c>
+      <c r="B113">
+        <v>0.1375436772802373</v>
+      </c>
+      <c r="C113">
+        <v>61657900575946.95</v>
+      </c>
+      <c r="D113">
+        <v>2230.680330249481</v>
+      </c>
+      <c r="E113">
+        <v>61657900575946.95</v>
+      </c>
+      <c r="F113">
+        <v>2476.569270022778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>331893166999496.1</v>
+      </c>
+      <c r="B114">
+        <v>0.138623644174607</v>
+      </c>
+      <c r="C114">
+        <v>63712663053519.41</v>
+      </c>
+      <c r="D114">
+        <v>2109.976717020385</v>
+      </c>
+      <c r="E114">
+        <v>63712663053519.41</v>
+      </c>
+      <c r="F114">
+        <v>2471.700033454187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>324954454505776.7</v>
+      </c>
+      <c r="B115">
+        <v>0.139690288599949</v>
+      </c>
+      <c r="C115">
+        <v>65113110563566.96</v>
+      </c>
+      <c r="D115">
+        <v>1856.81134225335</v>
+      </c>
+      <c r="E115">
+        <v>65113110563566.96</v>
+      </c>
+      <c r="F115">
+        <v>2468.389556771201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>319779059674018.3</v>
+      </c>
+      <c r="B116">
+        <v>0.1404946450507649</v>
+      </c>
+      <c r="C116">
+        <v>67184301303261.45</v>
+      </c>
+      <c r="D116">
+        <v>1783.43543783389</v>
+      </c>
+      <c r="E116">
+        <v>67184301303261.45</v>
+      </c>
+      <c r="F116">
+        <v>2463.505692350114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>313502826473936.5</v>
+      </c>
+      <c r="B117">
+        <v>0.1414803173827655</v>
+      </c>
+      <c r="C117">
+        <v>69794917628613.66</v>
+      </c>
+      <c r="D117">
+        <v>2208.065525524318</v>
+      </c>
+      <c r="E117">
+        <v>69794917628613.66</v>
+      </c>
+      <c r="F117">
+        <v>2457.370447643358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>305890046490063.8</v>
+      </c>
+      <c r="B118">
+        <v>0.1426911895639632</v>
+      </c>
+      <c r="C118">
+        <v>71415430674902.59</v>
+      </c>
+      <c r="D118">
+        <v>2335.838454682846</v>
+      </c>
+      <c r="E118">
+        <v>71415430674902.59</v>
+      </c>
+      <c r="F118">
+        <v>2453.573540305685</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>299169757391454.3</v>
+      </c>
+      <c r="B119">
+        <v>0.1437742981829477</v>
+      </c>
+      <c r="C119">
+        <v>72940218052680.09</v>
+      </c>
+      <c r="D119">
+        <v>2302.680879750289</v>
+      </c>
+      <c r="E119">
+        <v>72940218052680.09</v>
+      </c>
+      <c r="F119">
+        <v>2450.008900693213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>292070580303233</v>
+      </c>
+      <c r="B120">
+        <v>0.1449332102097895</v>
+      </c>
+      <c r="C120">
+        <v>74784502329872.69</v>
+      </c>
+      <c r="D120">
+        <v>2180.930701227859</v>
+      </c>
+      <c r="E120">
+        <v>74784502329872.69</v>
+      </c>
+      <c r="F120">
+        <v>2445.707627325839</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>286389739319122.8</v>
+      </c>
+      <c r="B121">
+        <v>0.1458716852597896</v>
+      </c>
+      <c r="C121">
+        <v>75983456087492.52</v>
+      </c>
+      <c r="D121">
+        <v>1821.779997810721</v>
+      </c>
+      <c r="E121">
+        <v>75983456087492.52</v>
+      </c>
+      <c r="F121">
+        <v>2442.917419665004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>281596532349082</v>
+      </c>
+      <c r="B122">
+        <v>0.1466713232397753</v>
+      </c>
+      <c r="C122">
+        <v>77665809916656.48</v>
+      </c>
+      <c r="D122">
+        <v>1768.815476531163</v>
+      </c>
+      <c r="E122">
+        <v>77665809916656.48</v>
+      </c>
+      <c r="F122">
+        <v>2439.010209261487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>276389494919974.2</v>
+      </c>
+      <c r="B123">
+        <v>0.1475482069277962</v>
+      </c>
+      <c r="C123">
+        <v>77990446598303.34</v>
+      </c>
+      <c r="D123">
+        <v>2189.815118387341</v>
+      </c>
+      <c r="E123">
+        <v>77990446598303.34</v>
+      </c>
+      <c r="F123">
+        <v>2438.257321284673</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>269454230160946</v>
+      </c>
+      <c r="B124">
+        <v>0.1487296128120603</v>
+      </c>
+      <c r="C124">
+        <v>80096200663272.88</v>
+      </c>
+      <c r="D124">
+        <v>2384.734554993454</v>
+      </c>
+      <c r="E124">
+        <v>80096200663272.88</v>
+      </c>
+      <c r="F124">
+        <v>2433.382122944275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>263501724540577.2</v>
+      </c>
+      <c r="B125">
+        <v>0.1497560990854238</v>
+      </c>
+      <c r="C125">
+        <v>81298434928748.75</v>
+      </c>
+      <c r="D125">
+        <v>2247.652492933907</v>
+      </c>
+      <c r="E125">
+        <v>81298434928748.75</v>
+      </c>
+      <c r="F125">
+        <v>2430.605275585145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>257573833216125.8</v>
+      </c>
+      <c r="B126">
+        <v>0.150790011881166</v>
+      </c>
+      <c r="C126">
+        <v>82799319714457.89</v>
+      </c>
+      <c r="D126">
+        <v>2022.971605843399</v>
+      </c>
+      <c r="E126">
+        <v>82799319714457.89</v>
+      </c>
+      <c r="F126">
+        <v>2427.145316911085</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>253046270271874.8</v>
+      </c>
+      <c r="B127">
+        <v>0.1515876539644424</v>
+      </c>
+      <c r="C127">
+        <v>85886627087010.39</v>
+      </c>
+      <c r="D127">
+        <v>2070.879520807415</v>
+      </c>
+      <c r="E127">
+        <v>85886627087010.39</v>
+      </c>
+      <c r="F127">
+        <v>2420.051716588619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>247059880305798.3</v>
+      </c>
+      <c r="B128">
+        <v>0.1526530651957417</v>
+      </c>
+      <c r="C128">
+        <v>88202067682139.31</v>
+      </c>
+      <c r="D128">
+        <v>2635.622452689335</v>
+      </c>
+      <c r="E128">
+        <v>88202067682139.31</v>
+      </c>
+      <c r="F128">
+        <v>2414.752499791493</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>239990770111012.6</v>
+      </c>
+      <c r="B129">
+        <v>0.1539272178204617</v>
+      </c>
+      <c r="C129">
+        <v>90078272837375.92</v>
+      </c>
+      <c r="D129">
+        <v>2552.455417273566</v>
+      </c>
+      <c r="E129">
+        <v>90078272837375.92</v>
+      </c>
+      <c r="F129">
+        <v>2410.471745167804</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>234777383110857.2</v>
+      </c>
+      <c r="B130">
+        <v>0.1548782230477065</v>
+      </c>
+      <c r="C130">
+        <v>91414836477820.92</v>
+      </c>
+      <c r="D130">
+        <v>1841.016762781888</v>
+      </c>
+      <c r="E130">
+        <v>91414836477820.92</v>
+      </c>
+      <c r="F130">
+        <v>2407.429484336813</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>231315870479227</v>
+      </c>
+      <c r="B131">
+        <v>0.1555150547732489</v>
+      </c>
+      <c r="C131">
+        <v>94326628345569.03</v>
+      </c>
+      <c r="D131">
+        <v>1445.395591777749</v>
+      </c>
+      <c r="E131">
+        <v>94326628345569.03</v>
+      </c>
+      <c r="F131">
+        <v>2400.822754794088</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>228060775963615</v>
+      </c>
+      <c r="B132">
+        <v>0.1561178860601186</v>
+      </c>
+      <c r="C132">
+        <v>96031083438957.36</v>
+      </c>
+      <c r="D132">
+        <v>1580.525035148486</v>
+      </c>
+      <c r="E132">
+        <v>96031083438957.36</v>
+      </c>
+      <c r="F132">
+        <v>2396.968917344404</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>224077538677595.3</v>
+      </c>
+      <c r="B133">
+        <v>0.1568608648115282</v>
+      </c>
+      <c r="C133">
+        <v>97347338039338.41</v>
+      </c>
+      <c r="D133">
+        <v>1822.655493991449</v>
+      </c>
+      <c r="E133">
+        <v>97347338039338.41</v>
+      </c>
+      <c r="F133">
+        <v>2393.999700879378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>219863882595950.4</v>
+      </c>
+      <c r="B134">
+        <v>0.1576532422343929</v>
+      </c>
+      <c r="C134">
+        <v>100081370684443.4</v>
+      </c>
+      <c r="D134">
+        <v>2126.773062437773</v>
+      </c>
+      <c r="E134">
+        <v>100081370684443.4</v>
+      </c>
+      <c r="F134">
+        <v>2387.851653903653</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>214697634934318.2</v>
+      </c>
+      <c r="B135">
+        <v>0.1586338822808779</v>
+      </c>
+      <c r="C135">
+        <v>102803309408717.4</v>
+      </c>
+      <c r="D135">
+        <v>2710.815155005082</v>
+      </c>
+      <c r="E135">
+        <v>102803309408717.4</v>
+      </c>
+      <c r="F135">
+        <v>2381.757243838506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>208196702225411.5</v>
+      </c>
+      <c r="B136">
+        <v>0.1598823855097981</v>
+      </c>
+      <c r="C136">
+        <v>106213692035386.2</v>
+      </c>
+      <c r="D136">
+        <v>2875.320948942215</v>
+      </c>
+      <c r="E136">
+        <v>106213692035386.2</v>
+      </c>
+      <c r="F136">
+        <v>2374.159411977615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>202698944413849.8</v>
+      </c>
+      <c r="B137">
+        <v>0.1609510778626317</v>
+      </c>
+      <c r="C137">
+        <v>108678651376386</v>
+      </c>
+      <c r="D137">
+        <v>2727.845450036228</v>
+      </c>
+      <c r="E137">
+        <v>108678651376386</v>
+      </c>
+      <c r="F137">
+        <v>2368.694651401998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>197112886713763.6</v>
+      </c>
+      <c r="B138">
+        <v>0.1620492140700497</v>
+      </c>
+      <c r="C138">
+        <v>110739342931270.8</v>
+      </c>
+      <c r="D138">
+        <v>2735.402588747442</v>
+      </c>
+      <c r="E138">
+        <v>110739342931270.8</v>
+      </c>
+      <c r="F138">
+        <v>2364.143693990086</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>191890954868192</v>
+      </c>
+      <c r="B139">
+        <v>0.1630871530439059</v>
+      </c>
+      <c r="C139">
+        <v>113034664890522.8</v>
+      </c>
+      <c r="D139">
+        <v>2133.509002592415</v>
+      </c>
+      <c r="E139">
+        <v>113034664890522.8</v>
+      </c>
+      <c r="F139">
+        <v>2359.093687364828</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>188901332799066.6</v>
+      </c>
+      <c r="B140">
+        <v>0.1636864102983303</v>
+      </c>
+      <c r="C140">
+        <v>115957337282407.4</v>
+      </c>
+      <c r="D140">
+        <v>1721.923673968762</v>
+      </c>
+      <c r="E140">
+        <v>115957337282407.4</v>
+      </c>
+      <c r="F140">
+        <v>2352.693196333339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>185362400446771.2</v>
+      </c>
+      <c r="B141">
+        <v>0.1644005618223007</v>
+      </c>
+      <c r="C141">
+        <v>118601451723622.4</v>
+      </c>
+      <c r="D141">
+        <v>1611.19823744148</v>
+      </c>
+      <c r="E141">
+        <v>118601451723622.4</v>
+      </c>
+      <c r="F141">
+        <v>2346.932153884317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>182905671248000.8</v>
+      </c>
+      <c r="B142">
+        <v>0.1648994076998266</v>
+      </c>
+      <c r="C142">
+        <v>121268904141749</v>
+      </c>
+      <c r="D142">
+        <v>1434.690456244163</v>
+      </c>
+      <c r="E142">
+        <v>121268904141749</v>
+      </c>
+      <c r="F142">
+        <v>2341.149335306309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>180091956119302.6</v>
+      </c>
+      <c r="B143">
+        <v>0.1654738722810229</v>
+      </c>
+      <c r="C143">
+        <v>123912163363779.2</v>
+      </c>
+      <c r="D143">
+        <v>1791.891579039395</v>
+      </c>
+      <c r="E143">
+        <v>123912163363779.2</v>
+      </c>
+      <c r="F143">
+        <v>2335.44856866198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>176429799240802.5</v>
+      </c>
+      <c r="B144">
+        <v>0.166226616437791</v>
+      </c>
+      <c r="C144">
+        <v>127048277416476</v>
+      </c>
+      <c r="D144">
+        <v>1969.67972042039</v>
+      </c>
+      <c r="E144">
+        <v>127048277416476</v>
+      </c>
+      <c r="F144">
+        <v>2328.72429654031</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>173120524543218.7</v>
+      </c>
+      <c r="B145">
+        <v>0.1669117985020701</v>
+      </c>
+      <c r="C145">
+        <v>129742035698475.1</v>
+      </c>
+      <c r="D145">
+        <v>2223.936424309388</v>
+      </c>
+      <c r="E145">
+        <v>129742035698475.1</v>
+      </c>
+      <c r="F145">
+        <v>2322.983828890239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>168708874481329.3</v>
+      </c>
+      <c r="B146">
+        <v>0.1678326586542942</v>
+      </c>
+      <c r="C146">
+        <v>132238428805838.7</v>
+      </c>
+      <c r="D146">
+        <v>2406.376103227492</v>
+      </c>
+      <c r="E146">
+        <v>132238428805838.7</v>
+      </c>
+      <c r="F146">
+        <v>2317.694123962006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>164980880048719</v>
+      </c>
+      <c r="B147">
+        <v>0.1686175222192224</v>
+      </c>
+      <c r="C147">
+        <v>134571084073386.4</v>
+      </c>
+      <c r="D147">
+        <v>2149.409151860978</v>
+      </c>
+      <c r="E147">
+        <v>134571084073386.4</v>
+      </c>
+      <c r="F147">
+        <v>2312.778514406642</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>161597077560227.9</v>
+      </c>
+      <c r="B148">
+        <v>0.1693353086402573</v>
+      </c>
+      <c r="C148">
+        <v>138092899340183.2</v>
+      </c>
+      <c r="D148">
+        <v>2250.932576558553</v>
+      </c>
+      <c r="E148">
+        <v>138092899340183.2</v>
+      </c>
+      <c r="F148">
+        <v>2305.408818079441</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>157686911479218.6</v>
+      </c>
+      <c r="B149">
+        <v>0.1701712128445153</v>
+      </c>
+      <c r="C149">
+        <v>141207530812496.2</v>
+      </c>
+      <c r="D149">
+        <v>2322.924679170363</v>
+      </c>
+      <c r="E149">
+        <v>141207530812496.2</v>
+      </c>
+      <c r="F149">
+        <v>2298.945707702236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>154252648458688.7</v>
+      </c>
+      <c r="B150">
+        <v>0.1709111658125225</v>
+      </c>
+      <c r="C150">
+        <v>144214353183987.2</v>
+      </c>
+      <c r="D150">
+        <v>2387.65908915177</v>
+      </c>
+      <c r="E150">
+        <v>144214353183987.2</v>
+      </c>
+      <c r="F150">
+        <v>2292.757487400019</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>150302806094155.7</v>
+      </c>
+      <c r="B151">
+        <v>0.1717689842356853</v>
+      </c>
+      <c r="C151">
+        <v>146748553332511.4</v>
+      </c>
+      <c r="D151">
+        <v>2490.503918379545</v>
+      </c>
+      <c r="E151">
+        <v>146748553332511.4</v>
+      </c>
+      <c r="F151">
+        <v>2287.582972559735</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>146748553332511.4</v>
+      </c>
+      <c r="B152">
+        <v>0.1725471663917407</v>
+      </c>
+      <c r="C152">
+        <v>150302806094155.7</v>
+      </c>
+      <c r="D152">
+        <v>2068.655226301402</v>
+      </c>
+      <c r="E152">
+        <v>150302806094155.7</v>
+      </c>
+      <c r="F152">
+        <v>2280.392471672033</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>144214353183987.2</v>
+      </c>
+      <c r="B153">
+        <v>0.1731056883169617</v>
+      </c>
+      <c r="C153">
+        <v>154252648458688.7</v>
+      </c>
+      <c r="D153">
+        <v>1915.329645613208</v>
+      </c>
+      <c r="E153">
+        <v>154252648458688.7</v>
+      </c>
+      <c r="F153">
+        <v>2272.499249095977</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>141207530812496.2</v>
+      </c>
+      <c r="B154">
+        <v>0.1737723834601507</v>
+      </c>
+      <c r="C154">
+        <v>157686911479218.6</v>
+      </c>
+      <c r="D154">
+        <v>2161.783368807286</v>
+      </c>
+      <c r="E154">
+        <v>157686911479218.6</v>
+      </c>
+      <c r="F154">
+        <v>2265.725785322695</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>138092899340183.2</v>
+      </c>
+      <c r="B155">
+        <v>0.1744676196223066</v>
+      </c>
+      <c r="C155">
+        <v>161597077560227.9</v>
+      </c>
+      <c r="D155">
+        <v>2397.160377860302</v>
+      </c>
+      <c r="E155">
+        <v>161597077560227.9</v>
+      </c>
+      <c r="F155">
+        <v>2258.122329232704</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>134571084073386.4</v>
+      </c>
+      <c r="B156">
+        <v>0.1752594962661657</v>
+      </c>
+      <c r="C156">
+        <v>164980880048719</v>
+      </c>
+      <c r="D156">
+        <v>2169.527649149299</v>
+      </c>
+      <c r="E156">
+        <v>164980880048719</v>
+      </c>
+      <c r="F156">
+        <v>2251.642096340963</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>132238428805838.7</v>
+      </c>
+      <c r="B157">
+        <v>0.1757873883380522</v>
+      </c>
+      <c r="C157">
+        <v>168708874481329.3</v>
+      </c>
+      <c r="D157">
+        <v>1820.198239348829</v>
+      </c>
+      <c r="E157">
+        <v>168708874481329.3</v>
+      </c>
+      <c r="F157">
+        <v>2244.61715030226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>129742035698475.1</v>
+      </c>
+      <c r="B158">
+        <v>0.1763553646441142</v>
+      </c>
+      <c r="C158">
+        <v>173120524543218.7</v>
+      </c>
+      <c r="D158">
+        <v>1994.510744743049</v>
+      </c>
+      <c r="E158">
+        <v>173120524543218.7</v>
+      </c>
+      <c r="F158">
+        <v>2236.469872188743</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>127048277416476</v>
+      </c>
+      <c r="B159">
+        <v>0.1769717916810759</v>
+      </c>
+      <c r="C159">
+        <v>176429799240802.5</v>
+      </c>
+      <c r="D159">
+        <v>2288.702541729435</v>
+      </c>
+      <c r="E159">
+        <v>176429799240802.5</v>
+      </c>
+      <c r="F159">
+        <v>2230.484326696857</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>123912163363779.2</v>
+      </c>
+      <c r="B160">
+        <v>0.1776941317831803</v>
+      </c>
+      <c r="C160">
+        <v>180091956119302.6</v>
+      </c>
+      <c r="D160">
+        <v>2326.416728512384</v>
+      </c>
+      <c r="E160">
+        <v>180091956119302.6</v>
+      </c>
+      <c r="F160">
+        <v>2223.994257551455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>121268904141749</v>
+      </c>
+      <c r="B161">
+        <v>0.1783069108310814</v>
+      </c>
+      <c r="C161">
+        <v>182905671248000.8</v>
+      </c>
+      <c r="D161">
+        <v>2184.034485737793</v>
+      </c>
+      <c r="E161">
+        <v>182905671248000.8</v>
+      </c>
+      <c r="F161">
+        <v>2219.108334705211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>118601451723622.4</v>
+      </c>
+      <c r="B162">
+        <v>0.1789290088576266</v>
+      </c>
+      <c r="C162">
+        <v>185362400446771.2</v>
+      </c>
+      <c r="D162">
+        <v>2233.661547078751</v>
+      </c>
+      <c r="E162">
+        <v>185362400446771.2</v>
+      </c>
+      <c r="F162">
+        <v>2214.917276112818</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>115957337282407.4</v>
+      </c>
+      <c r="B163">
+        <v>0.179549380702317</v>
+      </c>
+      <c r="C163">
+        <v>188901332799066.6</v>
+      </c>
+      <c r="D163">
+        <v>2394.790394046344</v>
+      </c>
+      <c r="E163">
+        <v>188901332799066.6</v>
+      </c>
+      <c r="F163">
+        <v>2209.00921766384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>113034664890522.8</v>
+      </c>
+      <c r="B164">
+        <v>0.1802394612886719</v>
+      </c>
+      <c r="C164">
+        <v>191890954868192</v>
+      </c>
+      <c r="D164">
+        <v>2302.590818073601</v>
+      </c>
+      <c r="E164">
+        <v>191890954868192</v>
+      </c>
+      <c r="F164">
+        <v>2204.143648989807</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>110739342931270.8</v>
+      </c>
+      <c r="B165">
+        <v>0.1807846540738326</v>
+      </c>
+      <c r="C165">
+        <v>197112886713763.6</v>
+      </c>
+      <c r="D165">
+        <v>1961.255337084644</v>
+      </c>
+      <c r="E165">
+        <v>197112886713763.6</v>
+      </c>
+      <c r="F165">
+        <v>2195.942360905011</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>108678651376386</v>
+      </c>
+      <c r="B166">
+        <v>0.1812765671029881</v>
+      </c>
+      <c r="C166">
+        <v>202698944413849.8</v>
+      </c>
+      <c r="D166">
+        <v>2076.608638949692</v>
+      </c>
+      <c r="E166">
+        <v>202698944413849.8</v>
+      </c>
+      <c r="F166">
+        <v>2187.630110645358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>106213692035386.2</v>
+      </c>
+      <c r="B167">
+        <v>0.1818680577472245</v>
+      </c>
+      <c r="C167">
+        <v>208196702225411.5</v>
+      </c>
+      <c r="D167">
+        <v>2760.313455492258</v>
+      </c>
+      <c r="E167">
+        <v>208196702225411.5</v>
+      </c>
+      <c r="F167">
+        <v>2179.977405887767</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>102803309408717.4</v>
+      </c>
+      <c r="B168">
+        <v>0.1826919937355515</v>
+      </c>
+      <c r="C168">
+        <v>214697634934318.2</v>
+      </c>
+      <c r="D168">
+        <v>2977.07686152216</v>
+      </c>
+      <c r="E168">
+        <v>214697634934318.2</v>
+      </c>
+      <c r="F168">
+        <v>2171.723427001228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>100081370684443.4</v>
+      </c>
+      <c r="B169">
+        <v>0.1833543106069211</v>
+      </c>
+      <c r="C169">
+        <v>219863882595950.4</v>
+      </c>
+      <c r="D169">
+        <v>2720.313787437975</v>
+      </c>
+      <c r="E169">
+        <v>219863882595950.4</v>
+      </c>
+      <c r="F169">
+        <v>2166.648114748868</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>97347338039338.41</v>
+      </c>
+      <c r="B170">
+        <v>0.1840238296674728</v>
+      </c>
+      <c r="C170">
+        <v>224077538677595.3</v>
+      </c>
+      <c r="D170">
+        <v>2074.893605023623</v>
+      </c>
+      <c r="E170">
+        <v>224077538677595.3</v>
+      </c>
+      <c r="F170">
+        <v>2165.064672960268</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>96031083438957.36</v>
+      </c>
+      <c r="B171">
+        <v>0.1843476957958064</v>
+      </c>
+      <c r="C171">
+        <v>228060775963615</v>
+      </c>
+      <c r="D171">
+        <v>1567.352523789741</v>
+      </c>
+      <c r="E171">
+        <v>228060775963615</v>
+      </c>
+      <c r="F171">
+        <v>2163.967504227689</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>94326628345569.03</v>
+      </c>
+      <c r="B172">
+        <v>0.1847685763999347</v>
+      </c>
+      <c r="C172">
+        <v>231315870479227</v>
+      </c>
+      <c r="D172">
+        <v>2441.535755172372</v>
+      </c>
+      <c r="E172">
+        <v>231315870479227</v>
+      </c>
+      <c r="F172">
+        <v>2163.343534731132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>91414836477820.92</v>
+      </c>
+      <c r="B173">
+        <v>0.1854915278731144</v>
+      </c>
+      <c r="C173">
+        <v>234777383110857.2</v>
+      </c>
+      <c r="D173">
+        <v>2318.277412220836</v>
+      </c>
+      <c r="E173">
+        <v>234777383110857.2</v>
+      </c>
+      <c r="F173">
+        <v>2162.871067200508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>90078272837375.92</v>
+      </c>
+      <c r="B174">
+        <v>0.1858250562204693</v>
+      </c>
+      <c r="C174">
+        <v>239990770111012.6</v>
+      </c>
+      <c r="D174">
+        <v>1777.939196839929</v>
+      </c>
+      <c r="E174">
+        <v>239990770111012.6</v>
+      </c>
+      <c r="F174">
+        <v>2162.449425621334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>88202067682139.31</v>
+      </c>
+      <c r="B175">
+        <v>0.1862950488189213</v>
+      </c>
+      <c r="C175">
+        <v>247059880305798.3</v>
+      </c>
+      <c r="D175">
+        <v>2370.792877994478</v>
+      </c>
+      <c r="E175">
+        <v>247059880305798.3</v>
+      </c>
+      <c r="F175">
+        <v>2162.148183815121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>85886627087010.39</v>
+      </c>
+      <c r="B176">
+        <v>0.1868779958133908</v>
+      </c>
+      <c r="C176">
+        <v>253046270271874.8</v>
+      </c>
+      <c r="D176">
+        <v>3139.927843336016</v>
+      </c>
+      <c r="E176">
+        <v>253046270271874.8</v>
+      </c>
+      <c r="F176">
+        <v>2162.080958613306</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>82799319714457.89</v>
+      </c>
+      <c r="B177">
+        <v>0.1876603572712422</v>
+      </c>
+      <c r="C177">
+        <v>257573833216125.8</v>
+      </c>
+      <c r="D177">
+        <v>2765.341426461935</v>
+      </c>
+      <c r="E177">
+        <v>257573833216125.8</v>
+      </c>
+      <c r="F177">
+        <v>2162.172496252745</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>81298434928748.75</v>
+      </c>
+      <c r="B178">
+        <v>0.1880428227930612</v>
+      </c>
+      <c r="C178">
+        <v>263501724540577.2</v>
+      </c>
+      <c r="D178">
+        <v>1657.148906648159</v>
+      </c>
+      <c r="E178">
+        <v>263501724540577.2</v>
+      </c>
+      <c r="F178">
+        <v>2162.461480895705</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>80096200663272.88</v>
+      </c>
+      <c r="B179">
+        <v>0.1883501955795128</v>
+      </c>
+      <c r="C179">
+        <v>269454230160946</v>
+      </c>
+      <c r="D179">
+        <v>2059.700256310403</v>
+      </c>
+      <c r="E179">
+        <v>269454230160946</v>
+      </c>
+      <c r="F179">
+        <v>2162.990696361893</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>77990446598303.34</v>
+      </c>
+      <c r="B180">
+        <v>0.1888907547654476</v>
+      </c>
+      <c r="C180">
+        <v>276389494919974.2</v>
+      </c>
+      <c r="D180">
+        <v>1552.839560389519</v>
+      </c>
+      <c r="E180">
+        <v>276389494919974.2</v>
+      </c>
+      <c r="F180">
+        <v>2163.912788898467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>77665809916656.48</v>
+      </c>
+      <c r="B181">
+        <v>0.1889743399152194</v>
+      </c>
+      <c r="C181">
+        <v>281596532349082</v>
+      </c>
+      <c r="D181">
+        <v>1286.776506140828</v>
+      </c>
+      <c r="E181">
+        <v>281596532349082</v>
+      </c>
+      <c r="F181">
+        <v>2164.866830257418</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>75983456087492.52</v>
+      </c>
+      <c r="B182">
+        <v>0.1894085737352134</v>
+      </c>
+      <c r="C182">
+        <v>286389739319122.8</v>
+      </c>
+      <c r="D182">
+        <v>1890.730233736336</v>
+      </c>
+      <c r="E182">
+        <v>286389739319122.8</v>
+      </c>
+      <c r="F182">
+        <v>2165.823747212525</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>74784502329872.69</v>
+      </c>
+      <c r="B183">
+        <v>0.1897191409630081</v>
+      </c>
+      <c r="C183">
+        <v>292070580303233</v>
+      </c>
+      <c r="D183">
+        <v>2029.400633577257</v>
+      </c>
+      <c r="E183">
+        <v>292070580303233</v>
+      </c>
+      <c r="F183">
+        <v>2167.055591348173</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>72940218052680.09</v>
+      </c>
+      <c r="B184">
+        <v>0.1901986783087017</v>
+      </c>
+      <c r="C184">
+        <v>299169757391454.3</v>
+      </c>
+      <c r="D184">
+        <v>2304.216965100728</v>
+      </c>
+      <c r="E184">
+        <v>299169757391454.3</v>
+      </c>
+      <c r="F184">
+        <v>2168.759440348046</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>71415430674902.59</v>
+      </c>
+      <c r="B185">
+        <v>0.190596811639259</v>
+      </c>
+      <c r="C185">
+        <v>305890046490063.8</v>
+      </c>
+      <c r="D185">
+        <v>2196.868743754923</v>
+      </c>
+      <c r="E185">
+        <v>305890046490063.8</v>
+      </c>
+      <c r="F185">
+        <v>2170.453808833875</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>69794917628613.66</v>
+      </c>
+      <c r="B186">
+        <v>0.1910216109029275</v>
+      </c>
+      <c r="C186">
+        <v>313502826473936.5</v>
+      </c>
+      <c r="D186">
+        <v>3025.880661249161</v>
+      </c>
+      <c r="E186">
+        <v>313502826473936.5</v>
+      </c>
+      <c r="F186">
+        <v>2172.451160558232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>67184301303261.45</v>
+      </c>
+      <c r="B187">
+        <v>0.1917096152629113</v>
+      </c>
+      <c r="C187">
+        <v>319779059674018.3</v>
+      </c>
+      <c r="D187">
+        <v>3479.085150208324</v>
+      </c>
+      <c r="E187">
+        <v>319779059674018.3</v>
+      </c>
+      <c r="F187">
+        <v>2174.313123692831</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>65113110563566.96</v>
+      </c>
+      <c r="B188">
+        <v>0.1922587111543986</v>
+      </c>
+      <c r="C188">
+        <v>324954454505776.7</v>
+      </c>
+      <c r="D188">
+        <v>2660.650620922446</v>
+      </c>
+      <c r="E188">
+        <v>324954454505776.7</v>
+      </c>
+      <c r="F188">
+        <v>2175.847665022598</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>63712663053519.41</v>
+      </c>
+      <c r="B189">
+        <v>0.1926316355026212</v>
+      </c>
+      <c r="C189">
+        <v>331893166999496.1</v>
+      </c>
+      <c r="D189">
+        <v>2706.365460442379</v>
+      </c>
+      <c r="E189">
+        <v>331893166999496.1</v>
+      </c>
+      <c r="F189">
+        <v>2178.174876069245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>61657900575946.95</v>
+      </c>
+      <c r="B190">
+        <v>0.1931812332073783</v>
+      </c>
+      <c r="C190">
+        <v>339008075667130.6</v>
+      </c>
+      <c r="D190">
+        <v>2309.164162814617</v>
+      </c>
+      <c r="E190">
+        <v>339008075667130.6</v>
+      </c>
+      <c r="F190">
+        <v>2180.598032435594</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>60858715340730.24</v>
+      </c>
+      <c r="B191">
+        <v>0.1933957848039222</v>
+      </c>
+      <c r="C191">
+        <v>347066834530198.1</v>
+      </c>
+      <c r="D191">
+        <v>1267.340885363519</v>
+      </c>
+      <c r="E191">
+        <v>347066834530198.1</v>
+      </c>
+      <c r="F191">
+        <v>2183.497090448633</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>60109032116154.54</v>
+      </c>
+      <c r="B192">
+        <v>0.1935974518884826</v>
+      </c>
+      <c r="C192">
+        <v>353899080397779.4</v>
+      </c>
+      <c r="D192">
+        <v>1935.475933864713</v>
+      </c>
+      <c r="E192">
+        <v>353899080397779.4</v>
+      </c>
+      <c r="F192">
+        <v>2186.160327424411</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>58525713946869.67</v>
+      </c>
+      <c r="B193">
+        <v>0.194024666114376</v>
+      </c>
+      <c r="C193">
+        <v>361924778903925.1</v>
+      </c>
+      <c r="D193">
+        <v>2109.691913962364</v>
+      </c>
+      <c r="E193">
+        <v>361924778903925.1</v>
+      </c>
+      <c r="F193">
+        <v>2189.463199356097</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>57633574794981.15</v>
+      </c>
+      <c r="B194">
+        <v>0.1942661656798331</v>
+      </c>
+      <c r="C194">
+        <v>370289685581753.9</v>
+      </c>
+      <c r="D194">
+        <v>1565.499358655885</v>
+      </c>
+      <c r="E194">
+        <v>370289685581753.9</v>
+      </c>
+      <c r="F194">
+        <v>2193.177634420447</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>56715273994291.16</v>
+      </c>
+      <c r="B195">
+        <v>0.19451533923255</v>
+      </c>
+      <c r="C195">
+        <v>378851622930479.9</v>
+      </c>
+      <c r="D195">
+        <v>2034.429340288043</v>
+      </c>
+      <c r="E195">
+        <v>378851622930479.9</v>
+      </c>
+      <c r="F195">
+        <v>2197.240000298784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>55320079000963.69</v>
+      </c>
+      <c r="B196">
+        <v>0.1948950720179079</v>
+      </c>
+      <c r="C196">
+        <v>385714902023727.9</v>
+      </c>
+      <c r="D196">
+        <v>2171.648124933243</v>
+      </c>
+      <c r="E196">
+        <v>385714902023727.9</v>
+      </c>
+      <c r="F196">
+        <v>2200.686289839368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>54306882168664.92</v>
+      </c>
+      <c r="B197">
+        <v>0.1951717176121239</v>
+      </c>
+      <c r="C197">
+        <v>392575342613940.4</v>
+      </c>
+      <c r="D197">
+        <v>2422.917661622167</v>
+      </c>
+      <c r="E197">
+        <v>392575342613940.4</v>
+      </c>
+      <c r="F197">
+        <v>2204.147333488877</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>52682891885839.38</v>
+      </c>
+      <c r="B198">
+        <v>0.195616698150807</v>
+      </c>
+      <c r="C198">
+        <v>400818153545264.7</v>
+      </c>
+      <c r="D198">
+        <v>3100.542942885309</v>
+      </c>
+      <c r="E198">
+        <v>400818153545264.7</v>
+      </c>
+      <c r="F198">
+        <v>2208.43380133135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>51034584456779.09</v>
+      </c>
+      <c r="B199">
+        <v>0.1960703297494963</v>
+      </c>
+      <c r="C199">
+        <v>411533032016593.5</v>
+      </c>
+      <c r="D199">
+        <v>2957.020527049899</v>
+      </c>
+      <c r="E199">
+        <v>411533032016593.5</v>
+      </c>
+      <c r="F199">
+        <v>2214.002693558613</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>49659479866568.7</v>
+      </c>
+      <c r="B200">
+        <v>0.1964503229978349</v>
+      </c>
+      <c r="C200">
+        <v>421868814646003.9</v>
+      </c>
+      <c r="D200">
+        <v>2730.404019716196</v>
+      </c>
+      <c r="E200">
+        <v>421868814646003.9</v>
+      </c>
+      <c r="F200">
+        <v>2219.415213153783</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>48317719909777.12</v>
+      </c>
+      <c r="B201">
+        <v>0.1968224759667149</v>
+      </c>
+      <c r="C201">
+        <v>433855989269133.2</v>
+      </c>
+      <c r="D201">
+        <v>2851.648359514773</v>
+      </c>
+      <c r="E201">
+        <v>433855989269133.2</v>
+      </c>
+      <c r="F201">
+        <v>2225.843885388983</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>46898867155586.39</v>
+      </c>
+      <c r="B202">
+        <v>0.1972175039763947</v>
+      </c>
+      <c r="C202">
+        <v>443381042181280.2</v>
+      </c>
+      <c r="D202">
+        <v>2360.922993877903</v>
+      </c>
+      <c r="E202">
+        <v>443381042181280.2</v>
+      </c>
+      <c r="F202">
+        <v>2231.147431446549</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>46098471577449.38</v>
+      </c>
+      <c r="B203">
+        <v>0.1974410283386631</v>
+      </c>
+      <c r="C203">
+        <v>452279653527273.1</v>
+      </c>
+      <c r="D203">
+        <v>2460.725761957467</v>
+      </c>
+      <c r="E203">
+        <v>452279653527273.1</v>
+      </c>
+      <c r="F203">
+        <v>2236.210451509568</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>44625483629686.48</v>
+      </c>
+      <c r="B204">
+        <v>0.1978536871147712</v>
+      </c>
+      <c r="C204">
+        <v>461038728276640.1</v>
+      </c>
+      <c r="D204">
+        <v>3492.048032630235</v>
+      </c>
+      <c r="E204">
+        <v>461038728276640.1</v>
+      </c>
+      <c r="F204">
+        <v>2241.275502589699</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>42977273973165.34</v>
+      </c>
+      <c r="B205">
+        <v>0.1983174559833336</v>
+      </c>
+      <c r="C205">
+        <v>469555041952599.8</v>
+      </c>
+      <c r="D205">
+        <v>2661.877862304449</v>
+      </c>
+      <c r="E205">
+        <v>469555041952599.8</v>
+      </c>
+      <c r="F205">
+        <v>2246.200015145382</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>42333144356525.59</v>
+      </c>
+      <c r="B206">
+        <v>0.1984992861396438</v>
+      </c>
+      <c r="C206">
+        <v>481219559872273.6</v>
+      </c>
+      <c r="D206">
+        <v>1891.67924888432</v>
+      </c>
+      <c r="E206">
+        <v>481219559872273.6</v>
+      </c>
+      <c r="F206">
+        <v>2252.904287734032</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>41371394039219.38</v>
+      </c>
+      <c r="B207">
+        <v>0.1987713965527695</v>
+      </c>
+      <c r="C207">
+        <v>493743405808326.8</v>
+      </c>
+      <c r="D207">
+        <v>2144.24063969776</v>
+      </c>
+      <c r="E207">
+        <v>493743405808326.8</v>
+      </c>
+      <c r="F207">
+        <v>2260.055120353219</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>40554777157118.08</v>
+      </c>
+      <c r="B208">
+        <v>0.1990030310950142</v>
+      </c>
+      <c r="C208">
+        <v>504357585091351.4</v>
+      </c>
+      <c r="D208">
+        <v>1743.514053471386</v>
+      </c>
+      <c r="E208">
+        <v>504357585091351.4</v>
+      </c>
+      <c r="F208">
+        <v>2266.152984314617</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>39953161766123.96</v>
+      </c>
+      <c r="B209">
+        <v>0.1991740276991296</v>
+      </c>
+      <c r="C209">
+        <v>515851761834518.5</v>
+      </c>
+      <c r="D209">
+        <v>1700.790819585323</v>
+      </c>
+      <c r="E209">
+        <v>515851761834518.5</v>
+      </c>
+      <c r="F209">
+        <v>2272.862027238771</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>39191725857511.2</v>
+      </c>
+      <c r="B210">
+        <v>0.1993908756925957</v>
+      </c>
+      <c r="C210">
+        <v>529472361952919.4</v>
+      </c>
+      <c r="D210">
+        <v>3128.156576186419</v>
+      </c>
+      <c r="E210">
+        <v>529472361952919.4</v>
+      </c>
+      <c r="F210">
+        <v>2281.049870855307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>37497273521292.23</v>
+      </c>
+      <c r="B211">
+        <v>0.1998751603352672</v>
+      </c>
+      <c r="C211">
+        <v>540894985855028.9</v>
+      </c>
+      <c r="D211">
+        <v>3217.53882086277</v>
+      </c>
+      <c r="E211">
+        <v>540894985855028.9</v>
+      </c>
+      <c r="F211">
+        <v>2288.139565345493</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>36774995123515.84</v>
+      </c>
+      <c r="B212">
+        <v>0.2000823231486371</v>
+      </c>
+      <c r="C212">
+        <v>551530461464775.1</v>
+      </c>
+      <c r="D212">
+        <v>1551.00259526819</v>
+      </c>
+      <c r="E212">
+        <v>551530461464775.1</v>
+      </c>
+      <c r="F212">
+        <v>2294.965161159871</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>36352835277324.03</v>
+      </c>
+      <c r="B213">
+        <v>0.2002036108565088</v>
+      </c>
+      <c r="C213">
+        <v>565057803302981.1</v>
+      </c>
+      <c r="D213">
+        <v>1965.947824478149</v>
+      </c>
+      <c r="E213">
+        <v>565057803302981.1</v>
+      </c>
+      <c r="F213">
+        <v>2303.865677041931</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>35342007988597.16</v>
+      </c>
+      <c r="B214">
+        <v>0.2004946421705611</v>
+      </c>
+      <c r="C214">
+        <v>578173252460117.4</v>
+      </c>
+      <c r="D214">
+        <v>3442.148147940636</v>
+      </c>
+      <c r="E214">
+        <v>578173252460117.4</v>
+      </c>
+      <c r="F214">
+        <v>2312.787275072714</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>33916261248941.96</v>
+      </c>
+      <c r="B215">
+        <v>0.2009066322671928</v>
+      </c>
+      <c r="C215">
+        <v>590593441054750.9</v>
+      </c>
+      <c r="D215">
+        <v>3579.983459874988</v>
+      </c>
+      <c r="E215">
+        <v>590593441054750.9</v>
+      </c>
+      <c r="F215">
+        <v>2321.419257686521</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>32910238582033.7</v>
+      </c>
+      <c r="B216">
+        <v>0.201198405925028</v>
+      </c>
+      <c r="C216">
+        <v>606464647218124.5</v>
+      </c>
+      <c r="D216">
+        <v>2606.015553593636</v>
+      </c>
+      <c r="E216">
+        <v>606464647218124.5</v>
+      </c>
+      <c r="F216">
+        <v>2332.631424500896</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>32197697955194.25</v>
+      </c>
+      <c r="B217">
+        <v>0.2014056037459927</v>
+      </c>
+      <c r="C217">
+        <v>621242343671618.1</v>
+      </c>
+      <c r="D217">
+        <v>2152.325807441026</v>
+      </c>
+      <c r="E217">
+        <v>621242343671618.1</v>
+      </c>
+      <c r="F217">
+        <v>2343.304699462517</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>31521042557933.54</v>
+      </c>
+      <c r="B218">
+        <v>0.2016027867311111</v>
+      </c>
+      <c r="C218">
+        <v>635156475410925.1</v>
+      </c>
+      <c r="D218">
+        <v>2471.280006080866</v>
+      </c>
+      <c r="E218">
+        <v>635156475410925.1</v>
+      </c>
+      <c r="F218">
+        <v>2353.4623497896</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>30636624465984.41</v>
+      </c>
+      <c r="B219">
+        <v>0.2018611366558723</v>
+      </c>
+      <c r="C219">
+        <v>648795357117496.8</v>
+      </c>
+      <c r="D219">
+        <v>3403.303849086165</v>
+      </c>
+      <c r="E219">
+        <v>648795357117496.8</v>
+      </c>
+      <c r="F219">
+        <v>2363.598018187601</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>29432692302747.41</v>
+      </c>
+      <c r="B220">
+        <v>0.2022139697342049</v>
+      </c>
+      <c r="C220">
+        <v>665507056449772.5</v>
+      </c>
+      <c r="D220">
+        <v>3547.159714795649</v>
+      </c>
+      <c r="E220">
+        <v>665507056449772.5</v>
+      </c>
+      <c r="F220">
+        <v>2376.220172947065</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>28545664212888.55</v>
+      </c>
+      <c r="B221">
+        <v>0.2024747880233324</v>
+      </c>
+      <c r="C221">
+        <v>682317072600849.8</v>
+      </c>
+      <c r="D221">
+        <v>3048.951049923897</v>
+      </c>
+      <c r="E221">
+        <v>682317072600849.8</v>
+      </c>
+      <c r="F221">
+        <v>2389.044179192576</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>27689185969374</v>
+      </c>
+      <c r="B222">
+        <v>0.202727325446169</v>
+      </c>
+      <c r="C222">
+        <v>698623710902106.1</v>
+      </c>
+      <c r="D222">
+        <v>2766.094657838345</v>
+      </c>
+      <c r="E222">
+        <v>698623710902106.1</v>
+      </c>
+      <c r="F222">
+        <v>2401.481640203119</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>27011114357235.26</v>
+      </c>
+      <c r="B223">
+        <v>0.2029277537864479</v>
+      </c>
+      <c r="C223">
+        <v>716886411337499.8</v>
+      </c>
+      <c r="D223">
+        <v>2029.281560927629</v>
+      </c>
+      <c r="E223">
+        <v>716886411337499.8</v>
+      </c>
+      <c r="F223">
+        <v>2415.42039350204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>26590260702299.93</v>
+      </c>
+      <c r="B224">
+        <v>0.2030523744767017</v>
+      </c>
+      <c r="C224">
+        <v>734941336330010.9</v>
+      </c>
+      <c r="D224">
+        <v>2014.441267073154</v>
+      </c>
+      <c r="E224">
+        <v>734941336330010.9</v>
+      </c>
+      <c r="F224">
+        <v>2429.178745284642</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>25937204933614.24</v>
+      </c>
+      <c r="B225">
+        <v>0.2032460938248984</v>
+      </c>
+      <c r="C225">
+        <v>751567334992138</v>
+      </c>
+      <c r="D225">
+        <v>3403.569021135569</v>
+      </c>
+      <c r="E225">
+        <v>751567334992138</v>
+      </c>
+      <c r="F225">
+        <v>2441.854529799614</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>24822127062621.84</v>
+      </c>
+      <c r="B226">
+        <v>0.2035778338200863</v>
+      </c>
+      <c r="C226">
+        <v>768137193745549.9</v>
+      </c>
+      <c r="D226">
+        <v>3243.708867132664</v>
+      </c>
+      <c r="E226">
+        <v>768137193745549.9</v>
+      </c>
+      <c r="F226">
+        <v>2454.507042378382</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>24324451272151.12</v>
+      </c>
+      <c r="B227">
+        <v>0.2037262938327289</v>
+      </c>
+      <c r="C227">
+        <v>786841050536275.4</v>
+      </c>
+      <c r="D227">
+        <v>2525.033548593521</v>
+      </c>
+      <c r="E227">
+        <v>786841050536275.4</v>
+      </c>
+      <c r="F227">
+        <v>2468.739585511957</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>23591337998311.1</v>
+      </c>
+      <c r="B228">
+        <v>0.2039454419769334</v>
+      </c>
+      <c r="C228">
+        <v>808032301819601.4</v>
+      </c>
+      <c r="D228">
+        <v>1523.430847167969</v>
+      </c>
+      <c r="E228">
+        <v>808032301819601.4</v>
+      </c>
+      <c r="F228">
+        <v>2484.695593501933</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>23603342335188.16</v>
+      </c>
+      <c r="B229">
+        <v>0.203941849139755</v>
+      </c>
+      <c r="C229">
+        <v>828674629859616.8</v>
+      </c>
+      <c r="D229">
+        <v>-565.3774528503418</v>
+      </c>
+      <c r="E229">
+        <v>828674629859616.8</v>
+      </c>
+      <c r="F229">
+        <v>2500.023225903451</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>23855919237549.35</v>
+      </c>
+      <c r="B230">
+        <v>0.2038662882508484</v>
+      </c>
+      <c r="C230">
+        <v>851600641723211.5</v>
+      </c>
+      <c r="D230">
+        <v>26.18983840942383</v>
+      </c>
+      <c r="E230">
+        <v>851600641723211.5</v>
+      </c>
+      <c r="F230">
+        <v>2516.854936427816</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>23588506332557.3</v>
+      </c>
+      <c r="B231">
+        <v>0.203946289501612</v>
+      </c>
+      <c r="C231">
+        <v>872611444720048.8</v>
+      </c>
+      <c r="D231">
+        <v>1330.717090964317</v>
+      </c>
+      <c r="E231">
+        <v>872611444720048.8</v>
+      </c>
+      <c r="F231">
+        <v>2532.22001456213</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>23225813459296.46</v>
+      </c>
+      <c r="B232">
+        <v>0.2040549123149703</v>
+      </c>
+      <c r="C232">
+        <v>891244495902349.2</v>
+      </c>
+      <c r="D232">
+        <v>2507.042388081551</v>
+      </c>
+      <c r="E232">
+        <v>891244495902349.2</v>
+      </c>
+      <c r="F232">
+        <v>2545.892125473682</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>22421667927982.1</v>
+      </c>
+      <c r="B233">
+        <v>0.2042962301492129</v>
+      </c>
+      <c r="C233">
+        <v>914624526395972</v>
+      </c>
+      <c r="D233">
+        <v>3029.29357599467</v>
+      </c>
+      <c r="E233">
+        <v>914624526395972</v>
+      </c>
+      <c r="F233">
+        <v>2563.165686473787</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>21865182151613.85</v>
+      </c>
+      <c r="B234">
+        <v>0.2044636227105239</v>
+      </c>
+      <c r="C234">
+        <v>938086374977186.1</v>
+      </c>
+      <c r="D234">
+        <v>2471.574713848531</v>
+      </c>
+      <c r="E234">
+        <v>938086374977186.1</v>
+      </c>
+      <c r="F234">
+        <v>2580.657011546567</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>21338700517011.26</v>
+      </c>
+      <c r="B235">
+        <v>0.2046222916936849</v>
+      </c>
+      <c r="C235">
+        <v>963290604859644.6</v>
+      </c>
+      <c r="D235">
+        <v>2872.539996191859</v>
+      </c>
+      <c r="E235">
+        <v>963290604859644.6</v>
+      </c>
+      <c r="F235">
+        <v>2599.635821236933</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>20637171070337.96</v>
+      </c>
+      <c r="B236">
+        <v>0.2048341777864161</v>
+      </c>
+      <c r="C236">
+        <v>989561013938402.1</v>
+      </c>
+      <c r="D236">
+        <v>2960.403451293707</v>
+      </c>
+      <c r="E236">
+        <v>989561013938402.1</v>
+      </c>
+      <c r="F236">
+        <v>2619.622616850247</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>20114798455315.62</v>
+      </c>
+      <c r="B237">
+        <v>0.2049922996615987</v>
+      </c>
+      <c r="C237">
+        <v>1018416642862936</v>
+      </c>
+      <c r="D237">
+        <v>2336.969397723675</v>
+      </c>
+      <c r="E237">
+        <v>1018416642862936</v>
+      </c>
+      <c r="F237">
+        <v>2641.723824590805</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>19695055208641.26</v>
+      </c>
+      <c r="B238">
+        <v>0.2051195732948956</v>
+      </c>
+      <c r="C238">
+        <v>1044264070803474</v>
+      </c>
+      <c r="D238">
+        <v>4205.086371064186</v>
+      </c>
+      <c r="E238">
+        <v>1044264070803474</v>
+      </c>
+      <c r="F238">
+        <v>2661.537066133847</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>18456489941931.88</v>
+      </c>
+      <c r="B239">
+        <v>0.2054962790425566</v>
+      </c>
+      <c r="C239">
+        <v>1073070258207887</v>
+      </c>
+      <c r="D239">
+        <v>6418.624100936577</v>
+      </c>
+      <c r="E239">
+        <v>1073070258207887</v>
+      </c>
+      <c r="F239">
+        <v>2683.602395400946</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>17323953500854.05</v>
+      </c>
+      <c r="B240">
+        <v>0.2058422780303288</v>
+      </c>
+      <c r="C240">
+        <v>1104498974439108</v>
+      </c>
+      <c r="D240">
+        <v>4417.48252093792</v>
+      </c>
+      <c r="E240">
+        <v>1104498974439108</v>
+      </c>
+      <c r="F240">
+        <v>2707.761191460654</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>16924241480275.39</v>
+      </c>
+      <c r="B241">
+        <v>0.2059647539832767</v>
+      </c>
+      <c r="C241">
+        <v>1133648260094136</v>
+      </c>
+      <c r="D241">
+        <v>3458.815271019936</v>
+      </c>
+      <c r="E241">
+        <v>1133648260094136</v>
+      </c>
+      <c r="F241">
+        <v>2730.321970209256</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>16151553591789.34</v>
+      </c>
+      <c r="B242">
+        <v>0.2062020595418828</v>
+      </c>
+      <c r="C242">
+        <v>1164478379615000</v>
+      </c>
+      <c r="D242">
+        <v>2966.528095126152</v>
+      </c>
+      <c r="E242">
+        <v>1164478379615000</v>
+      </c>
+      <c r="F242">
+        <v>2754.346873952898</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>15964394154685.3</v>
+      </c>
+      <c r="B243">
+        <v>0.206259649181584</v>
+      </c>
+      <c r="C243">
+        <v>1199435850049949</v>
+      </c>
+      <c r="D243">
+        <v>2539.071920454502</v>
+      </c>
+      <c r="E243">
+        <v>1199435850049949</v>
+      </c>
+      <c r="F243">
+        <v>2781.752843389015</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>15339310703243.47</v>
+      </c>
+      <c r="B244">
+        <v>0.2064523053698972</v>
+      </c>
+      <c r="C244">
+        <v>1233888424109698</v>
+      </c>
+      <c r="D244">
+        <v>5201.154039382935</v>
+      </c>
+      <c r="E244">
+        <v>1233888424109698</v>
+      </c>
+      <c r="F244">
+        <v>2808.823420075578</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>14367265807439.4</v>
+      </c>
+      <c r="B245">
+        <v>0.2067528837031236</v>
+      </c>
+      <c r="C245">
+        <v>1270095664724274</v>
+      </c>
+      <c r="D245">
+        <v>3844.85990524292</v>
+      </c>
+      <c r="E245">
+        <v>1270095664724274</v>
+      </c>
+      <c r="F245">
+        <v>2837.175088391077</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>14233118417458.71</v>
+      </c>
+      <c r="B246">
+        <v>0.20679446131331</v>
+      </c>
+      <c r="C246">
+        <v>1307169425393212</v>
+      </c>
+      <c r="D246">
+        <v>630.3624467849731</v>
+      </c>
+      <c r="E246">
+        <v>1307169425393212</v>
+      </c>
+      <c r="F246">
+        <v>2865.992643166711</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>14186448793110.69</v>
+      </c>
+      <c r="B247">
+        <v>0.2068089316355847</v>
+      </c>
+      <c r="C247">
+        <v>1342898133077238</v>
+      </c>
+      <c r="D247">
+        <v>2743.258016586304</v>
+      </c>
+      <c r="E247">
+        <v>1342898133077238</v>
+      </c>
+      <c r="F247">
+        <v>2893.556750312653</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>13453404692272.75</v>
+      </c>
+      <c r="B248">
+        <v>0.2070365987980505</v>
+      </c>
+      <c r="C248">
+        <v>1382250148753011</v>
+      </c>
+      <c r="D248">
+        <v>3536.906797409058</v>
+      </c>
+      <c r="E248">
+        <v>1382250148753011</v>
+      </c>
+      <c r="F248">
+        <v>2923.730708100668</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>13233480406889.83</v>
+      </c>
+      <c r="B249">
+        <v>0.207105043797488</v>
+      </c>
+      <c r="C249">
+        <v>1427786510665152</v>
+      </c>
+      <c r="D249">
+        <v>275.4619340896606</v>
+      </c>
+      <c r="E249">
+        <v>1427786510665152</v>
+      </c>
+      <c r="F249">
+        <v>2958.485861809609</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>13379220341370.59</v>
+      </c>
+      <c r="B250">
+        <v>0.2070596791297389</v>
+      </c>
+      <c r="C250">
+        <v>1470056021096046</v>
+      </c>
+      <c r="D250">
+        <v>-291.8512706756592</v>
+      </c>
+      <c r="E250">
+        <v>1470056021096046</v>
+      </c>
+      <c r="F250">
+        <v>2990.629067917033</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>13310282950193.55</v>
+      </c>
+      <c r="B251">
+        <v>0.2070811337453348</v>
+      </c>
+      <c r="C251">
+        <v>1511672154662291</v>
+      </c>
+      <c r="D251">
+        <v>1962.068342208862</v>
+      </c>
+      <c r="E251">
+        <v>1511672154662291</v>
+      </c>
+      <c r="F251">
+        <v>3022.168259702312</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>12855621131471.33</v>
+      </c>
+      <c r="B252">
+        <v>0.2072227967292269</v>
+      </c>
+      <c r="C252">
+        <v>1558060208155664</v>
+      </c>
+      <c r="D252">
+        <v>4242.58533769846</v>
+      </c>
+      <c r="E252">
+        <v>1558060208155664</v>
+      </c>
+      <c r="F252">
+        <v>3057.188870429272</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>12218220802241.38</v>
+      </c>
+      <c r="B253">
+        <v>0.2074218839945598</v>
+      </c>
+      <c r="C253">
+        <v>1604891415361329</v>
+      </c>
+      <c r="D253">
+        <v>2373.572951316833</v>
+      </c>
+      <c r="E253">
+        <v>1604891415361329</v>
+      </c>
+      <c r="F253">
+        <v>3092.427329723619</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>12274426259950.31</v>
+      </c>
+      <c r="B254">
+        <v>0.2074043054268843</v>
+      </c>
+      <c r="C254">
+        <v>1658703422431100</v>
+      </c>
+      <c r="D254">
+        <v>2859.355040788651</v>
+      </c>
+      <c r="E254">
+        <v>1658703422431100</v>
+      </c>
+      <c r="F254">
+        <v>3132.816807075093</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>11515098327144.29</v>
+      </c>
+      <c r="B255">
+        <v>0.2076421770293453</v>
+      </c>
+      <c r="C255">
+        <v>1713821000424611</v>
+      </c>
+      <c r="D255">
+        <v>4038.146588802338</v>
+      </c>
+      <c r="E255">
+        <v>1713821000424611</v>
+      </c>
+      <c r="F255">
+        <v>3174.091613156588</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>11343324030338.68</v>
+      </c>
+      <c r="B256">
+        <v>0.2076961058979721</v>
+      </c>
+      <c r="C256">
+        <v>1769880286515352</v>
+      </c>
+      <c r="D256">
+        <v>683.6402587890625</v>
+      </c>
+      <c r="E256">
+        <v>1769880286515352</v>
+      </c>
+      <c r="F256">
+        <v>3215.911105432699</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>11358910967500.42</v>
+      </c>
+      <c r="B257">
+        <v>0.2076912105274551</v>
+      </c>
+      <c r="C257">
+        <v>1828468983976190</v>
+      </c>
+      <c r="D257">
+        <v>1050.706114768982</v>
+      </c>
+      <c r="E257">
+        <v>1828468983976190</v>
+      </c>
+      <c r="F257">
+        <v>3259.312188954499</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>11103532659371.53</v>
+      </c>
+      <c r="B258">
+        <v>0.2077714630475124</v>
+      </c>
+      <c r="C258">
+        <v>1892272197631608</v>
+      </c>
+      <c r="D258">
+        <v>3978.176550149918</v>
+      </c>
+      <c r="E258">
+        <v>1892272197631608</v>
+      </c>
+      <c r="F258">
+        <v>3306.120869528413</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>10474405880815.57</v>
+      </c>
+      <c r="B259">
+        <v>0.2079695921217898</v>
+      </c>
+      <c r="C259">
+        <v>1954194396471762</v>
+      </c>
+      <c r="D259">
+        <v>6136.849093168974</v>
+      </c>
+      <c r="E259">
+        <v>1954194396471762</v>
+      </c>
+      <c r="F259">
+        <v>3351.126776288909</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>9816928393078.363</v>
+      </c>
+      <c r="B260">
+        <v>0.2081773172154081</v>
+      </c>
+      <c r="C260">
+        <v>2019591083524186</v>
+      </c>
+      <c r="D260">
+        <v>4897.618186950684</v>
+      </c>
+      <c r="E260">
+        <v>2019591083524186</v>
+      </c>
+      <c r="F260">
+        <v>3398.304787766371</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>9511871408625.109</v>
+      </c>
+      <c r="B261">
+        <v>0.2082739371083009</v>
+      </c>
+      <c r="C261">
+        <v>2094291348809432</v>
+      </c>
+      <c r="D261">
+        <v>2661.761463776231</v>
+      </c>
+      <c r="E261">
+        <v>2094291348809432</v>
+      </c>
+      <c r="F261">
+        <v>3451.940759340594</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>9309648337732.836</v>
+      </c>
+      <c r="B262">
+        <v>0.2083380724800145</v>
+      </c>
+      <c r="C262">
+        <v>2172965667156729</v>
+      </c>
+      <c r="D262">
+        <v>3823.251484394073</v>
+      </c>
+      <c r="E262">
+        <v>2172965667156729</v>
+      </c>
+      <c r="F262">
+        <v>3508.249832385613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>8799115166177.844</v>
+      </c>
+      <c r="B263">
+        <v>0.2085003004845296</v>
+      </c>
+      <c r="C263">
+        <v>2250391990702134</v>
+      </c>
+      <c r="D263">
+        <v>6631.179003000259</v>
+      </c>
+      <c r="E263">
+        <v>2250391990702134</v>
+      </c>
+      <c r="F263">
+        <v>3563.56646598562</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>8141834144422.152</v>
+      </c>
+      <c r="B264">
+        <v>0.2087098392836848</v>
+      </c>
+      <c r="C264">
+        <v>2336034509770160</v>
+      </c>
+      <c r="D264">
+        <v>7465.151939421892</v>
+      </c>
+      <c r="E264">
+        <v>2336034509770160</v>
+      </c>
+      <c r="F264">
+        <v>3624.550983660986</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>7582734381039.172</v>
+      </c>
+      <c r="B265">
+        <v>0.2088887089897932</v>
+      </c>
+      <c r="C265">
+        <v>2419275163925846</v>
+      </c>
+      <c r="D265">
+        <v>6001.924281358719</v>
+      </c>
+      <c r="E265">
+        <v>2419275163925846</v>
+      </c>
+      <c r="F265">
+        <v>3683.435556014121</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>7230888185296.25</v>
+      </c>
+      <c r="B266">
+        <v>0.209001584242816</v>
+      </c>
+      <c r="C266">
+        <v>2512668938233396</v>
+      </c>
+      <c r="D266">
+        <v>3662.391555547714</v>
+      </c>
+      <c r="E266">
+        <v>2512668938233396</v>
+      </c>
+      <c r="F266">
+        <v>3748.813269855332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>7052395558676.429</v>
+      </c>
+      <c r="B267">
+        <v>0.2090589412256329</v>
+      </c>
+      <c r="C267">
+        <v>2611029311725861</v>
+      </c>
+      <c r="D267">
+        <v>3085.29335463047</v>
+      </c>
+      <c r="E267">
+        <v>2611029311725861</v>
+      </c>
+      <c r="F267">
+        <v>3816.818877975577</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>6795039322147.786</v>
+      </c>
+      <c r="B268">
+        <v>0.2091417558922514</v>
+      </c>
+      <c r="C268">
+        <v>2716954898190332</v>
+      </c>
+      <c r="D268">
+        <v>2145.254360198975</v>
+      </c>
+      <c r="E268">
+        <v>2716954898190332</v>
+      </c>
+      <c r="F268">
+        <v>3889.166215150295</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>6760204001791.853</v>
+      </c>
+      <c r="B269">
+        <v>0.2091529762096536</v>
+      </c>
+      <c r="C269">
+        <v>2827028484704904</v>
+      </c>
+      <c r="D269">
+        <v>-191.5141983032227</v>
+      </c>
+      <c r="E269">
+        <v>2827028484704904</v>
+      </c>
+      <c r="F269">
+        <v>3963.27624148951</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>6820286386910.667</v>
+      </c>
+      <c r="B270">
+        <v>0.209133625515126</v>
+      </c>
+      <c r="C270">
+        <v>2943254542268576</v>
+      </c>
+      <c r="D270">
+        <v>1566.751908302307</v>
+      </c>
+      <c r="E270">
+        <v>2943254542268576</v>
+      </c>
+      <c r="F270">
+        <v>4040.25849120387</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>6545837825562.425</v>
+      </c>
+      <c r="B271">
+        <v>0.2092220796573545</v>
+      </c>
+      <c r="C271">
+        <v>3069884393846304</v>
+      </c>
+      <c r="D271">
+        <v>2970.71426486969</v>
+      </c>
+      <c r="E271">
+        <v>3069884393846304</v>
+      </c>
+      <c r="F271">
+        <v>4122.837199249991</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>6430744379745.473</v>
+      </c>
+      <c r="B272">
+        <v>0.2092592223523273</v>
+      </c>
+      <c r="C272">
+        <v>3202716301920993</v>
+      </c>
+      <c r="D272">
+        <v>819.1564559936523</v>
+      </c>
+      <c r="E272">
+        <v>3202716301920993</v>
+      </c>
+      <c r="F272">
+        <v>4208.39589341057</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>6439867489943.49</v>
+      </c>
+      <c r="B273">
+        <v>0.209256277105732</v>
+      </c>
+      <c r="C273">
+        <v>3346254057302323</v>
+      </c>
+      <c r="D273">
+        <v>-1015.457763671875</v>
+      </c>
+      <c r="E273">
+        <v>3346254057302323</v>
+      </c>
+      <c r="F273">
+        <v>4299.689589734219</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>6560917148025.092</v>
+      </c>
+      <c r="B274">
+        <v>0.2092172154295169</v>
+      </c>
+      <c r="C274">
+        <v>3493376102736804</v>
+      </c>
+      <c r="D274">
+        <v>-400.5388870239258</v>
+      </c>
+      <c r="E274">
+        <v>3493376102736804</v>
+      </c>
+      <c r="F274">
+        <v>4391.862337035076</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>6491798351855.877</v>
+      </c>
+      <c r="B275">
+        <v>0.2092395155524343</v>
+      </c>
+      <c r="C275">
+        <v>3654078542401392</v>
+      </c>
+      <c r="D275">
+        <v>594.0411987304688</v>
+      </c>
+      <c r="E275">
+        <v>3654078542401392</v>
+      </c>
+      <c r="F275">
+        <v>4490.935777061205</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>6483168721096.779</v>
+      </c>
+      <c r="B276">
+        <v>0.2092423005012832</v>
+      </c>
+      <c r="C276">
+        <v>3830272459658670</v>
+      </c>
+      <c r="D276">
+        <v>3127.136329650879</v>
+      </c>
+      <c r="E276">
+        <v>3830272459658670</v>
+      </c>
+      <c r="F276">
+        <v>4597.742333186436</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>6085703622529.208</v>
+      </c>
+      <c r="B277">
+        <v>0.2093707491398204</v>
+      </c>
+      <c r="C277">
+        <v>4017230931248834</v>
+      </c>
+      <c r="D277">
+        <v>4010.747051239014</v>
+      </c>
+      <c r="E277">
+        <v>4017230931248834</v>
+      </c>
+      <c r="F277">
+        <v>4709.096660543096</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>5994423031185.017</v>
+      </c>
+      <c r="B278">
+        <v>0.2094002986988797</v>
+      </c>
+      <c r="C278">
+        <v>4222458429127240</v>
+      </c>
+      <c r="D278">
+        <v>1679.812265396118</v>
+      </c>
+      <c r="E278">
+        <v>4222458429127240</v>
+      </c>
+      <c r="F278">
+        <v>4828.89572949759</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>5883740983414.199</v>
+      </c>
+      <c r="B279">
+        <v>0.2094361548415699</v>
+      </c>
+      <c r="C279">
+        <v>4440498492198954</v>
+      </c>
+      <c r="D279">
+        <v>-184.6010894775391</v>
+      </c>
+      <c r="E279">
+        <v>4440498492198954</v>
+      </c>
+      <c r="F279">
+        <v>4953.00773539082</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>6015584066417.097</v>
+      </c>
+      <c r="B280">
+        <v>0.2093934466910297</v>
+      </c>
+      <c r="C280">
+        <v>4670411560396624</v>
+      </c>
+      <c r="D280">
+        <v>-141.0099029541016</v>
+      </c>
+      <c r="E280">
+        <v>4670411560396624</v>
+      </c>
+      <c r="F280">
+        <v>5080.119547810442</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>5900131549902.763</v>
+      </c>
+      <c r="B281">
+        <v>0.2094308432101631</v>
+      </c>
+      <c r="C281">
+        <v>4923908182543817</v>
+      </c>
+      <c r="D281">
+        <v>3927.015289306641</v>
+      </c>
+      <c r="E281">
+        <v>4923908182543817</v>
+      </c>
+      <c r="F281">
+        <v>5216.436802982907</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>5551622485977.552</v>
+      </c>
+      <c r="B282">
+        <v>0.2095439210633399</v>
+      </c>
+      <c r="C282">
+        <v>5199490836588972</v>
+      </c>
+      <c r="D282">
+        <v>6105.68541431427</v>
+      </c>
+      <c r="E282">
+        <v>5199490836588972</v>
+      </c>
+      <c r="F282">
+        <v>5361.150750658696</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>5221672464394.91</v>
+      </c>
+      <c r="B283">
+        <v>0.2096512518388598</v>
+      </c>
+      <c r="C283">
+        <v>5491379348784380</v>
+      </c>
+      <c r="D283">
+        <v>3450.905206680298</v>
+      </c>
+      <c r="E283">
+        <v>5491379348784380</v>
+      </c>
+      <c r="F283">
+        <v>5510.32330838038</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>5190734422703.187</v>
+      </c>
+      <c r="B284">
+        <v>0.2096613299602486</v>
+      </c>
+      <c r="C284">
+        <v>5815962972352836</v>
+      </c>
+      <c r="D284">
+        <v>4401.333426475525</v>
+      </c>
+      <c r="E284">
+        <v>5815962972352836</v>
+      </c>
+      <c r="F284">
+        <v>5670.343813983214</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>4764254251762.844</v>
+      </c>
+      <c r="B285">
+        <v>0.2098005140780219</v>
+      </c>
+      <c r="C285">
+        <v>6174319843139646</v>
+      </c>
+      <c r="D285">
+        <v>7393.508352041245</v>
+      </c>
+      <c r="E285">
+        <v>6174319843139646</v>
+      </c>
+      <c r="F285">
+        <v>5840.19014251756</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>4485789180739.681</v>
+      </c>
+      <c r="B286">
+        <v>0.2098916622536739</v>
+      </c>
+      <c r="C286">
+        <v>6557122200830397</v>
+      </c>
+      <c r="D286">
+        <v>4766.031719207764</v>
+      </c>
+      <c r="E286">
+        <v>6557122200830397</v>
+      </c>
+      <c r="F286">
+        <v>6015.18558902373</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>4336238542793.819</v>
+      </c>
+      <c r="B287">
+        <v>0.209940705987778</v>
+      </c>
+      <c r="C287">
+        <v>6978683385287186</v>
+      </c>
+      <c r="D287">
+        <v>-366.4002304077148</v>
+      </c>
+      <c r="E287">
+        <v>6978683385287186</v>
+      </c>
+      <c r="F287">
+        <v>6200.727045825234</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>4517152065267.674</v>
+      </c>
+      <c r="B288">
+        <v>0.2098813853901931</v>
+      </c>
+      <c r="C288">
+        <v>7449603852749927</v>
+      </c>
+      <c r="D288">
+        <v>-1612.880157470703</v>
+      </c>
+      <c r="E288">
+        <v>7449603852749927</v>
+      </c>
+      <c r="F288">
+        <v>6398.18907145709</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>4481520593455.458</v>
+      </c>
+      <c r="B289">
+        <v>0.209893061187697</v>
+      </c>
+      <c r="C289">
+        <v>7960166946067989</v>
+      </c>
+      <c r="D289">
+        <v>3487.610336303711</v>
+      </c>
+      <c r="E289">
+        <v>7960166946067989</v>
+      </c>
+      <c r="F289">
+        <v>6600.045253855085</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>4204129085427.44</v>
+      </c>
+      <c r="B290">
+        <v>0.2099840855605717</v>
+      </c>
+      <c r="C290">
+        <v>8518170395694137</v>
+      </c>
+      <c r="D290">
+        <v>3931.719201117754</v>
+      </c>
+      <c r="E290">
+        <v>8518170395694137</v>
+      </c>
+      <c r="F290">
+        <v>6807.241426791842</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>4150531068881.376</v>
+      </c>
+      <c r="B291">
+        <v>0.2100017002196881</v>
+      </c>
+      <c r="C291">
+        <v>9142383721148630</v>
+      </c>
+      <c r="D291">
+        <v>3876.521568715572</v>
+      </c>
+      <c r="E291">
+        <v>9142383721148630</v>
+      </c>
+      <c r="F291">
+        <v>7024.289162098677</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>3881941335750.142</v>
+      </c>
+      <c r="B292">
+        <v>0.2100901065307313</v>
+      </c>
+      <c r="C292">
+        <v>9845525217272062</v>
+      </c>
+      <c r="D292">
+        <v>7695.472376286983</v>
+      </c>
+      <c r="E292">
+        <v>9845525217272062</v>
+      </c>
+      <c r="F292">
+        <v>7252.716234779864</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>3552694072435.497</v>
+      </c>
+      <c r="B293">
+        <v>0.2101988021528929</v>
+      </c>
+      <c r="C293">
+        <v>1.061016785146037E+16</v>
+      </c>
+      <c r="D293">
+        <v>3879.089372634888</v>
+      </c>
+      <c r="E293">
+        <v>1.061016785146037E+16</v>
+      </c>
+      <c r="F293">
+        <v>7487.227765580138</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>3605978947579.999</v>
+      </c>
+      <c r="B294">
+        <v>0.2101811858319546</v>
+      </c>
+      <c r="C294">
+        <v>1.145989746170802E+16</v>
+      </c>
+      <c r="D294">
+        <v>306.3357772827148</v>
+      </c>
+      <c r="E294">
+        <v>1.145989746170802E+16</v>
+      </c>
+      <c r="F294">
+        <v>7736.444177657383</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>3530258134792.778</v>
+      </c>
+      <c r="B295">
+        <v>0.210206222607974</v>
+      </c>
+      <c r="C295">
+        <v>1.242433198390352E+16</v>
+      </c>
+      <c r="D295">
+        <v>-1220.443015098572</v>
+      </c>
+      <c r="E295">
+        <v>1.242433198390352E+16</v>
+      </c>
+      <c r="F295">
+        <v>8022.588277566193</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>3691812640024.562</v>
+      </c>
+      <c r="B296">
+        <v>0.2101528294160029</v>
+      </c>
+      <c r="C296">
+        <v>1.348567375152574E+16</v>
+      </c>
+      <c r="D296">
+        <v>564.0607299804688</v>
+      </c>
+      <c r="E296">
+        <v>1.348567375152574E+16</v>
+      </c>
+      <c r="F296">
+        <v>8347.207346778534</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>3488258658584.985</v>
+      </c>
+      <c r="B297">
+        <v>0.210220118310795</v>
+      </c>
+      <c r="C297">
+        <v>1.465418155447296E+16</v>
+      </c>
+      <c r="D297">
+        <v>743.2521133422852</v>
+      </c>
+      <c r="E297">
+        <v>1.465418155447296E+16</v>
+      </c>
+      <c r="F297">
+        <v>8710.959263744531</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>3639627660402.025</v>
+      </c>
+      <c r="B298">
+        <v>0.2101700664565276</v>
+      </c>
+      <c r="C298">
+        <v>1.594216199176305E+16</v>
+      </c>
+      <c r="D298">
+        <v>-2511.115434646606</v>
+      </c>
+      <c r="E298">
+        <v>1.594216199176305E+16</v>
+      </c>
+      <c r="F298">
+        <v>9112.650213455161</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>3670702811756.087</v>
+      </c>
+      <c r="B299">
+        <v>0.2101598010039253</v>
+      </c>
+      <c r="C299">
+        <v>1.735300191366612E+16</v>
+      </c>
+      <c r="D299">
+        <v>-685.4417620897293</v>
+      </c>
+      <c r="E299">
+        <v>1.735300191366612E+16</v>
+      </c>
+      <c r="F299">
+        <v>9547.833294908516</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>3689599395547.985</v>
+      </c>
+      <c r="B300">
+        <v>0.2101535602754801</v>
+      </c>
+      <c r="C300">
+        <v>1.883143759659196E+16</v>
+      </c>
+      <c r="D300">
+        <v>-1312.659216880798</v>
+      </c>
+      <c r="E300">
+        <v>1.883143759659196E+16</v>
+      </c>
+      <c r="F300">
+        <v>9994.771548953659</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>3767215411152.005</v>
+      </c>
+      <c r="B301">
+        <v>0.2101279397875873</v>
+      </c>
+      <c r="C301">
+        <v>2.029498807102842E+16</v>
+      </c>
+      <c r="D301">
+        <v>-2065.061035871506</v>
+      </c>
+      <c r="E301">
+        <v>2.029498807102842E+16</v>
+      </c>
+      <c r="F301">
+        <v>10426.77379276381</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Intrinseco.xlsx
+++ b/Lifetime_Intrinseco.xlsx
@@ -426,13 +426,13 @@
         <v>3488258658584.985</v>
       </c>
       <c r="D2">
-        <v>9584.348462861199</v>
+        <v>9584337095.917849</v>
       </c>
       <c r="E2">
         <v>3488258658584.985</v>
       </c>
       <c r="F2">
-        <v>2620.820863703303</v>
+        <v>2620820863.703302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,13 +446,13 @@
         <v>3530258134792.778</v>
       </c>
       <c r="D3">
-        <v>9265.097773041558</v>
+        <v>9265087187.31937</v>
       </c>
       <c r="E3">
         <v>3530258134792.778</v>
       </c>
       <c r="F3">
-        <v>2620.711987499154</v>
+        <v>2620711987.499152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,13 +466,13 @@
         <v>3552694072435.497</v>
       </c>
       <c r="D4">
-        <v>9247.86554420814</v>
+        <v>9247855747.652615</v>
       </c>
       <c r="E4">
         <v>3552694072435.497</v>
       </c>
       <c r="F4">
-        <v>2620.65382911672</v>
+        <v>2620653829.11672</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,13 +486,13 @@
         <v>3605978947579.999</v>
       </c>
       <c r="D5">
-        <v>9054.963434066129</v>
+        <v>9054954390.595665</v>
       </c>
       <c r="E5">
         <v>3605978947579.999</v>
       </c>
       <c r="F5">
-        <v>2620.515712045653</v>
+        <v>2620515712.045654</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,13 +506,13 @@
         <v>3639627660402.025</v>
       </c>
       <c r="D6">
-        <v>8758.848148689511</v>
+        <v>8758839792.723577</v>
       </c>
       <c r="E6">
         <v>3639627660402.025</v>
       </c>
       <c r="F6">
-        <v>2620.428498586225</v>
+        <v>2620428498.586225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,13 +526,13 @@
         <v>3670702811756.087</v>
       </c>
       <c r="D7">
-        <v>8507.399201816304</v>
+        <v>8507391469.582203</v>
       </c>
       <c r="E7">
         <v>3670702811756.087</v>
       </c>
       <c r="F7">
-        <v>2620.347959407158</v>
+        <v>2620347959.407154</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,13 +546,13 @@
         <v>3689599395547.985</v>
       </c>
       <c r="D8">
-        <v>8300.742538543018</v>
+        <v>8300735372.83714</v>
       </c>
       <c r="E8">
         <v>3689599395547.985</v>
       </c>
       <c r="F8">
-        <v>2620.298985929984</v>
+        <v>2620298985.929984</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,13 +566,13 @@
         <v>3691812640024.562</v>
       </c>
       <c r="D9">
-        <v>8003.661100410493</v>
+        <v>8003654449.505208</v>
       </c>
       <c r="E9">
         <v>3691812640024.562</v>
       </c>
       <c r="F9">
-        <v>2620.293250048831</v>
+        <v>2620293250.048829</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,13 +586,13 @@
         <v>3767215411152.005</v>
       </c>
       <c r="D10">
-        <v>7659.375160911746</v>
+        <v>7659368963.579312</v>
       </c>
       <c r="E10">
         <v>3767215411152.005</v>
       </c>
       <c r="F10">
-        <v>2620.097846371486</v>
+        <v>2620097846.371485</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,13 +606,13 @@
         <v>3881941335750.142</v>
       </c>
       <c r="D11">
-        <v>7485.824260086411</v>
+        <v>7485818470.908678</v>
       </c>
       <c r="E11">
         <v>3881941335750.142</v>
       </c>
       <c r="F11">
-        <v>2619.80058059076</v>
+        <v>2619800580.590761</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,13 +626,13 @@
         <v>4150531068881.376</v>
       </c>
       <c r="D12">
-        <v>7277.535158152299</v>
+        <v>7277529744.300896</v>
       </c>
       <c r="E12">
         <v>4150531068881.376</v>
       </c>
       <c r="F12">
-        <v>2619.104839753711</v>
+        <v>2619104839.75371</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,13 +646,13 @@
         <v>4204129085427.44</v>
       </c>
       <c r="D13">
-        <v>6947.514444881934</v>
+        <v>6947509364.226181</v>
       </c>
       <c r="E13">
         <v>4204129085427.44</v>
       </c>
       <c r="F13">
-        <v>2618.966035934854</v>
+        <v>2618966035.934854</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,13 +666,13 @@
         <v>4336238542793.819</v>
       </c>
       <c r="D14">
-        <v>6709.952537821926</v>
+        <v>6709947755.019995</v>
       </c>
       <c r="E14">
         <v>4336238542793.819</v>
       </c>
       <c r="F14">
-        <v>2618.623957415835</v>
+        <v>2618623957.415836</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,13 +686,13 @@
         <v>4481520593455.458</v>
       </c>
       <c r="D15">
-        <v>6576.030495221581</v>
+        <v>6576025984.950526</v>
       </c>
       <c r="E15">
         <v>4481520593455.458</v>
       </c>
       <c r="F15">
-        <v>2618.247849065416</v>
+        <v>2618247849.065411</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,13 +706,13 @@
         <v>4485789180739.681</v>
       </c>
       <c r="D16">
-        <v>6374.201424202358</v>
+        <v>6374197165.301547</v>
       </c>
       <c r="E16">
         <v>4485789180739.681</v>
       </c>
       <c r="F16">
-        <v>2618.236799730027</v>
+        <v>2618236799.730023</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,13 +726,13 @@
         <v>4517152065267.674</v>
       </c>
       <c r="D17">
-        <v>6107.10042998576</v>
+        <v>6107096396.107951</v>
       </c>
       <c r="E17">
         <v>4517152065267.674</v>
       </c>
       <c r="F17">
-        <v>2618.155618373371</v>
+        <v>2618155618.373369</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,13 +746,13 @@
         <v>4764254251762.844</v>
       </c>
       <c r="D18">
-        <v>5969.709608530306</v>
+        <v>5969705778.986619</v>
       </c>
       <c r="E18">
         <v>4764254251762.844</v>
       </c>
       <c r="F18">
-        <v>2617.516140473879</v>
+        <v>2617516140.473878</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,13 +766,13 @@
         <v>5190734422703.187</v>
       </c>
       <c r="D19">
-        <v>5833.500352473551</v>
+        <v>5833496714.215345</v>
       </c>
       <c r="E19">
         <v>5190734422703.187</v>
       </c>
       <c r="F19">
-        <v>2616.413010817541</v>
+        <v>2616413010.817543</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,13 +786,13 @@
         <v>5221672464394.91</v>
       </c>
       <c r="D20">
-        <v>5571.498076951277</v>
+        <v>5571494611.950929</v>
       </c>
       <c r="E20">
         <v>5221672464394.91</v>
       </c>
       <c r="F20">
-        <v>2616.333014477942</v>
+        <v>2616333014.477947</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,13 +806,13 @@
         <v>5551622485977.552</v>
       </c>
       <c r="D21">
-        <v>5412.802113291182</v>
+        <v>5412798804.096512</v>
       </c>
       <c r="E21">
         <v>5551622485977.552</v>
       </c>
       <c r="F21">
-        <v>2615.480097719914</v>
+        <v>2615480097.719919</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,13 +826,13 @@
         <v>5883740983414.199</v>
       </c>
       <c r="D22">
-        <v>5323.869753193489</v>
+        <v>5323866591.100682</v>
       </c>
       <c r="E22">
         <v>5883740983414.199</v>
       </c>
       <c r="F22">
-        <v>2614.622006643536</v>
+        <v>2614622006.643537</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,13 +846,13 @@
         <v>5900131549902.763</v>
       </c>
       <c r="D23">
-        <v>5124.505583787774</v>
+        <v>5124502557.007641</v>
       </c>
       <c r="E23">
         <v>5900131549902.763</v>
       </c>
       <c r="F23">
-        <v>2614.5796697159</v>
+        <v>2614579669.715898</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,13 +866,13 @@
         <v>5994423031185.017</v>
       </c>
       <c r="D24">
-        <v>4989.148559384994</v>
+        <v>4989145655.328985</v>
       </c>
       <c r="E24">
         <v>5994423031185.017</v>
       </c>
       <c r="F24">
-        <v>2614.336134759114</v>
+        <v>2614336134.759111</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,13 +886,13 @@
         <v>6015584066417.097</v>
       </c>
       <c r="D25">
-        <v>4956.972334702325</v>
+        <v>4956969547.032809</v>
       </c>
       <c r="E25">
         <v>6015584066417.097</v>
       </c>
       <c r="F25">
-        <v>2614.281485075212</v>
+        <v>2614281485.075213</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,13 +906,13 @@
         <v>6085703622529.208</v>
       </c>
       <c r="D26">
-        <v>4827.622997358383</v>
+        <v>4827620319.236212</v>
       </c>
       <c r="E26">
         <v>6085703622529.208</v>
       </c>
       <c r="F26">
-        <v>2614.100409544489</v>
+        <v>2614100409.544487</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,13 +926,13 @@
         <v>6430744379745.473</v>
       </c>
       <c r="D27">
-        <v>4686.255228748196</v>
+        <v>4686252650.421638</v>
       </c>
       <c r="E27">
         <v>6430744379745.473</v>
       </c>
       <c r="F27">
-        <v>2613.209663595886</v>
+        <v>2613209663.595884</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,13 +946,13 @@
         <v>6439867489943.49</v>
       </c>
       <c r="D28">
-        <v>4558.832807395345</v>
+        <v>4558830323.118442</v>
       </c>
       <c r="E28">
         <v>6439867489943.49</v>
       </c>
       <c r="F28">
-        <v>2613.186118021425</v>
+        <v>2613186118.021423</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,13 +966,13 @@
         <v>6483168721096.779</v>
       </c>
       <c r="D29">
-        <v>4357.69407108982</v>
+        <v>4357691672.593455</v>
       </c>
       <c r="E29">
         <v>6483168721096.779</v>
       </c>
       <c r="F29">
-        <v>2613.074367573389</v>
+        <v>2613074367.573388</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,13 +986,13 @@
         <v>6491798351855.877</v>
       </c>
       <c r="D30">
-        <v>4297.51087704672</v>
+        <v>4297508557.081879</v>
       </c>
       <c r="E30">
         <v>6491798351855.877</v>
       </c>
       <c r="F30">
-        <v>2613.05209737622</v>
+        <v>2613052097.376222</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,13 +1006,13 @@
         <v>6545837825562.425</v>
       </c>
       <c r="D31">
-        <v>4271.521865693372</v>
+        <v>4271519622.346817</v>
       </c>
       <c r="E31">
         <v>6545837825562.425</v>
       </c>
       <c r="F31">
-        <v>2612.91264618652</v>
+        <v>2612912646.186523</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,13 +1026,13 @@
         <v>6560917148025.092</v>
       </c>
       <c r="D32">
-        <v>4185.050144114677</v>
+        <v>4185047971.67179</v>
       </c>
       <c r="E32">
         <v>6560917148025.092</v>
       </c>
       <c r="F32">
-        <v>2612.873735394607</v>
+        <v>2612873735.394605</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,13 +1046,13 @@
         <v>6760204001791.853</v>
       </c>
       <c r="D33">
-        <v>4086.832867638208</v>
+        <v>4086830762.78844</v>
       </c>
       <c r="E33">
         <v>6760204001791.853</v>
       </c>
       <c r="F33">
-        <v>2612.359578172442</v>
+        <v>2612359578.172439</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1066,13 +1066,13 @@
         <v>6795039322147.786</v>
       </c>
       <c r="D34">
-        <v>3965.482196073863</v>
+        <v>3965480153.263793</v>
       </c>
       <c r="E34">
         <v>6795039322147.786</v>
       </c>
       <c r="F34">
-        <v>2612.269719585121</v>
+        <v>2612269719.58512</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1086,13 +1086,13 @@
         <v>6820286386910.667</v>
       </c>
       <c r="D35">
-        <v>3939.795229105192</v>
+        <v>3939793245.050745</v>
       </c>
       <c r="E35">
         <v>6820286386910.667</v>
       </c>
       <c r="F35">
-        <v>2612.204597128401</v>
+        <v>2612204597.128401</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1106,13 +1106,13 @@
         <v>7052395558676.429</v>
       </c>
       <c r="D36">
-        <v>3878.373238083179</v>
+        <v>3878371310.570219</v>
       </c>
       <c r="E36">
         <v>7052395558676.429</v>
       </c>
       <c r="F36">
-        <v>2611.606010616672</v>
+        <v>2611606010.616672</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1126,13 +1126,13 @@
         <v>7230888185296.25</v>
       </c>
       <c r="D37">
-        <v>3783.611764078785</v>
+        <v>3783609889.069129</v>
       </c>
       <c r="E37">
         <v>7230888185296.25</v>
       </c>
       <c r="F37">
-        <v>2611.145840102445</v>
+        <v>2611145840.102443</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1146,13 +1146,13 @@
         <v>7582734381039.172</v>
       </c>
       <c r="D38">
-        <v>3619.802225162624</v>
+        <v>3619800400.005116</v>
       </c>
       <c r="E38">
         <v>7582734381039.172</v>
       </c>
       <c r="F38">
-        <v>2610.239115502175</v>
+        <v>2610239115.50217</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1166,13 +1166,13 @@
         <v>8141834144422.152</v>
       </c>
       <c r="D39">
-        <v>3585.177819616147</v>
+        <v>3585176038.891257</v>
       </c>
       <c r="E39">
         <v>8141834144422.152</v>
       </c>
       <c r="F39">
-        <v>2608.79929198228</v>
+        <v>2608799291.982279</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,13 +1186,13 @@
         <v>8799115166177.844</v>
       </c>
       <c r="D40">
-        <v>3594.770679697998</v>
+        <v>3594768944.687792</v>
       </c>
       <c r="E40">
         <v>8799115166177.844</v>
       </c>
       <c r="F40">
-        <v>2607.108203331695</v>
+        <v>2607108203.331692</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,13 +1206,13 @@
         <v>9309648337732.836</v>
       </c>
       <c r="D41">
-        <v>3564.606734756526</v>
+        <v>3564605041.07532</v>
       </c>
       <c r="E41">
         <v>9309648337732.836</v>
       </c>
       <c r="F41">
-        <v>2605.795852190291</v>
+        <v>2605795852.190291</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1226,13 +1226,13 @@
         <v>9511871408625.109</v>
       </c>
       <c r="D42">
-        <v>3635.531772207614</v>
+        <v>3635530120.52158</v>
       </c>
       <c r="E42">
         <v>9511871408625.109</v>
       </c>
       <c r="F42">
-        <v>2605.27631226928</v>
+        <v>2605276312.269281</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,13 +1246,13 @@
         <v>9816928393078.363</v>
       </c>
       <c r="D43">
-        <v>3443.253624763805</v>
+        <v>3443252012.95166</v>
       </c>
       <c r="E43">
         <v>9816928393078.363</v>
       </c>
       <c r="F43">
-        <v>2604.492883068851</v>
+        <v>2604492883.068851</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,13 +1266,13 @@
         <v>10474405880815.57</v>
       </c>
       <c r="D44">
-        <v>3233.249115367478</v>
+        <v>3233247538.463082</v>
       </c>
       <c r="E44">
         <v>10474405880815.57</v>
       </c>
       <c r="F44">
-        <v>2602.80563918867</v>
+        <v>2602805639.188672</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,13 +1286,13 @@
         <v>11103532659371.53</v>
       </c>
       <c r="D45">
-        <v>3298.550486351654</v>
+        <v>3298548942.5004</v>
       </c>
       <c r="E45">
         <v>11103532659371.53</v>
       </c>
       <c r="F45">
-        <v>2601.192750489628</v>
+        <v>2601192750.489625</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,13 +1306,13 @@
         <v>11343324030338.68</v>
       </c>
       <c r="D46">
-        <v>3324.134564474312</v>
+        <v>3324133054.680246</v>
       </c>
       <c r="E46">
         <v>11343324030338.68</v>
       </c>
       <c r="F46">
-        <v>2600.578410923362</v>
+        <v>2600578410.923362</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,13 +1326,13 @@
         <v>11358910967500.42</v>
       </c>
       <c r="D47">
-        <v>3216.895886216866</v>
+        <v>3216894407.696565</v>
       </c>
       <c r="E47">
         <v>11358910967500.42</v>
       </c>
       <c r="F47">
-        <v>2600.538485452349</v>
+        <v>2600538485.452348</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,13 +1346,13 @@
         <v>11515098327144.29</v>
       </c>
       <c r="D48">
-        <v>3222.269040842759</v>
+        <v>3222267592.246052</v>
       </c>
       <c r="E48">
         <v>11515098327144.29</v>
       </c>
       <c r="F48">
-        <v>2600.138469321354</v>
+        <v>2600138469.321354</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,13 +1366,13 @@
         <v>12218220802241.38</v>
       </c>
       <c r="D49">
-        <v>3262.984255001968</v>
+        <v>3262982835.826201</v>
       </c>
       <c r="E49">
         <v>12218220802241.38</v>
       </c>
       <c r="F49">
-        <v>2598.338877312793</v>
+        <v>2598338877.312792</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,13 +1386,13 @@
         <v>12274426259950.31</v>
       </c>
       <c r="D50">
-        <v>3115.574217179674</v>
+        <v>3115572826.727984</v>
       </c>
       <c r="E50">
         <v>12274426259950.31</v>
       </c>
       <c r="F50">
-        <v>2598.195107944945</v>
+        <v>2598195107.944942</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,13 +1406,13 @@
         <v>12855621131471.33</v>
       </c>
       <c r="D51">
-        <v>2972.135702856875</v>
+        <v>2972134337.402947</v>
       </c>
       <c r="E51">
         <v>12855621131471.33</v>
       </c>
       <c r="F51">
-        <v>2596.709188652353</v>
+        <v>2596709188.652351</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,13 +1426,13 @@
         <v>13233480406889.83</v>
       </c>
       <c r="D52">
-        <v>2891.989104432811</v>
+        <v>2891987763.740129</v>
       </c>
       <c r="E52">
         <v>13233480406889.83</v>
       </c>
       <c r="F52">
-        <v>2595.743847957898</v>
+        <v>2595743847.957898</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,13 +1446,13 @@
         <v>13310282950193.55</v>
       </c>
       <c r="D53">
-        <v>2834.796482489852</v>
+        <v>2834795164.011202</v>
       </c>
       <c r="E53">
         <v>13310282950193.55</v>
       </c>
       <c r="F53">
-        <v>2595.547704912387</v>
+        <v>2595547704.912384</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,13 +1466,13 @@
         <v>13379220341370.59</v>
       </c>
       <c r="D54">
-        <v>3057.034498506458</v>
+        <v>3057033202.590603</v>
       </c>
       <c r="E54">
         <v>13379220341370.59</v>
       </c>
       <c r="F54">
-        <v>2595.371668290706</v>
+        <v>2595371668.290707</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,13 +1486,13 @@
         <v>13453404692272.75</v>
       </c>
       <c r="D55">
-        <v>3053.3173411811</v>
+        <v>3053316069.57197</v>
       </c>
       <c r="E55">
         <v>13453404692272.75</v>
       </c>
       <c r="F55">
-        <v>2595.182254226747</v>
+        <v>2595182254.226745</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,13 +1506,13 @@
         <v>14186448793110.69</v>
       </c>
       <c r="D56">
-        <v>2778.574941408006</v>
+        <v>2778573690.804333</v>
       </c>
       <c r="E56">
         <v>14186448793110.69</v>
       </c>
       <c r="F56">
-        <v>2593.311754596678</v>
+        <v>2593311754.59668</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,13 +1526,13 @@
         <v>14233118417458.71</v>
       </c>
       <c r="D57">
-        <v>2768.236749203061</v>
+        <v>2768235517.670839</v>
       </c>
       <c r="E57">
         <v>14233118417458.71</v>
       </c>
       <c r="F57">
-        <v>2593.192740481631</v>
+        <v>2593192740.481634</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1546,13 +1546,13 @@
         <v>14367265807439.4</v>
       </c>
       <c r="D58">
-        <v>2868.769727287872</v>
+        <v>2868768515.54507</v>
       </c>
       <c r="E58">
         <v>14367265807439.4</v>
       </c>
       <c r="F58">
-        <v>2592.850693880321</v>
+        <v>2592850693.88032</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1566,13 +1566,13 @@
         <v>15339310703243.47</v>
       </c>
       <c r="D59">
-        <v>2847.601631230675</v>
+        <v>2847600438.81474</v>
       </c>
       <c r="E59">
         <v>15339310703243.47</v>
       </c>
       <c r="F59">
-        <v>2590.374325598744</v>
+        <v>2590374325.598742</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1586,13 +1586,13 @@
         <v>15964394154685.3</v>
       </c>
       <c r="D60">
-        <v>2878.120705444366</v>
+        <v>2878119531.418694</v>
       </c>
       <c r="E60">
         <v>15964394154685.3</v>
       </c>
       <c r="F60">
-        <v>2588.78385366758</v>
+        <v>2588783853.667581</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1606,13 +1606,13 @@
         <v>16151553591789.34</v>
       </c>
       <c r="D61">
-        <v>2809.815305867349</v>
+        <v>2809814150.501424</v>
       </c>
       <c r="E61">
         <v>16151553591789.34</v>
       </c>
       <c r="F61">
-        <v>2588.307944223847</v>
+        <v>2588307944.223846</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1626,13 +1626,13 @@
         <v>16924241480275.39</v>
       </c>
       <c r="D62">
-        <v>2630.790198463161</v>
+        <v>2630789059.55392</v>
       </c>
       <c r="E62">
         <v>16924241480275.39</v>
       </c>
       <c r="F62">
-        <v>2586.34462475972</v>
+        <v>2586344624.759721</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1646,13 +1646,13 @@
         <v>17323953500854.05</v>
       </c>
       <c r="D63">
-        <v>2728.01021824393</v>
+        <v>2728009094.894086</v>
       </c>
       <c r="E63">
         <v>17323953500854.05</v>
       </c>
       <c r="F63">
-        <v>2585.329928758161</v>
+        <v>2585329928.758161</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1666,13 +1666,13 @@
         <v>18456489941931.88</v>
       </c>
       <c r="D64">
-        <v>2792.668966715515</v>
+        <v>2792667860.141863</v>
       </c>
       <c r="E64">
         <v>18456489941931.88</v>
       </c>
       <c r="F64">
-        <v>2582.45835191923</v>
+        <v>2582458351.91923</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1686,13 +1686,13 @@
         <v>19695055208641.26</v>
       </c>
       <c r="D65">
-        <v>2603.152200845478</v>
+        <v>2603151109.648157</v>
       </c>
       <c r="E65">
         <v>19695055208641.26</v>
       </c>
       <c r="F65">
-        <v>2579.32375729667</v>
+        <v>2579323757.296667</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1706,13 +1706,13 @@
         <v>20114798455315.62</v>
       </c>
       <c r="D66">
-        <v>2672.259022015147</v>
+        <v>2672257944.614802</v>
       </c>
       <c r="E66">
         <v>20114798455315.62</v>
       </c>
       <c r="F66">
-        <v>2578.262837856844</v>
+        <v>2578262837.856848</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1726,13 +1726,13 @@
         <v>20637171070337.96</v>
       </c>
       <c r="D67">
-        <v>2772.238001912861</v>
+        <v>2772236939.915211</v>
       </c>
       <c r="E67">
         <v>20637171070337.96</v>
       </c>
       <c r="F67">
-        <v>2576.943491788586</v>
+        <v>2576943491.788584</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1746,13 +1746,13 @@
         <v>21338700517011.26</v>
       </c>
       <c r="D68">
-        <v>2658.935643676436</v>
+        <v>2658934595.70157</v>
       </c>
       <c r="E68">
         <v>21338700517011.26</v>
       </c>
       <c r="F68">
-        <v>2575.173350617286</v>
+        <v>2575173350.617286</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1766,13 +1766,13 @@
         <v>21865182151613.85</v>
       </c>
       <c r="D69">
-        <v>2581.275579605601</v>
+        <v>2581274545.084321</v>
       </c>
       <c r="E69">
         <v>21865182151613.85</v>
       </c>
       <c r="F69">
-        <v>2573.846177876011</v>
+        <v>2573846177.876011</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1786,13 +1786,13 @@
         <v>22421667927982.1</v>
       </c>
       <c r="D70">
-        <v>2548.321672305115</v>
+        <v>2548320650.307389</v>
       </c>
       <c r="E70">
         <v>22421667927982.1</v>
       </c>
       <c r="F70">
-        <v>2572.444558912306</v>
+        <v>2572444558.912304</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1806,13 +1806,13 @@
         <v>23225813459296.46</v>
       </c>
       <c r="D71">
-        <v>2344.824023273308</v>
+        <v>2344823013.755448</v>
       </c>
       <c r="E71">
         <v>23225813459296.46</v>
       </c>
       <c r="F71">
-        <v>2570.421316255879</v>
+        <v>2570421316.255882</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1826,13 +1826,13 @@
         <v>23588506332557.3</v>
       </c>
       <c r="D72">
-        <v>2259.579534711898</v>
+        <v>2259578535.140119</v>
       </c>
       <c r="E72">
         <v>23588506332557.3</v>
       </c>
       <c r="F72">
-        <v>2569.509608031054</v>
+        <v>2569509608.031047</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1846,13 +1846,13 @@
         <v>23591337998311.1</v>
       </c>
       <c r="D73">
-        <v>2567.8793397462</v>
+        <v>2567878351.389807</v>
       </c>
       <c r="E73">
         <v>23591337998311.1</v>
       </c>
       <c r="F73">
-        <v>2569.502492051351</v>
+        <v>2569502492.051349</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1866,13 +1866,13 @@
         <v>23603342335188.16</v>
       </c>
       <c r="D74">
-        <v>2617.23503996424</v>
+        <v>2617234063.845313</v>
       </c>
       <c r="E74">
         <v>23603342335188.16</v>
       </c>
       <c r="F74">
-        <v>2569.472325487191</v>
+        <v>2569472325.48719</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1886,13 +1886,13 @@
         <v>23855919237549.35</v>
       </c>
       <c r="D75">
-        <v>2577.243163883453</v>
+        <v>2577242198.783085</v>
       </c>
       <c r="E75">
         <v>23855919237549.35</v>
       </c>
       <c r="F75">
-        <v>2568.837738050205</v>
+        <v>2568837738.050204</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1906,13 +1906,13 @@
         <v>24324451272151.12</v>
       </c>
       <c r="D76">
-        <v>2523.979452893836</v>
+        <v>2523978499.10499</v>
       </c>
       <c r="E76">
         <v>24324451272151.12</v>
       </c>
       <c r="F76">
-        <v>2567.661237102161</v>
+        <v>2567661237.102162</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1926,13 +1926,13 @@
         <v>24822127062621.84</v>
       </c>
       <c r="D77">
-        <v>2285.06673011207</v>
+        <v>2285065786.307189</v>
       </c>
       <c r="E77">
         <v>24822127062621.84</v>
       </c>
       <c r="F77">
-        <v>2566.412498791341</v>
+        <v>2566412498.791339</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1946,13 +1946,13 @@
         <v>25937204933614.24</v>
       </c>
       <c r="D78">
-        <v>2197.60768625827</v>
+        <v>2197606751.298031</v>
       </c>
       <c r="E78">
         <v>25937204933614.24</v>
       </c>
       <c r="F78">
-        <v>2563.61813663422</v>
+        <v>2563618136.634216</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1966,13 +1966,13 @@
         <v>26590260702299.93</v>
       </c>
       <c r="D79">
-        <v>2348.754786353093</v>
+        <v>2348753860.267654</v>
       </c>
       <c r="E79">
         <v>26590260702299.93</v>
       </c>
       <c r="F79">
-        <v>2561.983850957696</v>
+        <v>2561983850.957695</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1986,13 +1986,13 @@
         <v>27011114357235.26</v>
       </c>
       <c r="D80">
-        <v>2522.49763596931</v>
+        <v>2522496719.521277</v>
       </c>
       <c r="E80">
         <v>27011114357235.26</v>
       </c>
       <c r="F80">
-        <v>2560.931537946863</v>
+        <v>2560931537.946861</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2006,13 +2006,13 @@
         <v>27689185969374</v>
       </c>
       <c r="D81">
-        <v>2463.756741081015</v>
+        <v>2463755834.381319</v>
       </c>
       <c r="E81">
         <v>27689185969374</v>
       </c>
       <c r="F81">
-        <v>2559.237522822156</v>
+        <v>2559237522.822155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2026,13 +2026,13 @@
         <v>28545664212888.55</v>
       </c>
       <c r="D82">
-        <v>2416.581360389479</v>
+        <v>2416580462.39402</v>
       </c>
       <c r="E82">
         <v>28545664212888.55</v>
       </c>
       <c r="F82">
-        <v>2557.100355728561</v>
+        <v>2557100355.728562</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2046,13 +2046,13 @@
         <v>29432692302747.41</v>
       </c>
       <c r="D83">
-        <v>2508.464001410059</v>
+        <v>2508463112.387517</v>
       </c>
       <c r="E83">
         <v>29432692302747.41</v>
       </c>
       <c r="F83">
-        <v>2554.889962978991</v>
+        <v>2554889962.97899</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2066,13 +2066,13 @@
         <v>30636624465984.41</v>
       </c>
       <c r="D84">
-        <v>2329.09995654691</v>
+        <v>2329099076.444955</v>
       </c>
       <c r="E84">
         <v>30636624465984.41</v>
       </c>
       <c r="F84">
-        <v>2551.894751742435</v>
+        <v>2551894751.742434</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2086,13 +2086,13 @@
         <v>31521042557933.54</v>
       </c>
       <c r="D85">
-        <v>2159.221254039701</v>
+        <v>2159220381.217831</v>
       </c>
       <c r="E85">
         <v>31521042557933.54</v>
       </c>
       <c r="F85">
-        <v>2549.69801117989</v>
+        <v>2549698011.17989</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2106,13 +2106,13 @@
         <v>32197697955194.25</v>
       </c>
       <c r="D86">
-        <v>2299.580972062889</v>
+        <v>2299580106.668315</v>
       </c>
       <c r="E86">
         <v>32197697955194.25</v>
       </c>
       <c r="F86">
-        <v>2548.019347763347</v>
+        <v>2548019347.763346</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2126,13 +2126,13 @@
         <v>32910238582033.7</v>
       </c>
       <c r="D87">
-        <v>2517.331883070641</v>
+        <v>2517331025.564004</v>
       </c>
       <c r="E87">
         <v>32910238582033.7</v>
       </c>
       <c r="F87">
-        <v>2546.253556055666</v>
+        <v>2546253556.055665</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2146,13 +2146,13 @@
         <v>33916261248941.96</v>
       </c>
       <c r="D88">
-        <v>2385.788516844623</v>
+        <v>2385787667.809708</v>
       </c>
       <c r="E88">
         <v>33916261248941.96</v>
       </c>
       <c r="F88">
-        <v>2543.763770626844</v>
+        <v>2543763770.626841</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2166,13 +2166,13 @@
         <v>35342007988597.16</v>
       </c>
       <c r="D89">
-        <v>2199.033965125796</v>
+        <v>2199033122.7207</v>
       </c>
       <c r="E89">
         <v>35342007988597.16</v>
       </c>
       <c r="F89">
-        <v>2540.241813181935</v>
+        <v>2540241813.181937</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2186,13 +2186,13 @@
         <v>36352835277324.03</v>
       </c>
       <c r="D90">
-        <v>2348.373026844769</v>
+        <v>2348372191.440523</v>
       </c>
       <c r="E90">
         <v>36352835277324.03</v>
       </c>
       <c r="F90">
-        <v>2537.749472434645</v>
+        <v>2537749472.434642</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2206,13 +2206,13 @@
         <v>36774995123515.84</v>
       </c>
       <c r="D91">
-        <v>2181.486816215795</v>
+        <v>2181485988.032218</v>
       </c>
       <c r="E91">
         <v>36774995123515.84</v>
       </c>
       <c r="F91">
-        <v>2536.709715264099</v>
+        <v>2536709715.264102</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2226,13 +2226,13 @@
         <v>37497273521292.23</v>
       </c>
       <c r="D92">
-        <v>2030.091590061318</v>
+        <v>2030090767.554854</v>
       </c>
       <c r="E92">
         <v>37497273521292.23</v>
       </c>
       <c r="F92">
-        <v>2534.932333121351</v>
+        <v>2534932333.121352</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2246,13 +2246,13 @@
         <v>39191725857511.2</v>
       </c>
       <c r="D93">
-        <v>2356.075415315572</v>
+        <v>2356074598.906316</v>
       </c>
       <c r="E93">
         <v>39191725857511.2</v>
       </c>
       <c r="F93">
-        <v>2530.770279215471</v>
+        <v>2530770279.215475</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2266,13 +2266,13 @@
         <v>39953161766123.96</v>
       </c>
       <c r="D94">
-        <v>2425.571130935568</v>
+        <v>2425570321.796699</v>
       </c>
       <c r="E94">
         <v>39953161766123.96</v>
       </c>
       <c r="F94">
-        <v>2528.90345445811</v>
+        <v>2528903454.458109</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2286,13 +2286,13 @@
         <v>40554777157118.08</v>
       </c>
       <c r="D95">
-        <v>2183.101632374339</v>
+        <v>2183100829.370999</v>
       </c>
       <c r="E95">
         <v>40554777157118.08</v>
       </c>
       <c r="F95">
-        <v>2527.429980682037</v>
+        <v>2527429980.682035</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2306,13 +2306,13 @@
         <v>41371394039219.38</v>
       </c>
       <c r="D96">
-        <v>2334.579919158947</v>
+        <v>2334579121.821081</v>
       </c>
       <c r="E96">
         <v>41371394039219.38</v>
       </c>
       <c r="F96">
-        <v>2525.432060310231</v>
+        <v>2525432060.310232</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2326,13 +2326,13 @@
         <v>42333144356525.59</v>
       </c>
       <c r="D97">
-        <v>2504.799034974538</v>
+        <v>2504798244.321797</v>
       </c>
       <c r="E97">
         <v>42333144356525.59</v>
       </c>
       <c r="F97">
-        <v>2523.082201073749</v>
+        <v>2523082201.073747</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2346,13 +2346,13 @@
         <v>42977273973165.34</v>
       </c>
       <c r="D98">
-        <v>2140.592835511081</v>
+        <v>2140592051.085119</v>
       </c>
       <c r="E98">
         <v>42977273973165.34</v>
       </c>
       <c r="F98">
-        <v>2521.510284771513</v>
+        <v>2521510284.771516</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2366,13 +2366,13 @@
         <v>44625483629686.48</v>
       </c>
       <c r="D99">
-        <v>1865.261768187396</v>
+        <v>1865260988.307193</v>
       </c>
       <c r="E99">
         <v>44625483629686.48</v>
       </c>
       <c r="F99">
-        <v>2517.494944119252</v>
+        <v>2517494944.119255</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2386,13 +2386,13 @@
         <v>46098471577449.38</v>
       </c>
       <c r="D100">
-        <v>1943.882036183495</v>
+        <v>1943881260.978347</v>
       </c>
       <c r="E100">
         <v>46098471577449.38</v>
       </c>
       <c r="F100">
-        <v>2513.914850749128</v>
+        <v>2513914850.74913</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2406,13 +2406,13 @@
         <v>46898867155586.39</v>
       </c>
       <c r="D101">
-        <v>2069.513279139996</v>
+        <v>2069512508.685118</v>
       </c>
       <c r="E101">
         <v>46898867155586.39</v>
       </c>
       <c r="F101">
-        <v>2511.972792863205</v>
+        <v>2511972792.863203</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2426,13 +2426,13 @@
         <v>48317719909777.12</v>
       </c>
       <c r="D102">
-        <v>2471.1488572089</v>
+        <v>2471148091.838267</v>
       </c>
       <c r="E102">
         <v>48317719909777.12</v>
       </c>
       <c r="F102">
-        <v>2508.535818881117</v>
+        <v>2508535818.881117</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2446,13 +2446,13 @@
         <v>49659479866568.7</v>
       </c>
       <c r="D103">
-        <v>2637.780584146734</v>
+        <v>2637779825.174591</v>
       </c>
       <c r="E103">
         <v>49659479866568.7</v>
       </c>
       <c r="F103">
-        <v>2505.292262956432</v>
+        <v>2505292262.956432</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2466,13 +2466,13 @@
         <v>51034584456779.09</v>
       </c>
       <c r="D104">
-        <v>2549.733651523013</v>
+        <v>2549732898.068038</v>
       </c>
       <c r="E104">
         <v>51034584456779.09</v>
       </c>
       <c r="F104">
-        <v>2501.974796233494</v>
+        <v>2501974796.233496</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2486,13 +2486,13 @@
         <v>52682891885839.38</v>
       </c>
       <c r="D105">
-        <v>2357.104786910117</v>
+        <v>2357104039.174972</v>
       </c>
       <c r="E105">
         <v>52682891885839.38</v>
       </c>
       <c r="F105">
-        <v>2498.007099540986</v>
+        <v>2498007099.540984</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2506,13 +2506,13 @@
         <v>54306882168664.92</v>
       </c>
       <c r="D106">
-        <v>1915.909765226766</v>
+        <v>1915909021.890812</v>
       </c>
       <c r="E106">
         <v>54306882168664.92</v>
       </c>
       <c r="F106">
-        <v>2494.107328603602</v>
+        <v>2494107328.603603</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2526,13 +2526,13 @@
         <v>55320079000963.69</v>
       </c>
       <c r="D107">
-        <v>1771.351582536241</v>
+        <v>1771350842.862513</v>
       </c>
       <c r="E107">
         <v>55320079000963.69</v>
       </c>
       <c r="F107">
-        <v>2491.678969024726</v>
+        <v>2491678969.024725</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2546,13 +2546,13 @@
         <v>56715273994291.16</v>
       </c>
       <c r="D108">
-        <v>2028.195373366587</v>
+        <v>2028194637.356326</v>
       </c>
       <c r="E108">
         <v>56715273994291.16</v>
       </c>
       <c r="F108">
-        <v>2488.340903068235</v>
+        <v>2488340903.068233</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2566,13 +2566,13 @@
         <v>57633574794981.15</v>
       </c>
       <c r="D109">
-        <v>2278.100492807571</v>
+        <v>2278099761.367442</v>
       </c>
       <c r="E109">
         <v>57633574794981.15</v>
       </c>
       <c r="F109">
-        <v>2486.147497730763</v>
+        <v>2486147497.730762</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2586,13 +2586,13 @@
         <v>58525713946869.67</v>
       </c>
       <c r="D110">
-        <v>2256.912306150887</v>
+        <v>2256911579.176066</v>
       </c>
       <c r="E110">
         <v>58525713946869.67</v>
       </c>
       <c r="F110">
-        <v>2484.019356831217</v>
+        <v>2484019356.831217</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2606,13 +2606,13 @@
         <v>60109032116154.54</v>
       </c>
       <c r="D111">
-        <v>2091.788667082554</v>
+        <v>2091787944.391755</v>
       </c>
       <c r="E111">
         <v>60109032116154.54</v>
       </c>
       <c r="F111">
-        <v>2480.249161409407</v>
+        <v>2480249161.409407</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2626,13 +2626,13 @@
         <v>60858715340730.24</v>
       </c>
       <c r="D112">
-        <v>2137.929954244522</v>
+        <v>2137929235.200475</v>
       </c>
       <c r="E112">
         <v>60858715340730.24</v>
       </c>
       <c r="F112">
-        <v>2478.467000744506</v>
+        <v>2478467000.744503</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2646,13 +2646,13 @@
         <v>61657900575946.95</v>
       </c>
       <c r="D113">
-        <v>2230.680330249481</v>
+        <v>2230679615.507136</v>
       </c>
       <c r="E113">
         <v>61657900575946.95</v>
       </c>
       <c r="F113">
-        <v>2476.569270022778</v>
+        <v>2476569270.022779</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2666,13 +2666,13 @@
         <v>63712663053519.41</v>
       </c>
       <c r="D114">
-        <v>2109.976717020385</v>
+        <v>2109976006.076302</v>
       </c>
       <c r="E114">
         <v>63712663053519.41</v>
       </c>
       <c r="F114">
-        <v>2471.700033454187</v>
+        <v>2471700033.454185</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2686,13 +2686,13 @@
         <v>65113110563566.96</v>
       </c>
       <c r="D115">
-        <v>1856.81134225335</v>
+        <v>1856810635.012207</v>
       </c>
       <c r="E115">
         <v>65113110563566.96</v>
       </c>
       <c r="F115">
-        <v>2468.389556771201</v>
+        <v>2468389556.771201</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2706,13 +2706,13 @@
         <v>67184301303261.45</v>
       </c>
       <c r="D116">
-        <v>1783.43543783389</v>
+        <v>1783434733.355872</v>
       </c>
       <c r="E116">
         <v>67184301303261.45</v>
       </c>
       <c r="F116">
-        <v>2463.505692350114</v>
+        <v>2463505692.350111</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2726,13 +2726,13 @@
         <v>69794917628613.66</v>
       </c>
       <c r="D117">
-        <v>2208.065525524318</v>
+        <v>2208064824.396673</v>
       </c>
       <c r="E117">
         <v>69794917628613.66</v>
       </c>
       <c r="F117">
-        <v>2457.370447643358</v>
+        <v>2457370447.64336</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2746,13 +2746,13 @@
         <v>71415430674902.59</v>
       </c>
       <c r="D118">
-        <v>2335.838454682846</v>
+        <v>2335837757.618369</v>
       </c>
       <c r="E118">
         <v>71415430674902.59</v>
       </c>
       <c r="F118">
-        <v>2453.573540305685</v>
+        <v>2453573540.305685</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2766,13 +2766,13 @@
         <v>72940218052680.09</v>
       </c>
       <c r="D119">
-        <v>2302.680879750289</v>
+        <v>2302680186.273134</v>
       </c>
       <c r="E119">
         <v>72940218052680.09</v>
       </c>
       <c r="F119">
-        <v>2450.008900693213</v>
+        <v>2450008900.693212</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2786,13 +2786,13 @@
         <v>74784502329872.69</v>
       </c>
       <c r="D120">
-        <v>2180.930701227859</v>
+        <v>2180930011.540163</v>
       </c>
       <c r="E120">
         <v>74784502329872.69</v>
       </c>
       <c r="F120">
-        <v>2445.707627325839</v>
+        <v>2445707627.325842</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2806,13 +2806,13 @@
         <v>75983456087492.52</v>
       </c>
       <c r="D121">
-        <v>1821.779997810721</v>
+        <v>1821779311.15494</v>
       </c>
       <c r="E121">
         <v>75983456087492.52</v>
       </c>
       <c r="F121">
-        <v>2442.917419665004</v>
+        <v>2442917419.665004</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2826,13 +2826,13 @@
         <v>77665809916656.48</v>
       </c>
       <c r="D122">
-        <v>1768.815476531163</v>
+        <v>1768814792.434389</v>
       </c>
       <c r="E122">
         <v>77665809916656.48</v>
       </c>
       <c r="F122">
-        <v>2439.010209261487</v>
+        <v>2439010209.26149</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2846,13 +2846,13 @@
         <v>77990446598303.34</v>
       </c>
       <c r="D123">
-        <v>2189.815118387341</v>
+        <v>2189814437.069512</v>
       </c>
       <c r="E123">
         <v>77990446598303.34</v>
       </c>
       <c r="F123">
-        <v>2438.257321284673</v>
+        <v>2438257321.28467</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2866,13 +2866,13 @@
         <v>80096200663272.88</v>
       </c>
       <c r="D124">
-        <v>2384.734554993454</v>
+        <v>2384733877.377934</v>
       </c>
       <c r="E124">
         <v>80096200663272.88</v>
       </c>
       <c r="F124">
-        <v>2433.382122944275</v>
+        <v>2433382122.944274</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2886,13 +2886,13 @@
         <v>81298434928748.75</v>
       </c>
       <c r="D125">
-        <v>2247.652492933907</v>
+        <v>2247651818.495569</v>
       </c>
       <c r="E125">
         <v>81298434928748.75</v>
       </c>
       <c r="F125">
-        <v>2430.605275585145</v>
+        <v>2430605275.585145</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2906,13 +2906,13 @@
         <v>82799319714457.89</v>
       </c>
       <c r="D126">
-        <v>2022.971605843399</v>
+        <v>2022970934.569371</v>
       </c>
       <c r="E126">
         <v>82799319714457.89</v>
       </c>
       <c r="F126">
-        <v>2427.145316911085</v>
+        <v>2427145316.911087</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2926,13 +2926,13 @@
         <v>85886627087010.39</v>
       </c>
       <c r="D127">
-        <v>2070.879520807415</v>
+        <v>2070878851.950394</v>
       </c>
       <c r="E127">
         <v>85886627087010.39</v>
       </c>
       <c r="F127">
-        <v>2420.051716588619</v>
+        <v>2420051716.58862</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2946,13 +2946,13 @@
         <v>88202067682139.31</v>
       </c>
       <c r="D128">
-        <v>2635.622452689335</v>
+        <v>2635621787.02814</v>
       </c>
       <c r="E128">
         <v>88202067682139.31</v>
       </c>
       <c r="F128">
-        <v>2414.752499791493</v>
+        <v>2414752499.791491</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2966,13 +2966,13 @@
         <v>90078272837375.92</v>
       </c>
       <c r="D129">
-        <v>2552.455417273566</v>
+        <v>2552454755.385345</v>
       </c>
       <c r="E129">
         <v>90078272837375.92</v>
       </c>
       <c r="F129">
-        <v>2410.471745167804</v>
+        <v>2410471745.167802</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2986,13 +2986,13 @@
         <v>91414836477820.92</v>
       </c>
       <c r="D130">
-        <v>1841.016762781888</v>
+        <v>1841016103.676484</v>
       </c>
       <c r="E130">
         <v>91414836477820.92</v>
       </c>
       <c r="F130">
-        <v>2407.429484336813</v>
+        <v>2407429484.336814</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3006,13 +3006,13 @@
         <v>94326628345569.03</v>
       </c>
       <c r="D131">
-        <v>1445.395591777749</v>
+        <v>1445394934.519567</v>
       </c>
       <c r="E131">
         <v>94326628345569.03</v>
       </c>
       <c r="F131">
-        <v>2400.822754794088</v>
+        <v>2400822754.794088</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3026,13 +3026,13 @@
         <v>96031083438957.36</v>
       </c>
       <c r="D132">
-        <v>1580.525035148486</v>
+        <v>1580524379.628361</v>
       </c>
       <c r="E132">
         <v>96031083438957.36</v>
       </c>
       <c r="F132">
-        <v>2396.968917344404</v>
+        <v>2396968917.344404</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3046,13 +3046,13 @@
         <v>97347338039338.41</v>
       </c>
       <c r="D133">
-        <v>1822.655493991449</v>
+        <v>1822654840.59751</v>
       </c>
       <c r="E133">
         <v>97347338039338.41</v>
       </c>
       <c r="F133">
-        <v>2393.999700879378</v>
+        <v>2393999700.879376</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3066,13 +3066,13 @@
         <v>100081370684443.4</v>
       </c>
       <c r="D134">
-        <v>2126.773062437773</v>
+        <v>2126772411.291859</v>
       </c>
       <c r="E134">
         <v>100081370684443.4</v>
       </c>
       <c r="F134">
-        <v>2387.851653903653</v>
+        <v>2387851653.903652</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3086,13 +3086,13 @@
         <v>102803309408717.4</v>
       </c>
       <c r="D135">
-        <v>2710.815155005082</v>
+        <v>2710814506.617855</v>
       </c>
       <c r="E135">
         <v>102803309408717.4</v>
       </c>
       <c r="F135">
-        <v>2381.757243838506</v>
+        <v>2381757243.838507</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3106,13 +3106,13 @@
         <v>106213692035386.2</v>
       </c>
       <c r="D136">
-        <v>2875.320948942215</v>
+        <v>2875320304.025086</v>
       </c>
       <c r="E136">
         <v>106213692035386.2</v>
       </c>
       <c r="F136">
-        <v>2374.159411977615</v>
+        <v>2374159411.977615</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3126,13 +3126,13 @@
         <v>108678651376386</v>
       </c>
       <c r="D137">
-        <v>2727.845450036228</v>
+        <v>2727844808.053532</v>
       </c>
       <c r="E137">
         <v>108678651376386</v>
       </c>
       <c r="F137">
-        <v>2368.694651401998</v>
+        <v>2368694651.401999</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3146,13 +3146,13 @@
         <v>110739342931270.8</v>
       </c>
       <c r="D138">
-        <v>2735.402588747442</v>
+        <v>2735401949.746899</v>
       </c>
       <c r="E138">
         <v>110739342931270.8</v>
       </c>
       <c r="F138">
-        <v>2364.143693990086</v>
+        <v>2364143693.990086</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3166,13 +3166,13 @@
         <v>113034664890522.8</v>
       </c>
       <c r="D139">
-        <v>2133.509002592415</v>
+        <v>2133508366.379731</v>
       </c>
       <c r="E139">
         <v>113034664890522.8</v>
       </c>
       <c r="F139">
-        <v>2359.093687364828</v>
+        <v>2359093687.364828</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3186,13 +3186,13 @@
         <v>115957337282407.4</v>
       </c>
       <c r="D140">
-        <v>1721.923673968762</v>
+        <v>1721923039.350971</v>
       </c>
       <c r="E140">
         <v>115957337282407.4</v>
       </c>
       <c r="F140">
-        <v>2352.693196333339</v>
+        <v>2352693196.333337</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3206,13 +3206,13 @@
         <v>118601451723622.4</v>
       </c>
       <c r="D141">
-        <v>1611.19823744148</v>
+        <v>1611197604.713688</v>
       </c>
       <c r="E141">
         <v>118601451723622.4</v>
       </c>
       <c r="F141">
-        <v>2346.932153884317</v>
+        <v>2346932153.884316</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3226,13 +3226,13 @@
         <v>121268904141749</v>
       </c>
       <c r="D142">
-        <v>1434.690456244163</v>
+        <v>1434689824.826806</v>
       </c>
       <c r="E142">
         <v>121268904141749</v>
       </c>
       <c r="F142">
-        <v>2341.149335306309</v>
+        <v>2341149335.306308</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3246,13 +3246,13 @@
         <v>123912163363779.2</v>
       </c>
       <c r="D143">
-        <v>1791.891579039395</v>
+        <v>1791890949.123921</v>
       </c>
       <c r="E143">
         <v>123912163363779.2</v>
       </c>
       <c r="F143">
-        <v>2335.44856866198</v>
+        <v>2335448568.66198</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3266,13 +3266,13 @@
         <v>127048277416476</v>
       </c>
       <c r="D144">
-        <v>1969.67972042039</v>
+        <v>1969679092.460811</v>
       </c>
       <c r="E144">
         <v>127048277416476</v>
       </c>
       <c r="F144">
-        <v>2328.72429654031</v>
+        <v>2328724296.540309</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3286,13 +3286,13 @@
         <v>129742035698475.1</v>
       </c>
       <c r="D145">
-        <v>2223.936424309388</v>
+        <v>2223935798.116275</v>
       </c>
       <c r="E145">
         <v>129742035698475.1</v>
       </c>
       <c r="F145">
-        <v>2322.983828890239</v>
+        <v>2322983828.890241</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3306,13 +3306,13 @@
         <v>132238428805838.7</v>
       </c>
       <c r="D146">
-        <v>2406.376103227492</v>
+        <v>2406375479.388381</v>
       </c>
       <c r="E146">
         <v>132238428805838.7</v>
       </c>
       <c r="F146">
-        <v>2317.694123962006</v>
+        <v>2317694123.962004</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3326,13 +3326,13 @@
         <v>134571084073386.4</v>
       </c>
       <c r="D147">
-        <v>2149.409151860978</v>
+        <v>2149408530.011551</v>
       </c>
       <c r="E147">
         <v>134571084073386.4</v>
       </c>
       <c r="F147">
-        <v>2312.778514406642</v>
+        <v>2312778514.40664</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3346,13 +3346,13 @@
         <v>138092899340183.2</v>
       </c>
       <c r="D148">
-        <v>2250.932576558553</v>
+        <v>2250931956.51564</v>
       </c>
       <c r="E148">
         <v>138092899340183.2</v>
       </c>
       <c r="F148">
-        <v>2305.408818079441</v>
+        <v>2305408818.079443</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3366,13 +3366,13 @@
         <v>141207530812496.2</v>
       </c>
       <c r="D149">
-        <v>2322.924679170363</v>
+        <v>2322924061.214592</v>
       </c>
       <c r="E149">
         <v>141207530812496.2</v>
       </c>
       <c r="F149">
-        <v>2298.945707702236</v>
+        <v>2298945707.702234</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3386,13 +3386,13 @@
         <v>144214353183987.2</v>
       </c>
       <c r="D150">
-        <v>2387.65908915177</v>
+        <v>2387658473.029512</v>
       </c>
       <c r="E150">
         <v>144214353183987.2</v>
       </c>
       <c r="F150">
-        <v>2292.757487400019</v>
+        <v>2292757487.400019</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3406,13 +3406,13 @@
         <v>146748553332511.4</v>
       </c>
       <c r="D151">
-        <v>2490.503918379545</v>
+        <v>2490503304.364678</v>
       </c>
       <c r="E151">
         <v>146748553332511.4</v>
       </c>
       <c r="F151">
-        <v>2287.582972559735</v>
+        <v>2287582972.559737</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3426,13 +3426,13 @@
         <v>150302806094155.7</v>
       </c>
       <c r="D152">
-        <v>2068.655226301402</v>
+        <v>2068654614.185108</v>
       </c>
       <c r="E152">
         <v>150302806094155.7</v>
       </c>
       <c r="F152">
-        <v>2280.392471672033</v>
+        <v>2280392471.672032</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3446,13 +3446,13 @@
         <v>154252648458688.7</v>
       </c>
       <c r="D153">
-        <v>1915.329645613208</v>
+        <v>1915329034.848855</v>
       </c>
       <c r="E153">
         <v>154252648458688.7</v>
       </c>
       <c r="F153">
-        <v>2272.499249095977</v>
+        <v>2272499249.095977</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3466,13 +3466,13 @@
         <v>157686911479218.6</v>
       </c>
       <c r="D154">
-        <v>2161.783368807286</v>
+        <v>2161782759.647196</v>
       </c>
       <c r="E154">
         <v>157686911479218.6</v>
       </c>
       <c r="F154">
-        <v>2265.725785322695</v>
+        <v>2265725785.322696</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3486,13 +3486,13 @@
         <v>161597077560227.9</v>
       </c>
       <c r="D155">
-        <v>2397.160377860302</v>
+        <v>2397159770.363544</v>
       </c>
       <c r="E155">
         <v>161597077560227.9</v>
       </c>
       <c r="F155">
-        <v>2258.122329232704</v>
+        <v>2258122329.232704</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3506,13 +3506,13 @@
         <v>164980880048719</v>
       </c>
       <c r="D156">
-        <v>2169.527649149299</v>
+        <v>2169527043.532179</v>
       </c>
       <c r="E156">
         <v>164980880048719</v>
       </c>
       <c r="F156">
-        <v>2251.642096340963</v>
+        <v>2251642096.340961</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3526,13 +3526,13 @@
         <v>168708874481329.3</v>
       </c>
       <c r="D157">
-        <v>1820.198239348829</v>
+        <v>1820197634.97618</v>
       </c>
       <c r="E157">
         <v>168708874481329.3</v>
       </c>
       <c r="F157">
-        <v>2244.61715030226</v>
+        <v>2244617150.30226</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3546,13 +3546,13 @@
         <v>173120524543218.7</v>
       </c>
       <c r="D158">
-        <v>1994.510744743049</v>
+        <v>1994510141.704345</v>
       </c>
       <c r="E158">
         <v>173120524543218.7</v>
       </c>
       <c r="F158">
-        <v>2236.469872188743</v>
+        <v>2236469872.188744</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3566,13 +3566,13 @@
         <v>176429799240802.5</v>
       </c>
       <c r="D159">
-        <v>2288.702541729435</v>
+        <v>2288701940.128589</v>
       </c>
       <c r="E159">
         <v>176429799240802.5</v>
       </c>
       <c r="F159">
-        <v>2230.484326696857</v>
+        <v>2230484326.696857</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3586,13 +3586,13 @@
         <v>180091956119302.6</v>
       </c>
       <c r="D160">
-        <v>2326.416728512384</v>
+        <v>2326416128.585301</v>
       </c>
       <c r="E160">
         <v>180091956119302.6</v>
       </c>
       <c r="F160">
-        <v>2223.994257551455</v>
+        <v>2223994257.551457</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3606,13 +3606,13 @@
         <v>182905671248000.8</v>
       </c>
       <c r="D161">
-        <v>2184.034485737793</v>
+        <v>2184033887.221595</v>
       </c>
       <c r="E161">
         <v>182905671248000.8</v>
       </c>
       <c r="F161">
-        <v>2219.108334705211</v>
+        <v>2219108334.70521</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3626,13 +3626,13 @@
         <v>185362400446771.2</v>
       </c>
       <c r="D162">
-        <v>2233.661547078751</v>
+        <v>2233660949.986161</v>
       </c>
       <c r="E162">
         <v>185362400446771.2</v>
       </c>
       <c r="F162">
-        <v>2214.917276112818</v>
+        <v>2214917276.112819</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3646,13 +3646,13 @@
         <v>188901332799066.6</v>
       </c>
       <c r="D163">
-        <v>2394.790394046344</v>
+        <v>2394789798.36532</v>
       </c>
       <c r="E163">
         <v>188901332799066.6</v>
       </c>
       <c r="F163">
-        <v>2209.00921766384</v>
+        <v>2209009217.66384</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3666,13 +3666,13 @@
         <v>191890954868192</v>
       </c>
       <c r="D164">
-        <v>2302.590818073601</v>
+        <v>2302590223.95139</v>
       </c>
       <c r="E164">
         <v>191890954868192</v>
       </c>
       <c r="F164">
-        <v>2204.143648989807</v>
+        <v>2204143648.989807</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3686,13 +3686,13 @@
         <v>197112886713763.6</v>
       </c>
       <c r="D165">
-        <v>1961.255337084644</v>
+        <v>1961254744.189164</v>
       </c>
       <c r="E165">
         <v>197112886713763.6</v>
       </c>
       <c r="F165">
-        <v>2195.942360905011</v>
+        <v>2195942360.905011</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3706,13 +3706,13 @@
         <v>202698944413849.8</v>
       </c>
       <c r="D166">
-        <v>2076.608638949692</v>
+        <v>2076608047.152789</v>
       </c>
       <c r="E166">
         <v>202698944413849.8</v>
       </c>
       <c r="F166">
-        <v>2187.630110645358</v>
+        <v>2187630110.645359</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3726,13 +3726,13 @@
         <v>208196702225411.5</v>
       </c>
       <c r="D167">
-        <v>2760.313455492258</v>
+        <v>2760312865.012757</v>
       </c>
       <c r="E167">
         <v>208196702225411.5</v>
       </c>
       <c r="F167">
-        <v>2179.977405887767</v>
+        <v>2179977405.887766</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3746,13 +3746,13 @@
         <v>214697634934318.2</v>
       </c>
       <c r="D168">
-        <v>2977.07686152216</v>
+        <v>2977076272.862557</v>
       </c>
       <c r="E168">
         <v>214697634934318.2</v>
       </c>
       <c r="F168">
-        <v>2171.723427001228</v>
+        <v>2171723427.001227</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3766,13 +3766,13 @@
         <v>219863882595950.4</v>
       </c>
       <c r="D169">
-        <v>2720.313787437975</v>
+        <v>2720313200.232904</v>
       </c>
       <c r="E169">
         <v>219863882595950.4</v>
       </c>
       <c r="F169">
-        <v>2166.648114748868</v>
+        <v>2166648114.748868</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3786,13 +3786,13 @@
         <v>224077538677595.3</v>
       </c>
       <c r="D170">
-        <v>2074.893605023623</v>
+        <v>2074893019.276473</v>
       </c>
       <c r="E170">
         <v>224077538677595.3</v>
       </c>
       <c r="F170">
-        <v>2165.064672960268</v>
+        <v>2165064672.960267</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3806,13 +3806,13 @@
         <v>228060775963615</v>
       </c>
       <c r="D171">
-        <v>1567.352523789741</v>
+        <v>1567351938.744992</v>
       </c>
       <c r="E171">
         <v>228060775963615</v>
       </c>
       <c r="F171">
-        <v>2163.967504227689</v>
+        <v>2163967504.227688</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3826,13 +3826,13 @@
         <v>231315870479227</v>
       </c>
       <c r="D172">
-        <v>2441.535755172372</v>
+        <v>2441535171.038546</v>
       </c>
       <c r="E172">
         <v>231315870479227</v>
       </c>
       <c r="F172">
-        <v>2163.343534731132</v>
+        <v>2163343534.731132</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3846,13 +3846,13 @@
         <v>234777383110857.2</v>
       </c>
       <c r="D173">
-        <v>2318.277412220836</v>
+        <v>2318276829.640739</v>
       </c>
       <c r="E173">
         <v>234777383110857.2</v>
       </c>
       <c r="F173">
-        <v>2162.871067200508</v>
+        <v>2162871067.200508</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3866,13 +3866,13 @@
         <v>239990770111012.6</v>
       </c>
       <c r="D174">
-        <v>1777.939196839929</v>
+        <v>1777938614.973625</v>
       </c>
       <c r="E174">
         <v>239990770111012.6</v>
       </c>
       <c r="F174">
-        <v>2162.449425621334</v>
+        <v>2162449425.621334</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3886,13 +3886,13 @@
         <v>247059880305798.3</v>
       </c>
       <c r="D175">
-        <v>2370.792877994478</v>
+        <v>2370792297.128922</v>
       </c>
       <c r="E175">
         <v>247059880305798.3</v>
       </c>
       <c r="F175">
-        <v>2162.148183815121</v>
+        <v>2162148183.815121</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3906,13 +3906,13 @@
         <v>253046270271874.8</v>
       </c>
       <c r="D176">
-        <v>3139.927843336016</v>
+        <v>3139927263.705318</v>
       </c>
       <c r="E176">
         <v>253046270271874.8</v>
       </c>
       <c r="F176">
-        <v>2162.080958613306</v>
+        <v>2162080958.613305</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3926,13 +3926,13 @@
         <v>257573833216125.8</v>
       </c>
       <c r="D177">
-        <v>2765.341426461935</v>
+        <v>2765340848.475575</v>
       </c>
       <c r="E177">
         <v>257573833216125.8</v>
       </c>
       <c r="F177">
-        <v>2162.172496252745</v>
+        <v>2162172496.252744</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3946,13 +3946,13 @@
         <v>263501724540577.2</v>
       </c>
       <c r="D178">
-        <v>1657.148906648159</v>
+        <v>1657148329.466909</v>
       </c>
       <c r="E178">
         <v>263501724540577.2</v>
       </c>
       <c r="F178">
-        <v>2162.461480895705</v>
+        <v>2162461480.895706</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3966,13 +3966,13 @@
         <v>269454230160946</v>
       </c>
       <c r="D179">
-        <v>2059.700256310403</v>
+        <v>2059699679.772406</v>
       </c>
       <c r="E179">
         <v>269454230160946</v>
       </c>
       <c r="F179">
-        <v>2162.990696361893</v>
+        <v>2162990696.361892</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3986,13 +3986,13 @@
         <v>276389494919974.2</v>
       </c>
       <c r="D180">
-        <v>1552.839560389519</v>
+        <v>1552838984.967503</v>
       </c>
       <c r="E180">
         <v>276389494919974.2</v>
       </c>
       <c r="F180">
-        <v>2163.912788898467</v>
+        <v>2163912788.898466</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4006,13 +4006,13 @@
         <v>281596532349082</v>
       </c>
       <c r="D181">
-        <v>1286.776506140828</v>
+        <v>1286775930.893752</v>
       </c>
       <c r="E181">
         <v>281596532349082</v>
       </c>
       <c r="F181">
-        <v>2164.866830257418</v>
+        <v>2164866830.257418</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4026,13 +4026,13 @@
         <v>286389739319122.8</v>
       </c>
       <c r="D182">
-        <v>1890.730233736336</v>
+        <v>1890729659.394399</v>
       </c>
       <c r="E182">
         <v>286389739319122.8</v>
       </c>
       <c r="F182">
-        <v>2165.823747212525</v>
+        <v>2165823747.212525</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4046,13 +4046,13 @@
         <v>292070580303233</v>
       </c>
       <c r="D183">
-        <v>2029.400633577257</v>
+        <v>2029400059.871748</v>
       </c>
       <c r="E183">
         <v>292070580303233</v>
       </c>
       <c r="F183">
-        <v>2167.055591348173</v>
+        <v>2167055591.348174</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4066,13 +4066,13 @@
         <v>299169757391454.3</v>
       </c>
       <c r="D184">
-        <v>2304.216965100728</v>
+        <v>2304216392.381497</v>
       </c>
       <c r="E184">
         <v>299169757391454.3</v>
       </c>
       <c r="F184">
-        <v>2168.759440348046</v>
+        <v>2168759440.348046</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4086,13 +4086,13 @@
         <v>305890046490063.8</v>
       </c>
       <c r="D185">
-        <v>2196.868743754923</v>
+        <v>2196868171.846104</v>
       </c>
       <c r="E185">
         <v>305890046490063.8</v>
       </c>
       <c r="F185">
-        <v>2170.453808833875</v>
+        <v>2170453808.833875</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4106,13 +4106,13 @@
         <v>313502826473936.5</v>
       </c>
       <c r="D186">
-        <v>3025.880661249161</v>
+        <v>3025880090.212213</v>
       </c>
       <c r="E186">
         <v>313502826473936.5</v>
       </c>
       <c r="F186">
-        <v>2172.451160558232</v>
+        <v>2172451160.558233</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4126,13 +4126,13 @@
         <v>319779059674018.3</v>
       </c>
       <c r="D187">
-        <v>3479.085150208324</v>
+        <v>3479084580.560629</v>
       </c>
       <c r="E187">
         <v>319779059674018.3</v>
       </c>
       <c r="F187">
-        <v>2174.313123692831</v>
+        <v>2174313123.69283</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4146,13 +4146,13 @@
         <v>324954454505776.7</v>
       </c>
       <c r="D188">
-        <v>2660.650620922446</v>
+        <v>2660650052.380659</v>
       </c>
       <c r="E188">
         <v>324954454505776.7</v>
       </c>
       <c r="F188">
-        <v>2175.847665022598</v>
+        <v>2175847665.0226</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4166,13 +4166,13 @@
         <v>331893166999496.1</v>
       </c>
       <c r="D189">
-        <v>2706.365460442379</v>
+        <v>2706364892.648373</v>
       </c>
       <c r="E189">
         <v>331893166999496.1</v>
       </c>
       <c r="F189">
-        <v>2178.174876069245</v>
+        <v>2178174876.069246</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4186,13 +4186,13 @@
         <v>339008075667130.6</v>
       </c>
       <c r="D190">
-        <v>2309.164162814617</v>
+        <v>2309163596.113554</v>
       </c>
       <c r="E190">
         <v>339008075667130.6</v>
       </c>
       <c r="F190">
-        <v>2180.598032435594</v>
+        <v>2180598032.435594</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4206,13 +4206,13 @@
         <v>347066834530198.1</v>
       </c>
       <c r="D191">
-        <v>1267.340885363519</v>
+        <v>1267340319.092583</v>
       </c>
       <c r="E191">
         <v>347066834530198.1</v>
       </c>
       <c r="F191">
-        <v>2183.497090448633</v>
+        <v>2183497090.448634</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4226,13 +4226,13 @@
         <v>353899080397779.4</v>
       </c>
       <c r="D192">
-        <v>1935.475933864713</v>
+        <v>1935475367.994646</v>
       </c>
       <c r="E192">
         <v>353899080397779.4</v>
       </c>
       <c r="F192">
-        <v>2186.160327424411</v>
+        <v>2186160327.424412</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4246,13 +4246,13 @@
         <v>361924778903925.1</v>
       </c>
       <c r="D193">
-        <v>2109.691913962364</v>
+        <v>2109691348.942184</v>
       </c>
       <c r="E193">
         <v>361924778903925.1</v>
       </c>
       <c r="F193">
-        <v>2189.463199356097</v>
+        <v>2189463199.356097</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4266,13 +4266,13 @@
         <v>370289685581753.9</v>
       </c>
       <c r="D194">
-        <v>1565.499358655885</v>
+        <v>1565498794.107715</v>
       </c>
       <c r="E194">
         <v>370289685581753.9</v>
       </c>
       <c r="F194">
-        <v>2193.177634420447</v>
+        <v>2193177634.420447</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4286,13 +4286,13 @@
         <v>378851622930479.9</v>
       </c>
       <c r="D195">
-        <v>2034.429340288043</v>
+        <v>2034428776.232833</v>
       </c>
       <c r="E195">
         <v>378851622930479.9</v>
       </c>
       <c r="F195">
-        <v>2197.240000298784</v>
+        <v>2197240000.298784</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4306,13 +4306,13 @@
         <v>385714902023727.9</v>
       </c>
       <c r="D196">
-        <v>2171.648124933243</v>
+        <v>2171647561.616751</v>
       </c>
       <c r="E196">
         <v>385714902023727.9</v>
       </c>
       <c r="F196">
-        <v>2200.686289839368</v>
+        <v>2200686289.839367</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4326,13 +4326,13 @@
         <v>392575342613940.4</v>
       </c>
       <c r="D197">
-        <v>2422.917661622167</v>
+        <v>2422917098.847199</v>
       </c>
       <c r="E197">
         <v>392575342613940.4</v>
       </c>
       <c r="F197">
-        <v>2204.147333488877</v>
+        <v>2204147333.488878</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4346,13 +4346,13 @@
         <v>400818153545264.7</v>
       </c>
       <c r="D198">
-        <v>3100.542942885309</v>
+        <v>3100542380.980557</v>
       </c>
       <c r="E198">
         <v>400818153545264.7</v>
       </c>
       <c r="F198">
-        <v>2208.43380133135</v>
+        <v>2208433801.33135</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4366,13 +4366,13 @@
         <v>411533032016593.5</v>
       </c>
       <c r="D199">
-        <v>2957.020527049899</v>
+        <v>2957019966.024106</v>
       </c>
       <c r="E199">
         <v>411533032016593.5</v>
       </c>
       <c r="F199">
-        <v>2214.002693558613</v>
+        <v>2214002693.558614</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4386,13 +4386,13 @@
         <v>421868814646003.9</v>
       </c>
       <c r="D200">
-        <v>2730.404019716196</v>
+        <v>2730403459.423654</v>
       </c>
       <c r="E200">
         <v>421868814646003.9</v>
       </c>
       <c r="F200">
-        <v>2219.415213153783</v>
+        <v>2219415213.153784</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4406,13 +4406,13 @@
         <v>433855989269133.2</v>
       </c>
       <c r="D201">
-        <v>2851.648359514773</v>
+        <v>2851647799.939084</v>
       </c>
       <c r="E201">
         <v>433855989269133.2</v>
       </c>
       <c r="F201">
-        <v>2225.843885388983</v>
+        <v>2225843885.388983</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4426,13 +4426,13 @@
         <v>443381042181280.2</v>
       </c>
       <c r="D202">
-        <v>2360.922993877903</v>
+        <v>2360922435.058268</v>
       </c>
       <c r="E202">
         <v>443381042181280.2</v>
       </c>
       <c r="F202">
-        <v>2231.147431446549</v>
+        <v>2231147431.446549</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4446,13 +4446,13 @@
         <v>452279653527273.1</v>
       </c>
       <c r="D203">
-        <v>2460.725761957467</v>
+        <v>2460725203.565153</v>
       </c>
       <c r="E203">
         <v>452279653527273.1</v>
       </c>
       <c r="F203">
-        <v>2236.210451509568</v>
+        <v>2236210451.509569</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4466,13 +4466,13 @@
         <v>461038728276640.1</v>
       </c>
       <c r="D204">
-        <v>3492.048032630235</v>
+        <v>3492047475.025226</v>
       </c>
       <c r="E204">
         <v>461038728276640.1</v>
       </c>
       <c r="F204">
-        <v>2241.275502589699</v>
+        <v>2241275502.5897</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4486,13 +4486,13 @@
         <v>469555041952599.8</v>
       </c>
       <c r="D205">
-        <v>2661.877862304449</v>
+        <v>2661877305.592197</v>
       </c>
       <c r="E205">
         <v>469555041952599.8</v>
       </c>
       <c r="F205">
-        <v>2246.200015145382</v>
+        <v>2246200015.145383</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4506,13 +4506,13 @@
         <v>481219559872273.6</v>
       </c>
       <c r="D206">
-        <v>1891.67924888432</v>
+        <v>1891678692.5075</v>
       </c>
       <c r="E206">
         <v>481219559872273.6</v>
       </c>
       <c r="F206">
-        <v>2252.904287734032</v>
+        <v>2252904287.734032</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4526,13 +4526,13 @@
         <v>493743405808326.8</v>
       </c>
       <c r="D207">
-        <v>2144.24063969776</v>
+        <v>2144240083.830901</v>
       </c>
       <c r="E207">
         <v>493743405808326.8</v>
       </c>
       <c r="F207">
-        <v>2260.055120353219</v>
+        <v>2260055120.353218</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4546,13 +4546,13 @@
         <v>504357585091351.4</v>
       </c>
       <c r="D208">
-        <v>1743.514053471386</v>
+        <v>1743513498.03774</v>
       </c>
       <c r="E208">
         <v>504357585091351.4</v>
       </c>
       <c r="F208">
-        <v>2266.152984314617</v>
+        <v>2266152984.314616</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4566,13 +4566,13 @@
         <v>515851761834518.5</v>
       </c>
       <c r="D209">
-        <v>1700.790819585323</v>
+        <v>1700790264.470847</v>
       </c>
       <c r="E209">
         <v>515851761834518.5</v>
       </c>
       <c r="F209">
-        <v>2272.862027238771</v>
+        <v>2272862027.23877</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4586,13 +4586,13 @@
         <v>529472361952919.4</v>
       </c>
       <c r="D210">
-        <v>3128.156576186419</v>
+        <v>3128156021.481049</v>
       </c>
       <c r="E210">
         <v>529472361952919.4</v>
       </c>
       <c r="F210">
-        <v>2281.049870855307</v>
+        <v>2281049870.855307</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4606,13 +4606,13 @@
         <v>540894985855028.9</v>
       </c>
       <c r="D211">
-        <v>3217.53882086277</v>
+        <v>3217538267.03898</v>
       </c>
       <c r="E211">
         <v>540894985855028.9</v>
       </c>
       <c r="F211">
-        <v>2288.139565345493</v>
+        <v>2288139565.345494</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4626,13 +4626,13 @@
         <v>551530461464775.1</v>
       </c>
       <c r="D212">
-        <v>1551.00259526819</v>
+        <v>1551002041.851658</v>
       </c>
       <c r="E212">
         <v>551530461464775.1</v>
       </c>
       <c r="F212">
-        <v>2294.965161159871</v>
+        <v>2294965161.15987</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4646,13 +4646,13 @@
         <v>565057803302981.1</v>
       </c>
       <c r="D213">
-        <v>1965.947824478149</v>
+        <v>1965947271.290914</v>
       </c>
       <c r="E213">
         <v>565057803302981.1</v>
       </c>
       <c r="F213">
-        <v>2303.865677041931</v>
+        <v>2303865677.041931</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4666,13 +4666,13 @@
         <v>578173252460117.4</v>
       </c>
       <c r="D214">
-        <v>3442.148147940636</v>
+        <v>3442147595.281289</v>
       </c>
       <c r="E214">
         <v>578173252460117.4</v>
       </c>
       <c r="F214">
-        <v>2312.787275072714</v>
+        <v>2312787275.072715</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4686,13 +4686,13 @@
         <v>590593441054750.9</v>
       </c>
       <c r="D215">
-        <v>3579.983459874988</v>
+        <v>3579982907.993259</v>
       </c>
       <c r="E215">
         <v>590593441054750.9</v>
       </c>
       <c r="F215">
-        <v>2321.419257686521</v>
+        <v>2321419257.686522</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4706,13 +4706,13 @@
         <v>606464647218124.5</v>
       </c>
       <c r="D216">
-        <v>2606.015553593636</v>
+        <v>2606015002.239197</v>
       </c>
       <c r="E216">
         <v>606464647218124.5</v>
       </c>
       <c r="F216">
-        <v>2332.631424500896</v>
+        <v>2332631424.500896</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4726,13 +4726,13 @@
         <v>621242343671618.1</v>
       </c>
       <c r="D217">
-        <v>2152.325807441026</v>
+        <v>2152325256.468864</v>
       </c>
       <c r="E217">
         <v>621242343671618.1</v>
       </c>
       <c r="F217">
-        <v>2343.304699462517</v>
+        <v>2343304699.462517</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4746,13 +4746,13 @@
         <v>635156475410925.1</v>
       </c>
       <c r="D218">
-        <v>2471.280006080866</v>
+        <v>2471279455.462464</v>
       </c>
       <c r="E218">
         <v>635156475410925.1</v>
       </c>
       <c r="F218">
-        <v>2353.4623497896</v>
+        <v>2353462349.789599</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4766,13 +4766,13 @@
         <v>648795357117496.8</v>
       </c>
       <c r="D219">
-        <v>3403.303849086165</v>
+        <v>3403303298.941361</v>
       </c>
       <c r="E219">
         <v>648795357117496.8</v>
       </c>
       <c r="F219">
-        <v>2363.598018187601</v>
+        <v>2363598018.187601</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4786,13 +4786,13 @@
         <v>665507056449772.5</v>
       </c>
       <c r="D220">
-        <v>3547.159714795649</v>
+        <v>3547159165.301753</v>
       </c>
       <c r="E220">
         <v>665507056449772.5</v>
       </c>
       <c r="F220">
-        <v>2376.220172947065</v>
+        <v>2376220172.947063</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4806,13 +4806,13 @@
         <v>682317072600849.8</v>
       </c>
       <c r="D221">
-        <v>3048.951049923897</v>
+        <v>3048950500.901512</v>
       </c>
       <c r="E221">
         <v>682317072600849.8</v>
       </c>
       <c r="F221">
-        <v>2389.044179192576</v>
+        <v>2389044179.192576</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4826,13 +4826,13 @@
         <v>698623710902106.1</v>
       </c>
       <c r="D222">
-        <v>2766.094657838345</v>
+        <v>2766094109.268176</v>
       </c>
       <c r="E222">
         <v>698623710902106.1</v>
       </c>
       <c r="F222">
-        <v>2401.481640203119</v>
+        <v>2401481640.203119</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4846,13 +4846,13 @@
         <v>716886411337499.8</v>
       </c>
       <c r="D223">
-        <v>2029.281560927629</v>
+        <v>2029281012.724511</v>
       </c>
       <c r="E223">
         <v>716886411337499.8</v>
       </c>
       <c r="F223">
-        <v>2415.42039350204</v>
+        <v>2415420393.502039</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4866,13 +4866,13 @@
         <v>734941336330010.9</v>
       </c>
       <c r="D224">
-        <v>2014.441267073154</v>
+        <v>2014440719.105701</v>
       </c>
       <c r="E224">
         <v>734941336330010.9</v>
       </c>
       <c r="F224">
-        <v>2429.178745284642</v>
+        <v>2429178745.284643</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4886,13 +4886,13 @@
         <v>751567334992138</v>
       </c>
       <c r="D225">
-        <v>3403.569021135569</v>
+        <v>3403568473.507402</v>
       </c>
       <c r="E225">
         <v>751567334992138</v>
       </c>
       <c r="F225">
-        <v>2441.854529799614</v>
+        <v>2441854529.799614</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4906,13 +4906,13 @@
         <v>768137193745549.9</v>
       </c>
       <c r="D226">
-        <v>3243.708867132664</v>
+        <v>3243708320.087029</v>
       </c>
       <c r="E226">
         <v>768137193745549.9</v>
       </c>
       <c r="F226">
-        <v>2454.507042378382</v>
+        <v>2454507042.378382</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4926,13 +4926,13 @@
         <v>786841050536275.4</v>
       </c>
       <c r="D227">
-        <v>2525.033548593521</v>
+        <v>2525033001.843692</v>
       </c>
       <c r="E227">
         <v>786841050536275.4</v>
       </c>
       <c r="F227">
-        <v>2468.739585511957</v>
+        <v>2468739585.511958</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4946,13 +4946,13 @@
         <v>808032301819601.4</v>
       </c>
       <c r="D228">
-        <v>1523.430847167969</v>
+        <v>1523430303.572447</v>
       </c>
       <c r="E228">
         <v>808032301819601.4</v>
       </c>
       <c r="F228">
-        <v>2484.695593501933</v>
+        <v>2484695593.501932</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4966,13 +4966,13 @@
         <v>828674629859616.8</v>
       </c>
       <c r="D229">
-        <v>-565.3774528503418</v>
+        <v>-565378001.0568482</v>
       </c>
       <c r="E229">
         <v>828674629859616.8</v>
       </c>
       <c r="F229">
-        <v>2500.023225903451</v>
+        <v>2500023225.903451</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4986,13 +4986,13 @@
         <v>851600641723211.5</v>
       </c>
       <c r="D230">
-        <v>26.18983840942383</v>
+        <v>26189291.13393553</v>
       </c>
       <c r="E230">
         <v>851600641723211.5</v>
       </c>
       <c r="F230">
-        <v>2516.854936427816</v>
+        <v>2516854936.427816</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5006,13 +5006,13 @@
         <v>872611444720048.8</v>
       </c>
       <c r="D231">
-        <v>1330.717090964317</v>
+        <v>1330716544.619597</v>
       </c>
       <c r="E231">
         <v>872611444720048.8</v>
       </c>
       <c r="F231">
-        <v>2532.22001456213</v>
+        <v>2532220014.562131</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5026,13 +5026,13 @@
         <v>891244495902349.2</v>
       </c>
       <c r="D232">
-        <v>2507.042388081551</v>
+        <v>2507041841.90261</v>
       </c>
       <c r="E232">
         <v>891244495902349.2</v>
       </c>
       <c r="F232">
-        <v>2545.892125473682</v>
+        <v>2545892125.473683</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5046,13 +5046,13 @@
         <v>914624526395972</v>
       </c>
       <c r="D233">
-        <v>3029.29357599467</v>
+        <v>3029293030.238563</v>
       </c>
       <c r="E233">
         <v>914624526395972</v>
       </c>
       <c r="F233">
-        <v>2563.165686473787</v>
+        <v>2563165686.473786</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5066,13 +5066,13 @@
         <v>938086374977186.1</v>
       </c>
       <c r="D234">
-        <v>2471.574713848531</v>
+        <v>2471574168.393075</v>
       </c>
       <c r="E234">
         <v>938086374977186.1</v>
       </c>
       <c r="F234">
-        <v>2580.657011546567</v>
+        <v>2580657011.546568</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5086,13 +5086,13 @@
         <v>963290604859644.6</v>
       </c>
       <c r="D235">
-        <v>2872.539996191859</v>
+        <v>2872539451.013112</v>
       </c>
       <c r="E235">
         <v>963290604859644.6</v>
       </c>
       <c r="F235">
-        <v>2599.635821236933</v>
+        <v>2599635821.236932</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5106,13 +5106,13 @@
         <v>989561013938402.1</v>
       </c>
       <c r="D236">
-        <v>2960.403451293707</v>
+        <v>2960402906.492353</v>
       </c>
       <c r="E236">
         <v>989561013938402.1</v>
       </c>
       <c r="F236">
-        <v>2619.622616850247</v>
+        <v>2619622616.850249</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5126,13 +5126,13 @@
         <v>1018416642862936</v>
       </c>
       <c r="D237">
-        <v>2336.969397723675</v>
+        <v>2336968853.176369</v>
       </c>
       <c r="E237">
         <v>1018416642862936</v>
       </c>
       <c r="F237">
-        <v>2641.723824590805</v>
+        <v>2641723824.590804</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5146,13 +5146,13 @@
         <v>1044264070803474</v>
       </c>
       <c r="D238">
-        <v>4205.086371064186</v>
+        <v>4205085826.735827</v>
       </c>
       <c r="E238">
         <v>1044264070803474</v>
       </c>
       <c r="F238">
-        <v>2661.537066133847</v>
+        <v>2661537066.133848</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5166,13 +5166,13 @@
         <v>1073070258207887</v>
       </c>
       <c r="D239">
-        <v>6418.624100936577</v>
+        <v>6418623557.300212</v>
       </c>
       <c r="E239">
         <v>1073070258207887</v>
       </c>
       <c r="F239">
-        <v>2683.602395400946</v>
+        <v>2683602395.400947</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5186,13 +5186,13 @@
         <v>1104498974439108</v>
       </c>
       <c r="D240">
-        <v>4417.48252093792</v>
+        <v>4417481977.922791</v>
       </c>
       <c r="E240">
         <v>1104498974439108</v>
       </c>
       <c r="F240">
-        <v>2707.761191460654</v>
+        <v>2707761191.460653</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5206,13 +5206,13 @@
         <v>1133648260094136</v>
       </c>
       <c r="D241">
-        <v>3458.815271019936</v>
+        <v>3458814728.179829</v>
       </c>
       <c r="E241">
         <v>1133648260094136</v>
       </c>
       <c r="F241">
-        <v>2730.321970209256</v>
+        <v>2730321970.209254</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5226,13 +5226,13 @@
         <v>1164478379615000</v>
       </c>
       <c r="D242">
-        <v>2966.528095126152</v>
+        <v>2966527552.721668</v>
       </c>
       <c r="E242">
         <v>1164478379615000</v>
       </c>
       <c r="F242">
-        <v>2754.346873952898</v>
+        <v>2754346873.952898</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5246,13 +5246,13 @@
         <v>1199435850049949</v>
       </c>
       <c r="D243">
-        <v>2539.071920454502</v>
+        <v>2539071378.144327</v>
       </c>
       <c r="E243">
         <v>1199435850049949</v>
       </c>
       <c r="F243">
-        <v>2781.752843389015</v>
+        <v>2781752843.389014</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5266,13 +5266,13 @@
         <v>1233888424109698</v>
       </c>
       <c r="D244">
-        <v>5201.154039382935</v>
+        <v>5201153497.394622</v>
       </c>
       <c r="E244">
         <v>1233888424109698</v>
       </c>
       <c r="F244">
-        <v>2808.823420075578</v>
+        <v>2808823420.07558</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5286,13 +5286,13 @@
         <v>1270095664724274</v>
       </c>
       <c r="D245">
-        <v>3844.85990524292</v>
+        <v>3844859363.785159</v>
       </c>
       <c r="E245">
         <v>1270095664724274</v>
       </c>
       <c r="F245">
-        <v>2837.175088391077</v>
+        <v>2837175088.391077</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5306,13 +5306,13 @@
         <v>1307169425393212</v>
       </c>
       <c r="D246">
-        <v>630.3624467849731</v>
+        <v>630361905.2461498</v>
       </c>
       <c r="E246">
         <v>1307169425393212</v>
       </c>
       <c r="F246">
-        <v>2865.992643166711</v>
+        <v>2865992643.166711</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5326,13 +5326,13 @@
         <v>1342898133077238</v>
       </c>
       <c r="D247">
-        <v>2743.258016586304</v>
+        <v>2743257474.826441</v>
       </c>
       <c r="E247">
         <v>1342898133077238</v>
       </c>
       <c r="F247">
-        <v>2893.556750312653</v>
+        <v>2893556750.312654</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5346,13 +5346,13 @@
         <v>1382250148753011</v>
       </c>
       <c r="D248">
-        <v>3536.906797409058</v>
+        <v>3536906256.623632</v>
       </c>
       <c r="E248">
         <v>1382250148753011</v>
       </c>
       <c r="F248">
-        <v>2923.730708100668</v>
+        <v>2923730708.100667</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5366,13 +5366,13 @@
         <v>1427786510665152</v>
       </c>
       <c r="D249">
-        <v>275.4619340896606</v>
+        <v>275461393.6724274</v>
       </c>
       <c r="E249">
         <v>1427786510665152</v>
       </c>
       <c r="F249">
-        <v>2958.485861809609</v>
+        <v>2958485861.809609</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5386,13 +5386,13 @@
         <v>1470056021096046</v>
       </c>
       <c r="D250">
-        <v>-291.8512706756592</v>
+        <v>-291851811.130698</v>
       </c>
       <c r="E250">
         <v>1470056021096046</v>
       </c>
       <c r="F250">
-        <v>2990.629067917033</v>
+        <v>2990629067.917033</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5406,13 +5406,13 @@
         <v>1511672154662291</v>
       </c>
       <c r="D251">
-        <v>1962.068342208862</v>
+        <v>1962067801.440454</v>
       </c>
       <c r="E251">
         <v>1511672154662291</v>
       </c>
       <c r="F251">
-        <v>3022.168259702312</v>
+        <v>3022168259.702313</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5426,13 +5426,13 @@
         <v>1558060208155664</v>
       </c>
       <c r="D252">
-        <v>4242.58533769846</v>
+        <v>4242584797.071031</v>
       </c>
       <c r="E252">
         <v>1558060208155664</v>
       </c>
       <c r="F252">
-        <v>3057.188870429272</v>
+        <v>3057188870.429271</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5446,13 +5446,13 @@
         <v>1604891415361329</v>
       </c>
       <c r="D253">
-        <v>2373.572951316833</v>
+        <v>2373572410.946107</v>
       </c>
       <c r="E253">
         <v>1604891415361329</v>
       </c>
       <c r="F253">
-        <v>3092.427329723619</v>
+        <v>3092427329.723619</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5466,13 +5466,13 @@
         <v>1658703422431100</v>
       </c>
       <c r="D254">
-        <v>2859.355040788651</v>
+        <v>2859354500.541212</v>
       </c>
       <c r="E254">
         <v>1658703422431100</v>
       </c>
       <c r="F254">
-        <v>3132.816807075093</v>
+        <v>3132816807.075095</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5486,13 +5486,13 @@
         <v>1713821000424611</v>
       </c>
       <c r="D255">
-        <v>4038.146588802338</v>
+        <v>4038146048.833075</v>
       </c>
       <c r="E255">
         <v>1713821000424611</v>
       </c>
       <c r="F255">
-        <v>3174.091613156588</v>
+        <v>3174091613.156589</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5506,13 +5506,13 @@
         <v>1769880286515352</v>
       </c>
       <c r="D256">
-        <v>683.6402587890625</v>
+        <v>683639719.0157652</v>
       </c>
       <c r="E256">
         <v>1769880286515352</v>
       </c>
       <c r="F256">
-        <v>3215.911105432699</v>
+        <v>3215911105.432699</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5526,13 +5526,13 @@
         <v>1828468983976190</v>
       </c>
       <c r="D257">
-        <v>1050.706114768982</v>
+        <v>1050705574.565771</v>
       </c>
       <c r="E257">
         <v>1828468983976190</v>
       </c>
       <c r="F257">
-        <v>3259.312188954499</v>
+        <v>3259312188.954499</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5546,13 +5546,13 @@
         <v>1892272197631608</v>
       </c>
       <c r="D258">
-        <v>3978.176550149918</v>
+        <v>3978176010.324972</v>
       </c>
       <c r="E258">
         <v>1892272197631608</v>
       </c>
       <c r="F258">
-        <v>3306.120869528413</v>
+        <v>3306120869.528411</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5566,13 +5566,13 @@
         <v>1954194396471762</v>
       </c>
       <c r="D259">
-        <v>6136.849093168974</v>
+        <v>6136848553.788546</v>
       </c>
       <c r="E259">
         <v>1954194396471762</v>
       </c>
       <c r="F259">
-        <v>3351.126776288909</v>
+        <v>3351126776.288907</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5586,13 +5586,13 @@
         <v>2019591083524186</v>
       </c>
       <c r="D260">
-        <v>4897.618186950684</v>
+        <v>4897617648.008595</v>
       </c>
       <c r="E260">
         <v>2019591083524186</v>
       </c>
       <c r="F260">
-        <v>3398.304787766371</v>
+        <v>3398304787.766371</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5606,13 +5606,13 @@
         <v>2094291348809432</v>
       </c>
       <c r="D261">
-        <v>2661.761463776231</v>
+        <v>2661760924.918</v>
       </c>
       <c r="E261">
         <v>2094291348809432</v>
       </c>
       <c r="F261">
-        <v>3451.940759340594</v>
+        <v>3451940759.340593</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5626,13 +5626,13 @@
         <v>2172965667156729</v>
       </c>
       <c r="D262">
-        <v>3823.251484394073</v>
+        <v>3823250945.68439</v>
       </c>
       <c r="E262">
         <v>2172965667156729</v>
       </c>
       <c r="F262">
-        <v>3508.249832385613</v>
+        <v>3508249832.385613</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5646,13 +5646,13 @@
         <v>2250391990702134</v>
       </c>
       <c r="D263">
-        <v>6631.179003000259</v>
+        <v>6631178464.542372</v>
       </c>
       <c r="E263">
         <v>2250391990702134</v>
       </c>
       <c r="F263">
-        <v>3563.56646598562</v>
+        <v>3563566465.98562</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5666,13 +5666,13 @@
         <v>2336034509770160</v>
       </c>
       <c r="D264">
-        <v>7465.151939421892</v>
+        <v>7465151401.2775</v>
       </c>
       <c r="E264">
         <v>2336034509770160</v>
       </c>
       <c r="F264">
-        <v>3624.550983660986</v>
+        <v>3624550983.660985</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5686,13 +5686,13 @@
         <v>2419275163925846</v>
       </c>
       <c r="D265">
-        <v>6001.924281358719</v>
+        <v>6001923743.554648</v>
       </c>
       <c r="E265">
         <v>2419275163925846</v>
       </c>
       <c r="F265">
-        <v>3683.435556014121</v>
+        <v>3683435556.01412</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5706,13 +5706,13 @@
         <v>2512668938233396</v>
       </c>
       <c r="D266">
-        <v>3662.391555547714</v>
+        <v>3662391017.947848</v>
       </c>
       <c r="E266">
         <v>2512668938233396</v>
       </c>
       <c r="F266">
-        <v>3748.813269855332</v>
+        <v>3748813269.855333</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5726,13 +5726,13 @@
         <v>2611029311725861</v>
       </c>
       <c r="D267">
-        <v>3085.29335463047</v>
+        <v>3085292817.095862</v>
       </c>
       <c r="E267">
         <v>2611029311725861</v>
       </c>
       <c r="F267">
-        <v>3816.818877975577</v>
+        <v>3816818877.975577</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5746,13 +5746,13 @@
         <v>2716954898190332</v>
       </c>
       <c r="D268">
-        <v>2145.254360198975</v>
+        <v>2145253822.415458</v>
       </c>
       <c r="E268">
         <v>2716954898190332</v>
       </c>
       <c r="F268">
-        <v>3889.166215150295</v>
+        <v>3889166215.150295</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5766,13 +5766,13 @@
         <v>2827028484704904</v>
       </c>
       <c r="D269">
-        <v>-191.5141983032227</v>
+        <v>-191514736.3358929</v>
       </c>
       <c r="E269">
         <v>2827028484704904</v>
       </c>
       <c r="F269">
-        <v>3963.27624148951</v>
+        <v>3963276241.489509</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5786,13 +5786,13 @@
         <v>2943254542268576</v>
       </c>
       <c r="D270">
-        <v>1566.751908302307</v>
+        <v>1566751371.045343</v>
       </c>
       <c r="E270">
         <v>2943254542268576</v>
       </c>
       <c r="F270">
-        <v>4040.25849120387</v>
+        <v>4040258491.20387</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5806,13 +5806,13 @@
         <v>3069884393846304</v>
       </c>
       <c r="D271">
-        <v>2970.71426486969</v>
+        <v>2970713727.691699</v>
       </c>
       <c r="E271">
         <v>3069884393846304</v>
       </c>
       <c r="F271">
-        <v>4122.837199249991</v>
+        <v>4122837199.249989</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5826,13 +5826,13 @@
         <v>3202716301920993</v>
       </c>
       <c r="D272">
-        <v>819.1564559936523</v>
+        <v>819155920.2023817</v>
       </c>
       <c r="E272">
         <v>3202716301920993</v>
       </c>
       <c r="F272">
-        <v>4208.39589341057</v>
+        <v>4208395893.410574</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5846,13 +5846,13 @@
         <v>3346254057302323</v>
       </c>
       <c r="D273">
-        <v>-1015.457763671875</v>
+        <v>-1015458301.030891</v>
       </c>
       <c r="E273">
         <v>3346254057302323</v>
       </c>
       <c r="F273">
-        <v>4299.689589734219</v>
+        <v>4299689589.734218</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5866,13 +5866,13 @@
         <v>3493376102736804</v>
       </c>
       <c r="D274">
-        <v>-400.5388870239258</v>
+        <v>-400539424.2090822</v>
       </c>
       <c r="E274">
         <v>3493376102736804</v>
       </c>
       <c r="F274">
-        <v>4391.862337035076</v>
+        <v>4391862337.035076</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5886,13 +5886,13 @@
         <v>3654078542401392</v>
       </c>
       <c r="D275">
-        <v>594.0411987304688</v>
+        <v>594040660.1077698</v>
       </c>
       <c r="E275">
         <v>3654078542401392</v>
       </c>
       <c r="F275">
-        <v>4490.935777061205</v>
+        <v>4490935777.061205</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5906,13 +5906,13 @@
         <v>3830272459658670</v>
       </c>
       <c r="D276">
-        <v>3127.136329650879</v>
+        <v>3127135792.727694</v>
       </c>
       <c r="E276">
         <v>3830272459658670</v>
       </c>
       <c r="F276">
-        <v>4597.742333186436</v>
+        <v>4597742333.186438</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5926,13 +5926,13 @@
         <v>4017230931248834</v>
       </c>
       <c r="D277">
-        <v>4010.747051239014</v>
+        <v>4010746514.128963</v>
       </c>
       <c r="E277">
         <v>4017230931248834</v>
       </c>
       <c r="F277">
-        <v>4709.096660543096</v>
+        <v>4709096660.543097</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5946,13 +5946,13 @@
         <v>4222458429127240</v>
       </c>
       <c r="D278">
-        <v>1679.812265396118</v>
+        <v>1679811728.876449</v>
       </c>
       <c r="E278">
         <v>4222458429127240</v>
       </c>
       <c r="F278">
-        <v>4828.89572949759</v>
+        <v>4828895729.497591</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5966,13 +5966,13 @@
         <v>4440498492198954</v>
       </c>
       <c r="D279">
-        <v>-184.6010894775391</v>
+        <v>-184601628.0654857</v>
       </c>
       <c r="E279">
         <v>4440498492198954</v>
       </c>
       <c r="F279">
-        <v>4953.00773539082</v>
+        <v>4953007735.390821</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5986,13 +5986,13 @@
         <v>4670411560396624</v>
       </c>
       <c r="D280">
-        <v>-141.0099029541016</v>
+        <v>-141010442.5592362</v>
       </c>
       <c r="E280">
         <v>4670411560396624</v>
       </c>
       <c r="F280">
-        <v>5080.119547810442</v>
+        <v>5080119547.810441</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6006,13 +6006,13 @@
         <v>4923908182543817</v>
       </c>
       <c r="D281">
-        <v>3927.015289306641</v>
+        <v>3927014751.988187</v>
       </c>
       <c r="E281">
         <v>4923908182543817</v>
       </c>
       <c r="F281">
-        <v>5216.436802982907</v>
+        <v>5216436802.982907</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6026,13 +6026,13 @@
         <v>5199490836588972</v>
       </c>
       <c r="D282">
-        <v>6105.68541431427</v>
+        <v>6105684877.565019</v>
       </c>
       <c r="E282">
         <v>5199490836588972</v>
       </c>
       <c r="F282">
-        <v>5361.150750658696</v>
+        <v>5361150750.658696</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6046,13 +6046,13 @@
         <v>5491379348784380</v>
       </c>
       <c r="D283">
-        <v>3450.905206680298</v>
+        <v>3450904670.007421</v>
       </c>
       <c r="E283">
         <v>5491379348784380</v>
       </c>
       <c r="F283">
-        <v>5510.32330838038</v>
+        <v>5510323308.38038</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6066,13 +6066,13 @@
         <v>5815962972352836</v>
       </c>
       <c r="D284">
-        <v>4401.333426475525</v>
+        <v>4401332889.711798</v>
       </c>
       <c r="E284">
         <v>5815962972352836</v>
       </c>
       <c r="F284">
-        <v>5670.343813983214</v>
+        <v>5670343813.983212</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6086,13 +6086,13 @@
         <v>6174319843139646</v>
       </c>
       <c r="D285">
-        <v>7393.508352041245</v>
+        <v>7393507815.70502</v>
       </c>
       <c r="E285">
         <v>6174319843139646</v>
       </c>
       <c r="F285">
-        <v>5840.19014251756</v>
+        <v>5840190142.517563</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6106,13 +6106,13 @@
         <v>6557122200830397</v>
       </c>
       <c r="D286">
-        <v>4766.031719207764</v>
+        <v>4766031183.219424</v>
       </c>
       <c r="E286">
         <v>6557122200830397</v>
       </c>
       <c r="F286">
-        <v>6015.18558902373</v>
+        <v>6015185589.02373</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6126,13 +6126,13 @@
         <v>6978683385287186</v>
       </c>
       <c r="D287">
-        <v>-366.4002304077148</v>
+        <v>-366400769.2874986</v>
       </c>
       <c r="E287">
         <v>6978683385287186</v>
       </c>
       <c r="F287">
-        <v>6200.727045825234</v>
+        <v>6200727045.825232</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6146,13 +6146,13 @@
         <v>7449603852749927</v>
       </c>
       <c r="D288">
-        <v>-1612.880157470703</v>
+        <v>-1612880694.37415</v>
       </c>
       <c r="E288">
         <v>7449603852749927</v>
       </c>
       <c r="F288">
-        <v>6398.18907145709</v>
+        <v>6398189071.457088</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6166,13 +6166,13 @@
         <v>7960166946067989</v>
       </c>
       <c r="D289">
-        <v>3487.610336303711</v>
+        <v>3487609800.308355</v>
       </c>
       <c r="E289">
         <v>7960166946067989</v>
       </c>
       <c r="F289">
-        <v>6600.045253855085</v>
+        <v>6600045253.855081</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6186,13 +6186,13 @@
         <v>8518170395694137</v>
       </c>
       <c r="D290">
-        <v>3931.719201117754</v>
+        <v>3931718665.082523</v>
       </c>
       <c r="E290">
         <v>8518170395694137</v>
       </c>
       <c r="F290">
-        <v>6807.241426791842</v>
+        <v>6807241426.791842</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6206,13 +6206,13 @@
         <v>9142383721148630</v>
       </c>
       <c r="D291">
-        <v>3876.521568715572</v>
+        <v>3876521032.734149</v>
       </c>
       <c r="E291">
         <v>9142383721148630</v>
       </c>
       <c r="F291">
-        <v>7024.289162098677</v>
+        <v>7024289162.098675</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6226,13 +6226,13 @@
         <v>9845525217272062</v>
       </c>
       <c r="D292">
-        <v>7695.472376286983</v>
+        <v>7695471840.439041</v>
       </c>
       <c r="E292">
         <v>9845525217272062</v>
       </c>
       <c r="F292">
-        <v>7252.716234779864</v>
+        <v>7252716234.779863</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6246,13 +6246,13 @@
         <v>1.061016785146037E+16</v>
       </c>
       <c r="D293">
-        <v>3879.089372634888</v>
+        <v>3879088836.228547</v>
       </c>
       <c r="E293">
         <v>1.061016785146037E+16</v>
       </c>
       <c r="F293">
-        <v>7487.227765580138</v>
+        <v>7487227765.58014</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6266,13 +6266,13 @@
         <v>1.145989746170802E+16</v>
       </c>
       <c r="D294">
-        <v>306.3357772827148</v>
+        <v>306335239.4974074</v>
       </c>
       <c r="E294">
         <v>1.145989746170802E+16</v>
       </c>
       <c r="F294">
-        <v>7736.444177657383</v>
+        <v>7736444177.657387</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6286,13 +6286,13 @@
         <v>1.242433198390352E+16</v>
       </c>
       <c r="D295">
-        <v>-1220.443015098572</v>
+        <v>-1220443551.0442</v>
       </c>
       <c r="E295">
         <v>1.242433198390352E+16</v>
       </c>
       <c r="F295">
-        <v>8022.588277566193</v>
+        <v>8022588277.566192</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6306,13 +6306,13 @@
         <v>1.348567375152574E+16</v>
       </c>
       <c r="D296">
-        <v>564.0607299804688</v>
+        <v>564060194.8372636</v>
       </c>
       <c r="E296">
         <v>1.348567375152574E+16</v>
       </c>
       <c r="F296">
-        <v>8347.207346778534</v>
+        <v>8347207346.778532</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6326,13 +6326,13 @@
         <v>1.465418155447296E+16</v>
       </c>
       <c r="D297">
-        <v>743.2521133422852</v>
+        <v>743251577.2949398</v>
       </c>
       <c r="E297">
         <v>1.465418155447296E+16</v>
       </c>
       <c r="F297">
-        <v>8710.959263744531</v>
+        <v>8710959263.74453</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6346,13 +6346,13 @@
         <v>1.594216199176305E+16</v>
       </c>
       <c r="D298">
-        <v>-2511.115434646606</v>
+        <v>-2511115970.375001</v>
       </c>
       <c r="E298">
         <v>1.594216199176305E+16</v>
       </c>
       <c r="F298">
-        <v>9112.650213455161</v>
+        <v>9112650213.455164</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6366,13 +6366,13 @@
         <v>1.735300191366612E+16</v>
       </c>
       <c r="D299">
-        <v>-685.4417620897293</v>
+        <v>-685442297.8432502</v>
       </c>
       <c r="E299">
         <v>1.735300191366612E+16</v>
       </c>
       <c r="F299">
-        <v>9547.833294908516</v>
+        <v>9547833294.908514</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6386,13 +6386,13 @@
         <v>1.883143759659196E+16</v>
       </c>
       <c r="D300">
-        <v>-1312.659216880798</v>
+        <v>-1312659752.479289</v>
       </c>
       <c r="E300">
         <v>1.883143759659196E+16</v>
       </c>
       <c r="F300">
-        <v>9994.771548953659</v>
+        <v>9994771548.953655</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6406,13 +6406,13 @@
         <v>2.029498807102842E+16</v>
       </c>
       <c r="D301">
-        <v>-2065.061035871506</v>
+        <v>-2065061571.555666</v>
       </c>
       <c r="E301">
         <v>2.029498807102842E+16</v>
       </c>
       <c r="F301">
-        <v>10426.77379276381</v>
+        <v>10426773792.76381</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Intrinseco.xlsx
+++ b/Lifetime_Intrinseco.xlsx
@@ -417,6002 +417,6002 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2.029498807102842E+16</v>
+        <v>1.9028874139016E+16</v>
       </c>
       <c r="B2">
-        <v>0.001344621616374755</v>
+        <v>0.0008823806086914154</v>
       </c>
       <c r="C2">
-        <v>3488258658584.985</v>
+        <v>19809662691487.38</v>
       </c>
       <c r="D2">
-        <v>9584337095.917849</v>
+        <v>19048.49939944611</v>
       </c>
       <c r="E2">
-        <v>3488258658584.985</v>
+        <v>19809662691487.38</v>
       </c>
       <c r="F2">
-        <v>2620820863.703302</v>
+        <v>-210.3058725168569</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1.883143759659196E+16</v>
+        <v>1.856061779288146E+16</v>
       </c>
       <c r="B3">
-        <v>0.001531987976941237</v>
+        <v>0.0009123770096517935</v>
       </c>
       <c r="C3">
-        <v>3530258134792.778</v>
+        <v>19810228830315.3</v>
       </c>
       <c r="D3">
-        <v>9265087187.31937</v>
+        <v>18699.8259107274</v>
       </c>
       <c r="E3">
-        <v>3530258134792.778</v>
+        <v>19810228830315.3</v>
       </c>
       <c r="F3">
-        <v>2620711987.499152</v>
+        <v>-210.2911442243334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1.735300191366612E+16</v>
+        <v>1.803446541942092E+16</v>
       </c>
       <c r="B4">
-        <v>0.001764908200004033</v>
+        <v>0.0009480105509781397</v>
       </c>
       <c r="C4">
-        <v>3552694072435.497</v>
+        <v>19813280713885.74</v>
       </c>
       <c r="D4">
-        <v>9247855747.652615</v>
+        <v>18347.42656501114</v>
       </c>
       <c r="E4">
-        <v>3552694072435.497</v>
+        <v>19813280713885.74</v>
       </c>
       <c r="F4">
-        <v>2620653829.11672</v>
+        <v>-210.2117483932244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1.594216199176305E+16</v>
+        <v>1.748329813467776E+16</v>
       </c>
       <c r="B5">
-        <v>0.002041625370809205</v>
+        <v>0.000987708472508669</v>
       </c>
       <c r="C5">
-        <v>3605978947579.999</v>
+        <v>19869878279775.17</v>
       </c>
       <c r="D5">
-        <v>9054954390.595665</v>
+        <v>17976.95502456307</v>
       </c>
       <c r="E5">
-        <v>3605978947579.999</v>
+        <v>19869878279775.17</v>
       </c>
       <c r="F5">
-        <v>2620515712.045654</v>
+        <v>-208.7393271421245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1.465418155447296E+16</v>
+        <v>1.692021514138102E+16</v>
       </c>
       <c r="B6">
-        <v>0.002356594429237329</v>
+        <v>0.00103099576917073</v>
       </c>
       <c r="C6">
-        <v>3639627660402.025</v>
+        <v>19889996548586.47</v>
       </c>
       <c r="D6">
-        <v>8758839792.723577</v>
+        <v>17624.79463957125</v>
       </c>
       <c r="E6">
-        <v>3639627660402.025</v>
+        <v>19889996548586.47</v>
       </c>
       <c r="F6">
-        <v>2620428498.586225</v>
+        <v>-208.2159306294461</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1.348567375152574E+16</v>
+        <v>1.637197083856093E+16</v>
       </c>
       <c r="B7">
-        <v>0.002711433772511547</v>
+        <v>0.001076044095005078</v>
       </c>
       <c r="C7">
-        <v>3670702811756.087</v>
+        <v>19913716320178.69</v>
       </c>
       <c r="D7">
-        <v>8507391469.582203</v>
+        <v>17295.22695122829</v>
       </c>
       <c r="E7">
-        <v>3670702811756.087</v>
+        <v>19913716320178.69</v>
       </c>
       <c r="F7">
-        <v>2620347959.407154</v>
+        <v>-207.5988327023245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1.242433198390352E+16</v>
+        <v>1.584164347658262E+16</v>
       </c>
       <c r="B8">
-        <v>0.003109727172681688</v>
+        <v>0.00112260405375314</v>
       </c>
       <c r="C8">
-        <v>3689599395547.985</v>
+        <v>20014337896938.95</v>
       </c>
       <c r="D8">
-        <v>8300735372.83714</v>
+        <v>16980.44164243211</v>
       </c>
       <c r="E8">
-        <v>3689599395547.985</v>
+        <v>20014337896938.95</v>
       </c>
       <c r="F8">
-        <v>2620298985.929984</v>
+        <v>-204.9809857870995</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1.145989746170802E+16</v>
+        <v>1.531363246305442E+16</v>
       </c>
       <c r="B9">
-        <v>0.003554818872375335</v>
+        <v>0.001172154808198618</v>
       </c>
       <c r="C9">
-        <v>3691812640024.562</v>
+        <v>20073100743506.66</v>
       </c>
       <c r="D9">
-        <v>8003654449.505208</v>
+        <v>16678.29988015398</v>
       </c>
       <c r="E9">
-        <v>3691812640024.562</v>
+        <v>20073100743506.66</v>
       </c>
       <c r="F9">
-        <v>2620293250.048829</v>
+        <v>-203.4521241783942</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1.061016785146037E+16</v>
+        <v>1.479620496736733E+16</v>
       </c>
       <c r="B10">
-        <v>0.004033138937071484</v>
+        <v>0.001224102438039278</v>
       </c>
       <c r="C10">
-        <v>3767215411152.005</v>
+        <v>20140896515176.31</v>
       </c>
       <c r="D10">
-        <v>7659368963.579312</v>
+        <v>16383.89662981192</v>
       </c>
       <c r="E10">
-        <v>3767215411152.005</v>
+        <v>20140896515176.31</v>
       </c>
       <c r="F10">
-        <v>2620097846.371485</v>
+        <v>-201.6882091861611</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>9845525217272062</v>
+        <v>1.429155256855255E+16</v>
       </c>
       <c r="B11">
-        <v>0.004553205421817856</v>
+        <v>0.001278314789695195</v>
       </c>
       <c r="C11">
-        <v>3881941335750.142</v>
+        <v>20206986087041.08</v>
       </c>
       <c r="D11">
-        <v>7485818470.908678</v>
+        <v>16106.20780401366</v>
       </c>
       <c r="E11">
-        <v>3881941335750.142</v>
+        <v>20206986087041.08</v>
       </c>
       <c r="F11">
-        <v>2619800580.590761</v>
+        <v>-199.968645654316</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>9142383721148630</v>
+        <v>1.380173969917045E+16</v>
       </c>
       <c r="B12">
-        <v>0.005127846437628622</v>
+        <v>0.00133460967654202</v>
       </c>
       <c r="C12">
-        <v>4150531068881.376</v>
+        <v>20342858130194.66</v>
       </c>
       <c r="D12">
-        <v>7277529744.300896</v>
+        <v>15841.58423080978</v>
       </c>
       <c r="E12">
-        <v>4150531068881.376</v>
+        <v>20342858130194.66</v>
       </c>
       <c r="F12">
-        <v>2619104839.75371</v>
+        <v>-196.4333085987864</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>8518170395694137</v>
+        <v>1.332613400962169E+16</v>
       </c>
       <c r="B13">
-        <v>0.005736596006080384</v>
+        <v>0.001393074944490221</v>
       </c>
       <c r="C13">
-        <v>4204129085427.44</v>
+        <v>20484787781522.03</v>
       </c>
       <c r="D13">
-        <v>6947509364.226181</v>
+        <v>15586.82708339132</v>
       </c>
       <c r="E13">
-        <v>4204129085427.44</v>
+        <v>20484787781522.03</v>
       </c>
       <c r="F13">
-        <v>2618966035.934854</v>
+        <v>-192.7401747979802</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>7960166946067989</v>
+        <v>1.286290104869608E+16</v>
       </c>
       <c r="B14">
-        <v>0.006379803184124331</v>
+        <v>0.001453971644427237</v>
       </c>
       <c r="C14">
-        <v>4336238542793.819</v>
+        <v>20676877966680.38</v>
       </c>
       <c r="D14">
-        <v>6709947755.019995</v>
+        <v>15341.64012164056</v>
       </c>
       <c r="E14">
-        <v>4336238542793.819</v>
+        <v>20676877966680.38</v>
       </c>
       <c r="F14">
-        <v>2618623957.415836</v>
+        <v>-187.7415275411927</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>7449603852749927</v>
+        <v>1.241564670062005E+16</v>
       </c>
       <c r="B15">
-        <v>0.007070509174729945</v>
+        <v>0.001516826912995363</v>
       </c>
       <c r="C15">
-        <v>4481520593455.458</v>
+        <v>20903304434102.35</v>
       </c>
       <c r="D15">
-        <v>6576025984.950526</v>
+        <v>15106.90995827689</v>
       </c>
       <c r="E15">
-        <v>4481520593455.458</v>
+        <v>20903304434102.35</v>
       </c>
       <c r="F15">
-        <v>2618247849.065411</v>
+        <v>-181.8489372901218</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6978683385287186</v>
+        <v>1.197830045741718E+16</v>
       </c>
       <c r="B16">
-        <v>0.007814722736871447</v>
+        <v>0.001582518981596054</v>
       </c>
       <c r="C16">
-        <v>4485789180739.681</v>
+        <v>21084807105143.45</v>
       </c>
       <c r="D16">
-        <v>6374197165.301547</v>
+        <v>14882.49419909055</v>
       </c>
       <c r="E16">
-        <v>4485789180739.681</v>
+        <v>21084807105143.45</v>
       </c>
       <c r="F16">
-        <v>2618236799.730023</v>
+        <v>-177.1251220896998</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6557122200830397</v>
+        <v>1.15581151281643E+16</v>
       </c>
       <c r="B17">
-        <v>0.008588000293868856</v>
+        <v>0.00164995094665163</v>
       </c>
       <c r="C17">
-        <v>4517152065267.674</v>
+        <v>21152316269918.79</v>
       </c>
       <c r="D17">
-        <v>6107096396.107951</v>
+        <v>14661.5954592688</v>
       </c>
       <c r="E17">
-        <v>4517152065267.674</v>
+        <v>21152316269918.79</v>
       </c>
       <c r="F17">
-        <v>2618155618.373369</v>
+        <v>-175.368042723622</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6174319843139646</v>
+        <v>1.114847147803212E+16</v>
       </c>
       <c r="B18">
-        <v>0.009396832507203629</v>
+        <v>0.001720154952002846</v>
       </c>
       <c r="C18">
-        <v>4764254251762.844</v>
+        <v>21220460904515.21</v>
       </c>
       <c r="D18">
-        <v>5969705778.986619</v>
+        <v>14453.0023741196</v>
       </c>
       <c r="E18">
-        <v>4764254251762.844</v>
+        <v>21220460904515.21</v>
       </c>
       <c r="F18">
-        <v>2617516140.473878</v>
+        <v>-173.5943821419561</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>5815962972352836</v>
+        <v>1.075233670899314E+16</v>
       </c>
       <c r="B19">
-        <v>0.01026510588145624</v>
+        <v>0.001792634565340821</v>
       </c>
       <c r="C19">
-        <v>5190734422703.187</v>
+        <v>21255502991520.46</v>
       </c>
       <c r="D19">
-        <v>5833496714.215345</v>
+        <v>14252.56793990217</v>
       </c>
       <c r="E19">
-        <v>5190734422703.187</v>
+        <v>21255502991520.46</v>
       </c>
       <c r="F19">
-        <v>2616413010.817543</v>
+        <v>-172.6822945156719</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>5491379348784380</v>
+        <v>1.036846689029343E+16</v>
       </c>
       <c r="B20">
-        <v>0.01116272404755398</v>
+        <v>0.001867585187308342</v>
       </c>
       <c r="C20">
-        <v>5221672464394.91</v>
+        <v>21371302186177.04</v>
       </c>
       <c r="D20">
-        <v>5571494611.950929</v>
+        <v>14063.61245951297</v>
       </c>
       <c r="E20">
-        <v>5221672464394.91</v>
+        <v>21371302186177.04</v>
       </c>
       <c r="F20">
-        <v>2616333014.477947</v>
+        <v>-169.6681542546021</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>5199490836588972</v>
+        <v>9997625784097414</v>
       </c>
       <c r="B21">
-        <v>0.01207731268170891</v>
+        <v>0.0019448149143285</v>
       </c>
       <c r="C21">
-        <v>5551622485977.552</v>
+        <v>21528069778990.95</v>
       </c>
       <c r="D21">
-        <v>5412798804.096512</v>
+        <v>13877.70026551203</v>
       </c>
       <c r="E21">
-        <v>5551622485977.552</v>
+        <v>21528069778990.95</v>
       </c>
       <c r="F21">
-        <v>2615480097.719919</v>
+        <v>-165.5874546872664</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>4923908182543817</v>
+        <v>9638906265104632</v>
       </c>
       <c r="B22">
-        <v>0.01305105623442089</v>
+        <v>0.002024452602279674</v>
       </c>
       <c r="C22">
-        <v>5883740983414.199</v>
+        <v>21658779310734.4</v>
       </c>
       <c r="D22">
-        <v>5323866591.100682</v>
+        <v>13697.57252360226</v>
       </c>
       <c r="E22">
-        <v>5883740983414.199</v>
+        <v>21658779310734.4</v>
       </c>
       <c r="F22">
-        <v>2614622006.643537</v>
+        <v>-162.1848847078025</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>4670411560396624</v>
+        <v>9295546940207924</v>
       </c>
       <c r="B23">
-        <v>0.01405773551207265</v>
+        <v>0.002105644572844136</v>
       </c>
       <c r="C23">
-        <v>5900131549902.763</v>
+        <v>21962106724724.2</v>
       </c>
       <c r="D23">
-        <v>5124502557.007641</v>
+        <v>13521.54616314874</v>
       </c>
       <c r="E23">
-        <v>5900131549902.763</v>
+        <v>21962106724724.2</v>
       </c>
       <c r="F23">
-        <v>2614579669.715898</v>
+        <v>-154.2882187017263</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>4440498492198954</v>
+        <v>8960721432984373</v>
       </c>
       <c r="B24">
-        <v>0.01507806445380127</v>
+        <v>0.002189924776314067</v>
       </c>
       <c r="C24">
-        <v>5994423031185.017</v>
+        <v>22122226048550.53</v>
       </c>
       <c r="D24">
-        <v>4989145655.328985</v>
+        <v>13358.64192695316</v>
       </c>
       <c r="E24">
-        <v>5994423031185.017</v>
+        <v>22122226048550.53</v>
       </c>
       <c r="F24">
-        <v>2614336134.759111</v>
+        <v>-150.1194268709578</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>4222458429127240</v>
+        <v>8639327131494602</v>
       </c>
       <c r="B25">
-        <v>0.01615510059925762</v>
+        <v>0.002275998260197433</v>
       </c>
       <c r="C25">
-        <v>6015584066417.097</v>
+        <v>22141839698292.25</v>
       </c>
       <c r="D25">
-        <v>4956969547.032809</v>
+        <v>13195.40465597413</v>
       </c>
       <c r="E25">
-        <v>6015584066417.097</v>
+        <v>22141839698292.25</v>
       </c>
       <c r="F25">
-        <v>2614281485.075213</v>
+        <v>-149.608759443028</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>4017230931248834</v>
+        <v>8327533976135354</v>
       </c>
       <c r="B26">
-        <v>0.01728119984525491</v>
+        <v>0.002364781854357536</v>
       </c>
       <c r="C26">
-        <v>6085703622529.208</v>
+        <v>22155817241937.86</v>
       </c>
       <c r="D26">
-        <v>4827620319.236212</v>
+        <v>13039.80916394608</v>
       </c>
       <c r="E26">
-        <v>6085703622529.208</v>
+        <v>22155817241937.86</v>
       </c>
       <c r="F26">
-        <v>2614100409.544487</v>
+        <v>-149.2448334476584</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>3830272459658670</v>
+        <v>8027460882181143</v>
       </c>
       <c r="B27">
-        <v>0.01841609060238299</v>
+        <v>0.002455579454516487</v>
       </c>
       <c r="C27">
-        <v>6430744379745.473</v>
+        <v>22302953893392.71</v>
       </c>
       <c r="D27">
-        <v>4686252650.421638</v>
+        <v>12886.68629799468</v>
       </c>
       <c r="E27">
-        <v>6430744379745.473</v>
+        <v>22302953893392.71</v>
       </c>
       <c r="F27">
-        <v>2613209663.595884</v>
+        <v>-145.413808635139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>3654078542401392</v>
+        <v>7735339168148767</v>
       </c>
       <c r="B28">
-        <v>0.01959452127184922</v>
+        <v>0.002549461760075671</v>
       </c>
       <c r="C28">
-        <v>6439867489943.49</v>
+        <v>22407476508534.55</v>
       </c>
       <c r="D28">
-        <v>4558830323.118442</v>
+        <v>12745.06715095296</v>
       </c>
       <c r="E28">
-        <v>6439867489943.49</v>
+        <v>22407476508534.55</v>
       </c>
       <c r="F28">
-        <v>2613186118.021423</v>
+        <v>-142.6922175157058</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>3493376102736804</v>
+        <v>7452490320842504</v>
       </c>
       <c r="B29">
-        <v>0.02077412988930603</v>
+        <v>0.002645982052389629</v>
       </c>
       <c r="C29">
-        <v>6483168721096.779</v>
+        <v>22455741858054.38</v>
       </c>
       <c r="D29">
-        <v>4357691672.593455</v>
+        <v>12604.7102183232</v>
       </c>
       <c r="E29">
-        <v>6483168721096.779</v>
+        <v>22455741858054.38</v>
       </c>
       <c r="F29">
-        <v>2613074367.573388</v>
+        <v>-141.4354374446427</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>3346254057302323</v>
+        <v>7182561489375229</v>
       </c>
       <c r="B30">
-        <v>0.02195318245231222</v>
+        <v>0.002743699488483941</v>
       </c>
       <c r="C30">
-        <v>6491798351855.877</v>
+        <v>22473899593831.88</v>
       </c>
       <c r="D30">
-        <v>4297508557.081879</v>
+        <v>12467.1499000705</v>
       </c>
       <c r="E30">
-        <v>6491798351855.877</v>
+        <v>22473899593831.88</v>
       </c>
       <c r="F30">
-        <v>2613052097.376222</v>
+        <v>-140.9626233731632</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>3202716301920993</v>
+        <v>6916786564156993</v>
       </c>
       <c r="B31">
-        <v>0.02320633025035399</v>
+        <v>0.00284572835990539</v>
       </c>
       <c r="C31">
-        <v>6545837825562.425</v>
+        <v>22475737176464.95</v>
       </c>
       <c r="D31">
-        <v>4271519622.346817</v>
+        <v>12341.80959675768</v>
       </c>
       <c r="E31">
-        <v>6545837825562.425</v>
+        <v>22475737176464.95</v>
       </c>
       <c r="F31">
-        <v>2612912646.186523</v>
+        <v>-140.9147739127895</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>3069884393846304</v>
+        <v>6663370531307769</v>
       </c>
       <c r="B32">
-        <v>0.02446749668933407</v>
+        <v>0.002948849639322593</v>
       </c>
       <c r="C32">
-        <v>6560917148025.092</v>
+        <v>22650514677459.27</v>
       </c>
       <c r="D32">
-        <v>4185047971.67179</v>
+        <v>12209.39978022737</v>
       </c>
       <c r="E32">
-        <v>6560917148025.092</v>
+        <v>22650514677459.27</v>
       </c>
       <c r="F32">
-        <v>2612873735.394605</v>
+        <v>-136.3635456239987</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>2943254542268576</v>
+        <v>6420182692999252</v>
       </c>
       <c r="B33">
-        <v>0.02577144021865439</v>
+        <v>0.003053623919217623</v>
       </c>
       <c r="C33">
-        <v>6760204001791.853</v>
+        <v>23005247942339.01</v>
       </c>
       <c r="D33">
-        <v>4086830762.78844</v>
+        <v>12086.66098887384</v>
       </c>
       <c r="E33">
-        <v>6760204001791.853</v>
+        <v>23005247942339.01</v>
       </c>
       <c r="F33">
-        <v>2612359578.172439</v>
+        <v>-127.1254250864764</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>2827028484704904</v>
+        <v>6184200549768909</v>
       </c>
       <c r="B34">
-        <v>0.02706557446920414</v>
+        <v>0.003161196727051961</v>
       </c>
       <c r="C34">
-        <v>6795039322147.786</v>
+        <v>23019932758443.84</v>
       </c>
       <c r="D34">
-        <v>3965480153.263793</v>
+        <v>11968.68338765889</v>
       </c>
       <c r="E34">
-        <v>6795039322147.786</v>
+        <v>23019932758443.84</v>
       </c>
       <c r="F34">
-        <v>2612269719.58512</v>
+        <v>-126.74297298208</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>2716954898190332</v>
+        <v>5956421471837063</v>
       </c>
       <c r="B35">
-        <v>0.02838656523729146</v>
+        <v>0.003271004214242831</v>
       </c>
       <c r="C35">
-        <v>6820286386910.667</v>
+        <v>23312150009830.4</v>
       </c>
       <c r="D35">
-        <v>3939793245.050745</v>
+        <v>11851.67435941304</v>
       </c>
       <c r="E35">
-        <v>6820286386910.667</v>
+        <v>23312150009830.4</v>
       </c>
       <c r="F35">
-        <v>2612204597.128401</v>
+        <v>-119.1320630726598</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>2611029311725861</v>
+        <v>5738086785566467</v>
       </c>
       <c r="B36">
-        <v>0.02975471235533521</v>
+        <v>0.003382221317342916</v>
       </c>
       <c r="C36">
-        <v>7052395558676.429</v>
+        <v>23603728100937.04</v>
       </c>
       <c r="D36">
-        <v>3878371310.570219</v>
+        <v>11740.14010365431</v>
       </c>
       <c r="E36">
-        <v>7052395558676.429</v>
+        <v>23603728100937.04</v>
       </c>
       <c r="F36">
-        <v>2611606010.616672</v>
+        <v>-111.5370655109709</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>2512668938233396</v>
+        <v>5527577220691641</v>
       </c>
       <c r="B37">
-        <v>0.03111909570430758</v>
+        <v>0.003495428386871802</v>
       </c>
       <c r="C37">
-        <v>7230888185296.25</v>
+        <v>23733968974020.33</v>
       </c>
       <c r="D37">
-        <v>3783609889.069129</v>
+        <v>11631.58753913307</v>
       </c>
       <c r="E37">
-        <v>7230888185296.25</v>
+        <v>23733968974020.33</v>
       </c>
       <c r="F37">
-        <v>2611145840.102443</v>
+        <v>-108.1443280658987</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>2419275163925846</v>
+        <v>5322655654098364</v>
       </c>
       <c r="B38">
-        <v>0.03250673998220709</v>
+        <v>0.003611719623137249</v>
       </c>
       <c r="C38">
-        <v>7582734381039.172</v>
+        <v>23749724922413.88</v>
       </c>
       <c r="D38">
-        <v>3619800400.005116</v>
+        <v>11533.51620998621</v>
       </c>
       <c r="E38">
-        <v>7582734381039.172</v>
+        <v>23749724922413.88</v>
       </c>
       <c r="F38">
-        <v>2610239115.50217</v>
+        <v>-107.7338802749108</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>2336034509770160</v>
+        <v>5124393114248668</v>
       </c>
       <c r="B39">
-        <v>0.0338263785288946</v>
+        <v>0.003730406855459084</v>
       </c>
       <c r="C39">
-        <v>8141834144422.152</v>
+        <v>23952041306504.94</v>
       </c>
       <c r="D39">
-        <v>3585176038.891257</v>
+        <v>11434.59323337262</v>
       </c>
       <c r="E39">
-        <v>8141834144422.152</v>
+        <v>23952041306504.94</v>
       </c>
       <c r="F39">
-        <v>2608799291.982279</v>
+        <v>-102.4632815681863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>2250391990702134</v>
+        <v>4935289937821331</v>
       </c>
       <c r="B40">
-        <v>0.03527316308247478</v>
+        <v>0.00384971718583504</v>
       </c>
       <c r="C40">
-        <v>8799115166177.844</v>
+        <v>24309328337170.61</v>
       </c>
       <c r="D40">
-        <v>3594768944.687792</v>
+        <v>11335.08579703569</v>
       </c>
       <c r="E40">
-        <v>8799115166177.844</v>
+        <v>24309328337170.61</v>
       </c>
       <c r="F40">
-        <v>2607108203.331692</v>
+        <v>-93.15465060793579</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>2172965667156729</v>
+        <v>4752718558239399</v>
       </c>
       <c r="B41">
-        <v>0.03666583570286996</v>
+        <v>0.003971004245205397</v>
       </c>
       <c r="C41">
-        <v>9309648337732.836</v>
+        <v>24493709547076.02</v>
       </c>
       <c r="D41">
-        <v>3564605041.07532</v>
+        <v>11239.4792245026</v>
       </c>
       <c r="E41">
-        <v>9309648337732.836</v>
+        <v>24493709547076.02</v>
       </c>
       <c r="F41">
-        <v>2605795852.190291</v>
+        <v>-88.35042492594587</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>2094291348809432</v>
+        <v>4576175586139990</v>
       </c>
       <c r="B42">
-        <v>0.03817071497697885</v>
+        <v>0.004094421840101063</v>
       </c>
       <c r="C42">
-        <v>9511871408625.109</v>
+        <v>24614119149481.87</v>
       </c>
       <c r="D42">
-        <v>3635530120.52158</v>
+        <v>11149.95842316683</v>
       </c>
       <c r="E42">
-        <v>9511871408625.109</v>
+        <v>24614119149481.87</v>
       </c>
       <c r="F42">
-        <v>2605276312.269281</v>
+        <v>-85.21288516591056</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>2019591083524186</v>
+        <v>4406773476521453</v>
       </c>
       <c r="B43">
-        <v>0.03969064826729495</v>
+        <v>0.004218949542485548</v>
       </c>
       <c r="C43">
-        <v>9816928393078.363</v>
+        <v>24721478872578.08</v>
       </c>
       <c r="D43">
-        <v>3443252012.95166</v>
+        <v>11062.60295188175</v>
       </c>
       <c r="E43">
-        <v>9816928393078.363</v>
+        <v>24721478872578.08</v>
       </c>
       <c r="F43">
-        <v>2604492883.068851</v>
+        <v>-82.41528643331144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1954194396471762</v>
+        <v>4241348754443615</v>
       </c>
       <c r="B44">
-        <v>0.04110027482649614</v>
+        <v>0.004346755223308804</v>
       </c>
       <c r="C44">
-        <v>10474405880815.57</v>
+        <v>25003048830208.61</v>
       </c>
       <c r="D44">
-        <v>3233247538.463082</v>
+        <v>10983.44537587781</v>
       </c>
       <c r="E44">
-        <v>10474405880815.57</v>
+        <v>25003048830208.61</v>
       </c>
       <c r="F44">
-        <v>2602805639.188672</v>
+        <v>-75.07762884230472</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1892272197631608</v>
+        <v>4083841085363200</v>
       </c>
       <c r="B45">
-        <v>0.04250840613909387</v>
+        <v>0.004474562482786194</v>
       </c>
       <c r="C45">
-        <v>11103532659371.53</v>
+        <v>25309981626342.92</v>
       </c>
       <c r="D45">
-        <v>3298548942.5004</v>
+        <v>10898.73818942913</v>
       </c>
       <c r="E45">
-        <v>11103532659371.53</v>
+        <v>25309981626342.92</v>
       </c>
       <c r="F45">
-        <v>2601192750.489625</v>
+        <v>-67.0782697991319</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1828468983976190</v>
+        <v>3931796094134536</v>
       </c>
       <c r="B46">
-        <v>0.04403974881060956</v>
+        <v>0.004604013985881277</v>
       </c>
       <c r="C46">
-        <v>11343324030338.68</v>
+        <v>25561888207319.68</v>
       </c>
       <c r="D46">
-        <v>3324133054.680246</v>
+        <v>10822.5775076698</v>
       </c>
       <c r="E46">
-        <v>11343324030338.68</v>
+        <v>25561888207319.68</v>
       </c>
       <c r="F46">
-        <v>2600578410.923362</v>
+        <v>-60.51243618856197</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1769880286515352</v>
+        <v>3786084023689706</v>
       </c>
       <c r="B47">
-        <v>0.04552329274534528</v>
+        <v>0.004734078962993567</v>
       </c>
       <c r="C47">
-        <v>11358910967500.42</v>
+        <v>25882878046627.08</v>
       </c>
       <c r="D47">
-        <v>3216894407.696565</v>
+        <v>10743.77302260176</v>
       </c>
       <c r="E47">
-        <v>11358910967500.42</v>
+        <v>25882878046627.08</v>
       </c>
       <c r="F47">
-        <v>2600538485.452348</v>
+        <v>-52.14522342696752</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1713821000424611</v>
+        <v>3643090760018314</v>
       </c>
       <c r="B48">
-        <v>0.04701730849778651</v>
+        <v>0.004867839341746883</v>
       </c>
       <c r="C48">
-        <v>11515098327144.29</v>
+        <v>26025004359815.68</v>
       </c>
       <c r="D48">
-        <v>3222267592.246052</v>
+        <v>10677.23553237261</v>
       </c>
       <c r="E48">
-        <v>11515098327144.29</v>
+        <v>26025004359815.68</v>
       </c>
       <c r="F48">
-        <v>2600138469.321354</v>
+        <v>-48.44016120127782</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1658703422431100</v>
+        <v>3506381731154168</v>
       </c>
       <c r="B49">
-        <v>0.04856243314386544</v>
+        <v>0.005001792167236488</v>
       </c>
       <c r="C49">
-        <v>12218220802241.38</v>
+        <v>26035243513523.36</v>
       </c>
       <c r="D49">
-        <v>3262982835.826201</v>
+        <v>10607.72248417727</v>
       </c>
       <c r="E49">
-        <v>12218220802241.38</v>
+        <v>26035243513523.36</v>
       </c>
       <c r="F49">
-        <v>2598338877.312792</v>
+        <v>-48.17323242177823</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1604891415361329</v>
+        <v>3374367062504356</v>
       </c>
       <c r="B50">
-        <v>0.05014909758662207</v>
+        <v>0.005137171507461505</v>
       </c>
       <c r="C50">
-        <v>12274426259950.31</v>
+        <v>26150102281906.08</v>
       </c>
       <c r="D50">
-        <v>3115572826.727984</v>
+        <v>10539.7136386863</v>
       </c>
       <c r="E50">
-        <v>12274426259950.31</v>
+        <v>26150102281906.08</v>
       </c>
       <c r="F50">
-        <v>2598195107.944942</v>
+        <v>-45.17887284727732</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1558060208155664</v>
+        <v>3248184316705182</v>
       </c>
       <c r="B51">
-        <v>0.05159709877282124</v>
+        <v>0.005272484604612689</v>
       </c>
       <c r="C51">
-        <v>12855621131471.33</v>
+        <v>26313801892838.2</v>
       </c>
       <c r="D51">
-        <v>2972134337.402947</v>
+        <v>10466.01264114461</v>
       </c>
       <c r="E51">
-        <v>12855621131471.33</v>
+        <v>26313801892838.2</v>
       </c>
       <c r="F51">
-        <v>2596709188.652351</v>
+        <v>-40.91105146969372</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1511672154662291</v>
+        <v>3126236257737620</v>
       </c>
       <c r="B52">
-        <v>0.05309710893852581</v>
+        <v>0.005409121053395486</v>
       </c>
       <c r="C52">
-        <v>13233480406889.83</v>
+        <v>26327338115151.88</v>
       </c>
       <c r="D52">
-        <v>2891987763.740129</v>
+        <v>10402.10491571942</v>
       </c>
       <c r="E52">
-        <v>13233480406889.83</v>
+        <v>26327338115151.88</v>
       </c>
       <c r="F52">
-        <v>2595743847.957898</v>
+        <v>-40.55813819442303</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1470056021096046</v>
+        <v>3006547824115050</v>
       </c>
       <c r="B53">
-        <v>0.05450190496144568</v>
+        <v>0.005549206271390578</v>
       </c>
       <c r="C53">
-        <v>13310282950193.55</v>
+        <v>26515588765050.81</v>
       </c>
       <c r="D53">
-        <v>2834795164.011202</v>
+        <v>10344.00357656405</v>
       </c>
       <c r="E53">
-        <v>13310282950193.55</v>
+        <v>26515588765050.81</v>
       </c>
       <c r="F53">
-        <v>2595547704.912384</v>
+        <v>-35.64995747352967</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1427786510665152</v>
+        <v>2892749272659504</v>
       </c>
       <c r="B54">
-        <v>0.05598943759254099</v>
+        <v>0.005688256219152151</v>
       </c>
       <c r="C54">
-        <v>13379220341370.59</v>
+        <v>26813343461958.93</v>
       </c>
       <c r="D54">
-        <v>3057033202.590603</v>
+        <v>10280.37451483513</v>
       </c>
       <c r="E54">
-        <v>13379220341370.59</v>
+        <v>26813343461958.93</v>
       </c>
       <c r="F54">
-        <v>2595371668.290707</v>
+        <v>-27.88614244968856</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1382250148753011</v>
+        <v>2781649507872554</v>
       </c>
       <c r="B55">
-        <v>0.05766456261577559</v>
+        <v>0.005829879491847117</v>
       </c>
       <c r="C55">
-        <v>13453404692272.75</v>
+        <v>27008284255170.68</v>
       </c>
       <c r="D55">
-        <v>3053316069.57197</v>
+        <v>10226.94573690169</v>
       </c>
       <c r="E55">
-        <v>13453404692272.75</v>
+        <v>27008284255170.68</v>
       </c>
       <c r="F55">
-        <v>2595182254.226745</v>
+        <v>-22.80276846317549</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1342898133077238</v>
+        <v>2674984006590737</v>
       </c>
       <c r="B56">
-        <v>0.05917658284081953</v>
+        <v>0.005971661098130121</v>
       </c>
       <c r="C56">
-        <v>14186448793110.69</v>
+        <v>27217122232169.8</v>
       </c>
       <c r="D56">
-        <v>2778573690.804333</v>
+        <v>10173.32329247311</v>
       </c>
       <c r="E56">
-        <v>14186448793110.69</v>
+        <v>27217122232169.8</v>
       </c>
       <c r="F56">
-        <v>2593311754.59668</v>
+        <v>-17.35666950744989</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1307169425393212</v>
+        <v>2573542998627381</v>
       </c>
       <c r="B57">
-        <v>0.06060414618114005</v>
+        <v>0.006112115668993957</v>
       </c>
       <c r="C57">
-        <v>14233118417458.71</v>
+        <v>27268506387139.22</v>
       </c>
       <c r="D57">
-        <v>2768235517.670839</v>
+        <v>10115.75633886309</v>
       </c>
       <c r="E57">
-        <v>14233118417458.71</v>
+        <v>27268506387139.22</v>
       </c>
       <c r="F57">
-        <v>2593192740.481634</v>
+        <v>-16.01661510875061</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1270095664724274</v>
+        <v>2474005041241582</v>
       </c>
       <c r="B58">
-        <v>0.06214361906187488</v>
+        <v>0.006255592792252745</v>
       </c>
       <c r="C58">
-        <v>14367265807439.4</v>
+        <v>27333863615418.04</v>
       </c>
       <c r="D58">
-        <v>2868768515.54507</v>
+        <v>10070.80714624527</v>
       </c>
       <c r="E58">
-        <v>14367265807439.4</v>
+        <v>27333863615418.04</v>
       </c>
       <c r="F58">
-        <v>2592850693.88032</v>
+        <v>-14.31212488352807</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1233888424109698</v>
+        <v>2378771667684477</v>
       </c>
       <c r="B59">
-        <v>0.06370743449864161</v>
+        <v>0.006398435119373871</v>
       </c>
       <c r="C59">
-        <v>15339310703243.47</v>
+        <v>27351536029329.08</v>
       </c>
       <c r="D59">
-        <v>2847600438.81474</v>
+        <v>10026.4835925214</v>
       </c>
       <c r="E59">
-        <v>15339310703243.47</v>
+        <v>27351536029329.08</v>
       </c>
       <c r="F59">
-        <v>2590374325.598742</v>
+        <v>-13.85122964675039</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1199435850049949</v>
+        <v>2286288464351894</v>
       </c>
       <c r="B60">
-        <v>0.0652538649593306</v>
+        <v>0.006542685274216865</v>
       </c>
       <c r="C60">
-        <v>15964394154685.3</v>
+        <v>27641619469041.97</v>
       </c>
       <c r="D60">
-        <v>2878119531.418694</v>
+        <v>9988.334380987873</v>
       </c>
       <c r="E60">
-        <v>15964394154685.3</v>
+        <v>27641619469041.97</v>
       </c>
       <c r="F60">
-        <v>2588783853.667581</v>
+        <v>-6.2855238527854</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1164478379615000</v>
+        <v>2198178559372720</v>
       </c>
       <c r="B61">
-        <v>0.06688436240220774</v>
+        <v>0.00668549067756594</v>
       </c>
       <c r="C61">
-        <v>16151553591789.34</v>
+        <v>27942779563013.45</v>
       </c>
       <c r="D61">
-        <v>2809814150.501424</v>
+        <v>9937.136970472833</v>
       </c>
       <c r="E61">
-        <v>16151553591789.34</v>
+        <v>27942779563013.45</v>
       </c>
       <c r="F61">
-        <v>2588307944.223846</v>
+        <v>1.56977126006131</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1133648260094136</v>
+        <v>2112241255876359</v>
       </c>
       <c r="B62">
-        <v>0.06837639075787612</v>
+        <v>0.006830129252206941</v>
       </c>
       <c r="C62">
-        <v>16924241480275.39</v>
+        <v>28211857916490.56</v>
       </c>
       <c r="D62">
-        <v>2630789059.55392</v>
+        <v>9895.301308564876</v>
       </c>
       <c r="E62">
-        <v>16924241480275.39</v>
+        <v>28211857916490.56</v>
       </c>
       <c r="F62">
-        <v>2586344624.759721</v>
+        <v>8.588861170723735</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1104498974439108</v>
+        <v>2029623272358377</v>
       </c>
       <c r="B63">
-        <v>0.06983601983087984</v>
+        <v>0.006974458342260227</v>
       </c>
       <c r="C63">
-        <v>17323953500854.05</v>
+        <v>28391560818197.56</v>
       </c>
       <c r="D63">
-        <v>2728009094.894086</v>
+        <v>9850.593463101692</v>
       </c>
       <c r="E63">
-        <v>17323953500854.05</v>
+        <v>28391560818197.56</v>
       </c>
       <c r="F63">
-        <v>2585329928.758161</v>
+        <v>13.27684454914628</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1073070258207887</v>
+        <v>1949575437835311</v>
       </c>
       <c r="B64">
-        <v>0.07146572925168224</v>
+        <v>0.007119518063748015</v>
       </c>
       <c r="C64">
-        <v>18456489941931.88</v>
+        <v>28402531428318.41</v>
       </c>
       <c r="D64">
-        <v>2792667860.141863</v>
+        <v>9812.032254815535</v>
       </c>
       <c r="E64">
-        <v>18456489941931.88</v>
+        <v>28402531428318.41</v>
       </c>
       <c r="F64">
-        <v>2582458351.91923</v>
+        <v>13.56304743223522</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1044264070803474</v>
+        <v>1872684121509486</v>
       </c>
       <c r="B65">
-        <v>0.07301293460454272</v>
+        <v>0.007263972239848063</v>
       </c>
       <c r="C65">
-        <v>19695055208641.26</v>
+        <v>28412774793703.55</v>
       </c>
       <c r="D65">
-        <v>2603151109.648157</v>
+        <v>9773.826332648769</v>
       </c>
       <c r="E65">
-        <v>19695055208641.26</v>
+        <v>28412774793703.55</v>
       </c>
       <c r="F65">
-        <v>2579323757.296667</v>
+        <v>13.8302786855725</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1018416642862936</v>
+        <v>1798600166489854</v>
       </c>
       <c r="B66">
-        <v>0.07444685178176794</v>
+        <v>0.007408159897784579</v>
       </c>
       <c r="C66">
-        <v>20114798455315.62</v>
+        <v>28527109949222.27</v>
       </c>
       <c r="D66">
-        <v>2672257944.614802</v>
+        <v>9739.321396766729</v>
       </c>
       <c r="E66">
-        <v>20114798455315.62</v>
+        <v>28527109949222.27</v>
       </c>
       <c r="F66">
-        <v>2578262837.856848</v>
+        <v>16.81313514628477</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>989561013938402.1</v>
+        <v>1727360489135714</v>
       </c>
       <c r="B67">
-        <v>0.07610104036523956</v>
+        <v>0.007551703624971785</v>
       </c>
       <c r="C67">
-        <v>20637171070337.96</v>
+        <v>28587633389059.54</v>
       </c>
       <c r="D67">
-        <v>2772236939.915211</v>
+        <v>9709.763243210717</v>
       </c>
       <c r="E67">
-        <v>20637171070337.96</v>
+        <v>28587633389059.54</v>
       </c>
       <c r="F67">
-        <v>2576943491.788584</v>
+        <v>18.39215417154789</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>963290604859644.6</v>
+        <v>1657784703374570</v>
       </c>
       <c r="B68">
-        <v>0.07765827490807703</v>
+        <v>0.007696777565464157</v>
       </c>
       <c r="C68">
-        <v>21338700517011.26</v>
+        <v>28741254008233.3</v>
       </c>
       <c r="D68">
-        <v>2658934595.70157</v>
+        <v>9688.806257425844</v>
       </c>
       <c r="E68">
-        <v>21338700517011.26</v>
+        <v>28741254008233.3</v>
       </c>
       <c r="F68">
-        <v>2575173350.617286</v>
+        <v>22.40014708214572</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>938086374977186.1</v>
+        <v>1591362016772076</v>
       </c>
       <c r="B69">
-        <v>0.07920035467594347</v>
+        <v>0.007840022049859272</v>
       </c>
       <c r="C69">
-        <v>21865182151613.85</v>
+        <v>29113965558299.62</v>
       </c>
       <c r="D69">
-        <v>2581274545.084321</v>
+        <v>9664.164162759604</v>
       </c>
       <c r="E69">
-        <v>21865182151613.85</v>
+        <v>29113965558299.62</v>
       </c>
       <c r="F69">
-        <v>2573846177.876011</v>
+        <v>32.12501593946308</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>914624526395972</v>
+        <v>1526847639420598</v>
       </c>
       <c r="B70">
-        <v>0.0806799692343</v>
+        <v>0.007983825374943888</v>
       </c>
       <c r="C70">
-        <v>22421667927982.1</v>
+        <v>29195640762737.58</v>
       </c>
       <c r="D70">
-        <v>2548320650.307389</v>
+        <v>9636.149480014798</v>
       </c>
       <c r="E70">
-        <v>22421667927982.1</v>
+        <v>29195640762737.58</v>
       </c>
       <c r="F70">
-        <v>2572444558.912304</v>
+        <v>34.25624388362809</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>891244495902349.2</v>
+        <v>1465038326918108</v>
       </c>
       <c r="B71">
-        <v>0.08219856917171041</v>
+        <v>0.008126146229917655</v>
       </c>
       <c r="C71">
-        <v>23225813459296.46</v>
+        <v>29255076309577.95</v>
       </c>
       <c r="D71">
-        <v>2344823013.755448</v>
+        <v>9607.476956205401</v>
       </c>
       <c r="E71">
-        <v>23225813459296.46</v>
+        <v>29255076309577.95</v>
       </c>
       <c r="F71">
-        <v>2570421316.255882</v>
+        <v>35.80718331217385</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>872611444720048.8</v>
+        <v>1405871118109769</v>
       </c>
       <c r="B72">
-        <v>0.08344163123680712</v>
+        <v>0.008266767121878382</v>
       </c>
       <c r="C72">
-        <v>23588506332557.3</v>
+        <v>29348012869675.54</v>
       </c>
       <c r="D72">
-        <v>2259578535.140119</v>
+        <v>9581.040408437508</v>
       </c>
       <c r="E72">
-        <v>23588506332557.3</v>
+        <v>29348012869675.54</v>
       </c>
       <c r="F72">
-        <v>2569509608.031047</v>
+        <v>38.23236770725338</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>851600641723211.5</v>
+        <v>1348211993653792</v>
       </c>
       <c r="B73">
-        <v>0.08487954215865594</v>
+        <v>0.008408138858226938</v>
       </c>
       <c r="C73">
-        <v>23591337998311.1</v>
+        <v>29554941391059.1</v>
       </c>
       <c r="D73">
-        <v>2567878351.389807</v>
+        <v>9557.296549223733</v>
       </c>
       <c r="E73">
-        <v>23591337998311.1</v>
+        <v>29554941391059.1</v>
       </c>
       <c r="F73">
-        <v>2569502492.051349</v>
+        <v>43.63241255422827</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>828674629859616.8</v>
+        <v>1293347035662358</v>
       </c>
       <c r="B74">
-        <v>0.08649400812815621</v>
+        <v>0.008546831165382259</v>
       </c>
       <c r="C74">
-        <v>23603342335188.16</v>
+        <v>30078440364537.71</v>
       </c>
       <c r="D74">
-        <v>2617234063.845313</v>
+        <v>9536.84550139682</v>
       </c>
       <c r="E74">
-        <v>23603342335188.16</v>
+        <v>30078440364537.71</v>
       </c>
       <c r="F74">
-        <v>2569472325.48719</v>
+        <v>57.29517395850851</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>808032301819601.4</v>
+        <v>1240494574956385</v>
       </c>
       <c r="B75">
-        <v>0.08798989164353312</v>
+        <v>0.008684472033057514</v>
       </c>
       <c r="C75">
-        <v>23855919237549.35</v>
+        <v>30491033066925.84</v>
       </c>
       <c r="D75">
-        <v>2577242198.783085</v>
+        <v>9519.921610383673</v>
       </c>
       <c r="E75">
-        <v>23855919237549.35</v>
+        <v>30491033066925.84</v>
       </c>
       <c r="F75">
-        <v>2568837738.050204</v>
+        <v>68.06483989555319</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>786841050536275.4</v>
+        <v>1188967235460020</v>
       </c>
       <c r="B76">
-        <v>0.08956887829528522</v>
+        <v>0.008822659359841943</v>
       </c>
       <c r="C76">
-        <v>24324451272151.12</v>
+        <v>30816843004611.89</v>
       </c>
       <c r="D76">
-        <v>2523978499.10499</v>
+        <v>9507.080662349263</v>
       </c>
       <c r="E76">
-        <v>24324451272151.12</v>
+        <v>30816843004611.89</v>
       </c>
       <c r="F76">
-        <v>2567661237.102162</v>
+        <v>76.57015521424958</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>768137193745549.9</v>
+        <v>1138596381769400</v>
       </c>
       <c r="B77">
-        <v>0.09100039291175926</v>
+        <v>0.008961743561500361</v>
       </c>
       <c r="C77">
-        <v>24822127062621.84</v>
+        <v>31044828334490.59</v>
       </c>
       <c r="D77">
-        <v>2285065786.307189</v>
+        <v>9493.972200998887</v>
       </c>
       <c r="E77">
-        <v>24822127062621.84</v>
+        <v>31044828334490.59</v>
       </c>
       <c r="F77">
-        <v>2566412498.791339</v>
+        <v>82.52220880036174</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>751567334992138</v>
+        <v>1090723451320795</v>
       </c>
       <c r="B78">
-        <v>0.09229931262465932</v>
+        <v>0.009097768847448532</v>
       </c>
       <c r="C78">
-        <v>25937204933614.24</v>
+        <v>31169320757394.66</v>
       </c>
       <c r="D78">
-        <v>2197606751.298031</v>
+        <v>9475.387203651229</v>
       </c>
       <c r="E78">
-        <v>25937204933614.24</v>
+        <v>31169320757394.66</v>
       </c>
       <c r="F78">
-        <v>2563618136.634216</v>
+        <v>85.77251512706424</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>734941336330010.9</v>
+        <v>1044825682958164</v>
       </c>
       <c r="B79">
-        <v>0.09363262638847959</v>
+        <v>0.009231859149748391</v>
       </c>
       <c r="C79">
-        <v>26590260702299.93</v>
+        <v>31202764077425.25</v>
       </c>
       <c r="D79">
-        <v>2348753860.267654</v>
+        <v>9466.704199841921</v>
       </c>
       <c r="E79">
-        <v>26590260702299.93</v>
+        <v>31202764077425.25</v>
       </c>
       <c r="F79">
-        <v>2561983850.957695</v>
+        <v>86.64568821850956</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>716886411337499.8</v>
+        <v>999184125422584.4</v>
       </c>
       <c r="B80">
-        <v>0.09511569934851201</v>
+        <v>0.009368936399898515</v>
       </c>
       <c r="C80">
-        <v>27011114357235.26</v>
+        <v>31325596730133.56</v>
       </c>
       <c r="D80">
-        <v>2522496719.521277</v>
+        <v>9461.670944890157</v>
       </c>
       <c r="E80">
-        <v>27011114357235.26</v>
+        <v>31325596730133.56</v>
       </c>
       <c r="F80">
-        <v>2560931537.946861</v>
+        <v>89.85280118471263</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>698623710902106.1</v>
+        <v>956763909996786.2</v>
       </c>
       <c r="B81">
-        <v>0.09665439243539645</v>
+        <v>0.009499831337824944</v>
       </c>
       <c r="C81">
-        <v>27689185969374</v>
+        <v>31704415403421.8</v>
       </c>
       <c r="D81">
-        <v>2463755834.381319</v>
+        <v>9432.235618043705</v>
       </c>
       <c r="E81">
-        <v>27689185969374</v>
+        <v>31704415403421.8</v>
       </c>
       <c r="F81">
-        <v>2559237522.822155</v>
+        <v>99.74429989264122</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>682317072600849.8</v>
+        <v>915438089545827.1</v>
       </c>
       <c r="B82">
-        <v>0.09806219735573063</v>
+        <v>0.009630731118382611</v>
       </c>
       <c r="C82">
-        <v>28545664212888.55</v>
+        <v>32083080385722</v>
       </c>
       <c r="D82">
-        <v>2416580462.39402</v>
+        <v>9428.433931744907</v>
       </c>
       <c r="E82">
-        <v>28545664212888.55</v>
+        <v>32083080385722</v>
       </c>
       <c r="F82">
-        <v>2557100355.728562</v>
+        <v>109.6328214853949</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>665507056449772.5</v>
+        <v>874348430779914.2</v>
       </c>
       <c r="B83">
-        <v>0.0995481144720349</v>
+        <v>0.009764339669137225</v>
       </c>
       <c r="C83">
-        <v>29432692302747.41</v>
+        <v>32377877272554.11</v>
       </c>
       <c r="D83">
-        <v>2508463112.387517</v>
+        <v>9430.533603771515</v>
       </c>
       <c r="E83">
-        <v>29432692302747.41</v>
+        <v>32377877272554.11</v>
       </c>
       <c r="F83">
-        <v>2554889962.97899</v>
+        <v>117.331910124228</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>648795357117496.8</v>
+        <v>836523408937987.1</v>
       </c>
       <c r="B84">
-        <v>0.1010613968013539</v>
+        <v>0.009890514057269258</v>
       </c>
       <c r="C84">
-        <v>30636624465984.41</v>
+        <v>32603299916251.32</v>
       </c>
       <c r="D84">
-        <v>2329099076.444955</v>
+        <v>9421.643834369652</v>
       </c>
       <c r="E84">
-        <v>30636624465984.41</v>
+        <v>32603299916251.32</v>
       </c>
       <c r="F84">
-        <v>2551894751.742434</v>
+        <v>123.2195991462153</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>635156475410925.1</v>
+        <v>800309135983716</v>
       </c>
       <c r="B85">
-        <v>0.1023239339811935</v>
+        <v>0.01001429652600698</v>
       </c>
       <c r="C85">
-        <v>31521042557933.54</v>
+        <v>32718523864295.56</v>
       </c>
       <c r="D85">
-        <v>2159220381.217831</v>
+        <v>9420.099995810273</v>
       </c>
       <c r="E85">
-        <v>31521042557933.54</v>
+        <v>32718523864295.56</v>
       </c>
       <c r="F85">
-        <v>2549698011.17989</v>
+        <v>126.2292092546398</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>621242343671618.1</v>
+        <v>764234267732207.5</v>
       </c>
       <c r="B86">
-        <v>0.1036382062000741</v>
+        <v>0.01014062486735481</v>
       </c>
       <c r="C86">
-        <v>32197697955194.25</v>
+        <v>32939721925868.42</v>
       </c>
       <c r="D86">
-        <v>2299580106.668315</v>
+        <v>9442.956976272757</v>
       </c>
       <c r="E86">
-        <v>32197697955194.25</v>
+        <v>32939721925868.42</v>
       </c>
       <c r="F86">
-        <v>2548019347.763346</v>
+        <v>132.007091037545</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>606464647218124.5</v>
+        <v>728829919194355.4</v>
       </c>
       <c r="B87">
-        <v>0.105063944689034</v>
+        <v>0.01026766291166054</v>
       </c>
       <c r="C87">
-        <v>32910238582033.7</v>
+        <v>33233450291350.46</v>
       </c>
       <c r="D87">
-        <v>2517331025.564004</v>
+        <v>9455.197992387391</v>
       </c>
       <c r="E87">
-        <v>32910238582033.7</v>
+        <v>33233450291350.46</v>
       </c>
       <c r="F87">
-        <v>2546253556.055665</v>
+        <v>139.6800611241583</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>590593441054750.9</v>
+        <v>696523571073339.5</v>
       </c>
       <c r="B88">
-        <v>0.1066305647678359</v>
+        <v>0.01038633898145056</v>
       </c>
       <c r="C88">
-        <v>33916261248941.96</v>
+        <v>33646949414603.96</v>
       </c>
       <c r="D88">
-        <v>2385787667.809708</v>
+        <v>9435.53782509443</v>
       </c>
       <c r="E88">
-        <v>33916261248941.96</v>
+        <v>33646949414603.96</v>
       </c>
       <c r="F88">
-        <v>2543763770.626841</v>
+        <v>150.4827931464846</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>578173252460117.4</v>
+        <v>665879747392639.4</v>
       </c>
       <c r="B89">
-        <v>0.1078828833839016</v>
+        <v>0.0105014360829695</v>
       </c>
       <c r="C89">
-        <v>35342007988597.16</v>
+        <v>33833899106878.49</v>
       </c>
       <c r="D89">
-        <v>2199033122.7207</v>
+        <v>9418.727191732138</v>
       </c>
       <c r="E89">
-        <v>35342007988597.16</v>
+        <v>33833899106878.49</v>
       </c>
       <c r="F89">
-        <v>2540241813.181937</v>
+        <v>155.3672778357622</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>565057803302981.1</v>
+        <v>635533791976828.6</v>
       </c>
       <c r="B90">
-        <v>0.1092311601647731</v>
+        <v>0.01061793680951223</v>
       </c>
       <c r="C90">
-        <v>36352835277324.03</v>
+        <v>33884689037697.47</v>
       </c>
       <c r="D90">
-        <v>2348372191.440523</v>
+        <v>9412.380266975628</v>
       </c>
       <c r="E90">
-        <v>36352835277324.03</v>
+        <v>33884689037697.47</v>
       </c>
       <c r="F90">
-        <v>2537749472.434642</v>
+        <v>156.6943221605905</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>551530461464775.1</v>
+        <v>606675190917306.6</v>
       </c>
       <c r="B91">
-        <v>0.1106503927010651</v>
+        <v>0.01073114786753799</v>
       </c>
       <c r="C91">
-        <v>36774995123515.84</v>
+        <v>33907663769064.23</v>
       </c>
       <c r="D91">
-        <v>2181485988.032218</v>
+        <v>9397.37397157084</v>
       </c>
       <c r="E91">
-        <v>36774995123515.84</v>
+        <v>33907663769064.23</v>
       </c>
       <c r="F91">
-        <v>2536709715.264102</v>
+        <v>157.2946141244584</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>540894985855028.9</v>
+        <v>578290175725276.2</v>
       </c>
       <c r="B92">
-        <v>0.1117871810300083</v>
+        <v>0.01084489393913867</v>
       </c>
       <c r="C92">
-        <v>37497273521292.23</v>
+        <v>33962406560906.62</v>
       </c>
       <c r="D92">
-        <v>2030090767.554854</v>
+        <v>9390.884737939048</v>
       </c>
       <c r="E92">
-        <v>37497273521292.23</v>
+        <v>33962406560906.62</v>
       </c>
       <c r="F92">
-        <v>2534932333.121352</v>
+        <v>158.7249681286683</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>529472361952919.4</v>
+        <v>550871586702778.9</v>
       </c>
       <c r="B93">
-        <v>0.1130291929035082</v>
+        <v>0.01095710920909036</v>
       </c>
       <c r="C93">
-        <v>39191725857511.2</v>
+        <v>33987531491572.89</v>
       </c>
       <c r="D93">
-        <v>2356074598.906316</v>
+        <v>9381.881481825299</v>
       </c>
       <c r="E93">
-        <v>39191725857511.2</v>
+        <v>33987531491572.89</v>
       </c>
       <c r="F93">
-        <v>2530770279.215475</v>
+        <v>159.3814550745686</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>515851761834518.5</v>
+        <v>523944114565467.4</v>
       </c>
       <c r="B94">
-        <v>0.1145395038830811</v>
+        <v>0.01106964315808049</v>
       </c>
       <c r="C94">
-        <v>39953161766123.96</v>
+        <v>34211704827407.74</v>
       </c>
       <c r="D94">
-        <v>2425570321.796699</v>
+        <v>9376.381770966676</v>
       </c>
       <c r="E94">
-        <v>39953161766123.96</v>
+        <v>34211704827407.74</v>
       </c>
       <c r="F94">
-        <v>2528903454.458109</v>
+        <v>165.2390536679668</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>504357585091351.4</v>
+        <v>499158586091857.4</v>
       </c>
       <c r="B95">
-        <v>0.115839511009036</v>
+        <v>0.01117534488205561</v>
       </c>
       <c r="C95">
-        <v>40554777157118.08</v>
+        <v>34525958978036.06</v>
       </c>
       <c r="D95">
-        <v>2183100829.370999</v>
+        <v>9351.837540926841</v>
       </c>
       <c r="E95">
-        <v>40554777157118.08</v>
+        <v>34525958978036.06</v>
       </c>
       <c r="F95">
-        <v>2527429980.682035</v>
+        <v>173.451031513079</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>493743405808326.8</v>
+        <v>476337175731064.1</v>
       </c>
       <c r="B96">
-        <v>0.1170612645825221</v>
+        <v>0.01127453489468883</v>
       </c>
       <c r="C96">
-        <v>41371394039219.38</v>
+        <v>34936805045113.99</v>
       </c>
       <c r="D96">
-        <v>2334579121.821081</v>
+        <v>9318.729483373842</v>
       </c>
       <c r="E96">
-        <v>41371394039219.38</v>
+        <v>34936805045113.99</v>
       </c>
       <c r="F96">
-        <v>2525432060.310232</v>
+        <v>184.1881463769881</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>481219559872273.6</v>
+        <v>455096632648999.9</v>
       </c>
       <c r="B97">
-        <v>0.118529799325127</v>
+        <v>0.01136851813805257</v>
       </c>
       <c r="C97">
-        <v>42333144356525.59</v>
+        <v>35124252781022.85</v>
       </c>
       <c r="D97">
-        <v>2504798244.321797</v>
+        <v>9306.669055829319</v>
       </c>
       <c r="E97">
-        <v>42333144356525.59</v>
+        <v>35124252781022.85</v>
       </c>
       <c r="F97">
-        <v>2523082201.073747</v>
+        <v>189.0873215822751</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>469555041952599.8</v>
+        <v>432979039632453.4</v>
       </c>
       <c r="B98">
-        <v>0.1199245317422571</v>
+        <v>0.0114681485490565</v>
       </c>
       <c r="C98">
-        <v>42977273973165.34</v>
+        <v>35573882089199.88</v>
       </c>
       <c r="D98">
-        <v>2140592051.085119</v>
+        <v>9351.437478552931</v>
       </c>
       <c r="E98">
-        <v>42977273973165.34</v>
+        <v>35573882089199.88</v>
       </c>
       <c r="F98">
-        <v>2521510284.771516</v>
+        <v>200.8399169715243</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>461038728276640.1</v>
+        <v>412293558034980.1</v>
       </c>
       <c r="B99">
-        <v>0.1209596720091657</v>
+        <v>0.01156301737319351</v>
       </c>
       <c r="C99">
-        <v>44625483629686.48</v>
+        <v>36085445747792.2</v>
       </c>
       <c r="D99">
-        <v>1865260988.307193</v>
+        <v>9313.724263791228</v>
       </c>
       <c r="E99">
-        <v>44625483629686.48</v>
+        <v>36085445747792.2</v>
       </c>
       <c r="F99">
-        <v>2517494944.119255</v>
+        <v>214.2130629038018</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>452279653527273.1</v>
+        <v>392725450812608.8</v>
       </c>
       <c r="B100">
-        <v>0.1220394813252909</v>
+        <v>0.01165431897078856</v>
       </c>
       <c r="C100">
-        <v>46098471577449.38</v>
+        <v>36626302005029.19</v>
       </c>
       <c r="D100">
-        <v>1943881260.978347</v>
+        <v>9309.920953051656</v>
       </c>
       <c r="E100">
-        <v>46098471577449.38</v>
+        <v>36626302005029.19</v>
       </c>
       <c r="F100">
-        <v>2513914850.74913</v>
+        <v>228.3539102329785</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>443381042181280.2</v>
+        <v>373938219503656.2</v>
       </c>
       <c r="B101">
-        <v>0.1231525611995884</v>
+        <v>0.01174345227403679</v>
       </c>
       <c r="C101">
-        <v>46898867155586.39</v>
+        <v>36936571362256.73</v>
       </c>
       <c r="D101">
-        <v>2069512508.685118</v>
+        <v>9290.778047115749</v>
       </c>
       <c r="E101">
-        <v>46898867155586.39</v>
+        <v>36936571362256.73</v>
       </c>
       <c r="F101">
-        <v>2511972792.863203</v>
+        <v>236.466893286711</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>433855989269133.2</v>
+        <v>356045419942983.5</v>
       </c>
       <c r="B102">
-        <v>0.1243623320956275</v>
+        <v>0.01182973260925547</v>
       </c>
       <c r="C102">
-        <v>48317719909777.12</v>
+        <v>37345150031723.59</v>
       </c>
       <c r="D102">
-        <v>2471148091.838267</v>
+        <v>9282.389469744689</v>
       </c>
       <c r="E102">
-        <v>48317719909777.12</v>
+        <v>37345150031723.59</v>
       </c>
       <c r="F102">
-        <v>2508535818.881117</v>
+        <v>247.1514843770008</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>421868814646003.9</v>
+        <v>337957898883138.8</v>
       </c>
       <c r="B103">
-        <v>0.1259124109099621</v>
+        <v>0.01191837949768378</v>
       </c>
       <c r="C103">
-        <v>49659479866568.7</v>
+        <v>37631002800130.23</v>
       </c>
       <c r="D103">
-        <v>2637779825.174591</v>
+        <v>9228.930195689318</v>
       </c>
       <c r="E103">
-        <v>49659479866568.7</v>
+        <v>37631002800130.23</v>
       </c>
       <c r="F103">
-        <v>2505292262.956432</v>
+        <v>254.6273883717986</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>411533032016593.5</v>
+        <v>321101843771784.2</v>
       </c>
       <c r="B104">
-        <v>0.1272742715042163</v>
+        <v>0.01200232882636995</v>
       </c>
       <c r="C104">
-        <v>51034584456779.09</v>
+        <v>37980783027057</v>
       </c>
       <c r="D104">
-        <v>2549732898.068038</v>
+        <v>9188.259311018875</v>
       </c>
       <c r="E104">
-        <v>51034584456779.09</v>
+        <v>37980783027057</v>
       </c>
       <c r="F104">
-        <v>2501974796.233496</v>
+        <v>263.7759393517945</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>400818153545264.7</v>
+        <v>305370628082598.9</v>
       </c>
       <c r="B105">
-        <v>0.1287115073521485</v>
+        <v>0.01208188158647246</v>
       </c>
       <c r="C105">
-        <v>52682891885839.38</v>
+        <v>37998575943414.02</v>
       </c>
       <c r="D105">
-        <v>2357104039.174972</v>
+        <v>9109.945433775429</v>
       </c>
       <c r="E105">
-        <v>52682891885839.38</v>
+        <v>37998575943414.02</v>
       </c>
       <c r="F105">
-        <v>2498007099.540984</v>
+        <v>264.2413377172484</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>392575342613940.4</v>
+        <v>289722815119145.8</v>
       </c>
       <c r="B106">
-        <v>0.1298351914807142</v>
+        <v>0.01216220776402526</v>
       </c>
       <c r="C106">
-        <v>54306882168664.92</v>
+        <v>38283332951356.33</v>
       </c>
       <c r="D106">
-        <v>1915909021.890812</v>
+        <v>9109.934238885631</v>
       </c>
       <c r="E106">
-        <v>54306882168664.92</v>
+        <v>38283332951356.33</v>
       </c>
       <c r="F106">
-        <v>2494107328.603603</v>
+        <v>271.6898431199845</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>385714902023727.9</v>
+        <v>275643148422112.7</v>
       </c>
       <c r="B107">
-        <v>0.1307826425069914</v>
+        <v>0.01223553795153329</v>
       </c>
       <c r="C107">
-        <v>55320079000963.69</v>
+        <v>38573985555108.7</v>
       </c>
       <c r="D107">
-        <v>1771350842.862513</v>
+        <v>9023.359198843711</v>
       </c>
       <c r="E107">
-        <v>55320079000963.69</v>
+        <v>38573985555108.7</v>
       </c>
       <c r="F107">
-        <v>2491678969.024725</v>
+        <v>279.2931280113395</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>378851622930479.9</v>
+        <v>261990053376101.2</v>
       </c>
       <c r="B108">
-        <v>0.1317417928054007</v>
+        <v>0.01230763254906304</v>
       </c>
       <c r="C108">
-        <v>56715273994291.16</v>
+        <v>39028251133822.05</v>
       </c>
       <c r="D108">
-        <v>2028194637.356326</v>
+        <v>8959.250265767972</v>
       </c>
       <c r="E108">
-        <v>56715273994291.16</v>
+        <v>39028251133822.05</v>
       </c>
       <c r="F108">
-        <v>2488340903.068233</v>
+        <v>291.1775685595956</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>370289685581753.9</v>
+        <v>249993206049636.6</v>
       </c>
       <c r="B109">
-        <v>0.1329544830221012</v>
+        <v>0.01237180905040897</v>
       </c>
       <c r="C109">
-        <v>57633574794981.15</v>
+        <v>39172366093281.34</v>
       </c>
       <c r="D109">
-        <v>2278099761.367442</v>
+        <v>8906.032731302039</v>
       </c>
       <c r="E109">
-        <v>57633574794981.15</v>
+        <v>39172366093281.34</v>
       </c>
       <c r="F109">
-        <v>2486147497.730762</v>
+        <v>294.9481786689168</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>361924778903925.1</v>
+        <v>237537533457105.8</v>
       </c>
       <c r="B110">
-        <v>0.1341569291793692</v>
+        <v>0.01243928608955193</v>
       </c>
       <c r="C110">
-        <v>58525713946869.67</v>
+        <v>39467183598195.88</v>
       </c>
       <c r="D110">
-        <v>2256911579.176066</v>
+        <v>8914.508419780577</v>
       </c>
       <c r="E110">
-        <v>58525713946869.67</v>
+        <v>39467183598195.88</v>
       </c>
       <c r="F110">
-        <v>2484019356.831217</v>
+        <v>302.6621947459818</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>353899080397779.4</v>
+        <v>225819124797055</v>
       </c>
       <c r="B111">
-        <v>0.1353273725603899</v>
+        <v>0.01250358166041956</v>
       </c>
       <c r="C111">
-        <v>60109032116154.54</v>
+        <v>39604279801634.46</v>
       </c>
       <c r="D111">
-        <v>2091787944.391755</v>
+        <v>8876.204849826914</v>
       </c>
       <c r="E111">
-        <v>60109032116154.54</v>
+        <v>39604279801634.46</v>
       </c>
       <c r="F111">
-        <v>2480249161.409407</v>
+        <v>306.249571899036</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>347066834530198.1</v>
+        <v>215299076892669.9</v>
       </c>
       <c r="B112">
-        <v>0.1363369556609655</v>
+        <v>0.012561995147045</v>
       </c>
       <c r="C112">
-        <v>60858715340730.24</v>
+        <v>39702716133164.2</v>
       </c>
       <c r="D112">
-        <v>2137929235.200475</v>
+        <v>8829.122075941763</v>
       </c>
       <c r="E112">
-        <v>60858715340730.24</v>
+        <v>39702716133164.2</v>
       </c>
       <c r="F112">
-        <v>2478467000.744503</v>
+        <v>308.8254203890638</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>339008075667130.6</v>
+        <v>204746014249437.3</v>
       </c>
       <c r="B113">
-        <v>0.1375436772802373</v>
+        <v>0.01262127197871361</v>
       </c>
       <c r="C113">
-        <v>61657900575946.95</v>
+        <v>40058783542966.36</v>
       </c>
       <c r="D113">
-        <v>2230679615.507136</v>
+        <v>8801.402833525121</v>
       </c>
       <c r="E113">
-        <v>61657900575946.95</v>
+        <v>40058783542966.36</v>
       </c>
       <c r="F113">
-        <v>2476569270.022779</v>
+        <v>318.1434222016734</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>331893166999496.1</v>
+        <v>195082097636152.4</v>
       </c>
       <c r="B114">
-        <v>0.138623644174607</v>
+        <v>0.01267617085450666</v>
       </c>
       <c r="C114">
-        <v>63712663053519.41</v>
+        <v>40077789631105.46</v>
       </c>
       <c r="D114">
-        <v>2109976006.076302</v>
+        <v>8711.979590796051</v>
       </c>
       <c r="E114">
-        <v>63712663053519.41</v>
+        <v>40077789631105.46</v>
       </c>
       <c r="F114">
-        <v>2471700033.454185</v>
+        <v>318.6408207522069</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>324954454505776.7</v>
+        <v>186232811905281.9</v>
       </c>
       <c r="B115">
-        <v>0.139690288599949</v>
+        <v>0.01272697508959572</v>
       </c>
       <c r="C115">
-        <v>65113110563566.96</v>
+        <v>40152127690463.68</v>
       </c>
       <c r="D115">
-        <v>1856810635.012207</v>
+        <v>8576.082871859253</v>
       </c>
       <c r="E115">
-        <v>65113110563566.96</v>
+        <v>40152127690463.68</v>
       </c>
       <c r="F115">
-        <v>2468389556.771201</v>
+        <v>320.5863075209311</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>319779059674018.3</v>
+        <v>177948796196271.4</v>
       </c>
       <c r="B116">
-        <v>0.1404946450507649</v>
+        <v>0.01277500996927563</v>
       </c>
       <c r="C116">
-        <v>67184301303261.45</v>
+        <v>40215554961158.7</v>
       </c>
       <c r="D116">
-        <v>1783434733.355872</v>
+        <v>8473.838547043037</v>
       </c>
       <c r="E116">
-        <v>67184301303261.45</v>
+        <v>40215554961158.7</v>
       </c>
       <c r="F116">
-        <v>2463505692.350111</v>
+        <v>322.2462800127789</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>313502826473936.5</v>
+        <v>170634582849712.6</v>
       </c>
       <c r="B117">
-        <v>0.1414803173827655</v>
+        <v>0.01281781505919358</v>
       </c>
       <c r="C117">
-        <v>69794917628613.66</v>
+        <v>40221836668893.72</v>
       </c>
       <c r="D117">
-        <v>2208064824.396673</v>
+        <v>8477.296384203975</v>
       </c>
       <c r="E117">
-        <v>69794917628613.66</v>
+        <v>40221836668893.72</v>
       </c>
       <c r="F117">
-        <v>2457370447.64336</v>
+        <v>322.4106818040141</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>305890046490063.8</v>
+        <v>162843496792994.3</v>
       </c>
       <c r="B118">
-        <v>0.1426911895639632</v>
+        <v>0.01286382876207484</v>
       </c>
       <c r="C118">
-        <v>71415430674902.59</v>
+        <v>40586905854350.98</v>
       </c>
       <c r="D118">
-        <v>2335837757.618369</v>
+        <v>8420.695043581363</v>
       </c>
       <c r="E118">
-        <v>71415430674902.59</v>
+        <v>40586905854350.98</v>
       </c>
       <c r="F118">
-        <v>2453573540.305685</v>
+        <v>331.9655583849938</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>299169757391454.3</v>
+        <v>155803726844270.9</v>
       </c>
       <c r="B119">
-        <v>0.1437742981829477</v>
+        <v>0.01290578654628999</v>
       </c>
       <c r="C119">
-        <v>72940218052680.09</v>
+        <v>40794190403163.78</v>
       </c>
       <c r="D119">
-        <v>2302680186.273134</v>
+        <v>8243.795599559788</v>
       </c>
       <c r="E119">
-        <v>72940218052680.09</v>
+        <v>40794190403163.78</v>
       </c>
       <c r="F119">
-        <v>2450008900.693212</v>
+        <v>337.3911789061596</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>292070580303233</v>
+        <v>149140977987222</v>
       </c>
       <c r="B120">
-        <v>0.1449332102097895</v>
+        <v>0.01294584041737425</v>
       </c>
       <c r="C120">
-        <v>74784502329872.69</v>
+        <v>41149529087951.37</v>
       </c>
       <c r="D120">
-        <v>2180930011.540163</v>
+        <v>8103.278407202975</v>
       </c>
       <c r="E120">
-        <v>74784502329872.69</v>
+        <v>41149529087951.37</v>
       </c>
       <c r="F120">
-        <v>2445707627.325842</v>
+        <v>346.6927678234914</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>286389739319122.8</v>
+        <v>142653597188146.7</v>
       </c>
       <c r="B121">
-        <v>0.1458716852597896</v>
+        <v>0.01298516993720663</v>
       </c>
       <c r="C121">
-        <v>75983456087492.52</v>
+        <v>41603865692756.41</v>
       </c>
       <c r="D121">
-        <v>1821779311.15494</v>
+        <v>8034.329094922636</v>
       </c>
       <c r="E121">
-        <v>75983456087492.52</v>
+        <v>41603865692756.41</v>
       </c>
       <c r="F121">
-        <v>2442917419.665004</v>
+        <v>358.5870689144861</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>281596532349082</v>
+        <v>135910482499182.3</v>
       </c>
       <c r="B122">
-        <v>0.1466713232397753</v>
+        <v>0.01302640509482678</v>
       </c>
       <c r="C122">
-        <v>77665809916656.48</v>
+        <v>42222067698656.21</v>
       </c>
       <c r="D122">
-        <v>1768814792.434389</v>
+        <v>7993.137440113584</v>
       </c>
       <c r="E122">
-        <v>77665809916656.48</v>
+        <v>42222067698656.21</v>
       </c>
       <c r="F122">
-        <v>2439010209.26149</v>
+        <v>374.773601231595</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>276389494919974.2</v>
+        <v>129810280867886.2</v>
       </c>
       <c r="B123">
-        <v>0.1475482069277962</v>
+        <v>0.01306403020238393</v>
       </c>
       <c r="C123">
-        <v>77990446598303.34</v>
+        <v>42843510863306.12</v>
       </c>
       <c r="D123">
-        <v>2189814437.069512</v>
+        <v>7817.960156431422</v>
       </c>
       <c r="E123">
-        <v>77990446598303.34</v>
+        <v>42843510863306.12</v>
       </c>
       <c r="F123">
-        <v>2438257321.28467</v>
+        <v>391.0477244433379</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>269454230160946</v>
+        <v>123921598162353.8</v>
       </c>
       <c r="B124">
-        <v>0.1487296128120603</v>
+        <v>0.01310064933069385</v>
       </c>
       <c r="C124">
-        <v>80096200663272.88</v>
+        <v>42882198561044.48</v>
       </c>
       <c r="D124">
-        <v>2384733877.377934</v>
+        <v>7562.452030846383</v>
       </c>
       <c r="E124">
-        <v>80096200663272.88</v>
+        <v>42882198561044.48</v>
       </c>
       <c r="F124">
-        <v>2433382122.944274</v>
+        <v>392.0609548565462</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>263501724540577.2</v>
+        <v>119181460531032.4</v>
       </c>
       <c r="B125">
-        <v>0.1497560990854238</v>
+        <v>0.01313034546573254</v>
       </c>
       <c r="C125">
-        <v>81298434928748.75</v>
+        <v>43059224593136.91</v>
       </c>
       <c r="D125">
-        <v>2247651818.495569</v>
+        <v>7280.236802867847</v>
       </c>
       <c r="E125">
-        <v>81298434928748.75</v>
+        <v>43059224593136.91</v>
       </c>
       <c r="F125">
-        <v>2430605275.585145</v>
+        <v>396.6974024016609</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>257573833216125.8</v>
+        <v>114623964706095.1</v>
       </c>
       <c r="B126">
-        <v>0.150790011881166</v>
+        <v>0.0131590869178087</v>
       </c>
       <c r="C126">
-        <v>82799319714457.89</v>
+        <v>43398541470007.65</v>
       </c>
       <c r="D126">
-        <v>2022970934.569371</v>
+        <v>7091.766580023686</v>
       </c>
       <c r="E126">
-        <v>82799319714457.89</v>
+        <v>43398541470007.65</v>
       </c>
       <c r="F126">
-        <v>2427145316.911087</v>
+        <v>405.5850060680491</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>253046270271874.8</v>
+        <v>110336544361048.7</v>
       </c>
       <c r="B127">
-        <v>0.1515876539644424</v>
+        <v>0.01318629916535364</v>
       </c>
       <c r="C127">
-        <v>85886627087010.39</v>
+        <v>43568111912754.59</v>
       </c>
       <c r="D127">
-        <v>2070878851.950394</v>
+        <v>7038.453277437366</v>
       </c>
       <c r="E127">
-        <v>85886627087010.39</v>
+        <v>43568111912754.59</v>
       </c>
       <c r="F127">
-        <v>2420051716.58862</v>
+        <v>410.0268176646419</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>247059880305798.3</v>
+        <v>106100925370672</v>
       </c>
       <c r="B128">
-        <v>0.1526530651957417</v>
+        <v>0.01321335257882616</v>
       </c>
       <c r="C128">
-        <v>88202067682139.31</v>
+        <v>43856017354907.61</v>
       </c>
       <c r="D128">
-        <v>2635621787.02814</v>
+        <v>6966.130154973362</v>
       </c>
       <c r="E128">
-        <v>88202067682139.31</v>
+        <v>43856017354907.61</v>
       </c>
       <c r="F128">
-        <v>2414752499.791491</v>
+        <v>417.5688386560815</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>239990770111012.6</v>
+        <v>102351498778488.3</v>
       </c>
       <c r="B129">
-        <v>0.1539272178204617</v>
+        <v>0.01323744515355823</v>
       </c>
       <c r="C129">
-        <v>90078272837375.92</v>
+        <v>44317414593559.98</v>
       </c>
       <c r="D129">
-        <v>2552454755.385345</v>
+        <v>6762.246857420076</v>
       </c>
       <c r="E129">
-        <v>90078272837375.92</v>
+        <v>44317414593559.98</v>
       </c>
       <c r="F129">
-        <v>2410471745.167802</v>
+        <v>429.6569650800091</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>234777383110857.2</v>
+        <v>99238976847365.52</v>
       </c>
       <c r="B130">
-        <v>0.1548782230477065</v>
+        <v>0.01325755076397278</v>
       </c>
       <c r="C130">
-        <v>91414836477820.92</v>
+        <v>45298626771594.02</v>
       </c>
       <c r="D130">
-        <v>1841016103.676484</v>
+        <v>6470.206000718288</v>
       </c>
       <c r="E130">
-        <v>91414836477820.92</v>
+        <v>45298626771594.02</v>
       </c>
       <c r="F130">
-        <v>2407429484.336814</v>
+        <v>455.3690710487888</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>231315870479227</v>
+        <v>96125784997155.91</v>
       </c>
       <c r="B131">
-        <v>0.1555150547732489</v>
+        <v>0.01327775865266496</v>
       </c>
       <c r="C131">
-        <v>94326628345569.03</v>
+        <v>45847252918714.72</v>
       </c>
       <c r="D131">
-        <v>1445394934.519567</v>
+        <v>6156.967195787001</v>
       </c>
       <c r="E131">
-        <v>94326628345569.03</v>
+        <v>45847252918714.72</v>
       </c>
       <c r="F131">
-        <v>2400822754.794088</v>
+        <v>469.7487759718707</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>228060775963615</v>
+        <v>93282559951104.88</v>
       </c>
       <c r="B132">
-        <v>0.1561178860601186</v>
+        <v>0.01329630156732153</v>
       </c>
       <c r="C132">
-        <v>96031083438957.36</v>
+        <v>46078204772231.22</v>
       </c>
       <c r="D132">
-        <v>1580524379.628361</v>
+        <v>5826.710913005751</v>
       </c>
       <c r="E132">
-        <v>96031083438957.36</v>
+        <v>46078204772231.22</v>
       </c>
       <c r="F132">
-        <v>2396968917.344404</v>
+        <v>475.802833055646</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>224077538677595.3</v>
+        <v>90222336894198.08</v>
       </c>
       <c r="B133">
-        <v>0.1568608648115282</v>
+        <v>0.01331635495589607</v>
       </c>
       <c r="C133">
-        <v>97347338039338.41</v>
+        <v>46823900450289.33</v>
       </c>
       <c r="D133">
-        <v>1822654840.59751</v>
+        <v>5596.524636075133</v>
       </c>
       <c r="E133">
-        <v>97347338039338.41</v>
+        <v>46823900450289.33</v>
       </c>
       <c r="F133">
-        <v>2393999700.879376</v>
+        <v>495.3531069932826</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>219863882595950.4</v>
+        <v>86930886822185.33</v>
       </c>
       <c r="B134">
-        <v>0.1576532422343929</v>
+        <v>0.01333803633829957</v>
       </c>
       <c r="C134">
-        <v>100081370684443.4</v>
+        <v>47239634884507.16</v>
       </c>
       <c r="D134">
-        <v>2126772411.291859</v>
+        <v>5440.387545197271</v>
       </c>
       <c r="E134">
-        <v>100081370684443.4</v>
+        <v>47239634884507.16</v>
       </c>
       <c r="F134">
-        <v>2387851653.903652</v>
+        <v>506.2546430753441</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>214697634934318.2</v>
+        <v>84401812980283.88</v>
       </c>
       <c r="B135">
-        <v>0.1586338822808779</v>
+        <v>0.01335477706143022</v>
       </c>
       <c r="C135">
-        <v>102803309408717.4</v>
+        <v>47559662242693.04</v>
       </c>
       <c r="D135">
-        <v>2710814506.617855</v>
+        <v>5270.236205121735</v>
       </c>
       <c r="E135">
-        <v>102803309408717.4</v>
+        <v>47559662242693.04</v>
       </c>
       <c r="F135">
-        <v>2381757243.838507</v>
+        <v>514.6475244332935</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>208196702225411.5</v>
+        <v>81770627459941.3</v>
       </c>
       <c r="B136">
-        <v>0.1598823855097981</v>
+        <v>0.01337227035362509</v>
       </c>
       <c r="C136">
-        <v>106213692035386.2</v>
+        <v>48241032778707.95</v>
       </c>
       <c r="D136">
-        <v>2875320304.025086</v>
+        <v>5165.912044018041</v>
       </c>
       <c r="E136">
-        <v>106213692035386.2</v>
+        <v>48241032778707.95</v>
       </c>
       <c r="F136">
-        <v>2374159411.977615</v>
+        <v>532.5198191216068</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>202698944413849.8</v>
+        <v>79582525095893.28</v>
       </c>
       <c r="B137">
-        <v>0.1609510778626317</v>
+        <v>0.01338687859951723</v>
       </c>
       <c r="C137">
-        <v>108678651376386</v>
+        <v>48514588470866.48</v>
       </c>
       <c r="D137">
-        <v>2727844808.053532</v>
+        <v>5016.903189187869</v>
       </c>
       <c r="E137">
-        <v>108678651376386</v>
+        <v>48514588470866.48</v>
       </c>
       <c r="F137">
-        <v>2368694651.401999</v>
+        <v>539.6963407423261</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>197112886713763.6</v>
+        <v>77764821968808.66</v>
       </c>
       <c r="B138">
-        <v>0.1620492140700497</v>
+        <v>0.01339905674744045</v>
       </c>
       <c r="C138">
-        <v>110739342931270.8</v>
+        <v>48784389464765.07</v>
       </c>
       <c r="D138">
-        <v>2735401949.746899</v>
+        <v>4788.740192818455</v>
       </c>
       <c r="E138">
-        <v>110739342931270.8</v>
+        <v>48784389464765.07</v>
       </c>
       <c r="F138">
-        <v>2364143693.990086</v>
+        <v>546.7750375005586</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>191890954868192</v>
+        <v>75724130231120.84</v>
       </c>
       <c r="B139">
-        <v>0.1630871530439059</v>
+        <v>0.01341277594694146</v>
       </c>
       <c r="C139">
-        <v>113034664890522.8</v>
+        <v>49403408053009.49</v>
       </c>
       <c r="D139">
-        <v>2133508366.379731</v>
+        <v>4661.902612921782</v>
       </c>
       <c r="E139">
-        <v>113034664890522.8</v>
+        <v>49403408053009.49</v>
       </c>
       <c r="F139">
-        <v>2359093687.364828</v>
+        <v>563.0186634328315</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>188901332799066.6</v>
+        <v>73548553218485.86</v>
       </c>
       <c r="B140">
-        <v>0.1636864102983303</v>
+        <v>0.01342745783164419</v>
       </c>
       <c r="C140">
-        <v>115957337282407.4</v>
+        <v>49951626315333.98</v>
       </c>
       <c r="D140">
-        <v>1721923039.350971</v>
+        <v>4433.605244524777</v>
       </c>
       <c r="E140">
-        <v>115957337282407.4</v>
+        <v>49951626315333.98</v>
       </c>
       <c r="F140">
-        <v>2352693196.333337</v>
+        <v>577.4075389117587</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>185362400446771.2</v>
+        <v>72003438047708.36</v>
       </c>
       <c r="B141">
-        <v>0.1644005618223007</v>
+        <v>0.01343792070496034</v>
       </c>
       <c r="C141">
-        <v>118601451723622.4</v>
+        <v>50455057219725.93</v>
       </c>
       <c r="D141">
-        <v>1611197604.713688</v>
+        <v>4100.269167934544</v>
       </c>
       <c r="E141">
-        <v>118601451723622.4</v>
+        <v>50455057219725.93</v>
       </c>
       <c r="F141">
-        <v>2346932153.884316</v>
+        <v>590.623570229935</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>182905671248000.8</v>
+        <v>70107026694323.91</v>
       </c>
       <c r="B142">
-        <v>0.1648994076998266</v>
+        <v>0.0134508036405637</v>
       </c>
       <c r="C142">
-        <v>121268904141749</v>
+        <v>51657431881735.27</v>
       </c>
       <c r="D142">
-        <v>1434689824.826806</v>
+        <v>3844.879447237588</v>
       </c>
       <c r="E142">
-        <v>121268904141749</v>
+        <v>51657431881735.27</v>
       </c>
       <c r="F142">
-        <v>2341149335.306308</v>
+        <v>622.1991112834195</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>180091956119302.6</v>
+        <v>68581846350173.17</v>
       </c>
       <c r="B143">
-        <v>0.1654738722810229</v>
+        <v>0.01346119820521252</v>
       </c>
       <c r="C143">
-        <v>123912163363779.2</v>
+        <v>52059173517476.16</v>
       </c>
       <c r="D143">
-        <v>1791890949.123921</v>
+        <v>3513.742997743189</v>
       </c>
       <c r="E143">
-        <v>123912163363779.2</v>
+        <v>52059173517476.16</v>
       </c>
       <c r="F143">
-        <v>2335448568.66198</v>
+        <v>632.7528315437809</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>176429799240802.5</v>
+        <v>67204279884489.73</v>
       </c>
       <c r="B144">
-        <v>0.166226616437791</v>
+        <v>0.01347061285005798</v>
       </c>
       <c r="C144">
-        <v>127048277416476</v>
+        <v>52848082849232.82</v>
       </c>
       <c r="D144">
-        <v>1969679092.460811</v>
+        <v>3221.416469677351</v>
       </c>
       <c r="E144">
-        <v>127048277416476</v>
+        <v>52848082849232.82</v>
       </c>
       <c r="F144">
-        <v>2328724296.540309</v>
+        <v>653.4829438062961</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>173120524543218.7</v>
+        <v>65393815341813.52</v>
       </c>
       <c r="B145">
-        <v>0.1669117985020701</v>
+        <v>0.01348302435902583</v>
       </c>
       <c r="C145">
-        <v>129742035698475.1</v>
+        <v>53620426988882.77</v>
       </c>
       <c r="D145">
-        <v>2223935798.116275</v>
+        <v>3008.195395063609</v>
       </c>
       <c r="E145">
-        <v>129742035698475.1</v>
+        <v>53620426988882.77</v>
       </c>
       <c r="F145">
-        <v>2322983828.890241</v>
+        <v>673.7851973116392</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>168708874481329.3</v>
+        <v>63885628684044.62</v>
       </c>
       <c r="B146">
-        <v>0.1678326586542942</v>
+        <v>0.01349339743288433</v>
       </c>
       <c r="C146">
-        <v>132238428805838.7</v>
+        <v>54465532813563.12</v>
       </c>
       <c r="D146">
-        <v>2406375479.388381</v>
+        <v>2716.554417381994</v>
       </c>
       <c r="E146">
-        <v>132238428805838.7</v>
+        <v>54465532813563.12</v>
       </c>
       <c r="F146">
-        <v>2317694123.962004</v>
+        <v>696.0089918576474</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>164980880048719</v>
+        <v>62772578252099.04</v>
       </c>
       <c r="B147">
-        <v>0.1686175222192224</v>
+        <v>0.01350107285784335</v>
       </c>
       <c r="C147">
-        <v>134571084073386.4</v>
+        <v>55248255897194.38</v>
       </c>
       <c r="D147">
-        <v>2149408530.011551</v>
+        <v>2445.916798029095</v>
       </c>
       <c r="E147">
-        <v>134571084073386.4</v>
+        <v>55248255897194.38</v>
       </c>
       <c r="F147">
-        <v>2312778514.40664</v>
+        <v>716.6010459800573</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>161597077560227.9</v>
+        <v>61325225227514.39</v>
       </c>
       <c r="B148">
-        <v>0.1693353086402573</v>
+        <v>0.01351107943312418</v>
       </c>
       <c r="C148">
-        <v>138092899340183.2</v>
+        <v>56112069324836.88</v>
       </c>
       <c r="D148">
-        <v>2250931956.51564</v>
+        <v>2172.713019020855</v>
       </c>
       <c r="E148">
-        <v>138092899340183.2</v>
+        <v>56112069324836.88</v>
       </c>
       <c r="F148">
-        <v>2305408818.079443</v>
+        <v>739.3367485544137</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>157686911479218.6</v>
+        <v>60811361274252.03</v>
       </c>
       <c r="B149">
-        <v>0.1701712128445153</v>
+        <v>0.01351463925363247</v>
       </c>
       <c r="C149">
-        <v>141207530812496.2</v>
+        <v>57005332368018.34</v>
       </c>
       <c r="D149">
-        <v>2322924061.214592</v>
+        <v>1888.566598737612</v>
       </c>
       <c r="E149">
-        <v>141207530812496.2</v>
+        <v>57005332368018.34</v>
       </c>
       <c r="F149">
-        <v>2298945707.702234</v>
+        <v>762.8595740620408</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>154252648458688.7</v>
+        <v>60012808170935.5</v>
       </c>
       <c r="B150">
-        <v>0.1709111658125225</v>
+        <v>0.0135201787553933</v>
       </c>
       <c r="C150">
-        <v>144214353183987.2</v>
+        <v>57793618998721.96</v>
       </c>
       <c r="D150">
-        <v>2387658473.029512</v>
+        <v>1727.681199633516</v>
       </c>
       <c r="E150">
-        <v>144214353183987.2</v>
+        <v>57793618998721.96</v>
       </c>
       <c r="F150">
-        <v>2292757487.400019</v>
+        <v>783.6286790921346</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>150302806094155.7</v>
+        <v>59287662654628.46</v>
       </c>
       <c r="B151">
-        <v>0.1717689842356853</v>
+        <v>0.01352521698765712</v>
       </c>
       <c r="C151">
-        <v>146748553332511.4</v>
+        <v>58515082523458.81</v>
       </c>
       <c r="D151">
-        <v>2490503304.364678</v>
+        <v>1619.945913894102</v>
       </c>
       <c r="E151">
-        <v>146748553332511.4</v>
+        <v>58515082523458.81</v>
       </c>
       <c r="F151">
-        <v>2287582972.559737</v>
+        <v>802.6463973409068</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>146748553332511.4</v>
+        <v>58515082523458.81</v>
       </c>
       <c r="B152">
-        <v>0.1725471663917407</v>
+        <v>0.01353059319889315</v>
       </c>
       <c r="C152">
-        <v>150302806094155.7</v>
+        <v>59287662654628.46</v>
       </c>
       <c r="D152">
-        <v>2068654614.185108</v>
+        <v>1536.399787420873</v>
       </c>
       <c r="E152">
-        <v>150302806094155.7</v>
+        <v>59287662654628.46</v>
       </c>
       <c r="F152">
-        <v>2280392471.672032</v>
+        <v>823.0217421059234</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>144214353183987.2</v>
+        <v>57793618998721.96</v>
       </c>
       <c r="B153">
-        <v>0.1731056883169617</v>
+        <v>0.01353562160711829</v>
       </c>
       <c r="C153">
-        <v>154252648458688.7</v>
+        <v>60012808170935.5</v>
       </c>
       <c r="D153">
-        <v>1915329034.848855</v>
+        <v>1521.665603256086</v>
       </c>
       <c r="E153">
-        <v>154252648458688.7</v>
+        <v>60012808170935.5</v>
       </c>
       <c r="F153">
-        <v>2272499249.095977</v>
+        <v>842.1560800869205</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>141207530812496.2</v>
+        <v>57005332368018.34</v>
       </c>
       <c r="B154">
-        <v>0.1737723834601507</v>
+        <v>0.01354112456874717</v>
       </c>
       <c r="C154">
-        <v>157686911479218.6</v>
+        <v>60811361274252.03</v>
       </c>
       <c r="D154">
-        <v>2161782759.647196</v>
+        <v>1462.152252090396</v>
       </c>
       <c r="E154">
-        <v>157686911479218.6</v>
+        <v>60811361274252.03</v>
       </c>
       <c r="F154">
-        <v>2265725785.322696</v>
+        <v>863.2390672311753</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>138092899340183.2</v>
+        <v>56112069324836.88</v>
       </c>
       <c r="B155">
-        <v>0.1744676196223066</v>
+        <v>0.01354737160252165</v>
       </c>
       <c r="C155">
-        <v>161597077560227.9</v>
+        <v>61325225227514.39</v>
       </c>
       <c r="D155">
-        <v>2397159770.363544</v>
+        <v>1439.547153413296</v>
       </c>
       <c r="E155">
-        <v>161597077560227.9</v>
+        <v>61325225227514.39</v>
       </c>
       <c r="F155">
-        <v>2258122329.232704</v>
+        <v>876.8125188478871</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>134571084073386.4</v>
+        <v>55248255897194.38</v>
       </c>
       <c r="B156">
-        <v>0.1752594962661657</v>
+        <v>0.01355342416679667</v>
       </c>
       <c r="C156">
-        <v>164980880048719</v>
+        <v>62772578252099.04</v>
       </c>
       <c r="D156">
-        <v>2169527043.532179</v>
+        <v>1316.230840540025</v>
       </c>
       <c r="E156">
-        <v>164980880048719</v>
+        <v>62772578252099.04</v>
       </c>
       <c r="F156">
-        <v>2251642096.340961</v>
+        <v>915.0729944501342</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>132238428805838.7</v>
+        <v>54465532813563.12</v>
       </c>
       <c r="B157">
-        <v>0.1757873883380522</v>
+        <v>0.01355891841242486</v>
       </c>
       <c r="C157">
-        <v>168708874481329.3</v>
+        <v>63885628684044.62</v>
       </c>
       <c r="D157">
-        <v>1820197634.97618</v>
+        <v>1236.099088517018</v>
       </c>
       <c r="E157">
-        <v>168708874481329.3</v>
+        <v>63885628684044.62</v>
       </c>
       <c r="F157">
-        <v>2244617150.30226</v>
+        <v>944.5272189848392</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>129742035698475.1</v>
+        <v>53620426988882.77</v>
       </c>
       <c r="B158">
-        <v>0.1763553646441142</v>
+        <v>0.01356486119779245</v>
       </c>
       <c r="C158">
-        <v>173120524543218.7</v>
+        <v>65393815341813.52</v>
       </c>
       <c r="D158">
-        <v>1994510141.704345</v>
+        <v>1163.230690627359</v>
       </c>
       <c r="E158">
-        <v>173120524543218.7</v>
+        <v>65393815341813.52</v>
       </c>
       <c r="F158">
-        <v>2236469872.188744</v>
+        <v>984.4835258890333</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>127048277416476</v>
+        <v>52848082849232.82</v>
       </c>
       <c r="B159">
-        <v>0.1769717916810759</v>
+        <v>0.01357030210263293</v>
       </c>
       <c r="C159">
-        <v>176429799240802.5</v>
+        <v>67204279884489.73</v>
       </c>
       <c r="D159">
-        <v>2288701940.128589</v>
+        <v>1078.474405007903</v>
       </c>
       <c r="E159">
-        <v>176429799240802.5</v>
+        <v>67204279884489.73</v>
       </c>
       <c r="F159">
-        <v>2230484326.696857</v>
+        <v>1032.522431744894</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>123912163363779.2</v>
+        <v>52059173517476.16</v>
       </c>
       <c r="B160">
-        <v>0.1776941317831803</v>
+        <v>0.01357586945640547</v>
       </c>
       <c r="C160">
-        <v>180091956119302.6</v>
+        <v>68581846350173.17</v>
       </c>
       <c r="D160">
-        <v>2326416128.585301</v>
+        <v>960.022612308152</v>
       </c>
       <c r="E160">
-        <v>180091956119302.6</v>
+        <v>68581846350173.17</v>
       </c>
       <c r="F160">
-        <v>2223994257.551457</v>
+        <v>1069.13310811769</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>121268904141749</v>
+        <v>51657431881735.27</v>
       </c>
       <c r="B161">
-        <v>0.1783069108310814</v>
+        <v>0.01357870838102053</v>
       </c>
       <c r="C161">
-        <v>182905671248000.8</v>
+        <v>70107026694323.91</v>
       </c>
       <c r="D161">
-        <v>2184033887.221595</v>
+        <v>861.2204357413575</v>
       </c>
       <c r="E161">
-        <v>182905671248000.8</v>
+        <v>70107026694323.91</v>
       </c>
       <c r="F161">
-        <v>2219108334.70521</v>
+        <v>1109.729789025835</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>118601451723622.4</v>
+        <v>50455057219725.93</v>
       </c>
       <c r="B162">
-        <v>0.1789290088576266</v>
+        <v>0.01358722061181702</v>
       </c>
       <c r="C162">
-        <v>185362400446771.2</v>
+        <v>72003438047708.36</v>
       </c>
       <c r="D162">
-        <v>2233660949.986161</v>
+        <v>662.8661602735519</v>
       </c>
       <c r="E162">
-        <v>185362400446771.2</v>
+        <v>72003438047708.36</v>
       </c>
       <c r="F162">
-        <v>2214917276.112819</v>
+        <v>1160.306672496217</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>115957337282407.4</v>
+        <v>49951626315333.98</v>
       </c>
       <c r="B163">
-        <v>0.179549380702317</v>
+        <v>0.01359079167719948</v>
       </c>
       <c r="C163">
-        <v>188901332799066.6</v>
+        <v>73548553218485.86</v>
       </c>
       <c r="D163">
-        <v>2394789798.36532</v>
+        <v>397.5264124982059</v>
       </c>
       <c r="E163">
-        <v>188901332799066.6</v>
+        <v>73548553218485.86</v>
       </c>
       <c r="F163">
-        <v>2209009217.66384</v>
+        <v>1201.601551759118</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>113034664890522.8</v>
+        <v>49403408053009.49</v>
       </c>
       <c r="B164">
-        <v>0.1802394612886719</v>
+        <v>0.01359468520540735</v>
       </c>
       <c r="C164">
-        <v>191890954868192</v>
+        <v>75724130231120.84</v>
       </c>
       <c r="D164">
-        <v>2302590223.95139</v>
+        <v>282.2106415154412</v>
       </c>
       <c r="E164">
-        <v>191890954868192</v>
+        <v>75724130231120.84</v>
       </c>
       <c r="F164">
-        <v>2204143648.989807</v>
+        <v>1259.889473580418</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>110739342931270.8</v>
+        <v>48784389464765.07</v>
       </c>
       <c r="B165">
-        <v>0.1807846540738326</v>
+        <v>0.01359908759218259</v>
       </c>
       <c r="C165">
-        <v>197112886713763.6</v>
+        <v>77764821968808.66</v>
       </c>
       <c r="D165">
-        <v>1961254744.189164</v>
+        <v>136.937168713659</v>
       </c>
       <c r="E165">
-        <v>197112886713763.6</v>
+        <v>77764821968808.66</v>
       </c>
       <c r="F165">
-        <v>2195942360.905011</v>
+        <v>1314.728463664393</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>108678651376386</v>
+        <v>48514588470866.48</v>
       </c>
       <c r="B166">
-        <v>0.1812765671029881</v>
+        <v>0.01360100839916184</v>
       </c>
       <c r="C166">
-        <v>202698944413849.8</v>
+        <v>79582525095893.28</v>
       </c>
       <c r="D166">
-        <v>2076608047.152789</v>
+        <v>8.567835843190551</v>
       </c>
       <c r="E166">
-        <v>202698944413849.8</v>
+        <v>79582525095893.28</v>
       </c>
       <c r="F166">
-        <v>2187630110.645359</v>
+        <v>1363.721057152753</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>106213692035386.2</v>
+        <v>48241032778707.95</v>
       </c>
       <c r="B167">
-        <v>0.1818680577472245</v>
+        <v>0.01360295719332164</v>
       </c>
       <c r="C167">
-        <v>208196702225411.5</v>
+        <v>81770627459941.3</v>
       </c>
       <c r="D167">
-        <v>2760312865.012757</v>
+        <v>36.82611121609807</v>
       </c>
       <c r="E167">
-        <v>208196702225411.5</v>
+        <v>81770627459941.3</v>
       </c>
       <c r="F167">
-        <v>2179977405.887766</v>
+        <v>1422.894856591206</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>102803309408717.4</v>
+        <v>47559662242693.04</v>
       </c>
       <c r="B168">
-        <v>0.1826919937355515</v>
+        <v>0.01360781677049967</v>
       </c>
       <c r="C168">
-        <v>214697634934318.2</v>
+        <v>84401812980283.88</v>
       </c>
       <c r="D168">
-        <v>2977076272.862557</v>
+        <v>33.50273487903178</v>
       </c>
       <c r="E168">
-        <v>214697634934318.2</v>
+        <v>84401812980283.88</v>
       </c>
       <c r="F168">
-        <v>2171723427.001227</v>
+        <v>1494.363822009955</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>100081370684443.4</v>
+        <v>47239634884507.16</v>
       </c>
       <c r="B169">
-        <v>0.1833543106069211</v>
+        <v>0.01361010197040774</v>
       </c>
       <c r="C169">
-        <v>219863882595950.4</v>
+        <v>86930886822185.33</v>
       </c>
       <c r="D169">
-        <v>2720313200.232904</v>
+        <v>5.666906702520237</v>
       </c>
       <c r="E169">
-        <v>219863882595950.4</v>
+        <v>86930886822185.33</v>
       </c>
       <c r="F169">
-        <v>2166648114.748868</v>
+        <v>1563.413715530224</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>97347338039338.41</v>
+        <v>46823900450289.33</v>
       </c>
       <c r="B170">
-        <v>0.1840238296674728</v>
+        <v>0.01361307322005222</v>
       </c>
       <c r="C170">
-        <v>224077538677595.3</v>
+        <v>90222336894198.08</v>
       </c>
       <c r="D170">
-        <v>2074893019.276473</v>
+        <v>52.5788815326523</v>
       </c>
       <c r="E170">
-        <v>224077538677595.3</v>
+        <v>90222336894198.08</v>
       </c>
       <c r="F170">
-        <v>2165064672.960267</v>
+        <v>1653.859452176006</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>96031083438957.36</v>
+        <v>46078204772231.22</v>
       </c>
       <c r="B171">
-        <v>0.1843476957958064</v>
+        <v>0.01361841023540979</v>
       </c>
       <c r="C171">
-        <v>228060775963615</v>
+        <v>93282559951104.88</v>
       </c>
       <c r="D171">
-        <v>1567351938.744992</v>
+        <v>34.27036417834461</v>
       </c>
       <c r="E171">
-        <v>228060775963615</v>
+        <v>93282559951104.88</v>
       </c>
       <c r="F171">
-        <v>2163967504.227688</v>
+        <v>1738.612651112928</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>94326628345569.03</v>
+        <v>45847252918714.72</v>
       </c>
       <c r="B172">
-        <v>0.1847685763999347</v>
+        <v>0.01362006515788355</v>
       </c>
       <c r="C172">
-        <v>231315870479227</v>
+        <v>96125784997155.91</v>
       </c>
       <c r="D172">
-        <v>2441535171.038546</v>
+        <v>12.980388309923</v>
       </c>
       <c r="E172">
-        <v>231315870479227</v>
+        <v>96125784997155.91</v>
       </c>
       <c r="F172">
-        <v>2163343534.731132</v>
+        <v>1817.998533606882</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>91414836477820.92</v>
+        <v>45298626771594.02</v>
       </c>
       <c r="B173">
-        <v>0.1854915278731144</v>
+        <v>0.0136240002092025</v>
       </c>
       <c r="C173">
-        <v>234777383110857.2</v>
+        <v>99238976847365.52</v>
       </c>
       <c r="D173">
-        <v>2318276829.640739</v>
+        <v>98.20727929985151</v>
       </c>
       <c r="E173">
-        <v>234777383110857.2</v>
+        <v>99238976847365.52</v>
       </c>
       <c r="F173">
-        <v>2162871067.200508</v>
+        <v>1905.718571576925</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>90078272837375.92</v>
+        <v>44317414593559.98</v>
       </c>
       <c r="B174">
-        <v>0.1858250562204693</v>
+        <v>0.01363105141899362</v>
       </c>
       <c r="C174">
-        <v>239990770111012.6</v>
+        <v>102351498778488.3</v>
       </c>
       <c r="D174">
-        <v>1777938614.973625</v>
+        <v>92.04332320485264</v>
       </c>
       <c r="E174">
-        <v>239990770111012.6</v>
+        <v>102351498778488.3</v>
       </c>
       <c r="F174">
-        <v>2162449425.621334</v>
+        <v>1994.353953907119</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>88202067682139.31</v>
+        <v>43856017354907.61</v>
       </c>
       <c r="B175">
-        <v>0.1862950488189213</v>
+        <v>0.01363437313854438</v>
       </c>
       <c r="C175">
-        <v>247059880305798.3</v>
+        <v>106100925370672</v>
       </c>
       <c r="D175">
-        <v>2370792297.128922</v>
+        <v>13.47260636370629</v>
       </c>
       <c r="E175">
-        <v>247059880305798.3</v>
+        <v>106100925370672</v>
       </c>
       <c r="F175">
-        <v>2162148183.815121</v>
+        <v>2102.535274702065</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>85886627087010.39</v>
+        <v>43568111912754.59</v>
       </c>
       <c r="B176">
-        <v>0.1868779958133908</v>
+        <v>0.01363644781498756</v>
       </c>
       <c r="C176">
-        <v>253046270271874.8</v>
+        <v>110336544361048.7</v>
       </c>
       <c r="D176">
-        <v>3139927263.705318</v>
+        <v>-19.97797303157859</v>
       </c>
       <c r="E176">
-        <v>253046270271874.8</v>
+        <v>110336544361048.7</v>
       </c>
       <c r="F176">
-        <v>2162080958.613305</v>
+        <v>2226.879455363718</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>82799319714457.89</v>
+        <v>43398541470007.65</v>
       </c>
       <c r="B177">
-        <v>0.1876603572712422</v>
+        <v>0.01363767046937578</v>
       </c>
       <c r="C177">
-        <v>257573833216125.8</v>
+        <v>114623964706095.1</v>
       </c>
       <c r="D177">
-        <v>2765340848.475575</v>
+        <v>-13.74343853862956</v>
       </c>
       <c r="E177">
-        <v>257573833216125.8</v>
+        <v>114623964706095.1</v>
       </c>
       <c r="F177">
-        <v>2162172496.252744</v>
+        <v>2355.445068131708</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>81298434928748.75</v>
+        <v>43059224593136.91</v>
       </c>
       <c r="B178">
-        <v>0.1880428227930612</v>
+        <v>0.01364011864004985</v>
       </c>
       <c r="C178">
-        <v>263501724540577.2</v>
+        <v>119181460531032.4</v>
       </c>
       <c r="D178">
-        <v>1657148329.466909</v>
+        <v>-12.380936994683</v>
       </c>
       <c r="E178">
-        <v>263501724540577.2</v>
+        <v>119181460531032.4</v>
       </c>
       <c r="F178">
-        <v>2162461480.895706</v>
+        <v>2495.638809660734</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>80096200663272.88</v>
+        <v>42882198561044.48</v>
       </c>
       <c r="B179">
-        <v>0.1883501955795128</v>
+        <v>0.0136413967293128</v>
       </c>
       <c r="C179">
-        <v>269454230160946</v>
+        <v>123921598162353.8</v>
       </c>
       <c r="D179">
-        <v>2059699679.772406</v>
+        <v>-47.74540534615517</v>
       </c>
       <c r="E179">
-        <v>269454230160946</v>
+        <v>123921598162353.8</v>
       </c>
       <c r="F179">
-        <v>2162990696.361892</v>
+        <v>2646.062115103764</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>77990446598303.34</v>
+        <v>42843510863306.12</v>
       </c>
       <c r="B180">
-        <v>0.1888907547654476</v>
+        <v>0.01364167612360625</v>
       </c>
       <c r="C180">
-        <v>276389494919974.2</v>
+        <v>129810280867886.2</v>
       </c>
       <c r="D180">
-        <v>1552838984.967503</v>
+        <v>4.987676218152046</v>
       </c>
       <c r="E180">
-        <v>276389494919974.2</v>
+        <v>129810280867886.2</v>
       </c>
       <c r="F180">
-        <v>2163912788.898466</v>
+        <v>2840.95427264312</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>77665809916656.48</v>
+        <v>42222067698656.21</v>
       </c>
       <c r="B181">
-        <v>0.1889743399152194</v>
+        <v>0.01364616788625393</v>
       </c>
       <c r="C181">
-        <v>281596532349082</v>
+        <v>135910482499182.3</v>
       </c>
       <c r="D181">
-        <v>1286775930.893752</v>
+        <v>75.90697910939343</v>
       </c>
       <c r="E181">
-        <v>281596532349082</v>
+        <v>135910482499182.3</v>
       </c>
       <c r="F181">
-        <v>2164866830.257418</v>
+        <v>3054.61024237769</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>75983456087492.52</v>
+        <v>41603865692756.41</v>
       </c>
       <c r="B182">
-        <v>0.1894085737352134</v>
+        <v>0.01365064343900642</v>
       </c>
       <c r="C182">
-        <v>286389739319122.8</v>
+        <v>142653597188146.7</v>
       </c>
       <c r="D182">
-        <v>1890729659.394399</v>
+        <v>57.73820995795541</v>
       </c>
       <c r="E182">
-        <v>286389739319122.8</v>
+        <v>142653597188146.7</v>
       </c>
       <c r="F182">
-        <v>2165823747.212525</v>
+        <v>3308.810983673581</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>74784502329872.69</v>
+        <v>41149529087951.37</v>
       </c>
       <c r="B183">
-        <v>0.1897191409630081</v>
+        <v>0.0136539373052984</v>
       </c>
       <c r="C183">
-        <v>292070580303233</v>
+        <v>149140977987222</v>
       </c>
       <c r="D183">
-        <v>2029400059.871748</v>
+        <v>26.74284550826997</v>
       </c>
       <c r="E183">
-        <v>292070580303233</v>
+        <v>149140977987222</v>
       </c>
       <c r="F183">
-        <v>2167055591.348174</v>
+        <v>3576.676273827977</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>72940218052680.09</v>
+        <v>40794190403163.78</v>
       </c>
       <c r="B184">
-        <v>0.1901986783087017</v>
+        <v>0.01365651621630722</v>
       </c>
       <c r="C184">
-        <v>299169757391454.3</v>
+        <v>155803726844270.9</v>
       </c>
       <c r="D184">
-        <v>2304216392.381497</v>
+        <v>-3.145091894897632</v>
       </c>
       <c r="E184">
-        <v>299169757391454.3</v>
+        <v>155803726844270.9</v>
       </c>
       <c r="F184">
-        <v>2168759440.348046</v>
+        <v>3882.654496411408</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>71415430674902.59</v>
+        <v>40586905854350.98</v>
       </c>
       <c r="B185">
-        <v>0.190596811639259</v>
+        <v>0.01365802173510218</v>
       </c>
       <c r="C185">
-        <v>305890046490063.8</v>
+        <v>162843496792994.3</v>
       </c>
       <c r="D185">
-        <v>2196868171.846104</v>
+        <v>16.4731574205216</v>
       </c>
       <c r="E185">
-        <v>305890046490063.8</v>
+        <v>162843496792994.3</v>
       </c>
       <c r="F185">
-        <v>2170453808.833875</v>
+        <v>4248.000464238999</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>69794917628613.66</v>
+        <v>40077789631105.46</v>
       </c>
       <c r="B186">
-        <v>0.1910216109029275</v>
+        <v>0.01366172302463438</v>
       </c>
       <c r="C186">
-        <v>313502826473936.5</v>
+        <v>170634582849712.6</v>
       </c>
       <c r="D186">
-        <v>3025880090.212213</v>
+        <v>-26.11513187550008</v>
       </c>
       <c r="E186">
-        <v>313502826473936.5</v>
+        <v>170634582849712.6</v>
       </c>
       <c r="F186">
-        <v>2172451160.558233</v>
+        <v>4702.82790817548</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>67184301303261.45</v>
+        <v>40215554961158.7</v>
       </c>
       <c r="B187">
-        <v>0.1917096152629113</v>
+        <v>0.01366072096674446</v>
       </c>
       <c r="C187">
-        <v>319779059674018.3</v>
+        <v>177948796196271.4</v>
       </c>
       <c r="D187">
-        <v>3479084580.560629</v>
+        <v>-70.80112841725349</v>
       </c>
       <c r="E187">
-        <v>319779059674018.3</v>
+        <v>177948796196271.4</v>
       </c>
       <c r="F187">
-        <v>2174313123.69283</v>
+        <v>5126.456349524369</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>65113110563566.96</v>
+        <v>40058783542966.36</v>
       </c>
       <c r="B188">
-        <v>0.1922587111543986</v>
+        <v>0.01366186129764089</v>
       </c>
       <c r="C188">
-        <v>324954454505776.7</v>
+        <v>186232811905281.9</v>
       </c>
       <c r="D188">
-        <v>2660650052.380659</v>
+        <v>-73.99327867478132</v>
       </c>
       <c r="E188">
-        <v>324954454505776.7</v>
+        <v>186232811905281.9</v>
       </c>
       <c r="F188">
-        <v>2175847665.0226</v>
+        <v>5345.991455573192</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>63712663053519.41</v>
+        <v>40221836668893.72</v>
       </c>
       <c r="B189">
-        <v>0.1926316355026212</v>
+        <v>0.01366067528461572</v>
       </c>
       <c r="C189">
-        <v>331893166999496.1</v>
+        <v>195082097636152.4</v>
       </c>
       <c r="D189">
-        <v>2706364892.648373</v>
+        <v>-84.99516633152962</v>
       </c>
       <c r="E189">
-        <v>331893166999496.1</v>
+        <v>195082097636152.4</v>
       </c>
       <c r="F189">
-        <v>2178174876.069246</v>
+        <v>5284.96319004835</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>61657900575946.95</v>
+        <v>40152127690463.68</v>
       </c>
       <c r="B190">
-        <v>0.1931812332073783</v>
+        <v>0.01366118226880322</v>
       </c>
       <c r="C190">
-        <v>339008075667130.6</v>
+        <v>204746014249437.3</v>
       </c>
       <c r="D190">
-        <v>2309163596.113554</v>
+        <v>-7.504768714308739</v>
       </c>
       <c r="E190">
-        <v>339008075667130.6</v>
+        <v>204746014249437.3</v>
       </c>
       <c r="F190">
-        <v>2180598032.435594</v>
+        <v>5378.07785706592</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>60858715340730.24</v>
+        <v>39702716133164.2</v>
       </c>
       <c r="B191">
-        <v>0.1933957848039222</v>
+        <v>0.01366445307191416</v>
       </c>
       <c r="C191">
-        <v>347066834530198.1</v>
+        <v>215299076892669.9</v>
       </c>
       <c r="D191">
-        <v>1267340319.092583</v>
+        <v>-3.066981095820665</v>
       </c>
       <c r="E191">
-        <v>347066834530198.1</v>
+        <v>215299076892669.9</v>
       </c>
       <c r="F191">
-        <v>2183497090.448634</v>
+        <v>5527.254124125523</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>60109032116154.54</v>
+        <v>39604279801634.46</v>
       </c>
       <c r="B192">
-        <v>0.1935974518884826</v>
+        <v>0.01366517002047391</v>
       </c>
       <c r="C192">
-        <v>353899080397779.4</v>
+        <v>225819124797055</v>
       </c>
       <c r="D192">
-        <v>1935475367.994646</v>
+        <v>-42.95949483010918</v>
       </c>
       <c r="E192">
-        <v>353899080397779.4</v>
+        <v>225819124797055</v>
       </c>
       <c r="F192">
-        <v>2186160327.424412</v>
+        <v>5687.696484280097</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>58525713946869.67</v>
+        <v>39467183598195.88</v>
       </c>
       <c r="B193">
-        <v>0.194024666114376</v>
+        <v>0.01366616886335812</v>
       </c>
       <c r="C193">
-        <v>361924778903925.1</v>
+        <v>237537533457105.8</v>
       </c>
       <c r="D193">
-        <v>2109691348.942184</v>
+        <v>-17.56559131247923</v>
       </c>
       <c r="E193">
-        <v>361924778903925.1</v>
+        <v>237537533457105.8</v>
       </c>
       <c r="F193">
-        <v>2189463199.356097</v>
+        <v>5871.085926474246</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>57633574794981.15</v>
+        <v>39172366093281.34</v>
       </c>
       <c r="B194">
-        <v>0.1942661656798331</v>
+        <v>0.01366831808415404</v>
       </c>
       <c r="C194">
-        <v>370289685581753.9</v>
+        <v>249993206049636.6</v>
       </c>
       <c r="D194">
-        <v>1565498794.107715</v>
+        <v>-16.22512398054823</v>
       </c>
       <c r="E194">
-        <v>370289685581753.9</v>
+        <v>249993206049636.6</v>
       </c>
       <c r="F194">
-        <v>2193177634.420447</v>
+        <v>6072.518897775367</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>56715273994291.16</v>
+        <v>39028251133822.05</v>
       </c>
       <c r="B195">
-        <v>0.19451533923255</v>
+        <v>0.01366936931445752</v>
       </c>
       <c r="C195">
-        <v>378851622930479.9</v>
+        <v>261990053376101.2</v>
       </c>
       <c r="D195">
-        <v>2034428776.232833</v>
+        <v>4.75016016792506</v>
       </c>
       <c r="E195">
-        <v>378851622930479.9</v>
+        <v>261990053376101.2</v>
       </c>
       <c r="F195">
-        <v>2197240000.298784</v>
+        <v>6270.16118537214</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>55320079000963.69</v>
+        <v>38573985555108.7</v>
       </c>
       <c r="B196">
-        <v>0.1948950720179079</v>
+        <v>0.01367268563446025</v>
       </c>
       <c r="C196">
-        <v>385714902023727.9</v>
+        <v>275643148422112.7</v>
       </c>
       <c r="D196">
-        <v>2171647561.616751</v>
+        <v>24.98858012678102</v>
       </c>
       <c r="E196">
-        <v>385714902023727.9</v>
+        <v>275643148422112.7</v>
       </c>
       <c r="F196">
-        <v>2200686289.839367</v>
+        <v>6504.78316608418</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>54306882168664.92</v>
+        <v>38283332951356.33</v>
       </c>
       <c r="B197">
-        <v>0.1951717176121239</v>
+        <v>0.01367480970315183</v>
       </c>
       <c r="C197">
-        <v>392575342613940.4</v>
+        <v>289722815119145.8</v>
       </c>
       <c r="D197">
-        <v>2422917098.847199</v>
+        <v>3.246266613714397</v>
       </c>
       <c r="E197">
-        <v>392575342613940.4</v>
+        <v>289722815119145.8</v>
       </c>
       <c r="F197">
-        <v>2204147333.488878</v>
+        <v>6761.51181252012</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>52682891885839.38</v>
+        <v>37998575943414.02</v>
       </c>
       <c r="B198">
-        <v>0.195616698150807</v>
+        <v>0.01367689235552191</v>
       </c>
       <c r="C198">
-        <v>400818153545264.7</v>
+        <v>305370628082598.9</v>
       </c>
       <c r="D198">
-        <v>3100542380.980557</v>
+        <v>-32.65800394117832</v>
       </c>
       <c r="E198">
-        <v>400818153545264.7</v>
+        <v>305370628082598.9</v>
       </c>
       <c r="F198">
-        <v>2208433801.33135</v>
+        <v>7065.050512389761</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>51034584456779.09</v>
+        <v>37980783027057</v>
       </c>
       <c r="B199">
-        <v>0.1960703297494963</v>
+        <v>0.0136770225441777</v>
       </c>
       <c r="C199">
-        <v>411533032016593.5</v>
+        <v>321101843771784.2</v>
       </c>
       <c r="D199">
-        <v>2957019966.024106</v>
+        <v>-23.93915169499815</v>
       </c>
       <c r="E199">
-        <v>411533032016593.5</v>
+        <v>321101843771784.2</v>
       </c>
       <c r="F199">
-        <v>2214002693.558614</v>
+        <v>7379.389888477856</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>49659479866568.7</v>
+        <v>37631002800130.23</v>
       </c>
       <c r="B200">
-        <v>0.1964503229978349</v>
+        <v>0.01367958316514414</v>
       </c>
       <c r="C200">
-        <v>421868814646003.9</v>
+        <v>337957898883138.8</v>
       </c>
       <c r="D200">
-        <v>2730403459.423654</v>
+        <v>12.72765277163126</v>
       </c>
       <c r="E200">
-        <v>421868814646003.9</v>
+        <v>337957898883138.8</v>
       </c>
       <c r="F200">
-        <v>2219415213.153784</v>
+        <v>7713.67524187776</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>48317719909777.12</v>
+        <v>37345150031723.59</v>
       </c>
       <c r="B201">
-        <v>0.1968224759667149</v>
+        <v>0.01368167767012709</v>
       </c>
       <c r="C201">
-        <v>433855989269133.2</v>
+        <v>356045419942983.5</v>
       </c>
       <c r="D201">
-        <v>2851647799.939084</v>
+        <v>21.39611561514903</v>
       </c>
       <c r="E201">
-        <v>433855989269133.2</v>
+        <v>356045419942983.5</v>
       </c>
       <c r="F201">
-        <v>2225843885.388983</v>
+        <v>8048.880008100618</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>46898867155586.39</v>
+        <v>36936571362256.73</v>
       </c>
       <c r="B202">
-        <v>0.1972175039763947</v>
+        <v>0.01368467436425073</v>
       </c>
       <c r="C202">
-        <v>443381042181280.2</v>
+        <v>373938219503656.2</v>
       </c>
       <c r="D202">
-        <v>2360922435.058268</v>
+        <v>25.81624477007426</v>
       </c>
       <c r="E202">
-        <v>443381042181280.2</v>
+        <v>373938219503656.2</v>
       </c>
       <c r="F202">
-        <v>2231147431.446549</v>
+        <v>8336.002269344166</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>46098471577449.38</v>
+        <v>36626302005029.19</v>
       </c>
       <c r="B203">
-        <v>0.1974410283386631</v>
+        <v>0.01368695235091527</v>
       </c>
       <c r="C203">
-        <v>452279653527273.1</v>
+        <v>392725450812608.8</v>
       </c>
       <c r="D203">
-        <v>2460725203.565153</v>
+        <v>45.01748489146121</v>
       </c>
       <c r="E203">
-        <v>452279653527273.1</v>
+        <v>392725450812608.8</v>
       </c>
       <c r="F203">
-        <v>2236210451.509569</v>
+        <v>8580.840199793447</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>44625483629686.48</v>
+        <v>36085445747792.2</v>
       </c>
       <c r="B204">
-        <v>0.1978536871147712</v>
+        <v>0.01369092816453079</v>
       </c>
       <c r="C204">
-        <v>461038728276640.1</v>
+        <v>412293558034980.1</v>
       </c>
       <c r="D204">
-        <v>3492047475.025226</v>
+        <v>75.15336614858825</v>
       </c>
       <c r="E204">
-        <v>461038728276640.1</v>
+        <v>412293558034980.1</v>
       </c>
       <c r="F204">
-        <v>2241275502.5897</v>
+        <v>8775.436363339131</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>42977273973165.34</v>
+        <v>35573882089199.88</v>
       </c>
       <c r="B205">
-        <v>0.1983174559833336</v>
+        <v>0.01369469439859001</v>
       </c>
       <c r="C205">
-        <v>469555041952599.8</v>
+        <v>432979039632453.4</v>
       </c>
       <c r="D205">
-        <v>2661877305.592197</v>
+        <v>64.27386474842206</v>
       </c>
       <c r="E205">
-        <v>469555041952599.8</v>
+        <v>432979039632453.4</v>
       </c>
       <c r="F205">
-        <v>2246200015.145383</v>
+        <v>8932.497375130386</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>42333144356525.59</v>
+        <v>35124252781022.85</v>
       </c>
       <c r="B206">
-        <v>0.1984992861396438</v>
+        <v>0.01369800932748308</v>
       </c>
       <c r="C206">
-        <v>481219559872273.6</v>
+        <v>455096632648999.9</v>
       </c>
       <c r="D206">
-        <v>1891678692.5075</v>
+        <v>19.16036325739697</v>
       </c>
       <c r="E206">
-        <v>481219559872273.6</v>
+        <v>455096632648999.9</v>
       </c>
       <c r="F206">
-        <v>2252904287.734032</v>
+        <v>9055.440121822718</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>41371394039219.38</v>
+        <v>34936805045113.99</v>
       </c>
       <c r="B207">
-        <v>0.1987713965527695</v>
+        <v>0.01369939260250822</v>
       </c>
       <c r="C207">
-        <v>493743405808326.8</v>
+        <v>476337175731064.1</v>
       </c>
       <c r="D207">
-        <v>2144240083.830901</v>
+        <v>14.02148723079881</v>
       </c>
       <c r="E207">
-        <v>493743405808326.8</v>
+        <v>476337175731064.1</v>
       </c>
       <c r="F207">
-        <v>2260055120.353218</v>
+        <v>9139.950596458109</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>40554777157118.08</v>
+        <v>34525958978036.06</v>
       </c>
       <c r="B208">
-        <v>0.1990030310950142</v>
+        <v>0.0137024271511808</v>
       </c>
       <c r="C208">
-        <v>504357585091351.4</v>
+        <v>499158586091857.4</v>
       </c>
       <c r="D208">
-        <v>1743513498.03774</v>
+        <v>33.73565193999093</v>
       </c>
       <c r="E208">
-        <v>504357585091351.4</v>
+        <v>499158586091857.4</v>
       </c>
       <c r="F208">
-        <v>2266152984.314616</v>
+        <v>9207.637325538604</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>39953161766123.96</v>
+        <v>34211704827407.74</v>
       </c>
       <c r="B209">
-        <v>0.1991740276991296</v>
+        <v>0.01370475078394639</v>
       </c>
       <c r="C209">
-        <v>515851761834518.5</v>
+        <v>523944114565467.4</v>
       </c>
       <c r="D209">
-        <v>1700790264.470847</v>
+        <v>7.00266051851213</v>
       </c>
       <c r="E209">
-        <v>515851761834518.5</v>
+        <v>523944114565467.4</v>
       </c>
       <c r="F209">
-        <v>2272862027.23877</v>
+        <v>9257.487670465531</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>39191725857511.2</v>
+        <v>33987531491572.89</v>
       </c>
       <c r="B210">
-        <v>0.1993908756925957</v>
+        <v>0.01370640969404592</v>
       </c>
       <c r="C210">
-        <v>529472361952919.4</v>
+        <v>550871586702778.9</v>
       </c>
       <c r="D210">
-        <v>3128156021.481049</v>
+        <v>-35.68726621940732</v>
       </c>
       <c r="E210">
-        <v>529472361952919.4</v>
+        <v>550871586702778.9</v>
       </c>
       <c r="F210">
-        <v>2281049870.855307</v>
+        <v>9294.427480953258</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>37497273521292.23</v>
+        <v>33962406560906.62</v>
       </c>
       <c r="B211">
-        <v>0.1998751603352672</v>
+        <v>0.01370659569175174</v>
       </c>
       <c r="C211">
-        <v>540894985855028.9</v>
+        <v>578290175725276.2</v>
       </c>
       <c r="D211">
-        <v>3217538267.03898</v>
+        <v>-49.97179752960801</v>
       </c>
       <c r="E211">
-        <v>540894985855028.9</v>
+        <v>578290175725276.2</v>
       </c>
       <c r="F211">
-        <v>2288139565.345494</v>
+        <v>9321.508651493799</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>36774995123515.84</v>
+        <v>33833899106878.49</v>
       </c>
       <c r="B212">
-        <v>0.2000823231486371</v>
+        <v>0.01370754724318296</v>
       </c>
       <c r="C212">
-        <v>551530461464775.1</v>
+        <v>606675190917306.6</v>
       </c>
       <c r="D212">
-        <v>1551002041.851658</v>
+        <v>-61.28060494735837</v>
       </c>
       <c r="E212">
-        <v>551530461464775.1</v>
+        <v>606675190917306.6</v>
       </c>
       <c r="F212">
-        <v>2294965161.15987</v>
+        <v>9343.329411699006</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>36352835277324.03</v>
+        <v>33884689037697.47</v>
       </c>
       <c r="B213">
-        <v>0.2002036108565088</v>
+        <v>0.01370717111765357</v>
       </c>
       <c r="C213">
-        <v>565057803302981.1</v>
+        <v>635533791976828.6</v>
       </c>
       <c r="D213">
-        <v>1965947271.290914</v>
+        <v>-84.01615956425667</v>
       </c>
       <c r="E213">
-        <v>565057803302981.1</v>
+        <v>635533791976828.6</v>
       </c>
       <c r="F213">
-        <v>2303865677.041931</v>
+        <v>9359.578831428729</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>35342007988597.16</v>
+        <v>33907663769064.23</v>
       </c>
       <c r="B214">
-        <v>0.2004946421705611</v>
+        <v>0.01370700099702671</v>
       </c>
       <c r="C214">
-        <v>578173252460117.4</v>
+        <v>665879747392639.4</v>
       </c>
       <c r="D214">
-        <v>3442147595.281289</v>
+        <v>-37.32847192883492</v>
       </c>
       <c r="E214">
-        <v>578173252460117.4</v>
+        <v>665879747392639.4</v>
       </c>
       <c r="F214">
-        <v>2312787275.072715</v>
+        <v>9373.274465915021</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>33916261248941.96</v>
+        <v>33646949414603.96</v>
       </c>
       <c r="B215">
-        <v>0.2009066322671928</v>
+        <v>0.01370893220265204</v>
       </c>
       <c r="C215">
-        <v>590593441054750.9</v>
+        <v>696523571073339.5</v>
       </c>
       <c r="D215">
-        <v>3579982907.993259</v>
+        <v>28.87334577552974</v>
       </c>
       <c r="E215">
-        <v>590593441054750.9</v>
+        <v>696523571073339.5</v>
       </c>
       <c r="F215">
-        <v>2321419257.686522</v>
+        <v>9384.909224927409</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>32910238582033.7</v>
+        <v>33233450291350.46</v>
       </c>
       <c r="B216">
-        <v>0.201198405925028</v>
+        <v>0.01371199829753839</v>
       </c>
       <c r="C216">
-        <v>606464647218124.5</v>
+        <v>728829919194355.4</v>
       </c>
       <c r="D216">
-        <v>2606015002.239197</v>
+        <v>35.20425773365423</v>
       </c>
       <c r="E216">
-        <v>606464647218124.5</v>
+        <v>728829919194355.4</v>
       </c>
       <c r="F216">
-        <v>2332631424.500896</v>
+        <v>9395.92985964639</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>32197697955194.25</v>
+        <v>32939721925868.42</v>
       </c>
       <c r="B217">
-        <v>0.2014056037459927</v>
+        <v>0.01371417866387615</v>
       </c>
       <c r="C217">
-        <v>621242343671618.1</v>
+        <v>764234267732207.5</v>
       </c>
       <c r="D217">
-        <v>2152325256.468864</v>
+        <v>6.515616637654603</v>
       </c>
       <c r="E217">
-        <v>621242343671618.1</v>
+        <v>764234267732207.5</v>
       </c>
       <c r="F217">
-        <v>2343304699.462517</v>
+        <v>9407.014015188039</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>31521042557933.54</v>
+        <v>32718523864295.56</v>
       </c>
       <c r="B218">
-        <v>0.2016027867311111</v>
+        <v>0.01371582194291975</v>
       </c>
       <c r="C218">
-        <v>635156475410925.1</v>
+        <v>800309135983716</v>
       </c>
       <c r="D218">
-        <v>2471279455.462464</v>
+        <v>-20.66098883748055</v>
       </c>
       <c r="E218">
-        <v>635156475410925.1</v>
+        <v>800309135983716</v>
       </c>
       <c r="F218">
-        <v>2353462349.789599</v>
+        <v>9417.332157068349</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>30636624465984.41</v>
+        <v>32603299916251.32</v>
       </c>
       <c r="B219">
-        <v>0.2018611366558723</v>
+        <v>0.01371667838920646</v>
       </c>
       <c r="C219">
-        <v>648795357117496.8</v>
+        <v>836523408937987.1</v>
       </c>
       <c r="D219">
-        <v>3403303298.941361</v>
+        <v>-19.81337658315897</v>
       </c>
       <c r="E219">
-        <v>648795357117496.8</v>
+        <v>836523408937987.1</v>
       </c>
       <c r="F219">
-        <v>2363598018.187601</v>
+        <v>9427.638501894431</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>29432692302747.41</v>
+        <v>32377877272554.11</v>
       </c>
       <c r="B220">
-        <v>0.2022139697342049</v>
+        <v>0.01371835482191496</v>
       </c>
       <c r="C220">
-        <v>665507056449772.5</v>
+        <v>874348430779914.2</v>
       </c>
       <c r="D220">
-        <v>3547159165.301753</v>
+        <v>8.746877306140959</v>
       </c>
       <c r="E220">
-        <v>665507056449772.5</v>
+        <v>874348430779914.2</v>
       </c>
       <c r="F220">
-        <v>2376220172.947063</v>
+        <v>9438.355972572968</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>28545664212888.55</v>
+        <v>32083080385722</v>
       </c>
       <c r="B221">
-        <v>0.2024747880233324</v>
+        <v>0.01372054897157823</v>
       </c>
       <c r="C221">
-        <v>682317072600849.8</v>
+        <v>915438089545827.1</v>
       </c>
       <c r="D221">
-        <v>3048950500.901512</v>
+        <v>33.77914322959259</v>
       </c>
       <c r="E221">
-        <v>682317072600849.8</v>
+        <v>915438089545827.1</v>
       </c>
       <c r="F221">
-        <v>2389044179.192576</v>
+        <v>9450.091599464937</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>27689185969374</v>
+        <v>31704415403421.8</v>
       </c>
       <c r="B222">
-        <v>0.202727325446169</v>
+        <v>0.01372337034714465</v>
       </c>
       <c r="C222">
-        <v>698623710902106.1</v>
+        <v>956763909996786.2</v>
       </c>
       <c r="D222">
-        <v>2766094109.268176</v>
+        <v>48.53432444587816</v>
       </c>
       <c r="E222">
-        <v>698623710902106.1</v>
+        <v>956763909996786.2</v>
       </c>
       <c r="F222">
-        <v>2401481640.203119</v>
+        <v>9462.164266463733</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>27011114357235.26</v>
+        <v>31325596730133.56</v>
       </c>
       <c r="B223">
-        <v>0.2029277537864479</v>
+        <v>0.01372619627723358</v>
       </c>
       <c r="C223">
-        <v>716886411337499.8</v>
+        <v>999184125422584.4</v>
       </c>
       <c r="D223">
-        <v>2029281012.724511</v>
+        <v>13.94389354251325</v>
       </c>
       <c r="E223">
-        <v>716886411337499.8</v>
+        <v>999184125422584.4</v>
       </c>
       <c r="F223">
-        <v>2415420393.502039</v>
+        <v>9474.872859105451</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>26590260702299.93</v>
+        <v>31169320757394.66</v>
       </c>
       <c r="B224">
-        <v>0.2030523744767017</v>
+        <v>0.01372736307396507</v>
       </c>
       <c r="C224">
-        <v>734941336330010.9</v>
+        <v>1044825682958164</v>
       </c>
       <c r="D224">
-        <v>2014440719.105701</v>
+        <v>-52.82271567964926</v>
       </c>
       <c r="E224">
-        <v>734941336330010.9</v>
+        <v>1044825682958164</v>
       </c>
       <c r="F224">
-        <v>2429178745.284643</v>
+        <v>9488.874611309411</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>25937204933614.24</v>
+        <v>31202764077425.25</v>
       </c>
       <c r="B225">
-        <v>0.2032460938248984</v>
+        <v>0.01372711332808794</v>
       </c>
       <c r="C225">
-        <v>751567334992138</v>
+        <v>1090723451320795</v>
       </c>
       <c r="D225">
-        <v>3403568473.507402</v>
+        <v>-52.5752135165967</v>
       </c>
       <c r="E225">
-        <v>751567334992138</v>
+        <v>1090723451320795</v>
       </c>
       <c r="F225">
-        <v>2441854529.799614</v>
+        <v>9503.375849244558</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>24822127062621.84</v>
+        <v>31044828334490.59</v>
       </c>
       <c r="B226">
-        <v>0.2035778338200863</v>
+        <v>0.01372829298762365</v>
       </c>
       <c r="C226">
-        <v>768137193745549.9</v>
+        <v>1138596381769400</v>
       </c>
       <c r="D226">
-        <v>3243708320.087029</v>
+        <v>-9.676157590001822</v>
       </c>
       <c r="E226">
-        <v>768137193745549.9</v>
+        <v>1138596381769400</v>
       </c>
       <c r="F226">
-        <v>2454507042.378382</v>
+        <v>9519.001039010684</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>24324451272151.12</v>
+        <v>30816843004611.89</v>
       </c>
       <c r="B227">
-        <v>0.2037262938327289</v>
+        <v>0.01372999692867758</v>
       </c>
       <c r="C227">
-        <v>786841050536275.4</v>
+        <v>1188967235460020</v>
       </c>
       <c r="D227">
-        <v>2525033001.843692</v>
+        <v>18.48048429656774</v>
       </c>
       <c r="E227">
-        <v>786841050536275.4</v>
+        <v>1188967235460020</v>
       </c>
       <c r="F227">
-        <v>2468739585.511958</v>
+        <v>9536.035988737258</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>23591337998311.1</v>
+        <v>30491033066925.84</v>
       </c>
       <c r="B228">
-        <v>0.2039454419769334</v>
+        <v>0.01373243419885235</v>
       </c>
       <c r="C228">
-        <v>808032301819601.4</v>
+        <v>1240494574956385</v>
       </c>
       <c r="D228">
-        <v>1523430303.572447</v>
+        <v>50.2337755523622</v>
       </c>
       <c r="E228">
-        <v>808032301819601.4</v>
+        <v>1240494574956385</v>
       </c>
       <c r="F228">
-        <v>2484695593.501932</v>
+        <v>9554.103024305321</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>23603342335188.16</v>
+        <v>30078440364537.71</v>
       </c>
       <c r="B229">
-        <v>0.203941849139755</v>
+        <v>0.01373552440327375</v>
       </c>
       <c r="C229">
-        <v>828674629859616.8</v>
+        <v>1293347035662358</v>
       </c>
       <c r="D229">
-        <v>-565378001.0568482</v>
+        <v>85.3347128337482</v>
       </c>
       <c r="E229">
-        <v>828674629859616.8</v>
+        <v>1293347035662358</v>
       </c>
       <c r="F229">
-        <v>2500023225.903451</v>
+        <v>9573.287736624688</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>23855919237549.35</v>
+        <v>29554941391059.1</v>
       </c>
       <c r="B230">
-        <v>0.2038662882508484</v>
+        <v>0.01373945135570394</v>
       </c>
       <c r="C230">
-        <v>851600641723211.5</v>
+        <v>1348211993653792</v>
       </c>
       <c r="D230">
-        <v>26189291.13393553</v>
+        <v>68.77563596889377</v>
       </c>
       <c r="E230">
-        <v>851600641723211.5</v>
+        <v>1348211993653792</v>
       </c>
       <c r="F230">
-        <v>2516854936.427816</v>
+        <v>9593.843878548127</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>23588506332557.3</v>
+        <v>29255076309577.95</v>
       </c>
       <c r="B231">
-        <v>0.203946289501612</v>
+        <v>0.01374170385521341</v>
       </c>
       <c r="C231">
-        <v>872611444720048.8</v>
+        <v>1405871118109769</v>
       </c>
       <c r="D231">
-        <v>1330716544.619597</v>
+        <v>-36.82985949516296</v>
       </c>
       <c r="E231">
-        <v>872611444720048.8</v>
+        <v>1405871118109769</v>
       </c>
       <c r="F231">
-        <v>2532220014.562131</v>
+        <v>9616.07226908892</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>23225813459296.46</v>
+        <v>29348012869675.54</v>
       </c>
       <c r="B232">
-        <v>0.2040549123149703</v>
+        <v>0.01374100549922661</v>
       </c>
       <c r="C232">
-        <v>891244495902349.2</v>
+        <v>1465038326918108</v>
       </c>
       <c r="D232">
-        <v>2507041841.90261</v>
+        <v>-62.48423613421619</v>
       </c>
       <c r="E232">
-        <v>891244495902349.2</v>
+        <v>1465038326918108</v>
       </c>
       <c r="F232">
-        <v>2545892125.473683</v>
+        <v>9639.488740150018</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>22421667927982.1</v>
+        <v>29195640762737.58</v>
       </c>
       <c r="B233">
-        <v>0.2042962301492129</v>
+        <v>0.01374215058859599</v>
       </c>
       <c r="C233">
-        <v>914624526395972</v>
+        <v>1526847639420598</v>
       </c>
       <c r="D233">
-        <v>3029293030.238563</v>
+        <v>-32.03448645025492</v>
       </c>
       <c r="E233">
-        <v>914624526395972</v>
+        <v>1526847639420598</v>
       </c>
       <c r="F233">
-        <v>2563165686.473786</v>
+        <v>9664.545733516235</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>21865182151613.85</v>
+        <v>29113965558299.62</v>
       </c>
       <c r="B234">
-        <v>0.2044636227105239</v>
+        <v>0.01374276462792819</v>
       </c>
       <c r="C234">
-        <v>938086374977186.1</v>
+        <v>1591362016772076</v>
       </c>
       <c r="D234">
-        <v>2471574168.393075</v>
+        <v>6.539188245311379</v>
       </c>
       <c r="E234">
-        <v>938086374977186.1</v>
+        <v>1591362016772076</v>
       </c>
       <c r="F234">
-        <v>2580657011.546568</v>
+        <v>9691.295005122027</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>21338700517011.26</v>
+        <v>28741254008233.3</v>
       </c>
       <c r="B235">
-        <v>0.2046222916936849</v>
+        <v>0.01374556886423654</v>
       </c>
       <c r="C235">
-        <v>963290604859644.6</v>
+        <v>1657784703374570</v>
       </c>
       <c r="D235">
-        <v>2872539451.013112</v>
+        <v>20.3020098824054</v>
       </c>
       <c r="E235">
-        <v>963290604859644.6</v>
+        <v>1657784703374570</v>
       </c>
       <c r="F235">
-        <v>2599635821.236932</v>
+        <v>9719.413541134038</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>20637171070337.96</v>
+        <v>28587633389059.54</v>
       </c>
       <c r="B236">
-        <v>0.2048341777864161</v>
+        <v>0.01374672572800308</v>
       </c>
       <c r="C236">
-        <v>989561013938402.1</v>
+        <v>1727360489135714</v>
       </c>
       <c r="D236">
-        <v>2960402906.492353</v>
+        <v>-34.6816201005131</v>
       </c>
       <c r="E236">
-        <v>989561013938402.1</v>
+        <v>1727360489135714</v>
       </c>
       <c r="F236">
-        <v>2619622616.850249</v>
+        <v>9749.443970764496</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>20114798455315.62</v>
+        <v>28527109949222.27</v>
       </c>
       <c r="B237">
-        <v>0.2049922996615987</v>
+        <v>0.01374718167692249</v>
       </c>
       <c r="C237">
-        <v>1018416642862936</v>
+        <v>1798600166489854</v>
       </c>
       <c r="D237">
-        <v>2336968853.176369</v>
+        <v>-41.59605094278231</v>
       </c>
       <c r="E237">
-        <v>1018416642862936</v>
+        <v>1798600166489854</v>
       </c>
       <c r="F237">
-        <v>2641723824.590804</v>
+        <v>9780.76964852888</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>19695055208641.26</v>
+        <v>28412774793703.55</v>
       </c>
       <c r="B238">
-        <v>0.2051195732948956</v>
+        <v>0.01374804327218995</v>
       </c>
       <c r="C238">
-        <v>1044264070803474</v>
+        <v>1872684121509486</v>
       </c>
       <c r="D238">
-        <v>4205085826.735827</v>
+        <v>-48.49620726704597</v>
       </c>
       <c r="E238">
-        <v>1044264070803474</v>
+        <v>1872684121509486</v>
       </c>
       <c r="F238">
-        <v>2661537066.133848</v>
+        <v>9813.925332871549</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>18456489941931.88</v>
+        <v>28391560818197.56</v>
       </c>
       <c r="B239">
-        <v>0.2054962790425566</v>
+        <v>0.01374820317174225</v>
       </c>
       <c r="C239">
-        <v>1073070258207887</v>
+        <v>1949575437835311</v>
       </c>
       <c r="D239">
-        <v>6418623557.300212</v>
+        <v>-70.90349996089935</v>
       </c>
       <c r="E239">
-        <v>1073070258207887</v>
+        <v>1949575437835311</v>
       </c>
       <c r="F239">
-        <v>2683602395.400947</v>
+        <v>9848.913659076579</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>17323953500854.05</v>
+        <v>28402531428318.41</v>
       </c>
       <c r="B240">
-        <v>0.2058422780303288</v>
+        <v>0.01374812047971153</v>
       </c>
       <c r="C240">
-        <v>1104498974439108</v>
+        <v>2029623272358377</v>
       </c>
       <c r="D240">
-        <v>4417481977.922791</v>
+        <v>-40.58780983090401</v>
       </c>
       <c r="E240">
-        <v>1104498974439108</v>
+        <v>2029623272358377</v>
       </c>
       <c r="F240">
-        <v>2707761191.460653</v>
+        <v>9885.877028935472</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>16924241480275.39</v>
+        <v>28211857916490.56</v>
       </c>
       <c r="B241">
-        <v>0.2059647539832767</v>
+        <v>0.01374955814710789</v>
       </c>
       <c r="C241">
-        <v>1133648260094136</v>
+        <v>2112241255876359</v>
       </c>
       <c r="D241">
-        <v>3458814728.179829</v>
+        <v>10.07732662186027</v>
       </c>
       <c r="E241">
-        <v>1133648260094136</v>
+        <v>2112241255876359</v>
       </c>
       <c r="F241">
-        <v>2730321970.209254</v>
+        <v>9924.524055347096</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>16151553591789.34</v>
+        <v>27942779563013.45</v>
       </c>
       <c r="B242">
-        <v>0.2062020595418828</v>
+        <v>0.01375158860523535</v>
       </c>
       <c r="C242">
-        <v>1164478379615000</v>
+        <v>2198178559372720</v>
       </c>
       <c r="D242">
-        <v>2966527552.721668</v>
+        <v>30.97707935026847</v>
       </c>
       <c r="E242">
-        <v>1164478379615000</v>
+        <v>2198178559372720</v>
       </c>
       <c r="F242">
-        <v>2754346873.952898</v>
+        <v>9965.172437159441</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>15964394154685.3</v>
+        <v>27641619469041.97</v>
       </c>
       <c r="B243">
-        <v>0.206259649181584</v>
+        <v>0.01375386342134652</v>
       </c>
       <c r="C243">
-        <v>1199435850049949</v>
+        <v>2286288464351894</v>
       </c>
       <c r="D243">
-        <v>2539071378.144327</v>
+        <v>39.22889505466446</v>
       </c>
       <c r="E243">
-        <v>1199435850049949</v>
+        <v>2286288464351894</v>
       </c>
       <c r="F243">
-        <v>2781752843.389014</v>
+        <v>10007.26196642311</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>15339310703243.47</v>
+        <v>27333863615418.04</v>
       </c>
       <c r="B244">
-        <v>0.2064523053698972</v>
+        <v>0.01375619055800068</v>
       </c>
       <c r="C244">
-        <v>1233888424109698</v>
+        <v>2378771667684477</v>
       </c>
       <c r="D244">
-        <v>5201153497.394622</v>
+        <v>-3.333701614290476</v>
       </c>
       <c r="E244">
-        <v>1233888424109698</v>
+        <v>2378771667684477</v>
       </c>
       <c r="F244">
-        <v>2808823420.07558</v>
+        <v>10051.82005467771</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>14367265807439.4</v>
+        <v>27268506387139.22</v>
       </c>
       <c r="B245">
-        <v>0.2067528837031236</v>
+        <v>0.01375668509285094</v>
       </c>
       <c r="C245">
-        <v>1270095664724274</v>
+        <v>2474005041241582</v>
       </c>
       <c r="D245">
-        <v>3844859363.785159</v>
+        <v>-75.9850649535656</v>
       </c>
       <c r="E245">
-        <v>1270095664724274</v>
+        <v>2474005041241582</v>
       </c>
       <c r="F245">
-        <v>2837175088.391077</v>
+        <v>10098.04324024046</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>14233118417458.71</v>
+        <v>27351536029329.08</v>
       </c>
       <c r="B246">
-        <v>0.20679446131331</v>
+        <v>0.01375605685691023</v>
       </c>
       <c r="C246">
-        <v>1307169425393212</v>
+        <v>2573542998627381</v>
       </c>
       <c r="D246">
-        <v>630361905.2461498</v>
+        <v>-63.14922915771604</v>
       </c>
       <c r="E246">
-        <v>1307169425393212</v>
+        <v>2573542998627381</v>
       </c>
       <c r="F246">
-        <v>2865992643.166711</v>
+        <v>10146.66589366381</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>14186448793110.69</v>
+        <v>27217122232169.8</v>
       </c>
       <c r="B247">
-        <v>0.2068089316355847</v>
+        <v>0.01375707397935716</v>
       </c>
       <c r="C247">
-        <v>1342898133077238</v>
+        <v>2674984006590737</v>
       </c>
       <c r="D247">
-        <v>2743257474.826441</v>
+        <v>-8.606483657844365</v>
       </c>
       <c r="E247">
-        <v>1342898133077238</v>
+        <v>2674984006590737</v>
       </c>
       <c r="F247">
-        <v>2893556750.312654</v>
+        <v>10196.49552441788</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>13453404692272.75</v>
+        <v>27008284255170.68</v>
       </c>
       <c r="B248">
-        <v>0.2070365987980505</v>
+        <v>0.01375865524637449</v>
       </c>
       <c r="C248">
-        <v>1382250148753011</v>
+        <v>2781649507872554</v>
       </c>
       <c r="D248">
-        <v>3536906256.623632</v>
+        <v>3.284851197618991</v>
       </c>
       <c r="E248">
-        <v>1382250148753011</v>
+        <v>2781649507872554</v>
       </c>
       <c r="F248">
-        <v>2923730708.100667</v>
+        <v>10249.15397774337</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>13233480406889.83</v>
+        <v>26813343461958.93</v>
       </c>
       <c r="B249">
-        <v>0.207105043797488</v>
+        <v>0.01376013235809293</v>
       </c>
       <c r="C249">
-        <v>1427786510665152</v>
+        <v>2892749272659504</v>
       </c>
       <c r="D249">
-        <v>275461393.6724274</v>
+        <v>20.69524049758911</v>
       </c>
       <c r="E249">
-        <v>1427786510665152</v>
+        <v>2892749272659504</v>
       </c>
       <c r="F249">
-        <v>2958485861.809609</v>
+        <v>10304.2487791052</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>13379220341370.59</v>
+        <v>26515588765050.81</v>
       </c>
       <c r="B250">
-        <v>0.2070596791297389</v>
+        <v>0.01376239052487918</v>
       </c>
       <c r="C250">
-        <v>1470056021096046</v>
+        <v>3006547824115050</v>
       </c>
       <c r="D250">
-        <v>-291851811.130698</v>
+        <v>20.47358222492039</v>
       </c>
       <c r="E250">
-        <v>1470056021096046</v>
+        <v>3006547824115050</v>
       </c>
       <c r="F250">
-        <v>2990629067.917033</v>
+        <v>10360.88821721781</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>13310282950193.55</v>
+        <v>26327338115151.88</v>
       </c>
       <c r="B251">
-        <v>0.2070811337453348</v>
+        <v>0.01376381947760077</v>
       </c>
       <c r="C251">
-        <v>1511672154662291</v>
+        <v>3126236257737620</v>
       </c>
       <c r="D251">
-        <v>1962067801.440454</v>
+        <v>-33.7084303535521</v>
       </c>
       <c r="E251">
-        <v>1511672154662291</v>
+        <v>3126236257737620</v>
       </c>
       <c r="F251">
-        <v>3022168259.702313</v>
+        <v>10420.64792802425</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>12855621131471.33</v>
+        <v>26313801892838.2</v>
       </c>
       <c r="B252">
-        <v>0.2072227967292269</v>
+        <v>0.01376392226480238</v>
       </c>
       <c r="C252">
-        <v>1558060208155664</v>
+        <v>3248184316705182</v>
       </c>
       <c r="D252">
-        <v>4242584797.071031</v>
+        <v>-38.4287576675415</v>
       </c>
       <c r="E252">
-        <v>1558060208155664</v>
+        <v>3248184316705182</v>
       </c>
       <c r="F252">
-        <v>3057188870.429271</v>
+        <v>10481.6932775857</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>12218220802241.38</v>
+        <v>26150102281906.08</v>
       </c>
       <c r="B253">
-        <v>0.2074218839945598</v>
+        <v>0.01376516572079927</v>
       </c>
       <c r="C253">
-        <v>1604891415361329</v>
+        <v>3374367062504356</v>
       </c>
       <c r="D253">
-        <v>2373572410.946107</v>
+        <v>-16.53007499175146</v>
       </c>
       <c r="E253">
-        <v>1604891415361329</v>
+        <v>3374367062504356</v>
       </c>
       <c r="F253">
-        <v>3092427329.723619</v>
+        <v>10544.99609562159</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>12274426259950.31</v>
+        <v>26025004359815.68</v>
       </c>
       <c r="B254">
-        <v>0.2074043054268843</v>
+        <v>0.01376611646487606</v>
       </c>
       <c r="C254">
-        <v>1658703422431100</v>
+        <v>3506381731154168</v>
       </c>
       <c r="D254">
-        <v>2859354500.541212</v>
+        <v>-50.2163126450032</v>
       </c>
       <c r="E254">
-        <v>1658703422431100</v>
+        <v>3506381731154168</v>
       </c>
       <c r="F254">
-        <v>3132816807.075095</v>
+        <v>10611.3465353232</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>11515098327144.29</v>
+        <v>26035243513523.36</v>
       </c>
       <c r="B255">
-        <v>0.2076421770293453</v>
+        <v>0.01376603863082815</v>
       </c>
       <c r="C255">
-        <v>1713821000424611</v>
+        <v>3643090760018314</v>
       </c>
       <c r="D255">
-        <v>4038146048.833075</v>
+        <v>-44.90373383834958</v>
       </c>
       <c r="E255">
-        <v>1713821000424611</v>
+        <v>3643090760018314</v>
       </c>
       <c r="F255">
-        <v>3174091613.156589</v>
+        <v>10680.16332946593</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>11343324030338.68</v>
+        <v>25882878046627.08</v>
       </c>
       <c r="B256">
-        <v>0.2076961058979721</v>
+        <v>0.01376719715814675</v>
       </c>
       <c r="C256">
-        <v>1769880286515352</v>
+        <v>3786084023689706</v>
       </c>
       <c r="D256">
-        <v>683639719.0157652</v>
+        <v>20.29221560619771</v>
       </c>
       <c r="E256">
-        <v>1769880286515352</v>
+        <v>3786084023689706</v>
       </c>
       <c r="F256">
-        <v>3215911105.432699</v>
+        <v>10752.23974718051</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>11358910967500.42</v>
+        <v>25561888207319.68</v>
       </c>
       <c r="B257">
-        <v>0.2076912105274551</v>
+        <v>0.01376963998694744</v>
       </c>
       <c r="C257">
-        <v>1828468983976190</v>
+        <v>3931796094134536</v>
       </c>
       <c r="D257">
-        <v>1050705574.565771</v>
+        <v>41.25924609357025</v>
       </c>
       <c r="E257">
-        <v>1828468983976190</v>
+        <v>3931796094134536</v>
       </c>
       <c r="F257">
-        <v>3259312188.954499</v>
+        <v>10825.75435103301</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>11103532659371.53</v>
+        <v>25309981626342.92</v>
       </c>
       <c r="B258">
-        <v>0.2077714630475124</v>
+        <v>0.01377155912810803</v>
       </c>
       <c r="C258">
-        <v>1892272197631608</v>
+        <v>4083841085363200</v>
       </c>
       <c r="D258">
-        <v>3978176010.324972</v>
+        <v>39.58069519483251</v>
       </c>
       <c r="E258">
-        <v>1892272197631608</v>
+        <v>4083841085363200</v>
       </c>
       <c r="F258">
-        <v>3306120869.528411</v>
+        <v>10902.50583095541</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>10474405880815.57</v>
+        <v>25003048830208.61</v>
       </c>
       <c r="B259">
-        <v>0.2079695921217898</v>
+        <v>0.01377389995336903</v>
       </c>
       <c r="C259">
-        <v>1954194396471762</v>
+        <v>4241348754443615</v>
       </c>
       <c r="D259">
-        <v>6136848553.788546</v>
+        <v>46.99871616996825</v>
       </c>
       <c r="E259">
-        <v>1954194396471762</v>
+        <v>4241348754443615</v>
       </c>
       <c r="F259">
-        <v>3351126776.288907</v>
+        <v>10982.02731248899</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>9816928393078.363</v>
+        <v>24721478872578.08</v>
       </c>
       <c r="B260">
-        <v>0.2081773172154081</v>
+        <v>0.01377604975694267</v>
       </c>
       <c r="C260">
-        <v>2019591083524186</v>
+        <v>4406773476521453</v>
       </c>
       <c r="D260">
-        <v>4897617648.008595</v>
+        <v>7.351613020524383</v>
       </c>
       <c r="E260">
-        <v>2019591083524186</v>
+        <v>4406773476521453</v>
       </c>
       <c r="F260">
-        <v>3398304787.766371</v>
+        <v>11065.5313161155</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>9511871408625.109</v>
+        <v>24614119149481.87</v>
       </c>
       <c r="B261">
-        <v>0.2082739371083009</v>
+        <v>0.01377687006663656</v>
       </c>
       <c r="C261">
-        <v>2094291348809432</v>
+        <v>4576175586139990</v>
       </c>
       <c r="D261">
-        <v>2661760924.918</v>
+        <v>-25.56507881730795</v>
       </c>
       <c r="E261">
-        <v>2094291348809432</v>
+        <v>4576175586139990</v>
       </c>
       <c r="F261">
-        <v>3451940759.340593</v>
+        <v>11151.01066566065</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>9309648337732.836</v>
+        <v>24493709547076.02</v>
       </c>
       <c r="B262">
-        <v>0.2083380724800145</v>
+        <v>0.01377779049151108</v>
       </c>
       <c r="C262">
-        <v>2172965667156729</v>
+        <v>4752718558239399</v>
       </c>
       <c r="D262">
-        <v>3823250945.68439</v>
+        <v>-9.350719131529331</v>
       </c>
       <c r="E262">
-        <v>2172965667156729</v>
+        <v>4752718558239399</v>
       </c>
       <c r="F262">
-        <v>3508249832.385613</v>
+        <v>11240.05309563669</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>8799115166177.844</v>
+        <v>24309328337170.61</v>
       </c>
       <c r="B263">
-        <v>0.2085003004845296</v>
+        <v>0.01377920075502358</v>
       </c>
       <c r="C263">
-        <v>2250391990702134</v>
+        <v>4935289937821331</v>
       </c>
       <c r="D263">
-        <v>6631178464.542372</v>
+        <v>40.65002255328</v>
       </c>
       <c r="E263">
-        <v>2250391990702134</v>
+        <v>4935289937821331</v>
       </c>
       <c r="F263">
-        <v>3563566465.98562</v>
+        <v>11332.09115324673</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>8141834144422.152</v>
+        <v>23952041306504.94</v>
       </c>
       <c r="B264">
-        <v>0.2087098392836848</v>
+        <v>0.01378193639999766</v>
       </c>
       <c r="C264">
-        <v>2336034509770160</v>
+        <v>5124393114248668</v>
       </c>
       <c r="D264">
-        <v>7465151401.2775</v>
+        <v>49.50074787251651</v>
       </c>
       <c r="E264">
-        <v>2336034509770160</v>
+        <v>5124393114248668</v>
       </c>
       <c r="F264">
-        <v>3624550983.660985</v>
+        <v>11427.37484624877</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>7582734381039.172</v>
+        <v>23733968974020.33</v>
       </c>
       <c r="B265">
-        <v>0.2088887089897932</v>
+        <v>0.01378360800787228</v>
       </c>
       <c r="C265">
-        <v>2419275163925846</v>
+        <v>5322655654098364</v>
       </c>
       <c r="D265">
-        <v>6001923743.554648</v>
+        <v>-29.23521693795919</v>
       </c>
       <c r="E265">
-        <v>2419275163925846</v>
+        <v>5322655654098364</v>
       </c>
       <c r="F265">
-        <v>3683435556.01412</v>
+        <v>11527.22960694859</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>7230888185296.25</v>
+        <v>23749724922413.88</v>
       </c>
       <c r="B266">
-        <v>0.209001584242816</v>
+        <v>0.01378348718414999</v>
       </c>
       <c r="C266">
-        <v>2512668938233396</v>
+        <v>5527577220691641</v>
       </c>
       <c r="D266">
-        <v>3662391017.947848</v>
+        <v>-44.68528730422258</v>
       </c>
       <c r="E266">
-        <v>2512668938233396</v>
+        <v>5527577220691641</v>
       </c>
       <c r="F266">
-        <v>3748813269.855333</v>
+        <v>11630.39918146372</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>7052395558676.429</v>
+        <v>23603728100937.04</v>
       </c>
       <c r="B267">
-        <v>0.2090589412256329</v>
+        <v>0.01378460704329606</v>
       </c>
       <c r="C267">
-        <v>2611029311725861</v>
+        <v>5738086785566467</v>
       </c>
       <c r="D267">
-        <v>3085292817.095862</v>
+        <v>21.65440542064607</v>
       </c>
       <c r="E267">
-        <v>2611029311725861</v>
+        <v>5738086785566467</v>
       </c>
       <c r="F267">
-        <v>3816818877.975577</v>
+        <v>11736.3426007721</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>6795039322147.786</v>
+        <v>23312150009830.4</v>
       </c>
       <c r="B268">
-        <v>0.2091417558922514</v>
+        <v>0.01378684552771732</v>
       </c>
       <c r="C268">
-        <v>2716954898190332</v>
+        <v>5956421471837063</v>
       </c>
       <c r="D268">
-        <v>2145253822.415458</v>
+        <v>54.71574749797583</v>
       </c>
       <c r="E268">
-        <v>2716954898190332</v>
+        <v>5956421471837063</v>
       </c>
       <c r="F268">
-        <v>3889166215.150295</v>
+        <v>11846.18471654518</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>6760204001791.853</v>
+        <v>23019932758443.84</v>
       </c>
       <c r="B269">
-        <v>0.2091529762096536</v>
+        <v>0.01378909155504199</v>
       </c>
       <c r="C269">
-        <v>2827028484704904</v>
+        <v>6184200549768909</v>
       </c>
       <c r="D269">
-        <v>-191514736.3358929</v>
+        <v>-4.77711970359087</v>
       </c>
       <c r="E269">
-        <v>2827028484704904</v>
+        <v>6184200549768909</v>
       </c>
       <c r="F269">
-        <v>3963276241.489509</v>
+        <v>11960.74793449339</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>6820286386910.667</v>
+        <v>23005247942339.01</v>
       </c>
       <c r="B270">
-        <v>0.209133625515126</v>
+        <v>0.01378920449498976</v>
       </c>
       <c r="C270">
-        <v>2943254542268576</v>
+        <v>6420182692999252</v>
       </c>
       <c r="D270">
-        <v>1566751371.045343</v>
+        <v>9.074986714869738</v>
       </c>
       <c r="E270">
-        <v>2943254542268576</v>
+        <v>6420182692999252</v>
       </c>
       <c r="F270">
-        <v>4040258491.20387</v>
+        <v>12079.43597867652</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>6545837825562.425</v>
+        <v>22650514677459.27</v>
       </c>
       <c r="B271">
-        <v>0.2092220796573545</v>
+        <v>0.01379193478241865</v>
       </c>
       <c r="C271">
-        <v>3069884393846304</v>
+        <v>6663370531307769</v>
       </c>
       <c r="D271">
-        <v>2970713727.691699</v>
+        <v>50.76724594179541</v>
       </c>
       <c r="E271">
-        <v>3069884393846304</v>
+        <v>6663370531307769</v>
       </c>
       <c r="F271">
-        <v>4122837199.249989</v>
+        <v>12201.78784919716</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>6430744379745.473</v>
+        <v>22455741858054.38</v>
       </c>
       <c r="B272">
-        <v>0.2092592223523273</v>
+        <v>0.01379343558949978</v>
       </c>
       <c r="C272">
-        <v>3202716301920993</v>
+        <v>6916786564156993</v>
       </c>
       <c r="D272">
-        <v>819155920.2023817</v>
+        <v>-32.94948031008244</v>
       </c>
       <c r="E272">
-        <v>3202716301920993</v>
+        <v>6916786564156993</v>
       </c>
       <c r="F272">
-        <v>4208395893.410574</v>
+        <v>12329.37715185037</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>6439867489943.49</v>
+        <v>22475737176464.95</v>
       </c>
       <c r="B273">
-        <v>0.209256277105732</v>
+        <v>0.01379328146145485</v>
       </c>
       <c r="C273">
-        <v>3346254057302323</v>
+        <v>7182561489375229</v>
       </c>
       <c r="D273">
-        <v>-1015458301.030891</v>
+        <v>-61.58726384490728</v>
       </c>
       <c r="E273">
-        <v>3346254057302323</v>
+        <v>7182561489375229</v>
       </c>
       <c r="F273">
-        <v>4299689589.734218</v>
+        <v>12463.34707779584</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>6560917148025.092</v>
+        <v>22407476508534.55</v>
       </c>
       <c r="B274">
-        <v>0.2092172154295169</v>
+        <v>0.01379380768141113</v>
       </c>
       <c r="C274">
-        <v>3493376102736804</v>
+        <v>7452490320842504</v>
       </c>
       <c r="D274">
-        <v>-400539424.2090822</v>
+        <v>-72.07959344983101</v>
       </c>
       <c r="E274">
-        <v>3493376102736804</v>
+        <v>7452490320842504</v>
       </c>
       <c r="F274">
-        <v>4391862337.035076</v>
+        <v>12599.64067871341</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>6491798351855.877</v>
+        <v>22473899593831.88</v>
       </c>
       <c r="B275">
-        <v>0.2092395155524343</v>
+        <v>0.01379329562538888</v>
       </c>
       <c r="C275">
-        <v>3654078542401392</v>
+        <v>7735339168148767</v>
       </c>
       <c r="D275">
-        <v>594040660.1077698</v>
+        <v>-48.86664930731058</v>
       </c>
       <c r="E275">
-        <v>3654078542401392</v>
+        <v>7735339168148767</v>
       </c>
       <c r="F275">
-        <v>4490935777.061205</v>
+        <v>12742.7783867802</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>6483168721096.779</v>
+        <v>22302953893392.71</v>
       </c>
       <c r="B276">
-        <v>0.2092423005012832</v>
+        <v>0.01379461373295974</v>
       </c>
       <c r="C276">
-        <v>3830272459658670</v>
+        <v>8027460882181143</v>
       </c>
       <c r="D276">
-        <v>3127135792.727694</v>
+        <v>3.161423880432267</v>
       </c>
       <c r="E276">
-        <v>3830272459658670</v>
+        <v>8027460882181143</v>
       </c>
       <c r="F276">
-        <v>4597742333.186438</v>
+        <v>12891.04020584054</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>6085703622529.208</v>
+        <v>22141839698292.25</v>
       </c>
       <c r="B277">
-        <v>0.2093707491398204</v>
+        <v>0.01379585689224877</v>
       </c>
       <c r="C277">
-        <v>4017230931248834</v>
+        <v>8327533976135354</v>
       </c>
       <c r="D277">
-        <v>4010746514.128963</v>
+        <v>-38.71933917701244</v>
       </c>
       <c r="E277">
-        <v>4017230931248834</v>
+        <v>8327533976135354</v>
       </c>
       <c r="F277">
-        <v>4709096660.543097</v>
+        <v>13043.90496579294</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>5994423031185.017</v>
+        <v>22155817241937.86</v>
       </c>
       <c r="B278">
-        <v>0.2094002986988797</v>
+        <v>0.01379574900816254</v>
       </c>
       <c r="C278">
-        <v>4222458429127240</v>
+        <v>8639327131494602</v>
       </c>
       <c r="D278">
-        <v>1679811728.876449</v>
+        <v>-67.98782666027546</v>
       </c>
       <c r="E278">
-        <v>4222458429127240</v>
+        <v>8639327131494602</v>
       </c>
       <c r="F278">
-        <v>4828895729.497591</v>
+        <v>13203.48511704214</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>5883740983414.199</v>
+        <v>22122226048550.53</v>
       </c>
       <c r="B279">
-        <v>0.2094361548415699</v>
+        <v>0.01379600828863339</v>
       </c>
       <c r="C279">
-        <v>4440498492198954</v>
+        <v>8960721432984373</v>
       </c>
       <c r="D279">
-        <v>-184601628.0654857</v>
+        <v>-27.99095692113042</v>
       </c>
       <c r="E279">
-        <v>4440498492198954</v>
+        <v>8960721432984373</v>
       </c>
       <c r="F279">
-        <v>4953007735.390821</v>
+        <v>13368.9279056932</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>6015584066417.097</v>
+        <v>21962106724724.2</v>
       </c>
       <c r="B280">
-        <v>0.2093934466910297</v>
+        <v>0.01379724470494935</v>
       </c>
       <c r="C280">
-        <v>4670411560396624</v>
+        <v>9295546940207924</v>
       </c>
       <c r="D280">
-        <v>-141010442.5592362</v>
+        <v>34.74791712407023</v>
       </c>
       <c r="E280">
-        <v>4670411560396624</v>
+        <v>9295546940207924</v>
       </c>
       <c r="F280">
-        <v>5080119547.810441</v>
+        <v>13542.48995769235</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>5900131549902.763</v>
+        <v>21658779310734.4</v>
       </c>
       <c r="B281">
-        <v>0.2094308432101631</v>
+        <v>0.01379958924524227</v>
       </c>
       <c r="C281">
-        <v>4923908182543817</v>
+        <v>9638906265104632</v>
       </c>
       <c r="D281">
-        <v>3927014751.988187</v>
+        <v>29.3621721630916</v>
       </c>
       <c r="E281">
-        <v>4923908182543817</v>
+        <v>9638906265104632</v>
       </c>
       <c r="F281">
-        <v>5216436802.982907</v>
+        <v>13722.00392472093</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>5551622485977.552</v>
+        <v>21528069778990.95</v>
       </c>
       <c r="B282">
-        <v>0.2095439210633399</v>
+        <v>0.01380060048517112</v>
       </c>
       <c r="C282">
-        <v>5199490836588972</v>
+        <v>9997625784097414</v>
       </c>
       <c r="D282">
-        <v>6105684877.565019</v>
+        <v>-4.606982071883976</v>
       </c>
       <c r="E282">
-        <v>5199490836588972</v>
+        <v>9997625784097414</v>
       </c>
       <c r="F282">
-        <v>5361150750.658696</v>
+        <v>13911.50893243566</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>5221672464394.91</v>
+        <v>21371302186177.04</v>
       </c>
       <c r="B283">
-        <v>0.2096512518388598</v>
+        <v>0.01380181407162693</v>
       </c>
       <c r="C283">
-        <v>5491379348784380</v>
+        <v>1.036846689029343E+16</v>
       </c>
       <c r="D283">
-        <v>3450904670.007421</v>
+        <v>-7.647998994216323</v>
       </c>
       <c r="E283">
-        <v>5491379348784380</v>
+        <v>1.036846689029343E+16</v>
       </c>
       <c r="F283">
-        <v>5510323308.38038</v>
+        <v>14109.06964237627</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>5190734422703.187</v>
+        <v>21255502991520.46</v>
       </c>
       <c r="B284">
-        <v>0.2096613299602486</v>
+        <v>0.01380271103526423</v>
       </c>
       <c r="C284">
-        <v>5815962972352836</v>
+        <v>1.075233670899314E+16</v>
       </c>
       <c r="D284">
-        <v>4401332889.711798</v>
+        <v>-36.38970044068992</v>
       </c>
       <c r="E284">
-        <v>5815962972352836</v>
+        <v>1.075233670899314E+16</v>
       </c>
       <c r="F284">
-        <v>5670343813.983212</v>
+        <v>14314.36110984149</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>4764254251762.844</v>
+        <v>21220460904515.21</v>
       </c>
       <c r="B285">
-        <v>0.2098005140780219</v>
+        <v>0.01380298255465187</v>
       </c>
       <c r="C285">
-        <v>6174319843139646</v>
+        <v>1.114847147803212E+16</v>
       </c>
       <c r="D285">
-        <v>7393507815.70502</v>
+        <v>-47.73975082114339</v>
       </c>
       <c r="E285">
-        <v>6174319843139646</v>
+        <v>1.114847147803212E+16</v>
       </c>
       <c r="F285">
-        <v>5840190142.517563</v>
+        <v>14526.35207016884</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>4485789180739.681</v>
+        <v>21152316269918.79</v>
       </c>
       <c r="B286">
-        <v>0.2098916622536739</v>
+        <v>0.01380351068323409</v>
       </c>
       <c r="C286">
-        <v>6557122200830397</v>
+        <v>1.15581151281643E+16</v>
       </c>
       <c r="D286">
-        <v>4766031183.219424</v>
+        <v>-39.85799637343735</v>
       </c>
       <c r="E286">
-        <v>6557122200830397</v>
+        <v>1.15581151281643E+16</v>
       </c>
       <c r="F286">
-        <v>6015185589.02373</v>
+        <v>14745.38021836863</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>4336238542793.819</v>
+        <v>21084807105143.45</v>
       </c>
       <c r="B287">
-        <v>0.209940705987778</v>
+        <v>0.01380403404102552</v>
       </c>
       <c r="C287">
-        <v>6978683385287186</v>
+        <v>1.197830045741718E+16</v>
       </c>
       <c r="D287">
-        <v>-366400769.2874986</v>
+        <v>-12.4323653653264</v>
       </c>
       <c r="E287">
-        <v>6978683385287186</v>
+        <v>1.197830045741718E+16</v>
       </c>
       <c r="F287">
-        <v>6200727045.825232</v>
+        <v>14969.73309182818</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>4517152065267.674</v>
+        <v>20903304434102.35</v>
       </c>
       <c r="B288">
-        <v>0.2098813853901931</v>
+        <v>0.01380544188591439</v>
       </c>
       <c r="C288">
-        <v>7449603852749927</v>
+        <v>1.241564670062005E+16</v>
       </c>
       <c r="D288">
-        <v>-1612880694.37415</v>
+        <v>26.72666145628318</v>
       </c>
       <c r="E288">
-        <v>7449603852749927</v>
+        <v>1.241564670062005E+16</v>
       </c>
       <c r="F288">
-        <v>6398189071.457088</v>
+        <v>15202.92062100216</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>4481520593455.458</v>
+        <v>20676877966680.38</v>
       </c>
       <c r="B289">
-        <v>0.209893061187697</v>
+        <v>0.01380719975950748</v>
       </c>
       <c r="C289">
-        <v>7960166946067989</v>
+        <v>1.286290104869608E+16</v>
       </c>
       <c r="D289">
-        <v>3487609800.308355</v>
+        <v>30.42363641504198</v>
       </c>
       <c r="E289">
-        <v>7960166946067989</v>
+        <v>1.286290104869608E+16</v>
       </c>
       <c r="F289">
-        <v>6600045253.855081</v>
+        <v>15441.10183909103</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>4204129085427.44</v>
+        <v>20484787781522.03</v>
       </c>
       <c r="B290">
-        <v>0.2099840855605717</v>
+        <v>0.01380869244201698</v>
       </c>
       <c r="C290">
-        <v>8518170395694137</v>
+        <v>1.332613400962169E+16</v>
       </c>
       <c r="D290">
-        <v>3931718665.082523</v>
+        <v>10.43626988958567</v>
       </c>
       <c r="E290">
-        <v>8518170395694137</v>
+        <v>1.332613400962169E+16</v>
       </c>
       <c r="F290">
-        <v>6807241426.791842</v>
+        <v>15687.55991815565</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>4150531068881.376</v>
+        <v>20342858130194.66</v>
       </c>
       <c r="B291">
-        <v>0.2100017002196881</v>
+        <v>0.01380979616079383</v>
       </c>
       <c r="C291">
-        <v>9142383721148630</v>
+        <v>1.380173969917045E+16</v>
       </c>
       <c r="D291">
-        <v>3876521032.734149</v>
+        <v>-3.022215039934963</v>
       </c>
       <c r="E291">
-        <v>9142383721148630</v>
+        <v>1.380173969917045E+16</v>
       </c>
       <c r="F291">
-        <v>7024289162.098675</v>
+        <v>15940.43528248793</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>3881941335750.142</v>
+        <v>20206986087041.08</v>
       </c>
       <c r="B292">
-        <v>0.2100901065307313</v>
+        <v>0.0138108534303344</v>
       </c>
       <c r="C292">
-        <v>9845525217272062</v>
+        <v>1.429155256855255E+16</v>
       </c>
       <c r="D292">
-        <v>7695471840.439041</v>
+        <v>-21.62103321682662</v>
       </c>
       <c r="E292">
-        <v>9845525217272062</v>
+        <v>1.429155256855255E+16</v>
       </c>
       <c r="F292">
-        <v>7252716234.779863</v>
+        <v>16200.76990500493</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>3552694072435.497</v>
+        <v>20140896515176.31</v>
       </c>
       <c r="B293">
-        <v>0.2101988021528929</v>
+        <v>0.01381136793102628</v>
       </c>
       <c r="C293">
-        <v>1.061016785146037E+16</v>
+        <v>1.479620496736733E+16</v>
       </c>
       <c r="D293">
-        <v>3879088836.228547</v>
+        <v>-38.6264965236187</v>
       </c>
       <c r="E293">
-        <v>1.061016785146037E+16</v>
+        <v>1.479620496736733E+16</v>
       </c>
       <c r="F293">
-        <v>7487227765.58014</v>
+        <v>16468.97111595365</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>3605978947579.999</v>
+        <v>20073100743506.66</v>
       </c>
       <c r="B294">
-        <v>0.2101811858319546</v>
+        <v>0.01381189587395052</v>
       </c>
       <c r="C294">
-        <v>1.145989746170802E+16</v>
+        <v>1.531363246305442E+16</v>
       </c>
       <c r="D294">
-        <v>306335239.4974074</v>
+        <v>-40.36433273553848</v>
       </c>
       <c r="E294">
-        <v>1.145989746170802E+16</v>
+        <v>1.531363246305442E+16</v>
       </c>
       <c r="F294">
-        <v>7736444177.657387</v>
+        <v>16744.01848310312</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>3530258134792.778</v>
+        <v>20014337896938.95</v>
       </c>
       <c r="B295">
-        <v>0.210206222607974</v>
+        <v>0.01381235360635914</v>
       </c>
       <c r="C295">
-        <v>1.242433198390352E+16</v>
+        <v>1.584164347658262E+16</v>
       </c>
       <c r="D295">
-        <v>-1220443551.0442</v>
+        <v>-25.91190897487104</v>
       </c>
       <c r="E295">
-        <v>1.242433198390352E+16</v>
+        <v>1.584164347658262E+16</v>
       </c>
       <c r="F295">
-        <v>8022588277.566192</v>
+        <v>17024.82724535511</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>3691812640024.562</v>
+        <v>19889996548586.47</v>
       </c>
       <c r="B296">
-        <v>0.2101528294160029</v>
+        <v>0.01381332256470117</v>
       </c>
       <c r="C296">
-        <v>1.348567375152574E+16</v>
+        <v>1.637197083856093E+16</v>
       </c>
       <c r="D296">
-        <v>564060194.8372636</v>
+        <v>-20.25010074395686</v>
       </c>
       <c r="E296">
-        <v>1.348567375152574E+16</v>
+        <v>1.637197083856093E+16</v>
       </c>
       <c r="F296">
-        <v>8347207346.778532</v>
+        <v>17307.07705434566</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>3488258658584.985</v>
+        <v>19810228830315.3</v>
       </c>
       <c r="B297">
-        <v>0.210220118310795</v>
+        <v>0.01381394446223323</v>
       </c>
       <c r="C297">
-        <v>1.465418155447296E+16</v>
+        <v>1.692021514138102E+16</v>
       </c>
       <c r="D297">
-        <v>743251577.2949398</v>
+        <v>-52.71309667825699</v>
       </c>
       <c r="E297">
-        <v>1.465418155447296E+16</v>
+        <v>1.692021514138102E+16</v>
       </c>
       <c r="F297">
-        <v>8710959263.74453</v>
+        <v>17599.15117791666</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>3639627660402.025</v>
+        <v>19813280713885.74</v>
       </c>
       <c r="B298">
-        <v>0.2101700664565276</v>
+        <v>0.01381392066448844</v>
       </c>
       <c r="C298">
-        <v>1.594216199176305E+16</v>
+        <v>1.748329813467776E+16</v>
       </c>
       <c r="D298">
-        <v>-2511115970.375001</v>
+        <v>-98.93107730150223</v>
       </c>
       <c r="E298">
-        <v>1.594216199176305E+16</v>
+        <v>1.748329813467776E+16</v>
       </c>
       <c r="F298">
-        <v>9112650213.455164</v>
+        <v>17899.49932101926</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>3670702811756.087</v>
+        <v>19913716320178.69</v>
       </c>
       <c r="B299">
-        <v>0.2101598010039253</v>
+        <v>0.01381313768061145</v>
       </c>
       <c r="C299">
-        <v>1.735300191366612E+16</v>
+        <v>1.803446541942092E+16</v>
       </c>
       <c r="D299">
-        <v>-685442297.8432502</v>
+        <v>-86.83661511540413</v>
       </c>
       <c r="E299">
-        <v>1.735300191366612E+16</v>
+        <v>1.803446541942092E+16</v>
       </c>
       <c r="F299">
-        <v>9547833294.908514</v>
+        <v>18193.90427944202</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>3689599395547.985</v>
+        <v>19869878279775.17</v>
       </c>
       <c r="B300">
-        <v>0.2101535602754801</v>
+        <v>0.01381347939251231</v>
       </c>
       <c r="C300">
-        <v>1.883143759659196E+16</v>
+        <v>1.856061779288146E+16</v>
       </c>
       <c r="D300">
-        <v>-1312659752.479289</v>
+        <v>-45.78354373946786</v>
       </c>
       <c r="E300">
-        <v>1.883143759659196E+16</v>
+        <v>1.856061779288146E+16</v>
       </c>
       <c r="F300">
-        <v>9994771548.953655</v>
+        <v>18475.36058837513</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>3767215411152.005</v>
+        <v>19809662691487.38</v>
       </c>
       <c r="B301">
-        <v>0.2101279397875873</v>
+        <v>0.01381394887686393</v>
       </c>
       <c r="C301">
-        <v>2.029498807102842E+16</v>
+        <v>1.9028874139016E+16</v>
       </c>
       <c r="D301">
-        <v>-2065061571.555666</v>
+        <v>-41.49925605393946</v>
       </c>
       <c r="E301">
-        <v>2.029498807102842E+16</v>
+        <v>1.9028874139016E+16</v>
       </c>
       <c r="F301">
-        <v>10426773792.76381</v>
+        <v>18726.1967032644</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Intrinseco.xlsx
+++ b/Lifetime_Intrinseco.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,6002 +417,5402 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1.9028874139016E+16</v>
+        <v>345951257078133.6</v>
       </c>
       <c r="B2">
-        <v>0.0008823806086914154</v>
+        <v>0.01324029270289891</v>
       </c>
       <c r="C2">
-        <v>19809662691487.38</v>
+        <v>2788302004.090971</v>
       </c>
       <c r="D2">
-        <v>19048.49939944611</v>
+        <v>1671015.492199995</v>
       </c>
       <c r="E2">
-        <v>19809662691487.38</v>
+        <v>2788302004.090971</v>
       </c>
       <c r="F2">
-        <v>-210.3058725168569</v>
+        <v>-158832.7313867797</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1.856061779288146E+16</v>
+        <v>339597058612080.3</v>
       </c>
       <c r="B3">
-        <v>0.0009123770096517935</v>
+        <v>0.01327576204694815</v>
       </c>
       <c r="C3">
-        <v>19810228830315.3</v>
+        <v>5002643889.428675</v>
       </c>
       <c r="D3">
-        <v>18699.8259107274</v>
+        <v>1663533.396990873</v>
       </c>
       <c r="E3">
-        <v>19810228830315.3</v>
+        <v>5002643889.428675</v>
       </c>
       <c r="F3">
-        <v>-210.2911442243334</v>
+        <v>-158782.3902704709</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1.803446541942092E+16</v>
+        <v>331160916604959.2</v>
       </c>
       <c r="B4">
-        <v>0.0009480105509781397</v>
+        <v>0.01332317434664295</v>
       </c>
       <c r="C4">
-        <v>19813280713885.74</v>
+        <v>56448740261.00268</v>
       </c>
       <c r="D4">
-        <v>18347.42656501114</v>
+        <v>1663298.219356162</v>
       </c>
       <c r="E4">
-        <v>19813280713885.74</v>
+        <v>56448740261.00268</v>
       </c>
       <c r="F4">
-        <v>-210.2117483932244</v>
+        <v>-157612.7164092536</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1.748329813467776E+16</v>
+        <v>323206403160678.9</v>
       </c>
       <c r="B5">
-        <v>0.000987708472508669</v>
+        <v>0.01336822093742759</v>
       </c>
       <c r="C5">
-        <v>19869878279775.17</v>
+        <v>261161500581.6271</v>
       </c>
       <c r="D5">
-        <v>17976.95502456307</v>
+        <v>1660853.605558926</v>
       </c>
       <c r="E5">
-        <v>19869878279775.17</v>
+        <v>261161500581.6271</v>
       </c>
       <c r="F5">
-        <v>-208.7393271421245</v>
+        <v>-152956.6336198575</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1.692021514138102E+16</v>
+        <v>315107845103135.3</v>
       </c>
       <c r="B6">
-        <v>0.00103099576917073</v>
+        <v>0.0134144291543172</v>
       </c>
       <c r="C6">
-        <v>19889996548586.47</v>
+        <v>381009724894.9248</v>
       </c>
       <c r="D6">
-        <v>17624.79463957125</v>
+        <v>1658772.033106735</v>
       </c>
       <c r="E6">
-        <v>19889996548586.47</v>
+        <v>381009724894.9248</v>
       </c>
       <c r="F6">
-        <v>-208.2159306294461</v>
+        <v>-150229.447867343</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1.637197083856093E+16</v>
+        <v>305881506348863.2</v>
       </c>
       <c r="B7">
-        <v>0.001076044095005078</v>
+        <v>0.01346750507486018</v>
       </c>
       <c r="C7">
-        <v>19913716320178.69</v>
+        <v>436286698615.5201</v>
       </c>
       <c r="D7">
-        <v>17295.22695122829</v>
+        <v>1662266.462489395</v>
       </c>
       <c r="E7">
-        <v>19913716320178.69</v>
+        <v>436286698615.5201</v>
       </c>
       <c r="F7">
-        <v>-207.5988327023245</v>
+        <v>-148971.2778177955</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1.584164347658262E+16</v>
+        <v>297277608710892.6</v>
       </c>
       <c r="B8">
-        <v>0.00112260405375314</v>
+        <v>0.01351742354995927</v>
       </c>
       <c r="C8">
-        <v>20014337896938.95</v>
+        <v>690327196199.9569</v>
       </c>
       <c r="D8">
-        <v>16980.44164243211</v>
+        <v>1663759.340740219</v>
       </c>
       <c r="E8">
-        <v>20014337896938.95</v>
+        <v>690327196199.9569</v>
       </c>
       <c r="F8">
-        <v>-204.9809857870995</v>
+        <v>-143186.3807076243</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1.531363246305442E+16</v>
+        <v>293005062821372.6</v>
       </c>
       <c r="B9">
-        <v>0.001172154808198618</v>
+        <v>0.013542366445545</v>
       </c>
       <c r="C9">
-        <v>20073100743506.66</v>
+        <v>708920499896.8079</v>
       </c>
       <c r="D9">
-        <v>16678.29988015398</v>
+        <v>1642318.128951713</v>
       </c>
       <c r="E9">
-        <v>20073100743506.66</v>
+        <v>708920499896.8079</v>
       </c>
       <c r="F9">
-        <v>-203.4521241783942</v>
+        <v>-142762.8126883768</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1.479620496736733E+16</v>
+        <v>282651510095309.1</v>
       </c>
       <c r="B10">
-        <v>0.001224102438039278</v>
+        <v>0.01360324194706783</v>
       </c>
       <c r="C10">
-        <v>20140896515176.31</v>
+        <v>1118195628461.563</v>
       </c>
       <c r="D10">
-        <v>16383.89662981192</v>
+        <v>1655533.566774059</v>
       </c>
       <c r="E10">
-        <v>20140896515176.31</v>
+        <v>1118195628461.563</v>
       </c>
       <c r="F10">
-        <v>-201.6882091861611</v>
+        <v>-133433.4185407931</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1.429155256855255E+16</v>
+        <v>275547033516425.4</v>
       </c>
       <c r="B11">
-        <v>0.001278314789695195</v>
+        <v>0.01364537370335723</v>
       </c>
       <c r="C11">
-        <v>20206986087041.08</v>
+        <v>1235851271241.796</v>
       </c>
       <c r="D11">
-        <v>16106.20780401366</v>
+        <v>1650828.420702569</v>
       </c>
       <c r="E11">
-        <v>20206986087041.08</v>
+        <v>1235851271241.796</v>
       </c>
       <c r="F11">
-        <v>-199.968645654316</v>
+        <v>-130749.4143996903</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>1.380173969917045E+16</v>
+        <v>269570538246714.1</v>
       </c>
       <c r="B12">
-        <v>0.00133460967654202</v>
+        <v>0.01368104711688358</v>
       </c>
       <c r="C12">
-        <v>20342858130194.66</v>
+        <v>1511138485607.376</v>
       </c>
       <c r="D12">
-        <v>15841.58423080978</v>
+        <v>1640416.177713506</v>
       </c>
       <c r="E12">
-        <v>20342858130194.66</v>
+        <v>1511138485607.376</v>
       </c>
       <c r="F12">
-        <v>-196.4333085987864</v>
+        <v>-124465.9146586186</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1.332613400962169E+16</v>
+        <v>264280370764343.8</v>
       </c>
       <c r="B13">
-        <v>0.001393074944490221</v>
+        <v>0.01371280253173425</v>
       </c>
       <c r="C13">
-        <v>20484787781522.03</v>
+        <v>1949728360237.217</v>
       </c>
       <c r="D13">
-        <v>15586.82708339132</v>
+        <v>1626762.235777296</v>
       </c>
       <c r="E13">
-        <v>20484787781522.03</v>
+        <v>1949728360237.217</v>
       </c>
       <c r="F13">
-        <v>-192.7401747979802</v>
+        <v>-114444.8823679531</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>1.286290104869608E+16</v>
+        <v>253827941489140.2</v>
       </c>
       <c r="B14">
-        <v>0.001453971644427237</v>
+        <v>0.01377604763181096</v>
       </c>
       <c r="C14">
-        <v>20676877966680.38</v>
+        <v>2424966042824.989</v>
       </c>
       <c r="D14">
-        <v>15341.64012164056</v>
+        <v>1646477.763436736</v>
       </c>
       <c r="E14">
-        <v>20676877966680.38</v>
+        <v>2424966042824.989</v>
       </c>
       <c r="F14">
-        <v>-187.7415275411927</v>
+        <v>-103572.8521449994</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>1.241564670062005E+16</v>
+        <v>247387523475975.8</v>
       </c>
       <c r="B15">
-        <v>0.001516826912995363</v>
+        <v>0.01381535518403196</v>
       </c>
       <c r="C15">
-        <v>20903304434102.35</v>
+        <v>3501109385538.752</v>
       </c>
       <c r="D15">
-        <v>15106.90995827689</v>
+        <v>1641884.421453178</v>
       </c>
       <c r="E15">
-        <v>20903304434102.35</v>
+        <v>3501109385538.752</v>
       </c>
       <c r="F15">
-        <v>-181.8489372901218</v>
+        <v>-78904.23151046834</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>1.197830045741718E+16</v>
+        <v>243490212563659.1</v>
       </c>
       <c r="B16">
-        <v>0.001582518981596054</v>
+        <v>0.01383926895231786</v>
       </c>
       <c r="C16">
-        <v>21084807105143.45</v>
+        <v>4479182576652.157</v>
       </c>
       <c r="D16">
-        <v>14882.49419909055</v>
+        <v>1621242.262986541</v>
       </c>
       <c r="E16">
-        <v>21084807105143.45</v>
+        <v>4479182576652.157</v>
       </c>
       <c r="F16">
-        <v>-177.1251220896998</v>
+        <v>-56428.94317334396</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1.15581151281643E+16</v>
+        <v>238618952590906.7</v>
       </c>
       <c r="B17">
-        <v>0.00164995094665163</v>
+        <v>0.01386929577836668</v>
       </c>
       <c r="C17">
-        <v>21152316269918.79</v>
+        <v>5293551251686.155</v>
       </c>
       <c r="D17">
-        <v>14661.5954592688</v>
+        <v>1608268.026009724</v>
       </c>
       <c r="E17">
-        <v>21152316269918.79</v>
+        <v>5293551251686.155</v>
       </c>
       <c r="F17">
-        <v>-175.368042723622</v>
+        <v>-37680.25876170648</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1.114847147803212E+16</v>
+        <v>231678963539921.6</v>
       </c>
       <c r="B18">
-        <v>0.001720154952002846</v>
+        <v>0.01391234091131981</v>
       </c>
       <c r="C18">
-        <v>21220460904515.21</v>
+        <v>6092326921036.011</v>
       </c>
       <c r="D18">
-        <v>14453.0023741196</v>
+        <v>1610177.341664186</v>
       </c>
       <c r="E18">
-        <v>21220460904515.21</v>
+        <v>6092326921036.011</v>
       </c>
       <c r="F18">
-        <v>-173.5943821419561</v>
+        <v>-19263.53386562227</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1.075233670899314E+16</v>
+        <v>224577812679987.7</v>
       </c>
       <c r="B19">
-        <v>0.001792634565340821</v>
+        <v>0.01395671545377198</v>
       </c>
       <c r="C19">
-        <v>21255502991520.46</v>
+        <v>6862815630716.1</v>
       </c>
       <c r="D19">
-        <v>14252.56793990217</v>
+        <v>1614717.403903946</v>
       </c>
       <c r="E19">
-        <v>21255502991520.46</v>
+        <v>6862815630716.1</v>
       </c>
       <c r="F19">
-        <v>-172.6822945156719</v>
+        <v>-1477.345909382527</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1.036846689029343E+16</v>
+        <v>220181533215422.1</v>
       </c>
       <c r="B20">
-        <v>0.001867585187308342</v>
+        <v>0.01398435755276075</v>
       </c>
       <c r="C20">
-        <v>21371302186177.04</v>
+        <v>7494352304782.67</v>
       </c>
       <c r="D20">
-        <v>14063.61245951297</v>
+        <v>1601108.348510265</v>
       </c>
       <c r="E20">
-        <v>21371302186177.04</v>
+        <v>7494352304782.67</v>
       </c>
       <c r="F20">
-        <v>-169.6681542546021</v>
+        <v>13114.50304734202</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>9997625784097414</v>
+        <v>215783067170093.3</v>
       </c>
       <c r="B21">
-        <v>0.0019448149143285</v>
+        <v>0.01401214555944161</v>
       </c>
       <c r="C21">
-        <v>21528069778990.95</v>
+        <v>8288828318467.343</v>
       </c>
       <c r="D21">
-        <v>13877.70026551203</v>
+        <v>1588393.62855548</v>
       </c>
       <c r="E21">
-        <v>21528069778990.95</v>
+        <v>8288828318467.343</v>
       </c>
       <c r="F21">
-        <v>-165.5874546872664</v>
+        <v>31484.77968282379</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>9638906265104632</v>
+        <v>208195214092865</v>
       </c>
       <c r="B22">
-        <v>0.002024452602279674</v>
+        <v>0.01406039877586473</v>
       </c>
       <c r="C22">
-        <v>21658779310734.4</v>
+        <v>8994751359553.031</v>
       </c>
       <c r="D22">
-        <v>13697.57252360226</v>
+        <v>1600652.149287231</v>
       </c>
       <c r="E22">
-        <v>21658779310734.4</v>
+        <v>8994751359553.031</v>
       </c>
       <c r="F22">
-        <v>-162.1848847078025</v>
+        <v>47817.30829941692</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>9295546940207924</v>
+        <v>203720851121736.3</v>
       </c>
       <c r="B23">
-        <v>0.002105644572844136</v>
+        <v>0.01408904294730875</v>
       </c>
       <c r="C23">
-        <v>21962106724724.2</v>
+        <v>9521083902257.486</v>
       </c>
       <c r="D23">
-        <v>13521.54616314874</v>
+        <v>1590271.71400544</v>
       </c>
       <c r="E23">
-        <v>21962106724724.2</v>
+        <v>9521083902257.486</v>
       </c>
       <c r="F23">
-        <v>-154.2882187017263</v>
+        <v>59999.10127663738</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>8960721432984373</v>
+        <v>201483703031959.9</v>
       </c>
       <c r="B24">
-        <v>0.002189924776314067</v>
+        <v>0.01410341859126792</v>
       </c>
       <c r="C24">
-        <v>22122226048550.53</v>
+        <v>10070085363559.49</v>
       </c>
       <c r="D24">
-        <v>13358.64192695316</v>
+        <v>1563887.204252034</v>
       </c>
       <c r="E24">
-        <v>22122226048550.53</v>
+        <v>10070085363559.49</v>
       </c>
       <c r="F24">
-        <v>-150.1194268709578</v>
+        <v>72708.24326238748</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>8639327131494602</v>
+        <v>194580755977760.4</v>
       </c>
       <c r="B25">
-        <v>0.002275998260197433</v>
+        <v>0.01414800530522635</v>
       </c>
       <c r="C25">
-        <v>22141839698292.25</v>
+        <v>10680897342352.99</v>
       </c>
       <c r="D25">
-        <v>13195.40465597413</v>
+        <v>1575026.975726537</v>
       </c>
       <c r="E25">
-        <v>22141839698292.25</v>
+        <v>10680897342352.99</v>
       </c>
       <c r="F25">
-        <v>-149.608759443028</v>
+        <v>86850.14251199346</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>8327533976135354</v>
+        <v>189878351378373.2</v>
       </c>
       <c r="B26">
-        <v>0.002364781854357536</v>
+        <v>0.01417857975195398</v>
       </c>
       <c r="C26">
-        <v>22155817241937.86</v>
+        <v>11046180803350.6</v>
       </c>
       <c r="D26">
-        <v>13039.80916394608</v>
+        <v>1569745.228058636</v>
       </c>
       <c r="E26">
-        <v>22155817241937.86</v>
+        <v>11046180803350.6</v>
       </c>
       <c r="F26">
-        <v>-149.2448334476584</v>
+        <v>95307.78312259912</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>8027460882181143</v>
+        <v>185765345602167.1</v>
       </c>
       <c r="B27">
-        <v>0.002455579454516487</v>
+        <v>0.01420545801333539</v>
       </c>
       <c r="C27">
-        <v>22302953893392.71</v>
+        <v>11066721373589.45</v>
       </c>
       <c r="D27">
-        <v>12886.68629799468</v>
+        <v>1560342.694975421</v>
       </c>
       <c r="E27">
-        <v>22302953893392.71</v>
+        <v>11066721373589.45</v>
       </c>
       <c r="F27">
-        <v>-145.413808635139</v>
+        <v>95783.37253806094</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>7735339168148767</v>
+        <v>182745988384408.4</v>
       </c>
       <c r="B28">
-        <v>0.002549461760075671</v>
+        <v>0.01422527120736527</v>
       </c>
       <c r="C28">
-        <v>22407476508534.55</v>
+        <v>11132050129726.76</v>
       </c>
       <c r="D28">
-        <v>12745.06715095296</v>
+        <v>1543025.054309472</v>
       </c>
       <c r="E28">
-        <v>22407476508534.55</v>
+        <v>11132050129726.76</v>
       </c>
       <c r="F28">
-        <v>-142.6922175157058</v>
+        <v>97295.97051184718</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>7452490320842504</v>
+        <v>177227550149153.7</v>
       </c>
       <c r="B29">
-        <v>0.002645982052389629</v>
+        <v>0.01426166524463296</v>
       </c>
       <c r="C29">
-        <v>22455741858054.38</v>
+        <v>11254269037208.4</v>
       </c>
       <c r="D29">
-        <v>12604.7102183232</v>
+        <v>1547868.880390802</v>
       </c>
       <c r="E29">
-        <v>22455741858054.38</v>
+        <v>11254269037208.4</v>
       </c>
       <c r="F29">
-        <v>-141.4354374446427</v>
+        <v>100125.7702699834</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>7182561489375229</v>
+        <v>173092148973696</v>
       </c>
       <c r="B30">
-        <v>0.002743699488483941</v>
+        <v>0.01428909447039776</v>
       </c>
       <c r="C30">
-        <v>22473899593831.88</v>
+        <v>11312961473300.55</v>
       </c>
       <c r="D30">
-        <v>12467.1499000705</v>
+        <v>1541517.10991627</v>
       </c>
       <c r="E30">
-        <v>22473899593831.88</v>
+        <v>11312961473300.55</v>
       </c>
       <c r="F30">
-        <v>-140.9626233731632</v>
+        <v>101484.700128124</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6916786564156993</v>
+        <v>169829118832497.4</v>
       </c>
       <c r="B31">
-        <v>0.00284572835990539</v>
+        <v>0.0143108334436519</v>
       </c>
       <c r="C31">
-        <v>22475737176464.95</v>
+        <v>11480111051673.79</v>
       </c>
       <c r="D31">
-        <v>12341.80959675768</v>
+        <v>1528604.694889411</v>
       </c>
       <c r="E31">
-        <v>22475737176464.95</v>
+        <v>11480111051673.79</v>
       </c>
       <c r="F31">
-        <v>-140.9147739127895</v>
+        <v>105354.7461641947</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6663370531307769</v>
+        <v>166155047302210.7</v>
       </c>
       <c r="B32">
-        <v>0.002948849639322593</v>
+        <v>0.01433541360148189</v>
       </c>
       <c r="C32">
-        <v>22650514677459.27</v>
+        <v>11790240396372.71</v>
       </c>
       <c r="D32">
-        <v>12209.39978022737</v>
+        <v>1519947.314942837</v>
       </c>
       <c r="E32">
-        <v>22650514677459.27</v>
+        <v>11790240396372.71</v>
       </c>
       <c r="F32">
-        <v>-136.3635456239987</v>
+        <v>112535.0371042511</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6420182692999252</v>
+        <v>161677642590055.4</v>
       </c>
       <c r="B33">
-        <v>0.003053623919217623</v>
+        <v>0.01436551745629755</v>
       </c>
       <c r="C33">
-        <v>23005247942339.01</v>
+        <v>11888054300181.22</v>
       </c>
       <c r="D33">
-        <v>12086.66098887384</v>
+        <v>1519702.073448658</v>
       </c>
       <c r="E33">
-        <v>23005247942339.01</v>
+        <v>11888054300181.22</v>
       </c>
       <c r="F33">
-        <v>-127.1254250864764</v>
+        <v>114799.614679987</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>6184200549768909</v>
+        <v>159777337674102</v>
       </c>
       <c r="B34">
-        <v>0.003161196727051961</v>
+        <v>0.01437834437791042</v>
       </c>
       <c r="C34">
-        <v>23019932758443.84</v>
+        <v>12252920056175.32</v>
       </c>
       <c r="D34">
-        <v>11968.68338765889</v>
+        <v>1496343.095506221</v>
       </c>
       <c r="E34">
-        <v>23019932758443.84</v>
+        <v>12252920056175.32</v>
       </c>
       <c r="F34">
-        <v>-126.74297298208</v>
+        <v>123246.6076584372</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>5956421471837063</v>
+        <v>155319303995973.2</v>
       </c>
       <c r="B35">
-        <v>0.003271004214242831</v>
+        <v>0.01440855491141957</v>
       </c>
       <c r="C35">
-        <v>23312150009830.4</v>
+        <v>12486113100921.72</v>
       </c>
       <c r="D35">
-        <v>11851.67435941304</v>
+        <v>1497840.492636421</v>
       </c>
       <c r="E35">
-        <v>23312150009830.4</v>
+        <v>12486113100921.72</v>
       </c>
       <c r="F35">
-        <v>-119.1320630726598</v>
+        <v>128644.9298841165</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>5738086785566467</v>
+        <v>151342028970312.4</v>
       </c>
       <c r="B36">
-        <v>0.003382221317342916</v>
+        <v>0.01443565049375249</v>
       </c>
       <c r="C36">
-        <v>23603728100937.04</v>
+        <v>12598457404831.87</v>
       </c>
       <c r="D36">
-        <v>11740.14010365431</v>
+        <v>1495773.625306621</v>
       </c>
       <c r="E36">
-        <v>23603728100937.04</v>
+        <v>12598457404831.87</v>
       </c>
       <c r="F36">
-        <v>-111.5370655109709</v>
+        <v>131245.5558315769</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>5527577220691641</v>
+        <v>148261106849836</v>
       </c>
       <c r="B37">
-        <v>0.003495428386871802</v>
+        <v>0.01445673374624463</v>
       </c>
       <c r="C37">
-        <v>23733968974020.33</v>
+        <v>12756283076546.1</v>
       </c>
       <c r="D37">
-        <v>11631.58753913307</v>
+        <v>1485979.976701632</v>
       </c>
       <c r="E37">
-        <v>23733968974020.33</v>
+        <v>12756283076546.1</v>
       </c>
       <c r="F37">
-        <v>-108.1443280658987</v>
+        <v>134898.9046781791</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>5322655654098364</v>
+        <v>145024926566308.9</v>
       </c>
       <c r="B38">
-        <v>0.003611719623137249</v>
+        <v>0.01447896928164773</v>
       </c>
       <c r="C38">
-        <v>23749724922413.88</v>
+        <v>12866875858089.86</v>
       </c>
       <c r="D38">
-        <v>11533.51620998621</v>
+        <v>1478622.760312825</v>
       </c>
       <c r="E38">
-        <v>23749724922413.88</v>
+        <v>12866875858089.86</v>
       </c>
       <c r="F38">
-        <v>-107.7338802749108</v>
+        <v>137458.8271695234</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>5124393114248668</v>
+        <v>141945031111647.6</v>
       </c>
       <c r="B39">
-        <v>0.003730406855459084</v>
+        <v>0.01450021764613356</v>
       </c>
       <c r="C39">
-        <v>23952041306504.94</v>
+        <v>12943293756267.79</v>
       </c>
       <c r="D39">
-        <v>11434.59323337262</v>
+        <v>1470175.421834409</v>
       </c>
       <c r="E39">
-        <v>23952041306504.94</v>
+        <v>12943293756267.79</v>
       </c>
       <c r="F39">
-        <v>-102.4632815681863</v>
+        <v>139227.6555536608</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>4935289937821331</v>
+        <v>140376450855913.4</v>
       </c>
       <c r="B40">
-        <v>0.00384971718583504</v>
+        <v>0.01451107222638888</v>
       </c>
       <c r="C40">
-        <v>24309328337170.61</v>
+        <v>13408617083477.52</v>
       </c>
       <c r="D40">
-        <v>11335.08579703569</v>
+        <v>1447073.8260957</v>
       </c>
       <c r="E40">
-        <v>24309328337170.61</v>
+        <v>13408617083477.52</v>
       </c>
       <c r="F40">
-        <v>-93.15465060793579</v>
+        <v>149997.733286146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>4752718558239399</v>
+        <v>136776114324113.3</v>
       </c>
       <c r="B41">
-        <v>0.003971004245205397</v>
+        <v>0.01453607149081206</v>
       </c>
       <c r="C41">
-        <v>24493709547076.02</v>
+        <v>13518790852288.63</v>
       </c>
       <c r="D41">
-        <v>11239.4792245026</v>
+        <v>1446011.302981235</v>
       </c>
       <c r="E41">
-        <v>24493709547076.02</v>
+        <v>13518790852288.63</v>
       </c>
       <c r="F41">
-        <v>-88.35042492594587</v>
+        <v>152547.5873980859</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>4576175586139990</v>
+        <v>132532573434591.9</v>
       </c>
       <c r="B42">
-        <v>0.004094421840101063</v>
+        <v>0.01456569103924416</v>
       </c>
       <c r="C42">
-        <v>24614119149481.87</v>
+        <v>13665439401955.11</v>
       </c>
       <c r="D42">
-        <v>11149.95842316683</v>
+        <v>1452776.705548158</v>
       </c>
       <c r="E42">
-        <v>24614119149481.87</v>
+        <v>13665439401955.11</v>
       </c>
       <c r="F42">
-        <v>-85.21288516591056</v>
+        <v>155941.5256052661</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>4406773476521453</v>
+        <v>129237817780351.6</v>
       </c>
       <c r="B43">
-        <v>0.004218949542485548</v>
+        <v>0.01458880521910701</v>
       </c>
       <c r="C43">
-        <v>24721478872578.08</v>
+        <v>13714913333994.85</v>
       </c>
       <c r="D43">
-        <v>11062.60295188175</v>
+        <v>1450107.805484235</v>
       </c>
       <c r="E43">
-        <v>24721478872578.08</v>
+        <v>13714913333994.85</v>
       </c>
       <c r="F43">
-        <v>-82.41528643331144</v>
+        <v>157086.4971696835</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>4241348754443615</v>
+        <v>128018795427510.8</v>
       </c>
       <c r="B44">
-        <v>0.004346755223308804</v>
+        <v>0.01459738351366039</v>
       </c>
       <c r="C44">
-        <v>25003048830208.61</v>
+        <v>13852150790726.31</v>
       </c>
       <c r="D44">
-        <v>10983.44537587781</v>
+        <v>1425189.366868019</v>
       </c>
       <c r="E44">
-        <v>25003048830208.61</v>
+        <v>13852150790726.31</v>
       </c>
       <c r="F44">
-        <v>-75.07762884230472</v>
+        <v>160262.5231817481</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>4083841085363200</v>
+        <v>124848850996923.6</v>
       </c>
       <c r="B45">
-        <v>0.004474562482786194</v>
+        <v>0.01461975788638812</v>
       </c>
       <c r="C45">
-        <v>25309981626342.92</v>
+        <v>13903111220282.04</v>
       </c>
       <c r="D45">
-        <v>10898.73818942913</v>
+        <v>1422993.675750405</v>
       </c>
       <c r="E45">
-        <v>25309981626342.92</v>
+        <v>13903111220282.04</v>
       </c>
       <c r="F45">
-        <v>-67.0782697991319</v>
+        <v>161441.8605444136</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>3931796094134536</v>
+        <v>123225942381581.2</v>
       </c>
       <c r="B46">
-        <v>0.004604013985881277</v>
+        <v>0.01463125090139391</v>
       </c>
       <c r="C46">
-        <v>25561888207319.68</v>
+        <v>13920610225998.61</v>
       </c>
       <c r="D46">
-        <v>10822.5775076698</v>
+        <v>1403944.294563025</v>
       </c>
       <c r="E46">
-        <v>25561888207319.68</v>
+        <v>13920610225998.61</v>
       </c>
       <c r="F46">
-        <v>-60.51243618856197</v>
+        <v>161846.8243395651</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>3786084023689706</v>
+        <v>120315067585346.8</v>
       </c>
       <c r="B47">
-        <v>0.004734078962993567</v>
+        <v>0.01465193040945571</v>
       </c>
       <c r="C47">
-        <v>25882878046627.08</v>
+        <v>14047849378459.76</v>
       </c>
       <c r="D47">
-        <v>10743.77302260176</v>
+        <v>1400488.007517455</v>
       </c>
       <c r="E47">
-        <v>25882878046627.08</v>
+        <v>14047849378459.76</v>
       </c>
       <c r="F47">
-        <v>-52.14522342696752</v>
+        <v>164791.3779703827</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>3643090760018314</v>
+        <v>117093785384984.8</v>
       </c>
       <c r="B48">
-        <v>0.004867839341746883</v>
+        <v>0.01467491445845337</v>
       </c>
       <c r="C48">
-        <v>26025004359815.68</v>
+        <v>14068015849953.44</v>
       </c>
       <c r="D48">
-        <v>10677.23553237261</v>
+        <v>1401356.565506011</v>
       </c>
       <c r="E48">
-        <v>26025004359815.68</v>
+        <v>14068015849953.44</v>
       </c>
       <c r="F48">
-        <v>-48.44016120127782</v>
+        <v>165258.0640100438</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>3506381731154168</v>
+        <v>115547009779243.2</v>
       </c>
       <c r="B49">
-        <v>0.005001792167236488</v>
+        <v>0.01468598841062406</v>
       </c>
       <c r="C49">
-        <v>26035243513523.36</v>
+        <v>14112730587464.26</v>
       </c>
       <c r="D49">
-        <v>10607.72248417727</v>
+        <v>1383145.752284825</v>
       </c>
       <c r="E49">
-        <v>26035243513523.36</v>
+        <v>14112730587464.26</v>
       </c>
       <c r="F49">
-        <v>-48.17323242177823</v>
+        <v>166292.8346885206</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>3374367062504356</v>
+        <v>112173091351693.4</v>
       </c>
       <c r="B50">
-        <v>0.005137171507461505</v>
+        <v>0.01471022954062221</v>
       </c>
       <c r="C50">
-        <v>26150102281906.08</v>
+        <v>14129211089946.91</v>
       </c>
       <c r="D50">
-        <v>10539.7136386863</v>
+        <v>1387751.030076686</v>
       </c>
       <c r="E50">
-        <v>26150102281906.08</v>
+        <v>14129211089946.91</v>
       </c>
       <c r="F50">
-        <v>-45.17887284727732</v>
+        <v>166674.2187918505</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>3248184316705182</v>
+        <v>109811168252288.3</v>
       </c>
       <c r="B51">
-        <v>0.005272484604612689</v>
+        <v>0.01472727077073341</v>
       </c>
       <c r="C51">
-        <v>26313801892838.2</v>
+        <v>14165738170646.95</v>
       </c>
       <c r="D51">
-        <v>10466.01264114461</v>
+        <v>1380953.255477071</v>
       </c>
       <c r="E51">
-        <v>26313801892838.2</v>
+        <v>14165738170646.95</v>
       </c>
       <c r="F51">
-        <v>-40.91105146969372</v>
+        <v>167519.5094791263</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>3126236257737620</v>
+        <v>107581042117861.6</v>
       </c>
       <c r="B52">
-        <v>0.005409121053395486</v>
+        <v>0.01474341571796814</v>
       </c>
       <c r="C52">
-        <v>26327338115151.88</v>
+        <v>14201725895258.25</v>
       </c>
       <c r="D52">
-        <v>10402.10491571942</v>
+        <v>1373410.004754454</v>
       </c>
       <c r="E52">
-        <v>26327338115151.88</v>
+        <v>14201725895258.25</v>
       </c>
       <c r="F52">
-        <v>-40.55813819442303</v>
+        <v>168352.3162480968</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>3006547824115050</v>
+        <v>105017977273753.6</v>
       </c>
       <c r="B53">
-        <v>0.005549206271390578</v>
+        <v>0.01476203745970605</v>
       </c>
       <c r="C53">
-        <v>26515588765050.81</v>
+        <v>14226511370864.73</v>
       </c>
       <c r="D53">
-        <v>10344.00357656405</v>
+        <v>1370656.931982964</v>
       </c>
       <c r="E53">
-        <v>26515588765050.81</v>
+        <v>14226511370864.73</v>
       </c>
       <c r="F53">
-        <v>-35.64995747352967</v>
+        <v>168925.8859207468</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>2892749272659504</v>
+        <v>103167682916453.8</v>
       </c>
       <c r="B54">
-        <v>0.005688256219152151</v>
+        <v>0.01477552543532626</v>
       </c>
       <c r="C54">
-        <v>26813343461958.93</v>
+        <v>14251762390701.24</v>
       </c>
       <c r="D54">
-        <v>10280.37451483513</v>
+        <v>1359428.39186655</v>
       </c>
       <c r="E54">
-        <v>26813343461958.93</v>
+        <v>14251762390701.24</v>
       </c>
       <c r="F54">
-        <v>-27.88614244968856</v>
+        <v>169510.2280116219</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>2781649507872554</v>
+        <v>100719320660902.7</v>
       </c>
       <c r="B55">
-        <v>0.005829879491847117</v>
+        <v>0.0147934317115886</v>
       </c>
       <c r="C55">
-        <v>27008284255170.68</v>
+        <v>14253311534481</v>
       </c>
       <c r="D55">
-        <v>10226.94573690169</v>
+        <v>1356626.261476964</v>
       </c>
       <c r="E55">
-        <v>27008284255170.68</v>
+        <v>14253311534481</v>
       </c>
       <c r="F55">
-        <v>-22.80276846317549</v>
+        <v>169546.0772261044</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>2674984006590737</v>
+        <v>99235799919194.25</v>
       </c>
       <c r="B56">
-        <v>0.005971661098130121</v>
+        <v>0.01480431443893717</v>
       </c>
       <c r="C56">
-        <v>27217122232169.8</v>
+        <v>14372489002984.34</v>
       </c>
       <c r="D56">
-        <v>10173.32329247311</v>
+        <v>1341630.355994701</v>
       </c>
       <c r="E56">
-        <v>27217122232169.8</v>
+        <v>14372489002984.34</v>
       </c>
       <c r="F56">
-        <v>-17.35666950744989</v>
+        <v>172303.9930887124</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>2573542998627381</v>
+        <v>99043905632826.47</v>
       </c>
       <c r="B57">
-        <v>0.006112115668993957</v>
+        <v>0.01480572395558096</v>
       </c>
       <c r="C57">
-        <v>27268506387139.22</v>
+        <v>14393077820249.5</v>
       </c>
       <c r="D57">
-        <v>10115.75633886309</v>
+        <v>1309988.512934208</v>
       </c>
       <c r="E57">
-        <v>27268506387139.22</v>
+        <v>14393077820249.5</v>
       </c>
       <c r="F57">
-        <v>-16.01661510875061</v>
+        <v>172780.4432995359</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>2474005041241582</v>
+        <v>96893887554107.48</v>
       </c>
       <c r="B58">
-        <v>0.006255592792252745</v>
+        <v>0.01482154533267617</v>
       </c>
       <c r="C58">
-        <v>27333863615418.04</v>
+        <v>14498687840643.58</v>
       </c>
       <c r="D58">
-        <v>10070.80714624527</v>
+        <v>1305112.553565606</v>
       </c>
       <c r="E58">
-        <v>27333863615418.04</v>
+        <v>14498687840643.58</v>
       </c>
       <c r="F58">
-        <v>-14.31212488352807</v>
+        <v>175224.3880960971</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>2378771667684477</v>
+        <v>94943755209494.78</v>
       </c>
       <c r="B59">
-        <v>0.006398435119373871</v>
+        <v>0.01483594215326839</v>
       </c>
       <c r="C59">
-        <v>27351536029329.08</v>
+        <v>14526453339288.31</v>
       </c>
       <c r="D59">
-        <v>10026.4835925214</v>
+        <v>1298110.586704582</v>
       </c>
       <c r="E59">
-        <v>27351536029329.08</v>
+        <v>14526453339288.31</v>
       </c>
       <c r="F59">
-        <v>-13.85122964675039</v>
+        <v>175866.9166678724</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>2286288464351894</v>
+        <v>93225170116093.42</v>
       </c>
       <c r="B60">
-        <v>0.006542685274216865</v>
+        <v>0.0148486666253137</v>
       </c>
       <c r="C60">
-        <v>27641619469041.97</v>
+        <v>14606515414884.36</v>
       </c>
       <c r="D60">
-        <v>9988.334380987873</v>
+        <v>1288648.088846087</v>
       </c>
       <c r="E60">
-        <v>27641619469041.97</v>
+        <v>14606515414884.36</v>
       </c>
       <c r="F60">
-        <v>-6.2855238527854</v>
+        <v>177719.658960179</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>2198178559372720</v>
+        <v>92058555103496.12</v>
       </c>
       <c r="B61">
-        <v>0.00668549067756594</v>
+        <v>0.0148573242948278</v>
       </c>
       <c r="C61">
-        <v>27942779563013.45</v>
+        <v>14710447479923.74</v>
       </c>
       <c r="D61">
-        <v>9937.136970472833</v>
+        <v>1272300.327264845</v>
       </c>
       <c r="E61">
-        <v>27942779563013.45</v>
+        <v>14710447479923.74</v>
       </c>
       <c r="F61">
-        <v>1.56977126006131</v>
+        <v>180124.8019082837</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>2112241255876359</v>
+        <v>88983208587368.06</v>
       </c>
       <c r="B62">
-        <v>0.006830129252206941</v>
+        <v>0.01488022569640467</v>
       </c>
       <c r="C62">
-        <v>28211857916490.56</v>
+        <v>14749406105951.8</v>
       </c>
       <c r="D62">
-        <v>9895.301308564876</v>
+        <v>1283291.370289151</v>
       </c>
       <c r="E62">
-        <v>28211857916490.56</v>
+        <v>14749406105951.8</v>
       </c>
       <c r="F62">
-        <v>8.588861170723735</v>
+        <v>181026.3696444166</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>2029623272358377</v>
+        <v>87015172320527</v>
       </c>
       <c r="B63">
-        <v>0.006974458342260227</v>
+        <v>0.01489494201192529</v>
       </c>
       <c r="C63">
-        <v>28391560818197.56</v>
+        <v>14860613835298.46</v>
       </c>
       <c r="D63">
-        <v>9850.593463101692</v>
+        <v>1279109.997902274</v>
       </c>
       <c r="E63">
-        <v>28391560818197.56</v>
+        <v>14860613835298.46</v>
       </c>
       <c r="F63">
-        <v>13.27684454914628</v>
+        <v>183599.9304404453</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1949575437835311</v>
+        <v>86322877120582.05</v>
       </c>
       <c r="B64">
-        <v>0.007119518063748015</v>
+        <v>0.01490013021195555</v>
       </c>
       <c r="C64">
-        <v>28402531428318.41</v>
+        <v>14931702118970.7</v>
       </c>
       <c r="D64">
-        <v>9812.032254815535</v>
+        <v>1256886.629483819</v>
       </c>
       <c r="E64">
-        <v>28402531428318.41</v>
+        <v>14931702118970.7</v>
       </c>
       <c r="F64">
-        <v>13.56304743223522</v>
+        <v>185245.0766479344</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1872684121509486</v>
+        <v>84414023812008.12</v>
       </c>
       <c r="B65">
-        <v>0.007263972239848063</v>
+        <v>0.01491446678195114</v>
       </c>
       <c r="C65">
-        <v>28412774793703.55</v>
+        <v>14984058673739.72</v>
       </c>
       <c r="D65">
-        <v>9773.826332648769</v>
+        <v>1253258.246689379</v>
       </c>
       <c r="E65">
-        <v>28412774793703.55</v>
+        <v>14984058673739.72</v>
       </c>
       <c r="F65">
-        <v>13.8302786855725</v>
+        <v>186456.743461407</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1798600166489854</v>
+        <v>83367559099750.16</v>
       </c>
       <c r="B66">
-        <v>0.007408159897784579</v>
+        <v>0.01492234597297416</v>
       </c>
       <c r="C66">
-        <v>28527109949222.27</v>
+        <v>15157397126190.04</v>
       </c>
       <c r="D66">
-        <v>9739.321396766729</v>
+        <v>1237253.148244619</v>
       </c>
       <c r="E66">
-        <v>28527109949222.27</v>
+        <v>15157397126190.04</v>
       </c>
       <c r="F66">
-        <v>16.81313514628477</v>
+        <v>190468.3624749028</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1727360489135714</v>
+        <v>81815061750824.72</v>
       </c>
       <c r="B67">
-        <v>0.007551703624971785</v>
+        <v>0.01493406120854049</v>
       </c>
       <c r="C67">
-        <v>28587633389059.54</v>
+        <v>15422928277907.07</v>
       </c>
       <c r="D67">
-        <v>9709.763243210717</v>
+        <v>1229515.329776078</v>
       </c>
       <c r="E67">
-        <v>28587633389059.54</v>
+        <v>15422928277907.07</v>
       </c>
       <c r="F67">
-        <v>18.39215417154789</v>
+        <v>196614.0755805827</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1657784703374570</v>
+        <v>79679778131700.34</v>
       </c>
       <c r="B68">
-        <v>0.007696777565464157</v>
+        <v>0.01495022550542919</v>
       </c>
       <c r="C68">
-        <v>28741254008233.3</v>
+        <v>15802288071215.58</v>
       </c>
       <c r="D68">
-        <v>9688.806257425844</v>
+        <v>1230881.730743408</v>
       </c>
       <c r="E68">
-        <v>28741254008233.3</v>
+        <v>15802288071215.58</v>
       </c>
       <c r="F68">
-        <v>22.40014708214572</v>
+        <v>205395.7004298085</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1591362016772076</v>
+        <v>79729187022740.16</v>
       </c>
       <c r="B69">
-        <v>0.007840022049859272</v>
+        <v>0.01494985079682141</v>
       </c>
       <c r="C69">
-        <v>29113965558299.62</v>
+        <v>16268764411413.63</v>
       </c>
       <c r="D69">
-        <v>9664.164162759604</v>
+        <v>1199639.272254944</v>
       </c>
       <c r="E69">
-        <v>29113965558299.62</v>
+        <v>16268764411413.63</v>
       </c>
       <c r="F69">
-        <v>32.12501593946308</v>
+        <v>216197.0899176095</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1526847639420598</v>
+        <v>77876449802380.5</v>
       </c>
       <c r="B70">
-        <v>0.007983825374943888</v>
+        <v>0.01496392389461321</v>
       </c>
       <c r="C70">
-        <v>29195640762737.58</v>
+        <v>16429762392562.01</v>
       </c>
       <c r="D70">
-        <v>9636.149480014798</v>
+        <v>1197780.567319494</v>
       </c>
       <c r="E70">
-        <v>29195640762737.58</v>
+        <v>16429762392562.01</v>
       </c>
       <c r="F70">
-        <v>34.25624388362809</v>
+        <v>219926.0952201681</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1465038326918108</v>
+        <v>76047483879204.34</v>
       </c>
       <c r="B71">
-        <v>0.008126146229917655</v>
+        <v>0.01497786176768525</v>
       </c>
       <c r="C71">
-        <v>29255076309577.95</v>
+        <v>16571184173690.46</v>
       </c>
       <c r="D71">
-        <v>9607.476956205401</v>
+        <v>1196043.326232046</v>
       </c>
       <c r="E71">
-        <v>29255076309577.95</v>
+        <v>16571184173690.46</v>
       </c>
       <c r="F71">
-        <v>35.80718331217385</v>
+        <v>223202.2129757711</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1405871118109769</v>
+        <v>75066371173731.34</v>
       </c>
       <c r="B72">
-        <v>0.008266767121878382</v>
+        <v>0.01498535729058281</v>
       </c>
       <c r="C72">
-        <v>29348012869675.54</v>
+        <v>16582606914447.16</v>
       </c>
       <c r="D72">
-        <v>9581.040408437508</v>
+        <v>1181943.226585299</v>
       </c>
       <c r="E72">
-        <v>29348012869675.54</v>
+        <v>16582606914447.16</v>
       </c>
       <c r="F72">
-        <v>38.23236770725338</v>
+        <v>223466.8506983972</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1348211993653792</v>
+        <v>71543098067336.83</v>
       </c>
       <c r="B73">
-        <v>0.008408138858226938</v>
+        <v>0.01501238498546408</v>
       </c>
       <c r="C73">
-        <v>29554941391059.1</v>
+        <v>16672682192249.41</v>
       </c>
       <c r="D73">
-        <v>9557.296549223733</v>
+        <v>1209603.321796417</v>
       </c>
       <c r="E73">
-        <v>29554941391059.1</v>
+        <v>16672682192249.41</v>
       </c>
       <c r="F73">
-        <v>43.63241255422827</v>
+        <v>225553.8089560524</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1293347035662358</v>
+        <v>70707247222222.52</v>
       </c>
       <c r="B74">
-        <v>0.008546831165382259</v>
+        <v>0.01501882276923841</v>
       </c>
       <c r="C74">
-        <v>30078440364537.71</v>
+        <v>16717876430399.04</v>
       </c>
       <c r="D74">
-        <v>9536.84550139682</v>
+        <v>1193534.888926506</v>
       </c>
       <c r="E74">
-        <v>30078440364537.71</v>
+        <v>16717876430399.04</v>
       </c>
       <c r="F74">
-        <v>57.29517395850851</v>
+        <v>226601.0048395846</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1240494574956385</v>
+        <v>71173518348712.95</v>
       </c>
       <c r="B75">
-        <v>0.008684472033057514</v>
+        <v>0.01501523027878299</v>
       </c>
       <c r="C75">
-        <v>30491033066925.84</v>
+        <v>16720866411636.71</v>
       </c>
       <c r="D75">
-        <v>9519.921610383673</v>
+        <v>1156952.518232822</v>
       </c>
       <c r="E75">
-        <v>30491033066925.84</v>
+        <v>16720866411636.71</v>
       </c>
       <c r="F75">
-        <v>68.06483989555319</v>
+        <v>226670.2878524023</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1188967235460020</v>
+        <v>69354980698468.52</v>
       </c>
       <c r="B76">
-        <v>0.008822659359841943</v>
+        <v>0.01502925938447795</v>
       </c>
       <c r="C76">
-        <v>30816843004611.89</v>
+        <v>16965149412159.88</v>
       </c>
       <c r="D76">
-        <v>9507.080662349263</v>
+        <v>1158609.968640869</v>
       </c>
       <c r="E76">
-        <v>30816843004611.89</v>
+        <v>16965149412159.88</v>
       </c>
       <c r="F76">
-        <v>76.57015521424958</v>
+        <v>232331.6984759946</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1138596381769400</v>
+        <v>67642212183976.41</v>
       </c>
       <c r="B77">
-        <v>0.008961743561500361</v>
+        <v>0.01504251671038411</v>
       </c>
       <c r="C77">
-        <v>31044828334490.59</v>
+        <v>17056496711093.06</v>
       </c>
       <c r="D77">
-        <v>9493.972200998887</v>
+        <v>1158825.097010374</v>
       </c>
       <c r="E77">
-        <v>31044828334490.59</v>
+        <v>17056496711093.06</v>
       </c>
       <c r="F77">
-        <v>82.52220880036174</v>
+        <v>234449.2449857194</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1090723451320795</v>
+        <v>67138744381526.58</v>
       </c>
       <c r="B78">
-        <v>0.009097768847448532</v>
+        <v>0.01504642196142756</v>
       </c>
       <c r="C78">
-        <v>31169320757394.66</v>
+        <v>17414130777291.58</v>
       </c>
       <c r="D78">
-        <v>9475.387203651229</v>
+        <v>1138610.417076111</v>
       </c>
       <c r="E78">
-        <v>31169320757394.66</v>
+        <v>17414130777291.58</v>
       </c>
       <c r="F78">
-        <v>85.77251512706424</v>
+        <v>242742.724603682</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1044825682958164</v>
+        <v>67250679041764.27</v>
       </c>
       <c r="B79">
-        <v>0.009231859149748391</v>
+        <v>0.01504555339033254</v>
       </c>
       <c r="C79">
-        <v>31202764077425.25</v>
+        <v>17456781724766.13</v>
       </c>
       <c r="D79">
-        <v>9466.704199841921</v>
+        <v>1109368.254330635</v>
       </c>
       <c r="E79">
-        <v>31202764077425.25</v>
+        <v>17456781724766.13</v>
       </c>
       <c r="F79">
-        <v>86.64568821850956</v>
+        <v>243732.1487110809</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>999184125422584.4</v>
+        <v>65907164195784.78</v>
       </c>
       <c r="B80">
-        <v>0.009368936399898515</v>
+        <v>0.01505599098540287</v>
       </c>
       <c r="C80">
-        <v>31325596730133.56</v>
+        <v>17596370888543.23</v>
       </c>
       <c r="D80">
-        <v>9461.670944890157</v>
+        <v>1104497.583425403</v>
       </c>
       <c r="E80">
-        <v>31325596730133.56</v>
+        <v>17596370888543.23</v>
       </c>
       <c r="F80">
-        <v>89.85280118471263</v>
+        <v>246970.9409023341</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>956763909996786.2</v>
+        <v>65466226134209.41</v>
       </c>
       <c r="B81">
-        <v>0.009499831337824944</v>
+        <v>0.01505942251978028</v>
       </c>
       <c r="C81">
-        <v>31704415403421.8</v>
+        <v>18266974354028.18</v>
       </c>
       <c r="D81">
-        <v>9432.235618043705</v>
+        <v>1084893.936525345</v>
       </c>
       <c r="E81">
-        <v>31704415403421.8</v>
+        <v>18266974354028.18</v>
       </c>
       <c r="F81">
-        <v>99.74429989264122</v>
+        <v>262544.6337514432</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>915438089545827.1</v>
+        <v>63699127639060.09</v>
       </c>
       <c r="B82">
-        <v>0.009630731118382611</v>
+        <v>0.01507320455522619</v>
       </c>
       <c r="C82">
-        <v>32083080385722</v>
+        <v>18731994290988.22</v>
       </c>
       <c r="D82">
-        <v>9428.433931744907</v>
+        <v>1088479.80745618</v>
       </c>
       <c r="E82">
-        <v>32083080385722</v>
+        <v>18731994290988.22</v>
       </c>
       <c r="F82">
-        <v>109.6328214853949</v>
+        <v>273360.5141287747</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>874348430779914.2</v>
+        <v>61556629729796.15</v>
       </c>
       <c r="B83">
-        <v>0.009764339669137225</v>
+        <v>0.01508997957586311</v>
       </c>
       <c r="C83">
-        <v>32377877272554.11</v>
+        <v>18973610976160.11</v>
       </c>
       <c r="D83">
-        <v>9430.533603771515</v>
+        <v>1098849.733992636</v>
       </c>
       <c r="E83">
-        <v>32377877272554.11</v>
+        <v>18973610976160.11</v>
       </c>
       <c r="F83">
-        <v>117.331910124228</v>
+        <v>278986.6741825895</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>836523408937987.1</v>
+        <v>60908250404301</v>
       </c>
       <c r="B84">
-        <v>0.009890514057269258</v>
+        <v>0.01509507048653188</v>
       </c>
       <c r="C84">
-        <v>32603299916251.32</v>
+        <v>18978311342883.29</v>
       </c>
       <c r="D84">
-        <v>9421.643834369652</v>
+        <v>1083668.13047123</v>
       </c>
       <c r="E84">
-        <v>32603299916251.32</v>
+        <v>18978311342883.29</v>
       </c>
       <c r="F84">
-        <v>123.2195991462153</v>
+        <v>279096.1719122098</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>800309135983716</v>
+        <v>61349626148968.88</v>
       </c>
       <c r="B85">
-        <v>0.01001429652600698</v>
+        <v>0.01509160418577255</v>
       </c>
       <c r="C85">
-        <v>32718523864295.56</v>
+        <v>19034457830843.92</v>
       </c>
       <c r="D85">
-        <v>9420.099995810273</v>
+        <v>1049932.360203743</v>
       </c>
       <c r="E85">
-        <v>32718523864295.56</v>
+        <v>19034457830843.92</v>
       </c>
       <c r="F85">
-        <v>126.2292092546398</v>
+        <v>280404.2816509523</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>764234267732207.5</v>
+        <v>60555492819368.81</v>
       </c>
       <c r="B86">
-        <v>0.01014062486735481</v>
+        <v>0.01509784308025726</v>
       </c>
       <c r="C86">
-        <v>32939721925868.42</v>
+        <v>19255685221153.16</v>
       </c>
       <c r="D86">
-        <v>9442.956976272757</v>
+        <v>1038379.504265189</v>
       </c>
       <c r="E86">
-        <v>32939721925868.42</v>
+        <v>19255685221153.16</v>
       </c>
       <c r="F86">
-        <v>132.007091037545</v>
+        <v>285561.1703594261</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>728829919194355.4</v>
+        <v>59695410378452.99</v>
       </c>
       <c r="B87">
-        <v>0.01026766291166054</v>
+        <v>0.01510461155371427</v>
       </c>
       <c r="C87">
-        <v>33233450291350.46</v>
+        <v>19464414611999.63</v>
       </c>
       <c r="D87">
-        <v>9455.197992387391</v>
+        <v>1028026.905850172</v>
       </c>
       <c r="E87">
-        <v>33233450291350.46</v>
+        <v>19464414611999.63</v>
       </c>
       <c r="F87">
-        <v>139.6800611241583</v>
+        <v>290430.9040653161</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>696523571073339.5</v>
+        <v>59428507451401.23</v>
       </c>
       <c r="B88">
-        <v>0.01038633898145056</v>
+        <v>0.01510671440663269</v>
       </c>
       <c r="C88">
-        <v>33646949414603.96</v>
+        <v>19536173991842.96</v>
       </c>
       <c r="D88">
-        <v>9435.53782509443</v>
+        <v>1007931.093604803</v>
       </c>
       <c r="E88">
-        <v>33646949414603.96</v>
+        <v>19536173991842.96</v>
       </c>
       <c r="F88">
-        <v>150.4827931464846</v>
+        <v>292106.0689700514</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>665879747392639.4</v>
+        <v>57957609553274.98</v>
       </c>
       <c r="B89">
-        <v>0.0105014360829695</v>
+        <v>0.01511832418351138</v>
       </c>
       <c r="C89">
-        <v>33833899106878.49</v>
+        <v>19546132123965.84</v>
       </c>
       <c r="D89">
-        <v>9418.727191732138</v>
+        <v>1008947.655828217</v>
       </c>
       <c r="E89">
-        <v>33833899106878.49</v>
+        <v>19546132123965.84</v>
       </c>
       <c r="F89">
-        <v>155.3672778357622</v>
+        <v>292338.5749707531</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>635533791976828.6</v>
+        <v>56577395851250.13</v>
       </c>
       <c r="B90">
-        <v>0.01061793680951223</v>
+        <v>0.01512925092753522</v>
       </c>
       <c r="C90">
-        <v>33884689037697.47</v>
+        <v>19593970480004.84</v>
       </c>
       <c r="D90">
-        <v>9412.380266975628</v>
+        <v>1008396.69559407</v>
       </c>
       <c r="E90">
-        <v>33884689037697.47</v>
+        <v>19593970480004.84</v>
       </c>
       <c r="F90">
-        <v>156.6943221605905</v>
+        <v>293455.6646598943</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>606675190917306.6</v>
+        <v>55168541083730.46</v>
       </c>
       <c r="B91">
-        <v>0.01073114786753799</v>
+        <v>0.01514043770779742</v>
       </c>
       <c r="C91">
-        <v>33907663769064.23</v>
+        <v>19747044139277.56</v>
       </c>
       <c r="D91">
-        <v>9397.37397157084</v>
+        <v>1009493.765910372</v>
       </c>
       <c r="E91">
-        <v>33907663769064.23</v>
+        <v>19747044139277.56</v>
       </c>
       <c r="F91">
-        <v>157.2946141244584</v>
+        <v>297031.7645996727</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>578290175725276.2</v>
+        <v>53533721338891.17</v>
       </c>
       <c r="B92">
-        <v>0.01084489393913867</v>
+        <v>0.01515346172278961</v>
       </c>
       <c r="C92">
-        <v>33962406560906.62</v>
+        <v>19825489343419.4</v>
       </c>
       <c r="D92">
-        <v>9390.884737939048</v>
+        <v>1015437.807369858</v>
       </c>
       <c r="E92">
-        <v>33962406560906.62</v>
+        <v>19825489343419.4</v>
       </c>
       <c r="F92">
-        <v>158.7249681286683</v>
+        <v>298865.386560866</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>550871586702778.9</v>
+        <v>52725591477346.57</v>
       </c>
       <c r="B93">
-        <v>0.01095710920909036</v>
+        <v>0.01515991716195944</v>
       </c>
       <c r="C93">
-        <v>33987531491572.89</v>
+        <v>19872309801257.06</v>
       </c>
       <c r="D93">
-        <v>9381.881481825299</v>
+        <v>1006104.437242508</v>
       </c>
       <c r="E93">
-        <v>33987531491572.89</v>
+        <v>19872309801257.06</v>
       </c>
       <c r="F93">
-        <v>159.3814550745686</v>
+        <v>299960.1227833747</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>523944114565467.4</v>
+        <v>52962080037503.96</v>
       </c>
       <c r="B94">
-        <v>0.01106964315808049</v>
+        <v>0.01515802686155666</v>
       </c>
       <c r="C94">
-        <v>34211704827407.74</v>
+        <v>19908401047607.57</v>
       </c>
       <c r="D94">
-        <v>9376.381770966676</v>
+        <v>978080.5715565681</v>
       </c>
       <c r="E94">
-        <v>34211704827407.74</v>
+        <v>19908401047607.57</v>
       </c>
       <c r="F94">
-        <v>165.2390536679668</v>
+        <v>300804.1636433914</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>499158586091857.4</v>
+        <v>51704406327880.6</v>
       </c>
       <c r="B95">
-        <v>0.01117534488205561</v>
+        <v>0.01516809121035057</v>
       </c>
       <c r="C95">
-        <v>34525958978036.06</v>
+        <v>20069371437399.89</v>
       </c>
       <c r="D95">
-        <v>9351.837540926841</v>
+        <v>977931.1046700478</v>
       </c>
       <c r="E95">
-        <v>34525958978036.06</v>
+        <v>20069371437399.89</v>
       </c>
       <c r="F95">
-        <v>173.451031513079</v>
+        <v>304570.5193983064</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>476337175731064.1</v>
+        <v>51973842044334.68</v>
       </c>
       <c r="B96">
-        <v>0.01127453489468883</v>
+        <v>0.01516593269556806</v>
       </c>
       <c r="C96">
-        <v>34936805045113.99</v>
+        <v>20213211985678.32</v>
       </c>
       <c r="D96">
-        <v>9318.729483373842</v>
+        <v>949938.9029464722</v>
       </c>
       <c r="E96">
-        <v>34936805045113.99</v>
+        <v>20213211985678.32</v>
       </c>
       <c r="F96">
-        <v>184.1881463769881</v>
+        <v>307938.7244259025</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>455096632648999.9</v>
+        <v>51739920020736.02</v>
       </c>
       <c r="B97">
-        <v>0.01136851813805257</v>
+        <v>0.01516780662638775</v>
       </c>
       <c r="C97">
-        <v>35124252781022.85</v>
+        <v>20304681534436.46</v>
       </c>
       <c r="D97">
-        <v>9306.669055829319</v>
+        <v>931843.0335841179</v>
       </c>
       <c r="E97">
-        <v>35124252781022.85</v>
+        <v>20304681534436.46</v>
       </c>
       <c r="F97">
-        <v>189.0873215822751</v>
+        <v>310081.9494293815</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>432979039632453.4</v>
+        <v>50936846595497.39</v>
       </c>
       <c r="B98">
-        <v>0.0114681485490565</v>
+        <v>0.01517424754760087</v>
       </c>
       <c r="C98">
-        <v>35573882089199.88</v>
+        <v>21108530103379.05</v>
       </c>
       <c r="D98">
-        <v>9351.437478552931</v>
+        <v>924570.5675804317</v>
       </c>
       <c r="E98">
-        <v>35573882089199.88</v>
+        <v>21108530103379.05</v>
       </c>
       <c r="F98">
-        <v>200.8399169715243</v>
+        <v>328966.6726221712</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>412293558034980.1</v>
+        <v>49728596716330.84</v>
       </c>
       <c r="B99">
-        <v>0.01156301737319351</v>
+        <v>0.01518396043919856</v>
       </c>
       <c r="C99">
-        <v>36085445747792.2</v>
+        <v>21504314343474.5</v>
       </c>
       <c r="D99">
-        <v>9313.724263791228</v>
+        <v>924591.5551166534</v>
       </c>
       <c r="E99">
-        <v>36085445747792.2</v>
+        <v>21504314343474.5</v>
       </c>
       <c r="F99">
-        <v>214.2130629038018</v>
+        <v>338301.3539406481</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>392725450812608.8</v>
+        <v>49678664336232.3</v>
       </c>
       <c r="B100">
-        <v>0.01165431897078856</v>
+        <v>0.01518436241905766</v>
       </c>
       <c r="C100">
-        <v>36626302005029.19</v>
+        <v>21674033518695.8</v>
       </c>
       <c r="D100">
-        <v>9309.920953051656</v>
+        <v>903455.8722648621</v>
       </c>
       <c r="E100">
-        <v>36626302005029.19</v>
+        <v>21674033518695.8</v>
       </c>
       <c r="F100">
-        <v>228.3539102329785</v>
+        <v>342312.4251482114</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>373938219503656.2</v>
+        <v>48843977276052.21</v>
       </c>
       <c r="B101">
-        <v>0.01174345227403679</v>
+        <v>0.01519108897899265</v>
       </c>
       <c r="C101">
-        <v>36936571362256.73</v>
+        <v>21816268932812.15</v>
       </c>
       <c r="D101">
-        <v>9290.778047115749</v>
+        <v>897790.6284637898</v>
       </c>
       <c r="E101">
-        <v>36936571362256.73</v>
+        <v>21816268932812.15</v>
       </c>
       <c r="F101">
-        <v>236.466893286711</v>
+        <v>345677.9345215067</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>356045419942983.5</v>
+        <v>47195901403880.27</v>
       </c>
       <c r="B102">
-        <v>0.01182973260925547</v>
+        <v>0.01520440934452359</v>
       </c>
       <c r="C102">
-        <v>37345150031723.59</v>
+        <v>22118575788118.38</v>
       </c>
       <c r="D102">
-        <v>9282.389469744689</v>
+        <v>907023.704048872</v>
       </c>
       <c r="E102">
-        <v>37345150031723.59</v>
+        <v>22118575788118.38</v>
       </c>
       <c r="F102">
-        <v>247.1514843770008</v>
+        <v>352843.503664321</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>337957898883138.8</v>
+        <v>46967853601799.51</v>
       </c>
       <c r="B103">
-        <v>0.01191837949768378</v>
+        <v>0.01520625663666152</v>
       </c>
       <c r="C103">
-        <v>37631002800130.23</v>
+        <v>22199218744028.68</v>
       </c>
       <c r="D103">
-        <v>9228.930195689318</v>
+        <v>890106.3627023697</v>
       </c>
       <c r="E103">
-        <v>37631002800130.23</v>
+        <v>22199218744028.68</v>
       </c>
       <c r="F103">
-        <v>254.6273883717986</v>
+        <v>354757.9483900424</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>321101843771784.2</v>
+        <v>45699553349635.45</v>
       </c>
       <c r="B104">
-        <v>0.01200232882636995</v>
+        <v>0.01521654906269964</v>
       </c>
       <c r="C104">
-        <v>37980783027057</v>
+        <v>22323750307393.85</v>
       </c>
       <c r="D104">
-        <v>9188.259311018875</v>
+        <v>893279.4324207306</v>
       </c>
       <c r="E104">
-        <v>37980783027057</v>
+        <v>22323750307393.85</v>
       </c>
       <c r="F104">
-        <v>263.7759393517945</v>
+        <v>357716.8218418779</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>305370628082598.9</v>
+        <v>45768216925127.66</v>
       </c>
       <c r="B105">
-        <v>0.01208188158647246</v>
+        <v>0.01521599103444939</v>
       </c>
       <c r="C105">
-        <v>37998575943414.02</v>
+        <v>22773478900906.6</v>
       </c>
       <c r="D105">
-        <v>9109.945433775429</v>
+        <v>870879.2173652649</v>
       </c>
       <c r="E105">
-        <v>37998575943414.02</v>
+        <v>22773478900906.6</v>
       </c>
       <c r="F105">
-        <v>264.2413377172484</v>
+        <v>368428.6985344013</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>289722815119145.8</v>
+        <v>45076611065199.88</v>
       </c>
       <c r="B106">
-        <v>0.01216220776402526</v>
+        <v>0.01522161601271451</v>
       </c>
       <c r="C106">
-        <v>38283332951356.33</v>
+        <v>22961023447633.34</v>
       </c>
       <c r="D106">
-        <v>9109.934238885631</v>
+        <v>863644.2951850891</v>
       </c>
       <c r="E106">
-        <v>38283332951356.33</v>
+        <v>22961023447633.34</v>
       </c>
       <c r="F106">
-        <v>271.6898431199845</v>
+        <v>372908.2964438252</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>275643148422112.7</v>
+        <v>45100908474429.39</v>
       </c>
       <c r="B107">
-        <v>0.01223553795153329</v>
+        <v>0.01522141823417259</v>
       </c>
       <c r="C107">
-        <v>38573985555108.7</v>
+        <v>23139427758196.73</v>
       </c>
       <c r="D107">
-        <v>9023.359198843711</v>
+        <v>842775.0930671692</v>
       </c>
       <c r="E107">
-        <v>38573985555108.7</v>
+        <v>23139427758196.73</v>
       </c>
       <c r="F107">
-        <v>279.2931280113395</v>
+        <v>377176.6228178809</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>261990053376101.2</v>
+        <v>44697506223774.85</v>
       </c>
       <c r="B108">
-        <v>0.01230763254906304</v>
+        <v>0.01522470343148854</v>
       </c>
       <c r="C108">
-        <v>39028251133822.05</v>
+        <v>23720125137368.04</v>
       </c>
       <c r="D108">
-        <v>8959.250265767972</v>
+        <v>830987.127538085</v>
       </c>
       <c r="E108">
-        <v>39028251133822.05</v>
+        <v>23720125137368.04</v>
       </c>
       <c r="F108">
-        <v>291.1775685595956</v>
+        <v>391118.2634804914</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>249993206049636.6</v>
+        <v>43200151137153.55</v>
       </c>
       <c r="B109">
-        <v>0.01237180905040897</v>
+        <v>0.01523692649999239</v>
       </c>
       <c r="C109">
-        <v>39172366093281.34</v>
+        <v>24152557848700.85</v>
       </c>
       <c r="D109">
-        <v>8906.032731302039</v>
+        <v>839591.0174185336</v>
       </c>
       <c r="E109">
-        <v>39172366093281.34</v>
+        <v>24152557848700.85</v>
       </c>
       <c r="F109">
-        <v>294.9481786689168</v>
+        <v>401548.5770415188</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>237537533457105.8</v>
+        <v>42516349105641.3</v>
       </c>
       <c r="B110">
-        <v>0.01243928608955193</v>
+        <v>0.0152425238905842</v>
       </c>
       <c r="C110">
-        <v>39467183598195.88</v>
+        <v>24308604917317.96</v>
       </c>
       <c r="D110">
-        <v>8914.508419780577</v>
+        <v>832785.8036978841</v>
       </c>
       <c r="E110">
-        <v>39467183598195.88</v>
+        <v>24308604917317.96</v>
       </c>
       <c r="F110">
-        <v>302.6621947459818</v>
+        <v>405322.3608551385</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>225819124797055</v>
+        <v>41661995643855.09</v>
       </c>
       <c r="B111">
-        <v>0.01250358166041956</v>
+        <v>0.01524953122052363</v>
       </c>
       <c r="C111">
-        <v>39604279801634.46</v>
+        <v>25136583224141.19</v>
       </c>
       <c r="D111">
-        <v>8876.204849826914</v>
+        <v>829775.4934561253</v>
       </c>
       <c r="E111">
-        <v>39604279801634.46</v>
+        <v>25136583224141.19</v>
       </c>
       <c r="F111">
-        <v>306.249571899036</v>
+        <v>425427.0485034528</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>215299076892669.9</v>
+        <v>41457437584547.81</v>
       </c>
       <c r="B112">
-        <v>0.012561995147045</v>
+        <v>0.01525121129636268</v>
       </c>
       <c r="C112">
-        <v>39702716133164.2</v>
+        <v>25391384564371.93</v>
       </c>
       <c r="D112">
-        <v>8829.122075941763</v>
+        <v>813996.716782093</v>
       </c>
       <c r="E112">
-        <v>39702716133164.2</v>
+        <v>25391384564371.93</v>
       </c>
       <c r="F112">
-        <v>308.8254203890638</v>
+        <v>431638.1690779793</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>204746014249437.3</v>
+        <v>40832318915034.16</v>
       </c>
       <c r="B113">
-        <v>0.01262127197871361</v>
+        <v>0.01525635110770684</v>
       </c>
       <c r="C113">
-        <v>40058783542966.36</v>
+        <v>25407817758252.93</v>
       </c>
       <c r="D113">
-        <v>8801.402833525121</v>
+        <v>807246.3823411465</v>
       </c>
       <c r="E113">
-        <v>40058783542966.36</v>
+        <v>25407817758252.93</v>
       </c>
       <c r="F113">
-        <v>318.1434222016734</v>
+        <v>432039.0758110884</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>195082097636152.4</v>
+        <v>40319544192966.69</v>
       </c>
       <c r="B114">
-        <v>0.01267617085450666</v>
+        <v>0.01526057355259063</v>
       </c>
       <c r="C114">
-        <v>40077789631105.46</v>
+        <v>25741348852789.18</v>
       </c>
       <c r="D114">
-        <v>8711.979590796051</v>
+        <v>798123.9037458897</v>
       </c>
       <c r="E114">
-        <v>40077789631105.46</v>
+        <v>25741348852789.18</v>
       </c>
       <c r="F114">
-        <v>318.6408207522069</v>
+        <v>440183.3092984678</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>186232811905281.9</v>
+        <v>40157047686846.11</v>
       </c>
       <c r="B115">
-        <v>0.01272697508959572</v>
+        <v>0.01526191283306679</v>
       </c>
       <c r="C115">
-        <v>40152127690463.68</v>
+        <v>26004737922508.46</v>
       </c>
       <c r="D115">
-        <v>8576.082871859253</v>
+        <v>782821.6914615631</v>
       </c>
       <c r="E115">
-        <v>40152127690463.68</v>
+        <v>26004737922508.46</v>
       </c>
       <c r="F115">
-        <v>320.5863075209311</v>
+        <v>446622.91223208</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>177948796196271.4</v>
+        <v>39947913371631.24</v>
       </c>
       <c r="B116">
-        <v>0.01277500996927563</v>
+        <v>0.0152636373545555</v>
       </c>
       <c r="C116">
-        <v>40215554961158.7</v>
+        <v>26031209511685.87</v>
       </c>
       <c r="D116">
-        <v>8473.838547043037</v>
+        <v>768867.628868103</v>
       </c>
       <c r="E116">
-        <v>40215554961158.7</v>
+        <v>26031209511685.87</v>
       </c>
       <c r="F116">
-        <v>322.2462800127789</v>
+        <v>447270.4170308383</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>170634582849712.6</v>
+        <v>39968732228508.74</v>
       </c>
       <c r="B117">
-        <v>0.01281781505919358</v>
+        <v>0.01526346563895384</v>
       </c>
       <c r="C117">
-        <v>40221836668893.72</v>
+        <v>26067307177167.93</v>
       </c>
       <c r="D117">
-        <v>8477.296384203975</v>
+        <v>750894.3757553101</v>
       </c>
       <c r="E117">
-        <v>40221836668893.72</v>
+        <v>26067307177167.93</v>
       </c>
       <c r="F117">
-        <v>322.4106818040141</v>
+        <v>448153.4521286572</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>162843496792994.3</v>
+        <v>39519549013921.67</v>
       </c>
       <c r="B118">
-        <v>0.01286382876207484</v>
+        <v>0.01526717267301829</v>
       </c>
       <c r="C118">
-        <v>40586905854350.98</v>
+        <v>26314666547576.62</v>
       </c>
       <c r="D118">
-        <v>8420.695043581363</v>
+        <v>742096.746340096</v>
       </c>
       <c r="E118">
-        <v>40586905854350.98</v>
+        <v>26314666547576.62</v>
       </c>
       <c r="F118">
-        <v>331.9655583849938</v>
+        <v>454206.2408780904</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>155803726844270.9</v>
+        <v>39073779023868.68</v>
       </c>
       <c r="B119">
-        <v>0.01290578654628999</v>
+        <v>0.01527085599064968</v>
       </c>
       <c r="C119">
-        <v>40794190403163.78</v>
+        <v>26390034955884.71</v>
       </c>
       <c r="D119">
-        <v>8243.795599559788</v>
+        <v>733358.4629033208</v>
       </c>
       <c r="E119">
-        <v>40794190403163.78</v>
+        <v>26390034955884.71</v>
       </c>
       <c r="F119">
-        <v>337.3911789061596</v>
+        <v>456050.9035230315</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>149140977987222</v>
+        <v>37941548040637.05</v>
       </c>
       <c r="B120">
-        <v>0.01294584041737425</v>
+        <v>0.01528023162907704</v>
       </c>
       <c r="C120">
-        <v>41149529087951.37</v>
+        <v>26456906905037.07</v>
       </c>
       <c r="D120">
-        <v>8103.278407202975</v>
+        <v>737746.2427082062</v>
       </c>
       <c r="E120">
-        <v>41149529087951.37</v>
+        <v>26456906905037.07</v>
       </c>
       <c r="F120">
-        <v>346.6927678234914</v>
+        <v>457687.697257535</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>142653597188146.7</v>
+        <v>37625747340536.33</v>
       </c>
       <c r="B121">
-        <v>0.01298516993720663</v>
+        <v>0.01528285191502078</v>
       </c>
       <c r="C121">
-        <v>41603865692756.41</v>
+        <v>26484164396343.38</v>
       </c>
       <c r="D121">
-        <v>8034.329094922636</v>
+        <v>726244.2740859985</v>
       </c>
       <c r="E121">
-        <v>41603865692756.41</v>
+        <v>26484164396343.38</v>
       </c>
       <c r="F121">
-        <v>358.5870689144861</v>
+        <v>458354.8793101317</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>135910482499182.3</v>
+        <v>37782555835040.84</v>
       </c>
       <c r="B122">
-        <v>0.01302640509482678</v>
+        <v>0.01528155054306319</v>
       </c>
       <c r="C122">
-        <v>42222067698656.21</v>
+        <v>26830097561937.04</v>
       </c>
       <c r="D122">
-        <v>7993.137440113584</v>
+        <v>706375.8437747955</v>
       </c>
       <c r="E122">
-        <v>42222067698656.21</v>
+        <v>26830097561937.04</v>
       </c>
       <c r="F122">
-        <v>374.773601231595</v>
+        <v>466717.5422623563</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>129810280867886.2</v>
+        <v>37695062786461.6</v>
       </c>
       <c r="B123">
-        <v>0.01306403020238393</v>
+        <v>0.01528227658778258</v>
       </c>
       <c r="C123">
-        <v>42843510863306.12</v>
+        <v>27654420071114.45</v>
       </c>
       <c r="D123">
-        <v>7817.960156431422</v>
+        <v>691648.7258987427</v>
       </c>
       <c r="E123">
-        <v>42843510863306.12</v>
+        <v>27654420071114.45</v>
       </c>
       <c r="F123">
-        <v>391.0477244433379</v>
+        <v>485278.6937027799</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>123921598162353.8</v>
+        <v>37168841404151.27</v>
       </c>
       <c r="B124">
-        <v>0.01310064933069385</v>
+        <v>0.01528664709235901</v>
       </c>
       <c r="C124">
-        <v>42882198561044.48</v>
+        <v>28443065550606.21</v>
       </c>
       <c r="D124">
-        <v>7562.452030846383</v>
+        <v>685313.9165426493</v>
       </c>
       <c r="E124">
-        <v>42882198561044.48</v>
+        <v>28443065550606.21</v>
       </c>
       <c r="F124">
-        <v>392.0609548565462</v>
+        <v>502739.8276615466</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>119181460531032.4</v>
+        <v>36464553360598.28</v>
       </c>
       <c r="B125">
-        <v>0.01313034546573254</v>
+        <v>0.015292506692317</v>
       </c>
       <c r="C125">
-        <v>43059224593136.91</v>
+        <v>28949909642156.68</v>
       </c>
       <c r="D125">
-        <v>7280.236802867847</v>
+        <v>682631.7129567564</v>
       </c>
       <c r="E125">
-        <v>43059224593136.91</v>
+        <v>28949909642156.68</v>
       </c>
       <c r="F125">
-        <v>396.6974024016609</v>
+        <v>513783.8704099887</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>114623964706095.1</v>
+        <v>35647109208484.89</v>
       </c>
       <c r="B126">
-        <v>0.0131590869178087</v>
+        <v>0.01529932255974599</v>
       </c>
       <c r="C126">
-        <v>43398541470007.65</v>
+        <v>29265612230913.68</v>
       </c>
       <c r="D126">
-        <v>7091.766580023686</v>
+        <v>682148.546769619</v>
       </c>
       <c r="E126">
-        <v>43398541470007.65</v>
+        <v>29265612230913.68</v>
       </c>
       <c r="F126">
-        <v>405.5850060680491</v>
+        <v>520831.7426629174</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>110336544361048.7</v>
+        <v>35418199503408.63</v>
       </c>
       <c r="B127">
-        <v>0.01318629916535364</v>
+        <v>0.01530123410518278</v>
       </c>
       <c r="C127">
-        <v>43568111912754.59</v>
+        <v>29357907329813.83</v>
       </c>
       <c r="D127">
-        <v>7038.453277437366</v>
+        <v>670768.1546727419</v>
       </c>
       <c r="E127">
-        <v>43568111912754.59</v>
+        <v>29357907329813.83</v>
       </c>
       <c r="F127">
-        <v>410.0268176646419</v>
+        <v>522822.1707529371</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>106100925370672</v>
+        <v>34719933731738.58</v>
       </c>
       <c r="B128">
-        <v>0.01321335257882616</v>
+        <v>0.01530707299943466</v>
       </c>
       <c r="C128">
-        <v>43856017354907.61</v>
+        <v>29403571846488.67</v>
       </c>
       <c r="D128">
-        <v>6966.130154973362</v>
+        <v>668405.453028094</v>
       </c>
       <c r="E128">
-        <v>43856017354907.61</v>
+        <v>29403571846488.67</v>
       </c>
       <c r="F128">
-        <v>417.5688386560815</v>
+        <v>523805.8469844536</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>102351498778488.3</v>
+        <v>33844015967481.85</v>
       </c>
       <c r="B129">
-        <v>0.01323744515355823</v>
+        <v>0.01531441452357356</v>
       </c>
       <c r="C129">
-        <v>44317414593559.98</v>
+        <v>29604124248702.64</v>
       </c>
       <c r="D129">
-        <v>6762.246857420076</v>
+        <v>669675.5513103344</v>
       </c>
       <c r="E129">
-        <v>44317414593559.98</v>
+        <v>29604124248702.64</v>
       </c>
       <c r="F129">
-        <v>429.6569650800091</v>
+        <v>528117.3598070787</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>99238976847365.52</v>
+        <v>33023738149864.7</v>
       </c>
       <c r="B130">
-        <v>0.01325755076397278</v>
+        <v>0.01532130729226</v>
       </c>
       <c r="C130">
-        <v>45298626771594.02</v>
+        <v>29701992042749.9</v>
       </c>
       <c r="D130">
-        <v>6470.206000718288</v>
+        <v>669752.0482800007</v>
       </c>
       <c r="E130">
-        <v>45298626771594.02</v>
+        <v>29701992042749.9</v>
       </c>
       <c r="F130">
-        <v>455.3690710487888</v>
+        <v>530216.3339806787</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>96125784997155.91</v>
+        <v>32646363363003.19</v>
       </c>
       <c r="B131">
-        <v>0.01327775865266496</v>
+        <v>0.01532448417255034</v>
       </c>
       <c r="C131">
-        <v>45847252918714.72</v>
+        <v>29856606219132.68</v>
       </c>
       <c r="D131">
-        <v>6156.967195787001</v>
+        <v>661317.7862226963</v>
       </c>
       <c r="E131">
-        <v>45847252918714.72</v>
+        <v>29856606219132.68</v>
       </c>
       <c r="F131">
-        <v>469.7487759718707</v>
+        <v>533551.2781264947</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>93282559951104.88</v>
+        <v>32366332185506.1</v>
       </c>
       <c r="B132">
-        <v>0.01329630156732153</v>
+        <v>0.01532684397492668</v>
       </c>
       <c r="C132">
-        <v>46078204772231.22</v>
+        <v>30066804157576.1</v>
       </c>
       <c r="D132">
-        <v>5826.710913005751</v>
+        <v>651163.6435338259</v>
       </c>
       <c r="E132">
-        <v>46078204772231.22</v>
+        <v>30066804157576.1</v>
       </c>
       <c r="F132">
-        <v>475.802833055646</v>
+        <v>538202.3306679419</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>90222336894198.08</v>
+        <v>31854629204064.22</v>
       </c>
       <c r="B133">
-        <v>0.01331635495589607</v>
+        <v>0.01533116138526048</v>
       </c>
       <c r="C133">
-        <v>46823900450289.33</v>
+        <v>30162809276346.14</v>
       </c>
       <c r="D133">
-        <v>5596.524636075133</v>
+        <v>645951.7628040314</v>
       </c>
       <c r="E133">
-        <v>46823900450289.33</v>
+        <v>30162809276346.14</v>
       </c>
       <c r="F133">
-        <v>495.3531069932826</v>
+        <v>540247.0511408653</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>86930886822185.33</v>
+        <v>31831570153778.04</v>
       </c>
       <c r="B134">
-        <v>0.01333803633829957</v>
+        <v>0.01533135610548966</v>
       </c>
       <c r="C134">
-        <v>47239634884507.16</v>
+        <v>30756230548209.19</v>
       </c>
       <c r="D134">
-        <v>5440.387545197271</v>
+        <v>631059.5802097321</v>
       </c>
       <c r="E134">
-        <v>47239634884507.16</v>
+        <v>30756230548209.19</v>
       </c>
       <c r="F134">
-        <v>506.2546430753441</v>
+        <v>553090.9338949627</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>84401812980283.88</v>
+        <v>31485626273855.88</v>
       </c>
       <c r="B135">
-        <v>0.01335477706143022</v>
+        <v>0.01533427910277913</v>
       </c>
       <c r="C135">
-        <v>47559662242693.04</v>
+        <v>30896571897485.32</v>
       </c>
       <c r="D135">
-        <v>5270.236205121735</v>
+        <v>622981.2718038559</v>
       </c>
       <c r="E135">
-        <v>47559662242693.04</v>
+        <v>30896571897485.32</v>
       </c>
       <c r="F135">
-        <v>514.6475244332935</v>
+        <v>556062.9310942697</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>81770627459941.3</v>
+        <v>31924293472090.62</v>
       </c>
       <c r="B136">
-        <v>0.01337227035362509</v>
+        <v>0.01533057319699962</v>
       </c>
       <c r="C136">
-        <v>48241032778707.95</v>
+        <v>31427134046785.86</v>
       </c>
       <c r="D136">
-        <v>5165.912044018041</v>
+        <v>600074.5224609375</v>
       </c>
       <c r="E136">
-        <v>48241032778707.95</v>
+        <v>31427134046785.86</v>
       </c>
       <c r="F136">
-        <v>532.5198191216068</v>
+        <v>567750.6380043338</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>79582525095893.28</v>
+        <v>31427134046785.86</v>
       </c>
       <c r="B137">
-        <v>0.01338687859951723</v>
+        <v>0.0153347736402396</v>
       </c>
       <c r="C137">
-        <v>48514588470866.48</v>
+        <v>31485626273855.88</v>
       </c>
       <c r="D137">
-        <v>5016.903189187869</v>
+        <v>595385.8567429781</v>
       </c>
       <c r="E137">
-        <v>48514588470866.48</v>
+        <v>31485626273855.88</v>
       </c>
       <c r="F137">
-        <v>539.6963407423261</v>
+        <v>568965.0564131812</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>77764821968808.66</v>
+        <v>30896571897485.32</v>
       </c>
       <c r="B138">
-        <v>0.01339905674744045</v>
+        <v>0.01533926363295461</v>
       </c>
       <c r="C138">
-        <v>48784389464765.07</v>
+        <v>31831570153778.04</v>
       </c>
       <c r="D138">
-        <v>4788.740192818455</v>
+        <v>591417.7271227837</v>
       </c>
       <c r="E138">
-        <v>48784389464765.07</v>
+        <v>31831570153778.04</v>
       </c>
       <c r="F138">
-        <v>546.7750375005586</v>
+        <v>576105.2452862896</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>75724130231120.84</v>
+        <v>30756230548209.19</v>
       </c>
       <c r="B139">
-        <v>0.01341277594694146</v>
+        <v>0.01534045258038079</v>
       </c>
       <c r="C139">
-        <v>49403408053009.49</v>
+        <v>31854629204064.22</v>
       </c>
       <c r="D139">
-        <v>4661.902612921782</v>
+        <v>580124.9178409576</v>
       </c>
       <c r="E139">
-        <v>49403408053009.49</v>
+        <v>31854629204064.22</v>
       </c>
       <c r="F139">
-        <v>563.0186634328315</v>
+        <v>576578.4678427051</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>73548553218485.86</v>
+        <v>29856606219132.68</v>
       </c>
       <c r="B140">
-        <v>0.01342745783164419</v>
+        <v>0.01534808693666711</v>
       </c>
       <c r="C140">
-        <v>49951626315333.98</v>
+        <v>31924293472090.62</v>
       </c>
       <c r="D140">
-        <v>4433.605244524777</v>
+        <v>583418.707490921</v>
       </c>
       <c r="E140">
-        <v>49951626315333.98</v>
+        <v>31924293472090.62</v>
       </c>
       <c r="F140">
-        <v>577.4075389117587</v>
+        <v>578006.0130334122</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>72003438047708.36</v>
+        <v>30162809276346.14</v>
       </c>
       <c r="B141">
-        <v>0.01343792070496034</v>
+        <v>0.01534548592694169</v>
       </c>
       <c r="C141">
-        <v>50455057219725.93</v>
+        <v>32366332185506.1</v>
       </c>
       <c r="D141">
-        <v>4100.269167934544</v>
+        <v>563711.4114255905</v>
       </c>
       <c r="E141">
-        <v>50455057219725.93</v>
+        <v>32366332185506.1</v>
       </c>
       <c r="F141">
-        <v>590.623570229935</v>
+        <v>586989.9598020174</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>70107026694323.91</v>
+        <v>30066804157576.1</v>
       </c>
       <c r="B142">
-        <v>0.0134508036405637</v>
+        <v>0.01534630115053001</v>
       </c>
       <c r="C142">
-        <v>51657431881735.27</v>
+        <v>32646363363003.19</v>
       </c>
       <c r="D142">
-        <v>3844.879447237588</v>
+        <v>552549.009759903</v>
       </c>
       <c r="E142">
-        <v>51657431881735.27</v>
+        <v>32646363363003.19</v>
       </c>
       <c r="F142">
-        <v>622.1991112834195</v>
+        <v>592987.1266627465</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>68581846350173.17</v>
+        <v>29701992042749.9</v>
       </c>
       <c r="B143">
-        <v>0.01346119820521252</v>
+        <v>0.01534940128893806</v>
       </c>
       <c r="C143">
-        <v>52059173517476.16</v>
+        <v>33023738149864.7</v>
       </c>
       <c r="D143">
-        <v>3513.742997743189</v>
+        <v>546186.5214142799</v>
       </c>
       <c r="E143">
-        <v>52059173517476.16</v>
+        <v>33023738149864.7</v>
       </c>
       <c r="F143">
-        <v>632.7528315437809</v>
+        <v>600507.7307332277</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>67204279884489.73</v>
+        <v>29604124248702.64</v>
       </c>
       <c r="B144">
-        <v>0.01347061285005798</v>
+        <v>0.01535023359665967</v>
       </c>
       <c r="C144">
-        <v>52848082849232.82</v>
+        <v>33844015967481.85</v>
       </c>
       <c r="D144">
-        <v>3221.416469677351</v>
+        <v>535010.7204117775</v>
       </c>
       <c r="E144">
-        <v>52848082849232.82</v>
+        <v>33844015967481.85</v>
       </c>
       <c r="F144">
-        <v>653.4829438062961</v>
+        <v>617215.6770401632</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>65393815341813.52</v>
+        <v>29403571846488.67</v>
       </c>
       <c r="B145">
-        <v>0.01348302435902583</v>
+        <v>0.01535194002290081</v>
       </c>
       <c r="C145">
-        <v>53620426988882.77</v>
+        <v>34719933731738.58</v>
       </c>
       <c r="D145">
-        <v>3008.195395063609</v>
+        <v>526067.7982139587</v>
       </c>
       <c r="E145">
-        <v>53620426988882.77</v>
+        <v>34719933731738.58</v>
       </c>
       <c r="F145">
-        <v>673.7851973116392</v>
+        <v>634740.3260219094</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>63885628684044.62</v>
+        <v>29357907329813.83</v>
       </c>
       <c r="B146">
-        <v>0.01349339743288433</v>
+        <v>0.01535232872496178</v>
       </c>
       <c r="C146">
-        <v>54465532813563.12</v>
+        <v>35418199503408.63</v>
       </c>
       <c r="D146">
-        <v>2716.554417381994</v>
+        <v>514283.1274061203</v>
       </c>
       <c r="E146">
-        <v>54465532813563.12</v>
+        <v>35418199503408.63</v>
       </c>
       <c r="F146">
-        <v>696.0089918576474</v>
+        <v>649683.8655031335</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>62772578252099.04</v>
+        <v>29265612230913.68</v>
       </c>
       <c r="B147">
-        <v>0.01350107285784335</v>
+        <v>0.01535311453365063</v>
       </c>
       <c r="C147">
-        <v>55248255897194.38</v>
+        <v>35647109208484.89</v>
       </c>
       <c r="D147">
-        <v>2445.916798029095</v>
+        <v>503964.3147959709</v>
       </c>
       <c r="E147">
-        <v>55248255897194.38</v>
+        <v>35647109208484.89</v>
       </c>
       <c r="F147">
-        <v>716.6010459800573</v>
+        <v>654670.2016303554</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>61325225227514.39</v>
+        <v>28949909642156.68</v>
       </c>
       <c r="B148">
-        <v>0.01351107943312418</v>
+        <v>0.01535580429557127</v>
       </c>
       <c r="C148">
-        <v>56112069324836.88</v>
+        <v>36464553360598.28</v>
       </c>
       <c r="D148">
-        <v>2172.713019020855</v>
+        <v>497520.1662747264</v>
       </c>
       <c r="E148">
-        <v>56112069324836.88</v>
+        <v>36464553360598.28</v>
       </c>
       <c r="F148">
-        <v>739.3367485544137</v>
+        <v>671718.7543316986</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>60811361274252.03</v>
+        <v>28443065550606.21</v>
       </c>
       <c r="B149">
-        <v>0.01351463925363247</v>
+        <v>0.01536012858340706</v>
       </c>
       <c r="C149">
-        <v>57005332368018.34</v>
+        <v>37168841404151.27</v>
       </c>
       <c r="D149">
-        <v>1888.566598737612</v>
+        <v>494417.513334617</v>
       </c>
       <c r="E149">
-        <v>57005332368018.34</v>
+        <v>37168841404151.27</v>
       </c>
       <c r="F149">
-        <v>762.8595740620408</v>
+        <v>684447.58085781</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>60012808170935.5</v>
+        <v>27654420071114.45</v>
       </c>
       <c r="B150">
-        <v>0.0135201787553933</v>
+        <v>0.01536687211818468</v>
       </c>
       <c r="C150">
-        <v>57793618998721.96</v>
+        <v>37625747340536.33</v>
       </c>
       <c r="D150">
-        <v>1727.681199633516</v>
+        <v>496508.243182689</v>
       </c>
       <c r="E150">
-        <v>57793618998721.96</v>
+        <v>37625747340536.33</v>
       </c>
       <c r="F150">
-        <v>783.6286790921346</v>
+        <v>693567.9426437711</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>59287662654628.46</v>
+        <v>26830097561937.04</v>
       </c>
       <c r="B151">
-        <v>0.01352521698765712</v>
+        <v>0.01537394063158858</v>
       </c>
       <c r="C151">
-        <v>58515082523458.81</v>
+        <v>37695062786461.6</v>
       </c>
       <c r="D151">
-        <v>1619.945913894102</v>
+        <v>499425.375469476</v>
       </c>
       <c r="E151">
-        <v>58515082523458.81</v>
+        <v>37695062786461.6</v>
       </c>
       <c r="F151">
-        <v>802.6463973409068</v>
+        <v>695024.2991251504</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>58515082523458.81</v>
+        <v>26390034955884.71</v>
       </c>
       <c r="B152">
-        <v>0.01353059319889315</v>
+        <v>0.01537772265260379</v>
       </c>
       <c r="C152">
-        <v>59287662654628.46</v>
+        <v>37782555835040.84</v>
       </c>
       <c r="D152">
-        <v>1536.399787420873</v>
+        <v>495463.0537856817</v>
       </c>
       <c r="E152">
-        <v>59287662654628.46</v>
+        <v>37782555835040.84</v>
       </c>
       <c r="F152">
-        <v>823.0217421059234</v>
+        <v>696659.6401621875</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>57793618998721.96</v>
+        <v>26031209511685.87</v>
       </c>
       <c r="B153">
-        <v>0.01353562160711829</v>
+        <v>0.01538081096047098</v>
       </c>
       <c r="C153">
-        <v>60012808170935.5</v>
+        <v>37941548040637.05</v>
       </c>
       <c r="D153">
-        <v>1521.665603256086</v>
+        <v>490219.1253910065</v>
       </c>
       <c r="E153">
-        <v>60012808170935.5</v>
+        <v>37941548040637.05</v>
       </c>
       <c r="F153">
-        <v>842.1560800869205</v>
+        <v>699443.9097595462</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>57005332368018.34</v>
+        <v>26004737922508.46</v>
       </c>
       <c r="B154">
-        <v>0.01354112456874717</v>
+        <v>0.0153810389540337</v>
       </c>
       <c r="C154">
-        <v>60811361274252.03</v>
+        <v>39073779023868.68</v>
       </c>
       <c r="D154">
-        <v>1462.152252090396</v>
+        <v>478619.8613090515</v>
       </c>
       <c r="E154">
-        <v>60811361274252.03</v>
+        <v>39073779023868.68</v>
       </c>
       <c r="F154">
-        <v>863.2390672311753</v>
+        <v>720446.3530736311</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>56112069324836.88</v>
+        <v>26484164396343.38</v>
       </c>
       <c r="B155">
-        <v>0.01354737160252165</v>
+        <v>0.01537691317354435</v>
       </c>
       <c r="C155">
-        <v>61325225227514.39</v>
+        <v>39519549013921.67</v>
       </c>
       <c r="D155">
-        <v>1439.547153413296</v>
+        <v>458816.0424823761</v>
       </c>
       <c r="E155">
-        <v>61325225227514.39</v>
+        <v>39519549013921.67</v>
       </c>
       <c r="F155">
-        <v>876.8125188478871</v>
+        <v>728871.8838522513</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>55248255897194.38</v>
+        <v>26456906905037.07</v>
       </c>
       <c r="B156">
-        <v>0.01355342416679667</v>
+        <v>0.01537714754974189</v>
       </c>
       <c r="C156">
-        <v>62772578252099.04</v>
+        <v>39947913371631.24</v>
       </c>
       <c r="D156">
-        <v>1316.230840540025</v>
+        <v>448737.4261512756</v>
       </c>
       <c r="E156">
-        <v>62772578252099.04</v>
+        <v>39947913371631.24</v>
       </c>
       <c r="F156">
-        <v>915.0729944501342</v>
+        <v>737405.05660052</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>54465532813563.12</v>
+        <v>26314666547576.62</v>
       </c>
       <c r="B157">
-        <v>0.01355891841242486</v>
+        <v>0.01537837099254913</v>
       </c>
       <c r="C157">
-        <v>63885628684044.62</v>
+        <v>39968732228508.74</v>
       </c>
       <c r="D157">
-        <v>1236.099088517018</v>
+        <v>440544.2268681526</v>
       </c>
       <c r="E157">
-        <v>63885628684044.62</v>
+        <v>39968732228508.74</v>
       </c>
       <c r="F157">
-        <v>944.5272189848392</v>
+        <v>737749.9422851484</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>53620426988882.77</v>
+        <v>26067307177167.93</v>
       </c>
       <c r="B158">
-        <v>0.01356486119779245</v>
+        <v>0.01538050009537497</v>
       </c>
       <c r="C158">
-        <v>65393815341813.52</v>
+        <v>40157047686846.11</v>
       </c>
       <c r="D158">
-        <v>1163.230690627359</v>
+        <v>434163.4149068594</v>
       </c>
       <c r="E158">
-        <v>65393815341813.52</v>
+        <v>40157047686846.11</v>
       </c>
       <c r="F158">
-        <v>984.4835258890333</v>
+        <v>740860.6249447181</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>52848082849232.82</v>
+        <v>25741348852789.18</v>
       </c>
       <c r="B159">
-        <v>0.01357030210263293</v>
+        <v>0.01538330866956889</v>
       </c>
       <c r="C159">
-        <v>67204279884489.73</v>
+        <v>40319544192966.69</v>
       </c>
       <c r="D159">
-        <v>1078.474405007903</v>
+        <v>429151.8001677394</v>
       </c>
       <c r="E159">
-        <v>67204279884489.73</v>
+        <v>40319544192966.69</v>
       </c>
       <c r="F159">
-        <v>1032.522431744894</v>
+        <v>743531.8122446708</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>52059173517476.16</v>
+        <v>25391384564371.93</v>
       </c>
       <c r="B160">
-        <v>0.01357586945640547</v>
+        <v>0.01538632785318627</v>
       </c>
       <c r="C160">
-        <v>68581846350173.17</v>
+        <v>40832318915034.16</v>
       </c>
       <c r="D160">
-        <v>960.022612308152</v>
+        <v>424169.4487419128</v>
       </c>
       <c r="E160">
-        <v>68581846350173.17</v>
+        <v>40832318915034.16</v>
       </c>
       <c r="F160">
-        <v>1069.13310811769</v>
+        <v>751886.1729516947</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>51657431881735.27</v>
+        <v>25407817758252.93</v>
       </c>
       <c r="B161">
-        <v>0.01357870838102053</v>
+        <v>0.01538618599417359</v>
       </c>
       <c r="C161">
-        <v>70107026694323.91</v>
+        <v>41457437584547.81</v>
       </c>
       <c r="D161">
-        <v>861.2204357413575</v>
+        <v>413476.1984062195</v>
       </c>
       <c r="E161">
-        <v>70107026694323.91</v>
+        <v>41457437584547.81</v>
       </c>
       <c r="F161">
-        <v>1109.729789025835</v>
+        <v>761944.5836704811</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>50455057219725.93</v>
+        <v>25136583224141.19</v>
       </c>
       <c r="B162">
-        <v>0.01358722061181702</v>
+        <v>0.01538852853330793</v>
       </c>
       <c r="C162">
-        <v>72003438047708.36</v>
+        <v>41661995643855.09</v>
       </c>
       <c r="D162">
-        <v>662.8661602735519</v>
+        <v>407766.5721911788</v>
       </c>
       <c r="E162">
-        <v>72003438047708.36</v>
+        <v>41661995643855.09</v>
       </c>
       <c r="F162">
-        <v>1160.306672496217</v>
+        <v>765214.2074921206</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>49951626315333.98</v>
+        <v>24152557848700.85</v>
       </c>
       <c r="B163">
-        <v>0.01359079167719948</v>
+        <v>0.01539704737836557</v>
       </c>
       <c r="C163">
-        <v>73548553218485.86</v>
+        <v>42516349105641.3</v>
       </c>
       <c r="D163">
-        <v>397.5264124982059</v>
+        <v>413446.4105043411</v>
       </c>
       <c r="E163">
-        <v>73548553218485.86</v>
+        <v>42516349105641.3</v>
       </c>
       <c r="F163">
-        <v>1201.601551759118</v>
+        <v>779963.1367733283</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>49403408053009.49</v>
+        <v>24308604917317.96</v>
       </c>
       <c r="B164">
-        <v>0.01359468520540735</v>
+        <v>0.0153956943138376</v>
       </c>
       <c r="C164">
-        <v>75724130231120.84</v>
+        <v>43200151137153.55</v>
       </c>
       <c r="D164">
-        <v>282.2106415154412</v>
+        <v>400156.2310848236</v>
       </c>
       <c r="E164">
-        <v>75724130231120.84</v>
+        <v>43200151137153.55</v>
       </c>
       <c r="F164">
-        <v>1259.889473580418</v>
+        <v>791545.4688690146</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>48784389464765.07</v>
+        <v>23720125137368.04</v>
       </c>
       <c r="B165">
-        <v>0.01359908759218259</v>
+        <v>0.01540080124096422</v>
       </c>
       <c r="C165">
-        <v>77764821968808.66</v>
+        <v>44697506223774.85</v>
       </c>
       <c r="D165">
-        <v>136.937168713659</v>
+        <v>399892.3940398023</v>
       </c>
       <c r="E165">
-        <v>77764821968808.66</v>
+        <v>44697506223774.85</v>
       </c>
       <c r="F165">
-        <v>1314.728463664393</v>
+        <v>815500.7628740307</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>48514588470866.48</v>
+        <v>23139427758196.73</v>
       </c>
       <c r="B166">
-        <v>0.01360100839916184</v>
+        <v>0.01540585222670975</v>
       </c>
       <c r="C166">
-        <v>79582525095893.28</v>
+        <v>45076611065199.88</v>
       </c>
       <c r="D166">
-        <v>8.567835843190551</v>
+        <v>399149.6996341944</v>
       </c>
       <c r="E166">
-        <v>79582525095893.28</v>
+        <v>45076611065199.88</v>
       </c>
       <c r="F166">
-        <v>1363.721057152753</v>
+        <v>821873.9860724879</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>48241032778707.95</v>
+        <v>22961023447633.34</v>
       </c>
       <c r="B167">
-        <v>0.01360295719332164</v>
+        <v>0.01540740636367149</v>
       </c>
       <c r="C167">
-        <v>81770627459941.3</v>
+        <v>45100908474429.39</v>
       </c>
       <c r="D167">
-        <v>36.82611121609807</v>
+        <v>391885.0745208263</v>
       </c>
       <c r="E167">
-        <v>81770627459941.3</v>
+        <v>45100908474429.39</v>
       </c>
       <c r="F167">
-        <v>1422.894856591206</v>
+        <v>822315.1061641594</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>47559662242693.04</v>
+        <v>22773478900906.6</v>
       </c>
       <c r="B168">
-        <v>0.01360781677049967</v>
+        <v>0.01540904133020924</v>
       </c>
       <c r="C168">
-        <v>84401812980283.88</v>
+        <v>45699553349635.45</v>
       </c>
       <c r="D168">
-        <v>33.50273487903178</v>
+        <v>385327.4051970243</v>
       </c>
       <c r="E168">
-        <v>84401812980283.88</v>
+        <v>45699553349635.45</v>
       </c>
       <c r="F168">
-        <v>1494.363822009955</v>
+        <v>832108.4238541984</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>47239634884507.16</v>
+        <v>22118575788118.38</v>
       </c>
       <c r="B169">
-        <v>0.01361010197040774</v>
+        <v>0.01541476043546489</v>
       </c>
       <c r="C169">
-        <v>86930886822185.33</v>
+        <v>45768216925127.66</v>
       </c>
       <c r="D169">
-        <v>5.666906702520237</v>
+        <v>386563.138314724</v>
       </c>
       <c r="E169">
-        <v>86930886822185.33</v>
+        <v>45768216925127.66</v>
       </c>
       <c r="F169">
-        <v>1563.413715530224</v>
+        <v>833134.9121133101</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>46823900450289.33</v>
+        <v>22323750307393.85</v>
       </c>
       <c r="B170">
-        <v>0.01361307322005222</v>
+        <v>0.01541296704111391</v>
       </c>
       <c r="C170">
-        <v>90222336894198.08</v>
+        <v>46967853601799.51</v>
       </c>
       <c r="D170">
-        <v>52.5788815326523</v>
+        <v>373221.6581878662</v>
       </c>
       <c r="E170">
-        <v>90222336894198.08</v>
+        <v>46967853601799.51</v>
       </c>
       <c r="F170">
-        <v>1653.859452176006</v>
+        <v>850832.6871827753</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>46078204772231.22</v>
+        <v>22199218744028.68</v>
       </c>
       <c r="B171">
-        <v>0.01361841023540979</v>
+        <v>0.01541405536793563</v>
       </c>
       <c r="C171">
-        <v>93282559951104.88</v>
+        <v>47195901403880.27</v>
       </c>
       <c r="D171">
-        <v>34.27036417834461</v>
+        <v>366275.8884587288</v>
       </c>
       <c r="E171">
-        <v>93282559951104.88</v>
+        <v>47195901403880.27</v>
       </c>
       <c r="F171">
-        <v>1738.612651112928</v>
+        <v>854129.4345505035</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>45847252918714.72</v>
+        <v>21674033518695.8</v>
       </c>
       <c r="B172">
-        <v>0.01362006515788355</v>
+        <v>0.01541865136208307</v>
       </c>
       <c r="C172">
-        <v>96125784997155.91</v>
+        <v>48843977276052.21</v>
       </c>
       <c r="D172">
-        <v>12.980388309923</v>
+        <v>365617.1681132317</v>
       </c>
       <c r="E172">
-        <v>96125784997155.91</v>
+        <v>48843977276052.21</v>
       </c>
       <c r="F172">
-        <v>1817.998533606882</v>
+        <v>877689.4548813279</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>45298626771594.02</v>
+        <v>21816268932812.15</v>
       </c>
       <c r="B173">
-        <v>0.0136240002092025</v>
+        <v>0.01541740563556455</v>
       </c>
       <c r="C173">
-        <v>99238976847365.52</v>
+        <v>49678664336232.3</v>
       </c>
       <c r="D173">
-        <v>98.20727929985151</v>
+        <v>353954.4259443283</v>
       </c>
       <c r="E173">
-        <v>99238976847365.52</v>
+        <v>49678664336232.3</v>
       </c>
       <c r="F173">
-        <v>1905.718571576925</v>
+        <v>889243.8311135329</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>44317414593559.98</v>
+        <v>21504314343474.5</v>
       </c>
       <c r="B174">
-        <v>0.01363105141899362</v>
+        <v>0.01542013877593982</v>
       </c>
       <c r="C174">
-        <v>102351498778488.3</v>
+        <v>49728596716330.84</v>
       </c>
       <c r="D174">
-        <v>92.04332320485264</v>
+        <v>350512.6128142178</v>
       </c>
       <c r="E174">
-        <v>102351498778488.3</v>
+        <v>49728596716330.84</v>
       </c>
       <c r="F174">
-        <v>1994.353953907119</v>
+        <v>889909.2303933792</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>43856017354907.61</v>
+        <v>21108530103379.05</v>
       </c>
       <c r="B175">
-        <v>0.01363437313854438</v>
+        <v>0.01542361159627439</v>
       </c>
       <c r="C175">
-        <v>106100925370672</v>
+        <v>50936846595497.39</v>
       </c>
       <c r="D175">
-        <v>13.47260636370629</v>
+        <v>348308.6585509405</v>
       </c>
       <c r="E175">
-        <v>106100925370672</v>
+        <v>50936846595497.39</v>
       </c>
       <c r="F175">
-        <v>2102.535274702065</v>
+        <v>906180.1688657287</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>43568111912754.59</v>
+        <v>20304681534436.46</v>
       </c>
       <c r="B176">
-        <v>0.01363644781498756</v>
+        <v>0.01543068334215929</v>
       </c>
       <c r="C176">
-        <v>110336544361048.7</v>
+        <v>51704406327880.6</v>
       </c>
       <c r="D176">
-        <v>-19.97797303157859</v>
+        <v>352580.9421815872</v>
       </c>
       <c r="E176">
-        <v>110336544361048.7</v>
+        <v>51704406327880.6</v>
       </c>
       <c r="F176">
-        <v>2226.879455363718</v>
+        <v>915880.2374198467</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>43398541470007.65</v>
+        <v>20213211985678.32</v>
       </c>
       <c r="B177">
-        <v>0.01363767046937578</v>
+        <v>0.01543148962030952</v>
       </c>
       <c r="C177">
-        <v>114623964706095.1</v>
+        <v>51739920020736.02</v>
       </c>
       <c r="D177">
-        <v>-13.74343853862956</v>
+        <v>345115.0604939461</v>
       </c>
       <c r="E177">
-        <v>114623964706095.1</v>
+        <v>51739920020736.02</v>
       </c>
       <c r="F177">
-        <v>2355.445068131708</v>
+        <v>916323.8997913292</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>43059224593136.91</v>
+        <v>20069371437399.89</v>
       </c>
       <c r="B178">
-        <v>0.01364011864004985</v>
+        <v>0.01543275820006529</v>
       </c>
       <c r="C178">
-        <v>119181460531032.4</v>
+        <v>51973842044334.68</v>
       </c>
       <c r="D178">
-        <v>-12.380936994683</v>
+        <v>338899.5875724554</v>
       </c>
       <c r="E178">
-        <v>119181460531032.4</v>
+        <v>51973842044334.68</v>
       </c>
       <c r="F178">
-        <v>2495.638809660734</v>
+        <v>919399.2710282241</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>42882198561044.48</v>
+        <v>19536173991842.96</v>
       </c>
       <c r="B179">
-        <v>0.0136413967293128</v>
+        <v>0.01543746783934712</v>
       </c>
       <c r="C179">
-        <v>123921598162353.8</v>
+        <v>52725591477346.57</v>
       </c>
       <c r="D179">
-        <v>-47.74540534615517</v>
+        <v>338975.4894423485</v>
       </c>
       <c r="E179">
-        <v>123921598162353.8</v>
+        <v>52725591477346.57</v>
       </c>
       <c r="F179">
-        <v>2646.062115103764</v>
+        <v>929206.5863976969</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>42843510863306.12</v>
+        <v>19872309801257.06</v>
       </c>
       <c r="B180">
-        <v>0.01364167612360625</v>
+        <v>0.01543449748558863</v>
       </c>
       <c r="C180">
-        <v>129810280867886.2</v>
+        <v>52962080037503.96</v>
       </c>
       <c r="D180">
-        <v>4.987676218152046</v>
+        <v>324190.6312379837</v>
       </c>
       <c r="E180">
-        <v>129810280867886.2</v>
+        <v>52962080037503.96</v>
       </c>
       <c r="F180">
-        <v>2840.95427264312</v>
+        <v>932125.1487329502</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>42222067698656.21</v>
+        <v>19825489343419.4</v>
       </c>
       <c r="B181">
-        <v>0.01364616788625393</v>
+        <v>0.01543491095504883</v>
       </c>
       <c r="C181">
-        <v>135910482499182.3</v>
+        <v>53533721338891.17</v>
       </c>
       <c r="D181">
-        <v>75.90697910939343</v>
+        <v>316309.7754459381</v>
       </c>
       <c r="E181">
-        <v>135910482499182.3</v>
+        <v>53533721338891.17</v>
       </c>
       <c r="F181">
-        <v>3054.61024237769</v>
+        <v>939001.5842389642</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>41603865692756.41</v>
+        <v>19908401047607.57</v>
       </c>
       <c r="B182">
-        <v>0.01365064343900642</v>
+        <v>0.01543417882508813</v>
       </c>
       <c r="C182">
-        <v>142653597188146.7</v>
+        <v>55168541083730.46</v>
       </c>
       <c r="D182">
-        <v>57.73820995795541</v>
+        <v>306850.5045976639</v>
       </c>
       <c r="E182">
-        <v>142653597188146.7</v>
+        <v>55168541083730.46</v>
       </c>
       <c r="F182">
-        <v>3308.810983673581</v>
+        <v>958658.9527023322</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>41149529087951.37</v>
+        <v>19593970480004.84</v>
       </c>
       <c r="B183">
-        <v>0.0136539373052984</v>
+        <v>0.01543695678109171</v>
       </c>
       <c r="C183">
-        <v>149140977987222</v>
+        <v>56577395851250.13</v>
       </c>
       <c r="D183">
-        <v>26.74284550826997</v>
+        <v>303352.0029411316</v>
       </c>
       <c r="E183">
-        <v>149140977987222</v>
+        <v>56577395851250.13</v>
       </c>
       <c r="F183">
-        <v>3576.676273827977</v>
+        <v>974854.0824251897</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>40794190403163.78</v>
+        <v>19546132123965.84</v>
       </c>
       <c r="B184">
-        <v>0.01365651621630722</v>
+        <v>0.01543737977615569</v>
       </c>
       <c r="C184">
-        <v>155803726844270.9</v>
+        <v>57957609553274.98</v>
       </c>
       <c r="D184">
-        <v>-3.145091894897632</v>
+        <v>295626.9964265823</v>
       </c>
       <c r="E184">
-        <v>155803726844270.9</v>
+        <v>57957609553274.98</v>
       </c>
       <c r="F184">
-        <v>3882.654496411408</v>
+        <v>989721.0967105302</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>40586905854350.98</v>
+        <v>19747044139277.56</v>
       </c>
       <c r="B185">
-        <v>0.01365802173510218</v>
+        <v>0.01543560389798249</v>
       </c>
       <c r="C185">
-        <v>162843496792994.3</v>
+        <v>59428507451401.23</v>
       </c>
       <c r="D185">
-        <v>16.4731574205216</v>
+        <v>284769.3277759552</v>
       </c>
       <c r="E185">
-        <v>162843496792994.3</v>
+        <v>59428507451401.23</v>
       </c>
       <c r="F185">
-        <v>4248.000464238999</v>
+        <v>1005686.956796552</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>40077789631105.46</v>
+        <v>19464414611999.63</v>
       </c>
       <c r="B186">
-        <v>0.01366172302463438</v>
+        <v>0.01543810255123989</v>
       </c>
       <c r="C186">
-        <v>170634582849712.6</v>
+        <v>59695410378452.99</v>
       </c>
       <c r="D186">
-        <v>-26.11513187550008</v>
+        <v>281642.5348763466</v>
       </c>
       <c r="E186">
-        <v>170634582849712.6</v>
+        <v>59695410378452.99</v>
       </c>
       <c r="F186">
-        <v>4702.82790817548</v>
+        <v>1008332.994211539</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>40215554961158.7</v>
+        <v>19034457830843.92</v>
       </c>
       <c r="B187">
-        <v>0.01366072096674446</v>
+        <v>0.01544190993185412</v>
       </c>
       <c r="C187">
-        <v>177948796196271.4</v>
+        <v>60555492819368.81</v>
       </c>
       <c r="D187">
-        <v>-70.80112841725349</v>
+        <v>280238.5777587891</v>
       </c>
       <c r="E187">
-        <v>177948796196271.4</v>
+        <v>60555492819368.81</v>
       </c>
       <c r="F187">
-        <v>5126.456349524369</v>
+        <v>1016750.904673129</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>40058783542966.36</v>
+        <v>18973610976160.11</v>
       </c>
       <c r="B188">
-        <v>0.01366186129764089</v>
+        <v>0.01544244936292654</v>
       </c>
       <c r="C188">
-        <v>186232811905281.9</v>
+        <v>60908250404301</v>
       </c>
       <c r="D188">
-        <v>-73.99327867478132</v>
+        <v>273183.1770181656</v>
       </c>
       <c r="E188">
-        <v>186232811905281.9</v>
+        <v>60908250404301</v>
       </c>
       <c r="F188">
-        <v>5345.991455573192</v>
+        <v>1020380.751004423</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>40221836668893.72</v>
+        <v>19255685221153.16</v>
       </c>
       <c r="B189">
-        <v>0.01366067528461572</v>
+        <v>0.0154399499565006</v>
       </c>
       <c r="C189">
-        <v>195082097636152.4</v>
+        <v>61349626148968.88</v>
       </c>
       <c r="D189">
-        <v>-84.99516633152962</v>
+        <v>261931.0725250244</v>
       </c>
       <c r="E189">
-        <v>195082097636152.4</v>
+        <v>61349626148968.88</v>
       </c>
       <c r="F189">
-        <v>5284.96319004835</v>
+        <v>1024593.117759847</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>40152127690463.68</v>
+        <v>18978311342883.29</v>
       </c>
       <c r="B190">
-        <v>0.01366118226880322</v>
+        <v>0.01544240768685788</v>
       </c>
       <c r="C190">
-        <v>204746014249437.3</v>
+        <v>61556629729796.15</v>
       </c>
       <c r="D190">
-        <v>-7.504768714308739</v>
+        <v>258907.7885203958</v>
       </c>
       <c r="E190">
-        <v>204746014249437.3</v>
+        <v>61556629729796.15</v>
       </c>
       <c r="F190">
-        <v>5378.07785706592</v>
+        <v>1026556.001808277</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>39702716133164.2</v>
+        <v>18731994290988.22</v>
       </c>
       <c r="B191">
-        <v>0.01366445307191416</v>
+        <v>0.01544459291419035</v>
       </c>
       <c r="C191">
-        <v>215299076892669.9</v>
+        <v>63699127639060.09</v>
       </c>
       <c r="D191">
-        <v>-3.066981095820665</v>
+        <v>255226.8657990694</v>
       </c>
       <c r="E191">
-        <v>215299076892669.9</v>
+        <v>63699127639060.09</v>
       </c>
       <c r="F191">
-        <v>5527.254124125523</v>
+        <v>1046774.176924964</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>39604279801634.46</v>
+        <v>18266974354028.18</v>
       </c>
       <c r="B192">
-        <v>0.01366517002047391</v>
+        <v>0.01544872537555417</v>
       </c>
       <c r="C192">
-        <v>225819124797055</v>
+        <v>65466226134209.41</v>
       </c>
       <c r="D192">
-        <v>-42.95949483010918</v>
+        <v>254625.3221515305</v>
       </c>
       <c r="E192">
-        <v>225819124797055</v>
+        <v>65466226134209.41</v>
       </c>
       <c r="F192">
-        <v>5687.696484280097</v>
+        <v>1062793.261500793</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>39467183598195.88</v>
+        <v>17596370888543.23</v>
       </c>
       <c r="B193">
-        <v>0.01366616886335812</v>
+        <v>0.01545470124077699</v>
       </c>
       <c r="C193">
-        <v>237537533457105.8</v>
+        <v>65907164195784.78</v>
       </c>
       <c r="D193">
-        <v>-17.56559131247923</v>
+        <v>256854.4957828522</v>
       </c>
       <c r="E193">
-        <v>237537533457105.8</v>
+        <v>65907164195784.78</v>
       </c>
       <c r="F193">
-        <v>5871.085926474246</v>
+        <v>1066739.288635335</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>39172366093281.34</v>
+        <v>17456781724766.13</v>
       </c>
       <c r="B194">
-        <v>0.01366831808415404</v>
+        <v>0.01545594764125168</v>
       </c>
       <c r="C194">
-        <v>249993206049636.6</v>
+        <v>67138744381526.58</v>
       </c>
       <c r="D194">
-        <v>-16.22512398054823</v>
+        <v>251530.722881794</v>
       </c>
       <c r="E194">
-        <v>249993206049636.6</v>
+        <v>67138744381526.58</v>
       </c>
       <c r="F194">
-        <v>6072.518897775367</v>
+        <v>1077597.862909626</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>39028251133822.05</v>
+        <v>17414130777291.58</v>
       </c>
       <c r="B195">
-        <v>0.01366936931445752</v>
+        <v>0.01545632864838584</v>
       </c>
       <c r="C195">
-        <v>261990053376101.2</v>
+        <v>67250679041764.27</v>
       </c>
       <c r="D195">
-        <v>4.75016016792506</v>
+        <v>245492.8221201897</v>
       </c>
       <c r="E195">
-        <v>261990053376101.2</v>
+        <v>67250679041764.27</v>
       </c>
       <c r="F195">
-        <v>6270.16118537214</v>
+        <v>1078694.005141714</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>38573985555108.7</v>
+        <v>16717876430399.04</v>
       </c>
       <c r="B196">
-        <v>0.01367268563446025</v>
+        <v>0.01546256009474824</v>
       </c>
       <c r="C196">
-        <v>275643148422112.7</v>
+        <v>67642212183976.41</v>
       </c>
       <c r="D196">
-        <v>24.98858012678102</v>
+        <v>248725.2702857256</v>
       </c>
       <c r="E196">
-        <v>275643148422112.7</v>
+        <v>67642212183976.41</v>
       </c>
       <c r="F196">
-        <v>6504.78316608418</v>
+        <v>1082072.305121915</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>38283332951356.33</v>
+        <v>16571184173690.46</v>
       </c>
       <c r="B197">
-        <v>0.01367480970315183</v>
+        <v>0.01546387584225366</v>
       </c>
       <c r="C197">
-        <v>289722815119145.8</v>
+        <v>69354980698468.52</v>
       </c>
       <c r="D197">
-        <v>3.246266613714397</v>
+        <v>243293.6797943115</v>
       </c>
       <c r="E197">
-        <v>289722815119145.8</v>
+        <v>69354980698468.52</v>
       </c>
       <c r="F197">
-        <v>6761.51181252012</v>
+        <v>1096601.119262091</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>37998575943414.02</v>
+        <v>16720866411636.71</v>
       </c>
       <c r="B198">
-        <v>0.01367689235552191</v>
+        <v>0.01546253328676325</v>
       </c>
       <c r="C198">
-        <v>305370628082598.9</v>
+        <v>70707247222222.52</v>
       </c>
       <c r="D198">
-        <v>-32.65800394117832</v>
+        <v>234299.8090438843</v>
       </c>
       <c r="E198">
-        <v>305370628082598.9</v>
+        <v>70707247222222.52</v>
       </c>
       <c r="F198">
-        <v>7065.050512389761</v>
+        <v>1107759.445322807</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>37980783027057</v>
+        <v>16582606914447.16</v>
       </c>
       <c r="B199">
-        <v>0.0136770225441777</v>
+        <v>0.0154637733504022</v>
       </c>
       <c r="C199">
-        <v>321101843771784.2</v>
+        <v>71173518348712.95</v>
       </c>
       <c r="D199">
-        <v>-23.93915169499815</v>
+        <v>229401.4960746765</v>
       </c>
       <c r="E199">
-        <v>321101843771784.2</v>
+        <v>71173518348712.95</v>
       </c>
       <c r="F199">
-        <v>7379.389888477856</v>
+        <v>1111525.1044926</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>37631002800130.23</v>
+        <v>16965149412159.88</v>
       </c>
       <c r="B200">
-        <v>0.01367958316514414</v>
+        <v>0.0154603444642713</v>
       </c>
       <c r="C200">
-        <v>337957898883138.8</v>
+        <v>71543098067336.83</v>
       </c>
       <c r="D200">
-        <v>12.72765277163126</v>
+        <v>217658.1728444099</v>
       </c>
       <c r="E200">
-        <v>337957898883138.8</v>
+        <v>71543098067336.83</v>
       </c>
       <c r="F200">
-        <v>7713.67524187776</v>
+        <v>1114461.485038135</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>37345150031723.59</v>
+        <v>17056496711093.06</v>
       </c>
       <c r="B201">
-        <v>0.01368167767012709</v>
+        <v>0.01545952668305335</v>
       </c>
       <c r="C201">
-        <v>356045419942983.5</v>
+        <v>75066371173731.34</v>
       </c>
       <c r="D201">
-        <v>21.39611561514903</v>
+        <v>210578.2461781502</v>
       </c>
       <c r="E201">
-        <v>356045419942983.5</v>
+        <v>75066371173731.34</v>
       </c>
       <c r="F201">
-        <v>8048.880008100618</v>
+        <v>1141094.973402049</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>36936571362256.73</v>
+        <v>16672682192249.41</v>
       </c>
       <c r="B202">
-        <v>0.01368467436425073</v>
+        <v>0.01546296535433614</v>
       </c>
       <c r="C202">
-        <v>373938219503656.2</v>
+        <v>76047483879204.34</v>
       </c>
       <c r="D202">
-        <v>25.81624477007426</v>
+        <v>209107.4162591696</v>
       </c>
       <c r="E202">
-        <v>373938219503656.2</v>
+        <v>76047483879204.34</v>
       </c>
       <c r="F202">
-        <v>8336.002269344166</v>
+        <v>1148094.335778367</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>36626302005029.19</v>
+        <v>16429762392562.01</v>
       </c>
       <c r="B203">
-        <v>0.01368695235091527</v>
+        <v>0.0154651452752848</v>
       </c>
       <c r="C203">
-        <v>392725450812608.8</v>
+        <v>77876449802380.5</v>
       </c>
       <c r="D203">
-        <v>45.01748489146121</v>
+        <v>205788.9779102802</v>
       </c>
       <c r="E203">
-        <v>392725450812608.8</v>
+        <v>77876449802380.5</v>
       </c>
       <c r="F203">
-        <v>8580.840199793447</v>
+        <v>1160748.175934599</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>36085445747792.2</v>
+        <v>16268764411413.63</v>
       </c>
       <c r="B204">
-        <v>0.01369092816453079</v>
+        <v>0.01546659158381608</v>
       </c>
       <c r="C204">
-        <v>412293558034980.1</v>
+        <v>79679778131700.34</v>
       </c>
       <c r="D204">
-        <v>75.15336614858825</v>
+        <v>201788.3960242271</v>
       </c>
       <c r="E204">
-        <v>412293558034980.1</v>
+        <v>79679778131700.34</v>
       </c>
       <c r="F204">
-        <v>8775.436363339131</v>
+        <v>1172869.965425048</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>35573882089199.88</v>
+        <v>15802288071215.58</v>
       </c>
       <c r="B205">
-        <v>0.01369469439859001</v>
+        <v>0.01547078917140166</v>
       </c>
       <c r="C205">
-        <v>432979039632453.4</v>
+        <v>79729187022740.16</v>
       </c>
       <c r="D205">
-        <v>64.27386474842206</v>
+        <v>201697.3942501843</v>
       </c>
       <c r="E205">
-        <v>432979039632453.4</v>
+        <v>79729187022740.16</v>
       </c>
       <c r="F205">
-        <v>8932.497375130386</v>
+        <v>1173244.781496474</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>35124252781022.85</v>
+        <v>15422928277907.07</v>
       </c>
       <c r="B206">
-        <v>0.01369800932748308</v>
+        <v>0.01547421071599772</v>
       </c>
       <c r="C206">
-        <v>455096632648999.9</v>
+        <v>81815061750824.72</v>
       </c>
       <c r="D206">
-        <v>19.16036325739697</v>
+        <v>200230.0868275762</v>
       </c>
       <c r="E206">
-        <v>455096632648999.9</v>
+        <v>81815061750824.72</v>
       </c>
       <c r="F206">
-        <v>9055.440121822718</v>
+        <v>1186533.216782072</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>34936805045113.99</v>
+        <v>15157397126190.04</v>
       </c>
       <c r="B207">
-        <v>0.01369939260250822</v>
+        <v>0.01547660990585123</v>
       </c>
       <c r="C207">
-        <v>476337175731064.1</v>
+        <v>83367559099750.16</v>
       </c>
       <c r="D207">
-        <v>14.02148723079881</v>
+        <v>197565.6864524484</v>
       </c>
       <c r="E207">
-        <v>476337175731064.1</v>
+        <v>83367559099750.16</v>
       </c>
       <c r="F207">
-        <v>9139.950596458109</v>
+        <v>1196131.107070913</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>34525958978036.06</v>
+        <v>14860613835298.46</v>
       </c>
       <c r="B208">
-        <v>0.0137024271511808</v>
+        <v>0.01547929573872825</v>
       </c>
       <c r="C208">
-        <v>499158586091857.4</v>
+        <v>84414023812008.12</v>
       </c>
       <c r="D208">
-        <v>33.73565193999093</v>
+        <v>195398.5049915314</v>
       </c>
       <c r="E208">
-        <v>499158586091857.4</v>
+        <v>84414023812008.12</v>
       </c>
       <c r="F208">
-        <v>9207.637325538604</v>
+        <v>1202313.30742552</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>34211704827407.74</v>
+        <v>14984058673739.72</v>
       </c>
       <c r="B209">
-        <v>0.01370475078394639</v>
+        <v>0.0154781780342554</v>
       </c>
       <c r="C209">
-        <v>523944114565467.4</v>
+        <v>86322877120582.05</v>
       </c>
       <c r="D209">
-        <v>7.00266051851213</v>
+        <v>188032.0323047638</v>
       </c>
       <c r="E209">
-        <v>523944114565467.4</v>
+        <v>86322877120582.05</v>
       </c>
       <c r="F209">
-        <v>9257.487670465531</v>
+        <v>1213285.948180884</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>33987531491572.89</v>
+        <v>14931702118970.7</v>
       </c>
       <c r="B210">
-        <v>0.01370640969404592</v>
+        <v>0.01547865198885462</v>
       </c>
       <c r="C210">
-        <v>550871586702778.9</v>
+        <v>87015172320527</v>
       </c>
       <c r="D210">
-        <v>-35.68726621940732</v>
+        <v>183377.2476067543</v>
       </c>
       <c r="E210">
-        <v>550871586702778.9</v>
+        <v>87015172320527</v>
       </c>
       <c r="F210">
-        <v>9294.427480953258</v>
+        <v>1217154.596083164</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>33962406560906.62</v>
+        <v>14749406105951.8</v>
       </c>
       <c r="B211">
-        <v>0.01370659569175174</v>
+        <v>0.01548030332376899</v>
       </c>
       <c r="C211">
-        <v>578290175725276.2</v>
+        <v>88983208587368.06</v>
       </c>
       <c r="D211">
-        <v>-49.97179752960801</v>
+        <v>180141.0840830803</v>
       </c>
       <c r="E211">
-        <v>578290175725276.2</v>
+        <v>88983208587368.06</v>
       </c>
       <c r="F211">
-        <v>9321.508651493799</v>
+        <v>1228161.303473367</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>33833899106878.49</v>
+        <v>14606515414884.36</v>
       </c>
       <c r="B212">
-        <v>0.01370754724318296</v>
+        <v>0.01548159892067549</v>
       </c>
       <c r="C212">
-        <v>606675190917306.6</v>
+        <v>92058555103496.12</v>
       </c>
       <c r="D212">
-        <v>-61.28060494735837</v>
+        <v>176427.8035931587</v>
       </c>
       <c r="E212">
-        <v>606675190917306.6</v>
+        <v>92058555103496.12</v>
       </c>
       <c r="F212">
-        <v>9343.329411699006</v>
+        <v>1244279.345017844</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>33884689037697.47</v>
+        <v>14526453339288.31</v>
       </c>
       <c r="B213">
-        <v>0.01370717111765357</v>
+        <v>0.01548232531877071</v>
       </c>
       <c r="C213">
-        <v>635533791976828.6</v>
+        <v>93225170116093.42</v>
       </c>
       <c r="D213">
-        <v>-84.01615956425667</v>
+        <v>172045.9524979591</v>
       </c>
       <c r="E213">
-        <v>635533791976828.6</v>
+        <v>93225170116093.42</v>
       </c>
       <c r="F213">
-        <v>9359.578831428729</v>
+        <v>1250293.25601668</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>33907663769064.23</v>
+        <v>14498687840643.58</v>
       </c>
       <c r="B214">
-        <v>0.01370700099702671</v>
+        <v>0.01548257731284054</v>
       </c>
       <c r="C214">
-        <v>665879747392639.4</v>
+        <v>94943755209494.78</v>
       </c>
       <c r="D214">
-        <v>-37.32847192883492</v>
+        <v>167111.567006588</v>
       </c>
       <c r="E214">
-        <v>665879747392639.4</v>
+        <v>94943755209494.78</v>
       </c>
       <c r="F214">
-        <v>9373.274465915021</v>
+        <v>1258818.12696084</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>33646949414603.96</v>
+        <v>14372489002984.34</v>
       </c>
       <c r="B215">
-        <v>0.01370893220265204</v>
+        <v>0.01548372318643574</v>
       </c>
       <c r="C215">
-        <v>696523571073339.5</v>
+        <v>96893887554107.48</v>
       </c>
       <c r="D215">
-        <v>28.87334577552974</v>
+        <v>163023.7854361534</v>
       </c>
       <c r="E215">
-        <v>696523571073339.5</v>
+        <v>96893887554107.48</v>
       </c>
       <c r="F215">
-        <v>9384.909224927409</v>
+        <v>1268152.172758032</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>33233450291350.46</v>
+        <v>14710447479923.74</v>
       </c>
       <c r="B216">
-        <v>0.01371199829753839</v>
+        <v>0.01548065645704391</v>
       </c>
       <c r="C216">
-        <v>728829919194355.4</v>
+        <v>99043905632826.47</v>
       </c>
       <c r="D216">
-        <v>35.20425773365423</v>
+        <v>154253.8753547668</v>
       </c>
       <c r="E216">
-        <v>728829919194355.4</v>
+        <v>99043905632826.47</v>
       </c>
       <c r="F216">
-        <v>9395.92985964639</v>
+        <v>1278245.324958033</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>32939721925868.42</v>
+        <v>14393077820249.5</v>
       </c>
       <c r="B217">
-        <v>0.01371417866387615</v>
+        <v>0.01548353618373116</v>
       </c>
       <c r="C217">
-        <v>764234267732207.5</v>
+        <v>99235799919194.25</v>
       </c>
       <c r="D217">
-        <v>6.515616637654603</v>
+        <v>152850.4064607024</v>
       </c>
       <c r="E217">
-        <v>764234267732207.5</v>
+        <v>99235799919194.25</v>
       </c>
       <c r="F217">
-        <v>9407.014015188039</v>
+        <v>1279112.746929519</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>32718523864295.56</v>
+        <v>14129211089946.91</v>
       </c>
       <c r="B218">
-        <v>0.01371582194291975</v>
+        <v>0.01548593454580176</v>
       </c>
       <c r="C218">
-        <v>800309135983716</v>
+        <v>100719320660902.7</v>
       </c>
       <c r="D218">
-        <v>-20.66098883748055</v>
+        <v>150203.213262558</v>
       </c>
       <c r="E218">
-        <v>800309135983716</v>
+        <v>100719320660902.7</v>
       </c>
       <c r="F218">
-        <v>9417.332157068349</v>
+        <v>1286061.509026955</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>32603299916251.32</v>
+        <v>14165738170646.95</v>
       </c>
       <c r="B219">
-        <v>0.01371667838920646</v>
+        <v>0.01548560231547752</v>
       </c>
       <c r="C219">
-        <v>836523408937987.1</v>
+        <v>103167682916453.8</v>
       </c>
       <c r="D219">
-        <v>-19.81337658315897</v>
+        <v>144582.1139574051</v>
       </c>
       <c r="E219">
-        <v>836523408937987.1</v>
+        <v>103167682916453.8</v>
       </c>
       <c r="F219">
-        <v>9427.638501894431</v>
+        <v>1297148.447489713</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>32377877272554.11</v>
+        <v>14068015849953.44</v>
       </c>
       <c r="B220">
-        <v>0.01371835482191496</v>
+        <v>0.01548649130737101</v>
       </c>
       <c r="C220">
-        <v>874348430779914.2</v>
+        <v>105017977273753.6</v>
       </c>
       <c r="D220">
-        <v>8.746877306140959</v>
+        <v>140506.60242939</v>
       </c>
       <c r="E220">
-        <v>874348430779914.2</v>
+        <v>105017977273753.6</v>
       </c>
       <c r="F220">
-        <v>9438.355972572968</v>
+        <v>1304938.662421488</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>32083080385722</v>
+        <v>14253311534481</v>
       </c>
       <c r="B221">
-        <v>0.01372054897157823</v>
+        <v>0.01548480609145336</v>
       </c>
       <c r="C221">
-        <v>915438089545827.1</v>
+        <v>107581042117861.6</v>
       </c>
       <c r="D221">
-        <v>33.77914322959259</v>
+        <v>133727.7149810791</v>
       </c>
       <c r="E221">
-        <v>915438089545827.1</v>
+        <v>107581042117861.6</v>
       </c>
       <c r="F221">
-        <v>9450.091599464937</v>
+        <v>1315907.934222036</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>31704415403421.8</v>
+        <v>14251762390701.24</v>
       </c>
       <c r="B222">
-        <v>0.01372337034714465</v>
+        <v>0.01548482017278065</v>
       </c>
       <c r="C222">
-        <v>956763909996786.2</v>
+        <v>109811168252288.3</v>
       </c>
       <c r="D222">
-        <v>48.53432444587816</v>
+        <v>129170.3257141113</v>
       </c>
       <c r="E222">
-        <v>956763909996786.2</v>
+        <v>109811168252288.3</v>
       </c>
       <c r="F222">
-        <v>9462.164266463733</v>
+        <v>1324891.593097048</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>31325596730133.56</v>
+        <v>14201725895258.25</v>
       </c>
       <c r="B223">
-        <v>0.01372619627723358</v>
+        <v>0.01548527506183916</v>
       </c>
       <c r="C223">
-        <v>999184125422584.4</v>
+        <v>112173091351693.4</v>
       </c>
       <c r="D223">
-        <v>13.94389354251325</v>
+        <v>125108.6902523041</v>
       </c>
       <c r="E223">
-        <v>999184125422584.4</v>
+        <v>112173091351693.4</v>
       </c>
       <c r="F223">
-        <v>9474.872859105451</v>
+        <v>1334124.393446733</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>31169320757394.66</v>
+        <v>14226511370864.73</v>
       </c>
       <c r="B224">
-        <v>0.01372736307396507</v>
+        <v>0.01548504971651617</v>
       </c>
       <c r="C224">
-        <v>1044825682958164</v>
+        <v>115547009779243.2</v>
       </c>
       <c r="D224">
-        <v>-52.82271567964926</v>
+        <v>120471.6381568909</v>
       </c>
       <c r="E224">
-        <v>1044825682958164</v>
+        <v>115547009779243.2</v>
       </c>
       <c r="F224">
-        <v>9488.874611309411</v>
+        <v>1346583.313885678</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>31202764077425.25</v>
+        <v>14047849378459.76</v>
       </c>
       <c r="B225">
-        <v>0.01372711332808794</v>
+        <v>0.01548667482921386</v>
       </c>
       <c r="C225">
-        <v>1090723451320795</v>
+        <v>117093785384984.8</v>
       </c>
       <c r="D225">
-        <v>-52.5752135165967</v>
+        <v>117471.7783361673</v>
       </c>
       <c r="E225">
-        <v>1090723451320795</v>
+        <v>117093785384984.8</v>
       </c>
       <c r="F225">
-        <v>9503.375849244558</v>
+        <v>1352190.443553678</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>31044828334490.59</v>
+        <v>13920610225998.61</v>
       </c>
       <c r="B226">
-        <v>0.01372829298762365</v>
+        <v>0.01548783326485713</v>
       </c>
       <c r="C226">
-        <v>1138596381769400</v>
+        <v>120315067585346.8</v>
       </c>
       <c r="D226">
-        <v>-9.676157590001822</v>
+        <v>113924.3216819763</v>
       </c>
       <c r="E226">
-        <v>1138596381769400</v>
+        <v>120315067585346.8</v>
       </c>
       <c r="F226">
-        <v>9519.001039010684</v>
+        <v>1363403.22863853</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>30816843004611.89</v>
+        <v>14112730587464.26</v>
       </c>
       <c r="B227">
-        <v>0.01372999692867758</v>
+        <v>0.01548608446724141</v>
       </c>
       <c r="C227">
-        <v>1188967235460020</v>
+        <v>123225942381581.2</v>
       </c>
       <c r="D227">
-        <v>18.48048429656774</v>
+        <v>108248.9791226387</v>
       </c>
       <c r="E227">
-        <v>1188967235460020</v>
+        <v>123225942381581.2</v>
       </c>
       <c r="F227">
-        <v>9536.035988737258</v>
+        <v>1373098.50258753</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>30491033066925.84</v>
+        <v>13852150790726.31</v>
       </c>
       <c r="B228">
-        <v>0.01373243419885235</v>
+        <v>0.01548845691667071</v>
       </c>
       <c r="C228">
-        <v>1240494574956385</v>
+        <v>124848850996923.6</v>
       </c>
       <c r="D228">
-        <v>50.2337755523622</v>
+        <v>106390.0171251297</v>
       </c>
       <c r="E228">
-        <v>1240494574956385</v>
+        <v>124848850996923.6</v>
       </c>
       <c r="F228">
-        <v>9554.103024305321</v>
+        <v>1378560.910616079</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>30078440364537.71</v>
+        <v>13903111220282.04</v>
       </c>
       <c r="B229">
-        <v>0.01373552440327375</v>
+        <v>0.01548799265260462</v>
       </c>
       <c r="C229">
-        <v>1293347035662358</v>
+        <v>128018795427510.8</v>
       </c>
       <c r="D229">
-        <v>85.3347128337482</v>
+        <v>102001.6275610924</v>
       </c>
       <c r="E229">
-        <v>1293347035662358</v>
+        <v>128018795427510.8</v>
       </c>
       <c r="F229">
-        <v>9573.287736624688</v>
+        <v>1388556.701450452</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>29554941391059.1</v>
+        <v>13665439401955.11</v>
       </c>
       <c r="B230">
-        <v>0.01373945135570394</v>
+        <v>0.01549015914735803</v>
       </c>
       <c r="C230">
-        <v>1348211993653792</v>
+        <v>129237817780351.6</v>
       </c>
       <c r="D230">
-        <v>68.77563596889377</v>
+        <v>99627.24533176422</v>
       </c>
       <c r="E230">
-        <v>1348211993653792</v>
+        <v>129237817780351.6</v>
       </c>
       <c r="F230">
-        <v>9593.843878548127</v>
+        <v>1392271.099593654</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>29255076309577.95</v>
+        <v>13714913333994.85</v>
       </c>
       <c r="B231">
-        <v>0.01374170385521341</v>
+        <v>0.01548970790802179</v>
       </c>
       <c r="C231">
-        <v>1405871118109769</v>
+        <v>132532573434591.9</v>
       </c>
       <c r="D231">
-        <v>-36.82985949516296</v>
+        <v>95254.19529056549</v>
       </c>
       <c r="E231">
-        <v>1405871118109769</v>
+        <v>132532573434591.9</v>
       </c>
       <c r="F231">
-        <v>9616.07226908892</v>
+        <v>1402381.867903909</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>29348012869675.54</v>
+        <v>13518790852288.63</v>
       </c>
       <c r="B232">
-        <v>0.01374100549922661</v>
+        <v>0.01549149750307929</v>
       </c>
       <c r="C232">
-        <v>1465038326918108</v>
+        <v>136776114324113.3</v>
       </c>
       <c r="D232">
-        <v>-62.48423613421619</v>
+        <v>92729.06076323986</v>
       </c>
       <c r="E232">
-        <v>1465038326918108</v>
+        <v>136776114324113.3</v>
       </c>
       <c r="F232">
-        <v>9639.488740150018</v>
+        <v>1414382.792707452</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>29195640762737.58</v>
+        <v>13408617083477.52</v>
       </c>
       <c r="B233">
-        <v>0.01374215058859599</v>
+        <v>0.0154925037832988</v>
       </c>
       <c r="C233">
-        <v>1526847639420598</v>
+        <v>140376450855913.4</v>
       </c>
       <c r="D233">
-        <v>-32.03448645025492</v>
+        <v>89852.27960062027</v>
       </c>
       <c r="E233">
-        <v>1526847639420598</v>
+        <v>140376450855913.4</v>
       </c>
       <c r="F233">
-        <v>9664.545733516235</v>
+        <v>1423854.362647706</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>29113965558299.62</v>
+        <v>12943293756267.79</v>
       </c>
       <c r="B234">
-        <v>0.01374276462792819</v>
+        <v>0.01549676158313432</v>
       </c>
       <c r="C234">
-        <v>1591362016772076</v>
+        <v>141945031111647.6</v>
       </c>
       <c r="D234">
-        <v>6.539188245311379</v>
+        <v>89259.79136717319</v>
       </c>
       <c r="E234">
-        <v>1591362016772076</v>
+        <v>141945031111647.6</v>
       </c>
       <c r="F234">
-        <v>9691.295005122027</v>
+        <v>1428404.294743655</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>28741254008233.3</v>
+        <v>12866875858089.86</v>
       </c>
       <c r="B235">
-        <v>0.01374556886423654</v>
+        <v>0.01549746203638404</v>
       </c>
       <c r="C235">
-        <v>1657784703374570</v>
+        <v>145024926566308.9</v>
       </c>
       <c r="D235">
-        <v>20.3020098824054</v>
+        <v>85798.49570655823</v>
       </c>
       <c r="E235">
-        <v>1657784703374570</v>
+        <v>145024926566308.9</v>
       </c>
       <c r="F235">
-        <v>9719.413541134038</v>
+        <v>1436429.673610957</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>28587633389059.54</v>
+        <v>12756283076546.1</v>
       </c>
       <c r="B236">
-        <v>0.01374672572800308</v>
+        <v>0.01549847635601096</v>
       </c>
       <c r="C236">
-        <v>1727360489135714</v>
+        <v>148261106849836</v>
       </c>
       <c r="D236">
-        <v>-34.6816201005131</v>
+        <v>83022.96491956711</v>
       </c>
       <c r="E236">
-        <v>1727360489135714</v>
+        <v>148261106849836</v>
       </c>
       <c r="F236">
-        <v>9749.443970764496</v>
+        <v>1444389.570192222</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>28527109949222.27</v>
+        <v>12486113100921.72</v>
       </c>
       <c r="B237">
-        <v>0.01374718167692249</v>
+        <v>0.0155009573642774</v>
       </c>
       <c r="C237">
-        <v>1798600166489854</v>
+        <v>151342028970312.4</v>
       </c>
       <c r="D237">
-        <v>-41.59605094278231</v>
+        <v>80762.5330426693</v>
       </c>
       <c r="E237">
-        <v>1798600166489854</v>
+        <v>151342028970312.4</v>
       </c>
       <c r="F237">
-        <v>9780.76964852888</v>
+        <v>1451517.481038586</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>28412774793703.55</v>
+        <v>12598457404831.87</v>
       </c>
       <c r="B238">
-        <v>0.01374804327218995</v>
+        <v>0.01549992515300947</v>
       </c>
       <c r="C238">
-        <v>1872684121509486</v>
+        <v>155319303995973.2</v>
       </c>
       <c r="D238">
-        <v>-48.49620726704597</v>
+        <v>76377.21548008919</v>
       </c>
       <c r="E238">
-        <v>1872684121509486</v>
+        <v>155319303995973.2</v>
       </c>
       <c r="F238">
-        <v>9813.925332871549</v>
+        <v>1460322.496777202</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>28391560818197.56</v>
+        <v>12252920056175.32</v>
       </c>
       <c r="B239">
-        <v>0.01374820317174225</v>
+        <v>0.01550310240101466</v>
       </c>
       <c r="C239">
-        <v>1949575437835311</v>
+        <v>159777337674102</v>
       </c>
       <c r="D239">
-        <v>-70.90349996089935</v>
+        <v>75206.10887558758</v>
       </c>
       <c r="E239">
-        <v>1949575437835311</v>
+        <v>159777337674102</v>
       </c>
       <c r="F239">
-        <v>9848.913659076579</v>
+        <v>1469960.655285134</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>28402531428318.41</v>
+        <v>11888054300181.22</v>
       </c>
       <c r="B240">
-        <v>0.01374812047971153</v>
+        <v>0.01550646546427416</v>
       </c>
       <c r="C240">
-        <v>2029623272358377</v>
+        <v>161677642590055.4</v>
       </c>
       <c r="D240">
-        <v>-40.58780983090401</v>
+        <v>73759.08338630199</v>
       </c>
       <c r="E240">
-        <v>2029623272358377</v>
+        <v>161677642590055.4</v>
       </c>
       <c r="F240">
-        <v>9885.877028935472</v>
+        <v>1473847.37112122</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>28211857916490.56</v>
+        <v>11790240396372.71</v>
       </c>
       <c r="B241">
-        <v>0.01374955814710789</v>
+        <v>0.01550736848300532</v>
       </c>
       <c r="C241">
-        <v>2112241255876359</v>
+        <v>166155047302210.7</v>
       </c>
       <c r="D241">
-        <v>10.07732662186027</v>
+        <v>70905.05950891972</v>
       </c>
       <c r="E241">
-        <v>2112241255876359</v>
+        <v>166155047302210.7</v>
       </c>
       <c r="F241">
-        <v>9924.524055347096</v>
+        <v>1482830.313219568</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>27942779563013.45</v>
+        <v>11480111051673.79</v>
       </c>
       <c r="B242">
-        <v>0.01375158860523535</v>
+        <v>0.01551023571597605</v>
       </c>
       <c r="C242">
-        <v>2198178559372720</v>
+        <v>169829118832497.4</v>
       </c>
       <c r="D242">
-        <v>30.97707935026847</v>
+        <v>69741.96916532516</v>
       </c>
       <c r="E242">
-        <v>2198178559372720</v>
+        <v>169829118832497.4</v>
       </c>
       <c r="F242">
-        <v>9965.172437159441</v>
+        <v>1489828.4254483</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>27641619469041.97</v>
+        <v>11254269037208.4</v>
       </c>
       <c r="B243">
-        <v>0.01375386342134652</v>
+        <v>0.01551232769640867</v>
       </c>
       <c r="C243">
-        <v>2286288464351894</v>
+        <v>173092148973696</v>
       </c>
       <c r="D243">
-        <v>39.22889505466446</v>
+        <v>67395.54436397552</v>
       </c>
       <c r="E243">
-        <v>2286288464351894</v>
+        <v>173092148973696</v>
       </c>
       <c r="F243">
-        <v>10007.26196642311</v>
+        <v>1495813.240770645</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>27333863615418.04</v>
+        <v>11312961473300.55</v>
       </c>
       <c r="B244">
-        <v>0.01375619055800068</v>
+        <v>0.01551178369772499</v>
       </c>
       <c r="C244">
-        <v>2378771667684477</v>
+        <v>177227550149153.7</v>
       </c>
       <c r="D244">
-        <v>-3.333701614290476</v>
+        <v>63818.87020206451</v>
       </c>
       <c r="E244">
-        <v>2378771667684477</v>
+        <v>177227550149153.7</v>
       </c>
       <c r="F244">
-        <v>10051.82005467771</v>
+        <v>1503182.810351725</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>27268506387139.22</v>
+        <v>11066721373589.45</v>
       </c>
       <c r="B245">
-        <v>0.01375668509285094</v>
+        <v>0.01551406757454466</v>
       </c>
       <c r="C245">
-        <v>2474005041241582</v>
+        <v>182745988384408.4</v>
       </c>
       <c r="D245">
-        <v>-75.9850649535656</v>
+        <v>62133.7820482254</v>
       </c>
       <c r="E245">
-        <v>2474005041241582</v>
+        <v>182745988384408.4</v>
       </c>
       <c r="F245">
-        <v>10098.04324024046</v>
+        <v>1512683.108831606</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>27351536029329.08</v>
+        <v>11132050129726.76</v>
       </c>
       <c r="B246">
-        <v>0.01375605685691023</v>
+        <v>0.01551346124779151</v>
       </c>
       <c r="C246">
-        <v>2573542998627381</v>
+        <v>185765345602167.1</v>
       </c>
       <c r="D246">
-        <v>-63.14922915771604</v>
+        <v>58383.46197891235</v>
       </c>
       <c r="E246">
-        <v>2573542998627381</v>
+        <v>185765345602167.1</v>
       </c>
       <c r="F246">
-        <v>10146.66589366381</v>
+        <v>1517698.657001787</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>27217122232169.8</v>
+        <v>11046180803350.6</v>
       </c>
       <c r="B247">
-        <v>0.01375707397935716</v>
+        <v>0.01551425827543897</v>
       </c>
       <c r="C247">
-        <v>2674984006590737</v>
+        <v>189878351378373.2</v>
       </c>
       <c r="D247">
-        <v>-8.606483657844365</v>
+        <v>55736.41084754467</v>
       </c>
       <c r="E247">
-        <v>2674984006590737</v>
+        <v>189878351378373.2</v>
       </c>
       <c r="F247">
-        <v>10196.49552441788</v>
+        <v>1524277.504118746</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>27008284255170.68</v>
+        <v>10680897342352.99</v>
       </c>
       <c r="B248">
-        <v>0.01375865524637449</v>
+        <v>0.01551765450839187</v>
       </c>
       <c r="C248">
-        <v>2781649507872554</v>
+        <v>194580755977760.4</v>
       </c>
       <c r="D248">
-        <v>3.284851197618991</v>
+        <v>51065.30766171217</v>
       </c>
       <c r="E248">
-        <v>2781649507872554</v>
+        <v>194580755977760.4</v>
       </c>
       <c r="F248">
-        <v>10249.15397774337</v>
+        <v>1531624.589654001</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>26813343461958.93</v>
+        <v>10070085363559.49</v>
       </c>
       <c r="B249">
-        <v>0.01376013235809293</v>
+        <v>0.01552335491523507</v>
       </c>
       <c r="C249">
-        <v>2892749272659504</v>
+        <v>201483703031959.9</v>
       </c>
       <c r="D249">
-        <v>20.69524049758911</v>
+        <v>44187.92957538366</v>
       </c>
       <c r="E249">
-        <v>2892749272659504</v>
+        <v>201483703031959.9</v>
       </c>
       <c r="F249">
-        <v>10304.2487791052</v>
+        <v>1542345.070175889</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>26515588765050.81</v>
+        <v>9521083902257.486</v>
       </c>
       <c r="B250">
-        <v>0.01376239052487918</v>
+        <v>0.01552850240606685</v>
       </c>
       <c r="C250">
-        <v>3006547824115050</v>
+        <v>203720851121736.3</v>
       </c>
       <c r="D250">
-        <v>20.47358222492039</v>
+        <v>35379.49431592226</v>
       </c>
       <c r="E250">
-        <v>3006547824115050</v>
+        <v>203720851121736.3</v>
       </c>
       <c r="F250">
-        <v>10360.88821721781</v>
+        <v>1545844.016725215</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>26327338115151.88</v>
+        <v>8994751359553.031</v>
       </c>
       <c r="B251">
-        <v>0.01376381947760077</v>
+        <v>0.01553345983797116</v>
       </c>
       <c r="C251">
-        <v>3126236257737620</v>
+        <v>208195214092865</v>
       </c>
       <c r="D251">
-        <v>-33.7084303535521</v>
+        <v>25386.15250462294</v>
       </c>
       <c r="E251">
-        <v>3126236257737620</v>
+        <v>208195214092865</v>
       </c>
       <c r="F251">
-        <v>10420.64792802425</v>
+        <v>1552906.441882001</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>26313801892838.2</v>
+        <v>8288828318467.343</v>
       </c>
       <c r="B252">
-        <v>0.01376392226480238</v>
+        <v>0.01554014560909466</v>
       </c>
       <c r="C252">
-        <v>3248184316705182</v>
+        <v>215783067170093.3</v>
       </c>
       <c r="D252">
-        <v>-38.4287576675415</v>
+        <v>14586.14539641142</v>
       </c>
       <c r="E252">
-        <v>3248184316705182</v>
+        <v>215783067170093.3</v>
       </c>
       <c r="F252">
-        <v>10481.6932775857</v>
+        <v>1565095.236116563</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>26150102281906.08</v>
+        <v>7494352304782.67</v>
       </c>
       <c r="B253">
-        <v>0.01376516572079927</v>
+        <v>0.01554772457821588</v>
       </c>
       <c r="C253">
-        <v>3374367062504356</v>
+        <v>220181533215422.1</v>
       </c>
       <c r="D253">
-        <v>-16.53007499175146</v>
+        <v>1885.254750490189</v>
       </c>
       <c r="E253">
-        <v>3374367062504356</v>
+        <v>220181533215422.1</v>
       </c>
       <c r="F253">
-        <v>10544.99609562159</v>
+        <v>1572270.894530102</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>26025004359815.68</v>
+        <v>6862815630716.1</v>
       </c>
       <c r="B254">
-        <v>0.01376611646487606</v>
+        <v>0.01555379419244269</v>
       </c>
       <c r="C254">
-        <v>3506381731154168</v>
+        <v>224577812679987.7</v>
       </c>
       <c r="D254">
-        <v>-50.2163126450032</v>
+        <v>2028.873273206875</v>
       </c>
       <c r="E254">
-        <v>3506381731154168</v>
+        <v>224577812679987.7</v>
       </c>
       <c r="F254">
-        <v>10611.3465353232</v>
+        <v>1579506.840688042</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>26035243513523.36</v>
+        <v>6092326921036.011</v>
       </c>
       <c r="B255">
-        <v>0.01376603863082815</v>
+        <v>0.01556125903960245</v>
       </c>
       <c r="C255">
-        <v>3643090760018314</v>
+        <v>231678963539921.6</v>
       </c>
       <c r="D255">
-        <v>-44.90373383834958</v>
+        <v>2574.881918828934</v>
       </c>
       <c r="E255">
-        <v>3643090760018314</v>
+        <v>231678963539921.6</v>
       </c>
       <c r="F255">
-        <v>10680.16332946593</v>
+        <v>1591290.509950127</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>25882878046627.08</v>
+        <v>5293551251686.155</v>
       </c>
       <c r="B256">
-        <v>0.01376719715814675</v>
+        <v>0.01556907577870625</v>
       </c>
       <c r="C256">
-        <v>3786084023689706</v>
+        <v>238618952590906.7</v>
       </c>
       <c r="D256">
-        <v>20.29221560619771</v>
+        <v>3058.082052432001</v>
       </c>
       <c r="E256">
-        <v>3786084023689706</v>
+        <v>238618952590906.7</v>
       </c>
       <c r="F256">
-        <v>10752.23974718051</v>
+        <v>1602870.32841377</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>25561888207319.68</v>
+        <v>4479182576652.157</v>
       </c>
       <c r="B257">
-        <v>0.01376963998694744</v>
+        <v>0.01557713917664713</v>
       </c>
       <c r="C257">
-        <v>3931796094134536</v>
+        <v>243490212563659.1</v>
       </c>
       <c r="D257">
-        <v>41.25924609357025</v>
+        <v>4035.92268743366</v>
       </c>
       <c r="E257">
-        <v>3931796094134536</v>
+        <v>243490212563659.1</v>
       </c>
       <c r="F257">
-        <v>10825.75435103301</v>
+        <v>1611009.310127429</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>25309981626342.92</v>
+        <v>3501109385538.752</v>
       </c>
       <c r="B258">
-        <v>0.01377155912810803</v>
+        <v>0.01558697451403572</v>
       </c>
       <c r="C258">
-        <v>4083841085363200</v>
+        <v>247387523475975.8</v>
       </c>
       <c r="D258">
-        <v>39.58069519483251</v>
+        <v>5947.452827490866</v>
       </c>
       <c r="E258">
-        <v>4083841085363200</v>
+        <v>247387523475975.8</v>
       </c>
       <c r="F258">
-        <v>10902.50583095541</v>
+        <v>1617516.540286043</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>25003048830208.61</v>
+        <v>2424966042824.989</v>
       </c>
       <c r="B259">
-        <v>0.01377389995336903</v>
+        <v>0.01559804284542513</v>
       </c>
       <c r="C259">
-        <v>4241348754443615</v>
+        <v>253827941489140.2</v>
       </c>
       <c r="D259">
-        <v>46.99871616996825</v>
+        <v>6490.742990478873</v>
       </c>
       <c r="E259">
-        <v>4241348754443615</v>
+        <v>253827941489140.2</v>
       </c>
       <c r="F259">
-        <v>10982.02731248899</v>
+        <v>1628243.871561239</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>24721478872578.08</v>
+        <v>1949728360237.217</v>
       </c>
       <c r="B260">
-        <v>0.01377604975694267</v>
+        <v>0.01560304070039257</v>
       </c>
       <c r="C260">
-        <v>4406773476521453</v>
+        <v>264280370764343.8</v>
       </c>
       <c r="D260">
-        <v>7.351613020524383</v>
+        <v>4738.110818013549</v>
       </c>
       <c r="E260">
-        <v>4406773476521453</v>
+        <v>264280370764343.8</v>
       </c>
       <c r="F260">
-        <v>11065.5313161155</v>
+        <v>1645532.808244578</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>24614119149481.87</v>
+        <v>1511138485607.376</v>
       </c>
       <c r="B261">
-        <v>0.01377687006663656</v>
+        <v>0.01560773374925182</v>
       </c>
       <c r="C261">
-        <v>4576175586139990</v>
+        <v>269570538246714.1</v>
       </c>
       <c r="D261">
-        <v>-25.56507881730795</v>
+        <v>4776.196657210588</v>
       </c>
       <c r="E261">
-        <v>4576175586139990</v>
+        <v>269570538246714.1</v>
       </c>
       <c r="F261">
-        <v>11151.01066566065</v>
+        <v>1654204.94996332</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>24493709547076.02</v>
+        <v>1235851271241.796</v>
       </c>
       <c r="B262">
-        <v>0.01377779049151108</v>
+        <v>0.0156107295332375</v>
       </c>
       <c r="C262">
-        <v>4752718558239399</v>
+        <v>275547033516425.4</v>
       </c>
       <c r="D262">
-        <v>-9.350719131529331</v>
+        <v>3193.658630996943</v>
       </c>
       <c r="E262">
-        <v>4752718558239399</v>
+        <v>275547033516425.4</v>
       </c>
       <c r="F262">
-        <v>11240.05309563669</v>
+        <v>1663926.281977547</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>24309328337170.61</v>
+        <v>1118195628461.563</v>
       </c>
       <c r="B263">
-        <v>0.01377920075502358</v>
+        <v>0.01561202432792924</v>
       </c>
       <c r="C263">
-        <v>4935289937821331</v>
+        <v>282651510095309.1</v>
       </c>
       <c r="D263">
-        <v>40.65002255328</v>
+        <v>4764.154606282711</v>
       </c>
       <c r="E263">
-        <v>4935289937821331</v>
+        <v>282651510095309.1</v>
       </c>
       <c r="F263">
-        <v>11332.09115324673</v>
+        <v>1675366.553181002</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>23952041306504.94</v>
+        <v>708920499896.8079</v>
       </c>
       <c r="B264">
-        <v>0.01378193639999766</v>
+        <v>0.01561661539226877</v>
       </c>
       <c r="C264">
-        <v>5124393114248668</v>
+        <v>293005062821372.6</v>
       </c>
       <c r="D264">
-        <v>49.50074787251651</v>
+        <v>6119.87183380127</v>
       </c>
       <c r="E264">
-        <v>5124393114248668</v>
+        <v>293005062821372.6</v>
       </c>
       <c r="F264">
-        <v>11427.37484624877</v>
+        <v>1691792.996113157</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>23733968974020.33</v>
+        <v>690327196199.9569</v>
       </c>
       <c r="B265">
-        <v>0.01378360800787228</v>
+        <v>0.01561682791996276</v>
       </c>
       <c r="C265">
-        <v>5322655654098364</v>
+        <v>297277608710892.6</v>
       </c>
       <c r="D265">
-        <v>-29.23521693795919</v>
+        <v>3982.423214435577</v>
       </c>
       <c r="E265">
-        <v>5322655654098364</v>
+        <v>297277608710892.6</v>
       </c>
       <c r="F265">
-        <v>11527.22960694859</v>
+        <v>1698481.813921909</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>23749724922413.88</v>
+        <v>436286698615.5201</v>
       </c>
       <c r="B266">
-        <v>0.01378348718414999</v>
+        <v>0.0156197798583576</v>
       </c>
       <c r="C266">
-        <v>5527577220691641</v>
+        <v>305881506348863.2</v>
       </c>
       <c r="D266">
-        <v>-44.68528730422258</v>
+        <v>7200.092773675919</v>
       </c>
       <c r="E266">
-        <v>5527577220691641</v>
+        <v>305881506348863.2</v>
       </c>
       <c r="F266">
-        <v>11630.39918146372</v>
+        <v>1711787.058824112</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>23603728100937.04</v>
+        <v>381009724894.9248</v>
       </c>
       <c r="B267">
-        <v>0.01378460704329606</v>
+        <v>0.01562043695728395</v>
       </c>
       <c r="C267">
-        <v>5738086785566467</v>
+        <v>315107845103135.3</v>
       </c>
       <c r="D267">
-        <v>21.65440542064607</v>
+        <v>4645.350741326809</v>
       </c>
       <c r="E267">
-        <v>5738086785566467</v>
+        <v>315107845103135.3</v>
       </c>
       <c r="F267">
-        <v>11736.3426007721</v>
+        <v>1725808.154867235</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>23312150009830.4</v>
+        <v>261161500581.6271</v>
       </c>
       <c r="B268">
-        <v>0.01378684552771732</v>
+        <v>0.01562188745368295</v>
       </c>
       <c r="C268">
-        <v>5956421471837063</v>
+        <v>323206403160678.9</v>
       </c>
       <c r="D268">
-        <v>54.71574749797583</v>
+        <v>14774.38987731934</v>
       </c>
       <c r="E268">
-        <v>5956421471837063</v>
+        <v>323206403160678.9</v>
       </c>
       <c r="F268">
-        <v>11846.18471654518</v>
+        <v>1737905.883029668</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>23019932758443.84</v>
+        <v>2788302004.090971</v>
       </c>
       <c r="B269">
-        <v>0.01378909155504199</v>
+        <v>0.01562529632309359</v>
       </c>
       <c r="C269">
-        <v>6184200549768909</v>
+        <v>331160916604959.2</v>
       </c>
       <c r="D269">
-        <v>-4.77711970359087</v>
+        <v>1499288.023681641</v>
       </c>
       <c r="E269">
-        <v>6184200549768909</v>
+        <v>331160916604959.2</v>
       </c>
       <c r="F269">
-        <v>11960.74793449339</v>
+        <v>1749602.012179427</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>23005247942339.01</v>
+        <v>56448740261.00268</v>
       </c>
       <c r="B270">
-        <v>0.01378920449498976</v>
+        <v>0.01562451091221061</v>
       </c>
       <c r="C270">
-        <v>6420182692999252</v>
+        <v>339597058612080.3</v>
       </c>
       <c r="D270">
-        <v>9.074986714869738</v>
+        <v>13902.62890625</v>
       </c>
       <c r="E270">
-        <v>6420182692999252</v>
+        <v>339597058612080.3</v>
       </c>
       <c r="F270">
-        <v>12079.43597867652</v>
+        <v>1761812.463190623</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>22650514677459.27</v>
+        <v>5002643889.428675</v>
       </c>
       <c r="B271">
-        <v>0.01379193478241865</v>
+        <v>0.01562525922034408</v>
       </c>
       <c r="C271">
-        <v>6663370531307769</v>
+        <v>345951257078133.6</v>
       </c>
       <c r="D271">
-        <v>50.76724594179541</v>
+        <v>210669.2272491455</v>
       </c>
       <c r="E271">
-        <v>6663370531307769</v>
+        <v>345951257078133.6</v>
       </c>
       <c r="F271">
-        <v>12201.78784919716</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272">
-        <v>22455741858054.38</v>
-      </c>
-      <c r="B272">
-        <v>0.01379343558949978</v>
-      </c>
-      <c r="C272">
-        <v>6916786564156993</v>
-      </c>
-      <c r="D272">
-        <v>-32.94948031008244</v>
-      </c>
-      <c r="E272">
-        <v>6916786564156993</v>
-      </c>
-      <c r="F272">
-        <v>12329.37715185037</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273">
-        <v>22475737176464.95</v>
-      </c>
-      <c r="B273">
-        <v>0.01379328146145485</v>
-      </c>
-      <c r="C273">
-        <v>7182561489375229</v>
-      </c>
-      <c r="D273">
-        <v>-61.58726384490728</v>
-      </c>
-      <c r="E273">
-        <v>7182561489375229</v>
-      </c>
-      <c r="F273">
-        <v>12463.34707779584</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274">
-        <v>22407476508534.55</v>
-      </c>
-      <c r="B274">
-        <v>0.01379380768141113</v>
-      </c>
-      <c r="C274">
-        <v>7452490320842504</v>
-      </c>
-      <c r="D274">
-        <v>-72.07959344983101</v>
-      </c>
-      <c r="E274">
-        <v>7452490320842504</v>
-      </c>
-      <c r="F274">
-        <v>12599.64067871341</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275">
-        <v>22473899593831.88</v>
-      </c>
-      <c r="B275">
-        <v>0.01379329562538888</v>
-      </c>
-      <c r="C275">
-        <v>7735339168148767</v>
-      </c>
-      <c r="D275">
-        <v>-48.86664930731058</v>
-      </c>
-      <c r="E275">
-        <v>7735339168148767</v>
-      </c>
-      <c r="F275">
-        <v>12742.7783867802</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276">
-        <v>22302953893392.71</v>
-      </c>
-      <c r="B276">
-        <v>0.01379461373295974</v>
-      </c>
-      <c r="C276">
-        <v>8027460882181143</v>
-      </c>
-      <c r="D276">
-        <v>3.161423880432267</v>
-      </c>
-      <c r="E276">
-        <v>8027460882181143</v>
-      </c>
-      <c r="F276">
-        <v>12891.04020584054</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277">
-        <v>22141839698292.25</v>
-      </c>
-      <c r="B277">
-        <v>0.01379585689224877</v>
-      </c>
-      <c r="C277">
-        <v>8327533976135354</v>
-      </c>
-      <c r="D277">
-        <v>-38.71933917701244</v>
-      </c>
-      <c r="E277">
-        <v>8327533976135354</v>
-      </c>
-      <c r="F277">
-        <v>13043.90496579294</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278">
-        <v>22155817241937.86</v>
-      </c>
-      <c r="B278">
-        <v>0.01379574900816254</v>
-      </c>
-      <c r="C278">
-        <v>8639327131494602</v>
-      </c>
-      <c r="D278">
-        <v>-67.98782666027546</v>
-      </c>
-      <c r="E278">
-        <v>8639327131494602</v>
-      </c>
-      <c r="F278">
-        <v>13203.48511704214</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279">
-        <v>22122226048550.53</v>
-      </c>
-      <c r="B279">
-        <v>0.01379600828863339</v>
-      </c>
-      <c r="C279">
-        <v>8960721432984373</v>
-      </c>
-      <c r="D279">
-        <v>-27.99095692113042</v>
-      </c>
-      <c r="E279">
-        <v>8960721432984373</v>
-      </c>
-      <c r="F279">
-        <v>13368.9279056932</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280">
-        <v>21962106724724.2</v>
-      </c>
-      <c r="B280">
-        <v>0.01379724470494935</v>
-      </c>
-      <c r="C280">
-        <v>9295546940207924</v>
-      </c>
-      <c r="D280">
-        <v>34.74791712407023</v>
-      </c>
-      <c r="E280">
-        <v>9295546940207924</v>
-      </c>
-      <c r="F280">
-        <v>13542.48995769235</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281">
-        <v>21658779310734.4</v>
-      </c>
-      <c r="B281">
-        <v>0.01379958924524227</v>
-      </c>
-      <c r="C281">
-        <v>9638906265104632</v>
-      </c>
-      <c r="D281">
-        <v>29.3621721630916</v>
-      </c>
-      <c r="E281">
-        <v>9638906265104632</v>
-      </c>
-      <c r="F281">
-        <v>13722.00392472093</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282">
-        <v>21528069778990.95</v>
-      </c>
-      <c r="B282">
-        <v>0.01380060048517112</v>
-      </c>
-      <c r="C282">
-        <v>9997625784097414</v>
-      </c>
-      <c r="D282">
-        <v>-4.606982071883976</v>
-      </c>
-      <c r="E282">
-        <v>9997625784097414</v>
-      </c>
-      <c r="F282">
-        <v>13911.50893243566</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283">
-        <v>21371302186177.04</v>
-      </c>
-      <c r="B283">
-        <v>0.01380181407162693</v>
-      </c>
-      <c r="C283">
-        <v>1.036846689029343E+16</v>
-      </c>
-      <c r="D283">
-        <v>-7.647998994216323</v>
-      </c>
-      <c r="E283">
-        <v>1.036846689029343E+16</v>
-      </c>
-      <c r="F283">
-        <v>14109.06964237627</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284">
-        <v>21255502991520.46</v>
-      </c>
-      <c r="B284">
-        <v>0.01380271103526423</v>
-      </c>
-      <c r="C284">
-        <v>1.075233670899314E+16</v>
-      </c>
-      <c r="D284">
-        <v>-36.38970044068992</v>
-      </c>
-      <c r="E284">
-        <v>1.075233670899314E+16</v>
-      </c>
-      <c r="F284">
-        <v>14314.36110984149</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285">
-        <v>21220460904515.21</v>
-      </c>
-      <c r="B285">
-        <v>0.01380298255465187</v>
-      </c>
-      <c r="C285">
-        <v>1.114847147803212E+16</v>
-      </c>
-      <c r="D285">
-        <v>-47.73975082114339</v>
-      </c>
-      <c r="E285">
-        <v>1.114847147803212E+16</v>
-      </c>
-      <c r="F285">
-        <v>14526.35207016884</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286">
-        <v>21152316269918.79</v>
-      </c>
-      <c r="B286">
-        <v>0.01380351068323409</v>
-      </c>
-      <c r="C286">
-        <v>1.15581151281643E+16</v>
-      </c>
-      <c r="D286">
-        <v>-39.85799637343735</v>
-      </c>
-      <c r="E286">
-        <v>1.15581151281643E+16</v>
-      </c>
-      <c r="F286">
-        <v>14745.38021836863</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287">
-        <v>21084807105143.45</v>
-      </c>
-      <c r="B287">
-        <v>0.01380403404102552</v>
-      </c>
-      <c r="C287">
-        <v>1.197830045741718E+16</v>
-      </c>
-      <c r="D287">
-        <v>-12.4323653653264</v>
-      </c>
-      <c r="E287">
-        <v>1.197830045741718E+16</v>
-      </c>
-      <c r="F287">
-        <v>14969.73309182818</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288">
-        <v>20903304434102.35</v>
-      </c>
-      <c r="B288">
-        <v>0.01380544188591439</v>
-      </c>
-      <c r="C288">
-        <v>1.241564670062005E+16</v>
-      </c>
-      <c r="D288">
-        <v>26.72666145628318</v>
-      </c>
-      <c r="E288">
-        <v>1.241564670062005E+16</v>
-      </c>
-      <c r="F288">
-        <v>15202.92062100216</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289">
-        <v>20676877966680.38</v>
-      </c>
-      <c r="B289">
-        <v>0.01380719975950748</v>
-      </c>
-      <c r="C289">
-        <v>1.286290104869608E+16</v>
-      </c>
-      <c r="D289">
-        <v>30.42363641504198</v>
-      </c>
-      <c r="E289">
-        <v>1.286290104869608E+16</v>
-      </c>
-      <c r="F289">
-        <v>15441.10183909103</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290">
-        <v>20484787781522.03</v>
-      </c>
-      <c r="B290">
-        <v>0.01380869244201698</v>
-      </c>
-      <c r="C290">
-        <v>1.332613400962169E+16</v>
-      </c>
-      <c r="D290">
-        <v>10.43626988958567</v>
-      </c>
-      <c r="E290">
-        <v>1.332613400962169E+16</v>
-      </c>
-      <c r="F290">
-        <v>15687.55991815565</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291">
-        <v>20342858130194.66</v>
-      </c>
-      <c r="B291">
-        <v>0.01380979616079383</v>
-      </c>
-      <c r="C291">
-        <v>1.380173969917045E+16</v>
-      </c>
-      <c r="D291">
-        <v>-3.022215039934963</v>
-      </c>
-      <c r="E291">
-        <v>1.380173969917045E+16</v>
-      </c>
-      <c r="F291">
-        <v>15940.43528248793</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292">
-        <v>20206986087041.08</v>
-      </c>
-      <c r="B292">
-        <v>0.0138108534303344</v>
-      </c>
-      <c r="C292">
-        <v>1.429155256855255E+16</v>
-      </c>
-      <c r="D292">
-        <v>-21.62103321682662</v>
-      </c>
-      <c r="E292">
-        <v>1.429155256855255E+16</v>
-      </c>
-      <c r="F292">
-        <v>16200.76990500493</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293">
-        <v>20140896515176.31</v>
-      </c>
-      <c r="B293">
-        <v>0.01381136793102628</v>
-      </c>
-      <c r="C293">
-        <v>1.479620496736733E+16</v>
-      </c>
-      <c r="D293">
-        <v>-38.6264965236187</v>
-      </c>
-      <c r="E293">
-        <v>1.479620496736733E+16</v>
-      </c>
-      <c r="F293">
-        <v>16468.97111595365</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294">
-        <v>20073100743506.66</v>
-      </c>
-      <c r="B294">
-        <v>0.01381189587395052</v>
-      </c>
-      <c r="C294">
-        <v>1.531363246305442E+16</v>
-      </c>
-      <c r="D294">
-        <v>-40.36433273553848</v>
-      </c>
-      <c r="E294">
-        <v>1.531363246305442E+16</v>
-      </c>
-      <c r="F294">
-        <v>16744.01848310312</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295">
-        <v>20014337896938.95</v>
-      </c>
-      <c r="B295">
-        <v>0.01381235360635914</v>
-      </c>
-      <c r="C295">
-        <v>1.584164347658262E+16</v>
-      </c>
-      <c r="D295">
-        <v>-25.91190897487104</v>
-      </c>
-      <c r="E295">
-        <v>1.584164347658262E+16</v>
-      </c>
-      <c r="F295">
-        <v>17024.82724535511</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296">
-        <v>19889996548586.47</v>
-      </c>
-      <c r="B296">
-        <v>0.01381332256470117</v>
-      </c>
-      <c r="C296">
-        <v>1.637197083856093E+16</v>
-      </c>
-      <c r="D296">
-        <v>-20.25010074395686</v>
-      </c>
-      <c r="E296">
-        <v>1.637197083856093E+16</v>
-      </c>
-      <c r="F296">
-        <v>17307.07705434566</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297">
-        <v>19810228830315.3</v>
-      </c>
-      <c r="B297">
-        <v>0.01381394446223323</v>
-      </c>
-      <c r="C297">
-        <v>1.692021514138102E+16</v>
-      </c>
-      <c r="D297">
-        <v>-52.71309667825699</v>
-      </c>
-      <c r="E297">
-        <v>1.692021514138102E+16</v>
-      </c>
-      <c r="F297">
-        <v>17599.15117791666</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298">
-        <v>19813280713885.74</v>
-      </c>
-      <c r="B298">
-        <v>0.01381392066448844</v>
-      </c>
-      <c r="C298">
-        <v>1.748329813467776E+16</v>
-      </c>
-      <c r="D298">
-        <v>-98.93107730150223</v>
-      </c>
-      <c r="E298">
-        <v>1.748329813467776E+16</v>
-      </c>
-      <c r="F298">
-        <v>17899.49932101926</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299">
-        <v>19913716320178.69</v>
-      </c>
-      <c r="B299">
-        <v>0.01381313768061145</v>
-      </c>
-      <c r="C299">
-        <v>1.803446541942092E+16</v>
-      </c>
-      <c r="D299">
-        <v>-86.83661511540413</v>
-      </c>
-      <c r="E299">
-        <v>1.803446541942092E+16</v>
-      </c>
-      <c r="F299">
-        <v>18193.90427944202</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300">
-        <v>19869878279775.17</v>
-      </c>
-      <c r="B300">
-        <v>0.01381347939251231</v>
-      </c>
-      <c r="C300">
-        <v>1.856061779288146E+16</v>
-      </c>
-      <c r="D300">
-        <v>-45.78354373946786</v>
-      </c>
-      <c r="E300">
-        <v>1.856061779288146E+16</v>
-      </c>
-      <c r="F300">
-        <v>18475.36058837513</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301">
-        <v>19809662691487.38</v>
-      </c>
-      <c r="B301">
-        <v>0.01381394887686393</v>
-      </c>
-      <c r="C301">
-        <v>1.9028874139016E+16</v>
-      </c>
-      <c r="D301">
-        <v>-41.49925605393946</v>
-      </c>
-      <c r="E301">
-        <v>1.9028874139016E+16</v>
-      </c>
-      <c r="F301">
-        <v>18726.1967032644</v>
+        <v>1770884.631185971</v>
       </c>
     </row>
   </sheetData>
